--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9024" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2483,12 +2483,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2540,21 +2540,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2563,18 +2548,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2587,6 +2588,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2594,15 +2626,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,55 +2649,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2679,6 +2665,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2705,7 +2705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,7 +2717,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,7 +2735,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,19 +2843,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,127 +2885,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2915,16 +2915,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2944,37 +2962,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,16 +3003,24 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3023,139 +3029,133 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3223,7 +3223,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3250,52 +3250,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6290,7 +6290,7 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
@@ -6880,7 +6880,7 @@
         <v>30</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>559</v>
+        <v>253</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>780</v>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6500" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="802">
   <si>
     <t>target</t>
   </si>
@@ -2477,20 +2477,95 @@
     <t>user should be navigated to GNU Dashboard</t>
   </si>
   <si>
+    <t>${title.locator}</t>
+  </si>
+  <si>
     <t>${title.header}</t>
+  </si>
+  <si>
+    <t>ColumnSorting</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Column Sorting
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.5"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Input: TableLocator,TableName, ColumnName</t>
+    </r>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>Replace the Table and Column Name</t>
+  </si>
+  <si>
+    <t>${Table_ColumnName_Loc}</t>
+  </si>
+  <si>
+    <t>\#</t>
+  </si>
+  <si>
+    <t>${TableName}</t>
+  </si>
+  <si>
+    <t>TableNameLoc</t>
+  </si>
+  <si>
+    <t>${TableNameLoc}</t>
+  </si>
+  <si>
+    <t>\%</t>
+  </si>
+  <si>
+    <t>${ColumnName}</t>
+  </si>
+  <si>
+    <t>ColumnNameLoc</t>
+  </si>
+  <si>
+    <t>Click on te column to Sort in Ascending</t>
+  </si>
+  <si>
+    <t>${ColumnNameLoc}</t>
+  </si>
+  <si>
+    <t>Replace the Sorted column to Descending</t>
+  </si>
+  <si>
+    <t>ascending</t>
+  </si>
+  <si>
+    <t>descending</t>
+  </si>
+  <si>
+    <t>Sortcolumn</t>
+  </si>
+  <si>
+    <t>Verify the Column sorted from ascending to descending</t>
+  </si>
+  <si>
+    <t>${Sortcolumn}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2525,34 +2600,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.0499893185216834"/>
       <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2563,18 +2615,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2587,6 +2655,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2594,15 +2693,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,55 +2716,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2679,6 +2732,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2705,7 +2772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,7 +2784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,7 +2802,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,19 +2910,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,127 +2952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2915,16 +2982,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2944,37 +3029,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,16 +3070,24 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3023,143 +3096,137 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3219,11 +3286,7 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3231,7 +3294,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3250,52 +3313,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -3617,7 +3680,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -6285,15 +6348,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O192"/>
+  <dimension ref="A1:O184"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.1666666666667" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="4" customWidth="1"/>
@@ -6337,15 +6400,15 @@
       <c r="I1" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="20" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="22"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="10" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="41.4" spans="1:12">
+    <row r="2" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A2" s="11" t="s">
         <v>734</v>
       </c>
@@ -6368,8 +6431,8 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A3" s="11"/>
@@ -6390,8 +6453,8 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A4" s="11"/>
@@ -6414,8 +6477,8 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="23"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A5" s="11"/>
@@ -6436,10 +6499,10 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="41.4" spans="1:12">
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A6" s="11" t="s">
         <v>744</v>
       </c>
@@ -6462,8 +6525,8 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="23"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
       <c r="C7" s="13" t="s">
@@ -6482,8 +6545,8 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="23"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A8" s="11"/>
@@ -6504,8 +6567,8 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="23"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A9" s="11"/>
@@ -6528,8 +6591,8 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="23"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A10" s="11"/>
@@ -6550,10 +6613,10 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="96.6" spans="1:12">
+      <c r="K10" s="22"/>
+      <c r="L10" s="23"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
       <c r="A11" s="11" t="s">
         <v>750</v>
       </c>
@@ -6576,8 +6639,8 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="23"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A12" s="11"/>
@@ -6598,8 +6661,8 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A13" s="11"/>
@@ -6620,8 +6683,8 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="23"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A14" s="11"/>
@@ -6644,8 +6707,8 @@
       <c r="J14" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="23"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A15" s="11"/>
@@ -6664,10 +6727,10 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="27.6" spans="1:15">
+      <c r="K15" s="22"/>
+      <c r="L15" s="23"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>762</v>
       </c>
@@ -6690,11 +6753,11 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="22"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="11"/>
@@ -6711,11 +6774,11 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="24"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="22"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="11"/>
@@ -6736,11 +6799,11 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="24"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="22"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="11"/>
@@ -6761,11 +6824,11 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="22"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A20" s="11"/>
@@ -6786,11 +6849,11 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="23"/>
+      <c r="O20" s="22"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="11"/>
@@ -6813,11 +6876,11 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="23"/>
+      <c r="O21" s="22"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="11"/>
@@ -6840,11 +6903,11 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="23"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="22"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="11"/>
@@ -6865,11 +6928,11 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="23"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="22"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A24" s="11"/>
@@ -6880,119 +6943,161 @@
         <v>30</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="14" t="s">
+        <v>781</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="23"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="22"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
+      <c r="A25" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>784</v>
+      </c>
       <c r="F25" s="17"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="23"/>
+    </row>
+    <row r="26" customFormat="1" ht="15.5" spans="2:8">
+      <c r="B26" t="s">
+        <v>785</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="E26" t="s">
+        <v>786</v>
+      </c>
+      <c r="F26" t="s">
+        <v>787</v>
+      </c>
+      <c r="G26" t="s">
+        <v>788</v>
+      </c>
+      <c r="H26" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="15.5" spans="2:8">
+      <c r="B27" t="s">
+        <v>785</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>477</v>
+      </c>
+      <c r="E27" t="s">
+        <v>790</v>
+      </c>
+      <c r="F27" t="s">
+        <v>791</v>
+      </c>
+      <c r="G27" t="s">
+        <v>792</v>
+      </c>
+      <c r="H27" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="15.5" spans="2:6">
+      <c r="B28" t="s">
+        <v>794</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="E28" t="s">
+        <v>795</v>
+      </c>
+      <c r="F28">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="15.5" spans="2:8">
+      <c r="B29" t="s">
+        <v>796</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="19" t="s">
+        <v>477</v>
+      </c>
+      <c r="E29" t="s">
+        <v>795</v>
+      </c>
+      <c r="F29" t="s">
+        <v>797</v>
+      </c>
+      <c r="G29" t="s">
+        <v>798</v>
+      </c>
+      <c r="H29" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="15.5" spans="2:5">
+      <c r="B30" t="s">
+        <v>800</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" t="s">
+        <v>253</v>
+      </c>
+      <c r="E30" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="23"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A32" s="11"/>
@@ -7005,8 +7110,8 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="23"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A33" s="11"/>
@@ -7019,8 +7124,8 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="23"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A34" s="11"/>
@@ -7033,8 +7138,8 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="23"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A35" s="11"/>
@@ -7047,8 +7152,8 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="23"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A36" s="11"/>
@@ -7061,8 +7166,8 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="23"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A37" s="11"/>
@@ -7075,8 +7180,8 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="23"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A38" s="11"/>
@@ -7089,8 +7194,8 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="23"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A39" s="11"/>
@@ -7103,8 +7208,8 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="23"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A40" s="11"/>
@@ -7117,8 +7222,8 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="23"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A41" s="11"/>
@@ -7131,8 +7236,8 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="23"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A42" s="11"/>
@@ -7145,8 +7250,8 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
+      <c r="K42" s="22"/>
+      <c r="L42" s="23"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A43" s="11"/>
@@ -7159,8 +7264,8 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="23"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A44" s="11"/>
@@ -7173,8 +7278,8 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
+      <c r="K44" s="22"/>
+      <c r="L44" s="23"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A45" s="11"/>
@@ -7187,8 +7292,8 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="K45" s="22"/>
+      <c r="L45" s="23"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A46" s="11"/>
@@ -7201,8 +7306,8 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
+      <c r="K46" s="22"/>
+      <c r="L46" s="23"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A47" s="11"/>
@@ -7215,8 +7320,8 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
+      <c r="K47" s="22"/>
+      <c r="L47" s="23"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A48" s="11"/>
@@ -7229,8 +7334,8 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
+      <c r="K48" s="22"/>
+      <c r="L48" s="23"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A49" s="11"/>
@@ -7243,8 +7348,8 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="15"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="K49" s="22"/>
+      <c r="L49" s="23"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A50" s="11"/>
@@ -7257,8 +7362,8 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
+      <c r="K50" s="22"/>
+      <c r="L50" s="23"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A51" s="11"/>
@@ -7271,8 +7376,8 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="23"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A52" s="11"/>
@@ -7285,8 +7390,8 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
+      <c r="K52" s="22"/>
+      <c r="L52" s="23"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A53" s="11"/>
@@ -7299,8 +7404,8 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
+      <c r="K53" s="22"/>
+      <c r="L53" s="23"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A54" s="11"/>
@@ -7313,8 +7418,8 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="15"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
+      <c r="K54" s="22"/>
+      <c r="L54" s="23"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A55" s="11"/>
@@ -7327,8 +7432,8 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
+      <c r="K55" s="22"/>
+      <c r="L55" s="23"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A56" s="11"/>
@@ -7341,8 +7446,8 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="K56" s="22"/>
+      <c r="L56" s="23"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A57" s="11"/>
@@ -7355,8 +7460,8 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="15"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="23"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A58" s="11"/>
@@ -7369,8 +7474,8 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="15"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
+      <c r="K58" s="22"/>
+      <c r="L58" s="23"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A59" s="11"/>
@@ -7383,8 +7488,8 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
+      <c r="K59" s="22"/>
+      <c r="L59" s="23"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A60" s="11"/>
@@ -7397,8 +7502,8 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="15"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
+      <c r="K60" s="22"/>
+      <c r="L60" s="23"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A61" s="11"/>
@@ -7411,8 +7516,8 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="15"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
+      <c r="K61" s="22"/>
+      <c r="L61" s="23"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A62" s="11"/>
@@ -7425,8 +7530,8 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="15"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
+      <c r="K62" s="22"/>
+      <c r="L62" s="23"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A63" s="11"/>
@@ -7439,8 +7544,8 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="15"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
+      <c r="K63" s="22"/>
+      <c r="L63" s="23"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A64" s="11"/>
@@ -7453,8 +7558,8 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="15"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
+      <c r="K64" s="22"/>
+      <c r="L64" s="23"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A65" s="11"/>
@@ -7467,8 +7572,8 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="15"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
+      <c r="K65" s="22"/>
+      <c r="L65" s="23"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A66" s="11"/>
@@ -7481,8 +7586,8 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="15"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
+      <c r="K66" s="22"/>
+      <c r="L66" s="23"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A67" s="11"/>
@@ -7495,8 +7600,8 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="15"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
+      <c r="K67" s="22"/>
+      <c r="L67" s="23"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A68" s="11"/>
@@ -7509,8 +7614,8 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="15"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
+      <c r="K68" s="22"/>
+      <c r="L68" s="23"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A69" s="11"/>
@@ -7523,8 +7628,8 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="15"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
+      <c r="K69" s="22"/>
+      <c r="L69" s="23"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A70" s="11"/>
@@ -7537,8 +7642,8 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="15"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
+      <c r="K70" s="22"/>
+      <c r="L70" s="23"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A71" s="11"/>
@@ -7551,8 +7656,8 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="15"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
+      <c r="K71" s="22"/>
+      <c r="L71" s="23"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A72" s="11"/>
@@ -7565,8 +7670,8 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="15"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
+      <c r="K72" s="22"/>
+      <c r="L72" s="23"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A73" s="11"/>
@@ -7579,8 +7684,8 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="15"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
+      <c r="K73" s="22"/>
+      <c r="L73" s="23"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A74" s="11"/>
@@ -7593,8 +7698,8 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="15"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
+      <c r="K74" s="22"/>
+      <c r="L74" s="23"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A75" s="11"/>
@@ -7607,8 +7712,8 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="15"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
+      <c r="K75" s="22"/>
+      <c r="L75" s="23"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A76" s="11"/>
@@ -7621,8 +7726,8 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="15"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
+      <c r="K76" s="22"/>
+      <c r="L76" s="23"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A77" s="11"/>
@@ -7635,8 +7740,8 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="15"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
+      <c r="K77" s="22"/>
+      <c r="L77" s="23"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A78" s="11"/>
@@ -7649,8 +7754,8 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="15"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
+      <c r="K78" s="22"/>
+      <c r="L78" s="23"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A79" s="11"/>
@@ -7663,8 +7768,8 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="15"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
+      <c r="K79" s="22"/>
+      <c r="L79" s="23"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A80" s="11"/>
@@ -7677,8 +7782,8 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="15"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
+      <c r="K80" s="22"/>
+      <c r="L80" s="23"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A81" s="11"/>
@@ -7691,8 +7796,8 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="15"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
+      <c r="K81" s="22"/>
+      <c r="L81" s="23"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A82" s="11"/>
@@ -7705,8 +7810,8 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="15"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="24"/>
+      <c r="K82" s="22"/>
+      <c r="L82" s="23"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A83" s="11"/>
@@ -7719,8 +7824,8 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="15"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
+      <c r="K83" s="22"/>
+      <c r="L83" s="23"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A84" s="11"/>
@@ -7733,10 +7838,10 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="15"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K84" s="22"/>
+      <c r="L84" s="23"/>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A85" s="11"/>
       <c r="B85" s="12"/>
       <c r="C85" s="13"/>
@@ -7747,10 +7852,10 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="15"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K85" s="22"/>
+      <c r="L85" s="23"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A86" s="11"/>
       <c r="B86" s="12"/>
       <c r="C86" s="13"/>
@@ -7761,10 +7866,10 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="15"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K86" s="22"/>
+      <c r="L86" s="23"/>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A87" s="11"/>
       <c r="B87" s="12"/>
       <c r="C87" s="13"/>
@@ -7775,10 +7880,10 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="15"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
-    </row>
-    <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K87" s="22"/>
+      <c r="L87" s="23"/>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A88" s="11"/>
       <c r="B88" s="12"/>
       <c r="C88" s="13"/>
@@ -7789,10 +7894,10 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K88" s="22"/>
+      <c r="L88" s="23"/>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A89" s="11"/>
       <c r="B89" s="12"/>
       <c r="C89" s="13"/>
@@ -7803,10 +7908,10 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="15"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K89" s="22"/>
+      <c r="L89" s="23"/>
+    </row>
+    <row r="90" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A90" s="11"/>
       <c r="B90" s="12"/>
       <c r="C90" s="13"/>
@@ -7817,10 +7922,10 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K90" s="22"/>
+      <c r="L90" s="23"/>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A91" s="11"/>
       <c r="B91" s="12"/>
       <c r="C91" s="13"/>
@@ -7831,10 +7936,10 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="15"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K91" s="22"/>
+      <c r="L91" s="23"/>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A92" s="11"/>
       <c r="B92" s="12"/>
       <c r="C92" s="13"/>
@@ -7845,8 +7950,8 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="15"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
+      <c r="K92" s="22"/>
+      <c r="L92" s="23"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A93" s="11"/>
@@ -7859,8 +7964,8 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="15"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="24"/>
+      <c r="K93" s="22"/>
+      <c r="L93" s="23"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A94" s="11"/>
@@ -7873,8 +7978,8 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="15"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
+      <c r="K94" s="22"/>
+      <c r="L94" s="23"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A95" s="11"/>
@@ -7887,8 +7992,8 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="15"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
+      <c r="K95" s="22"/>
+      <c r="L95" s="23"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A96" s="11"/>
@@ -7901,8 +8006,8 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="15"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24"/>
+      <c r="K96" s="22"/>
+      <c r="L96" s="23"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A97" s="11"/>
@@ -7915,8 +8020,8 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="15"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="24"/>
+      <c r="K97" s="22"/>
+      <c r="L97" s="23"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A98" s="11"/>
@@ -7929,8 +8034,8 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="15"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="24"/>
+      <c r="K98" s="22"/>
+      <c r="L98" s="23"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A99" s="11"/>
@@ -7943,8 +8048,8 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="15"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="24"/>
+      <c r="K99" s="22"/>
+      <c r="L99" s="23"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A100" s="11"/>
@@ -7957,8 +8062,8 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="15"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="24"/>
+      <c r="K100" s="22"/>
+      <c r="L100" s="23"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A101" s="11"/>
@@ -7971,8 +8076,8 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="15"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="24"/>
+      <c r="K101" s="22"/>
+      <c r="L101" s="23"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A102" s="11"/>
@@ -7985,8 +8090,8 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="15"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24"/>
+      <c r="K102" s="22"/>
+      <c r="L102" s="23"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A103" s="11"/>
@@ -7999,8 +8104,8 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="15"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="24"/>
+      <c r="K103" s="22"/>
+      <c r="L103" s="23"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A104" s="11"/>
@@ -8013,8 +8118,8 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="15"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="24"/>
+      <c r="K104" s="22"/>
+      <c r="L104" s="23"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A105" s="11"/>
@@ -8027,8 +8132,8 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="15"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="24"/>
+      <c r="K105" s="22"/>
+      <c r="L105" s="23"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A106" s="11"/>
@@ -8041,8 +8146,8 @@
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="15"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="24"/>
+      <c r="K106" s="22"/>
+      <c r="L106" s="23"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A107" s="11"/>
@@ -8055,8 +8160,8 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="15"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="24"/>
+      <c r="K107" s="22"/>
+      <c r="L107" s="23"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A108" s="11"/>
@@ -8069,8 +8174,8 @@
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="15"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="24"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="23"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A109" s="11"/>
@@ -8083,8 +8188,8 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="15"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="24"/>
+      <c r="K109" s="22"/>
+      <c r="L109" s="23"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A110" s="11"/>
@@ -8097,8 +8202,8 @@
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="15"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="24"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="23"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A111" s="11"/>
@@ -8111,8 +8216,8 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="15"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="24"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="23"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A112" s="11"/>
@@ -8125,8 +8230,8 @@
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="15"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="24"/>
+      <c r="K112" s="22"/>
+      <c r="L112" s="23"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A113" s="11"/>
@@ -8139,8 +8244,8 @@
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="15"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="24"/>
+      <c r="K113" s="22"/>
+      <c r="L113" s="23"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A114" s="11"/>
@@ -8153,8 +8258,8 @@
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="15"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="24"/>
+      <c r="K114" s="22"/>
+      <c r="L114" s="23"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A115" s="11"/>
@@ -8167,8 +8272,8 @@
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="15"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="24"/>
+      <c r="K115" s="22"/>
+      <c r="L115" s="23"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A116" s="11"/>
@@ -8181,8 +8286,8 @@
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="15"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="24"/>
+      <c r="K116" s="22"/>
+      <c r="L116" s="23"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A117" s="11"/>
@@ -8195,8 +8300,8 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="15"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="24"/>
+      <c r="K117" s="22"/>
+      <c r="L117" s="23"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A118" s="11"/>
@@ -8209,8 +8314,8 @@
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="15"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="24"/>
+      <c r="K118" s="22"/>
+      <c r="L118" s="23"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A119" s="11"/>
@@ -8223,8 +8328,8 @@
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="15"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="24"/>
+      <c r="K119" s="22"/>
+      <c r="L119" s="23"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A120" s="11"/>
@@ -8237,8 +8342,8 @@
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="15"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="24"/>
+      <c r="K120" s="22"/>
+      <c r="L120" s="23"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A121" s="11"/>
@@ -8251,8 +8356,8 @@
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="15"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="24"/>
+      <c r="K121" s="22"/>
+      <c r="L121" s="23"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A122" s="11"/>
@@ -8265,8 +8370,8 @@
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
       <c r="J122" s="15"/>
-      <c r="K122" s="23"/>
-      <c r="L122" s="24"/>
+      <c r="K122" s="22"/>
+      <c r="L122" s="23"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A123" s="11"/>
@@ -8279,8 +8384,8 @@
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="15"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="24"/>
+      <c r="K123" s="22"/>
+      <c r="L123" s="23"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A124" s="11"/>
@@ -8293,8 +8398,8 @@
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="15"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="24"/>
+      <c r="K124" s="22"/>
+      <c r="L124" s="23"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A125" s="11"/>
@@ -8307,8 +8412,8 @@
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="15"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="24"/>
+      <c r="K125" s="22"/>
+      <c r="L125" s="23"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A126" s="11"/>
@@ -8321,8 +8426,8 @@
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
       <c r="J126" s="15"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="24"/>
+      <c r="K126" s="22"/>
+      <c r="L126" s="23"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A127" s="11"/>
@@ -8335,8 +8440,8 @@
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="15"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="24"/>
+      <c r="K127" s="22"/>
+      <c r="L127" s="23"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A128" s="11"/>
@@ -8349,8 +8454,8 @@
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
       <c r="J128" s="15"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="24"/>
+      <c r="K128" s="22"/>
+      <c r="L128" s="23"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A129" s="11"/>
@@ -8363,8 +8468,8 @@
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="15"/>
-      <c r="K129" s="23"/>
-      <c r="L129" s="24"/>
+      <c r="K129" s="22"/>
+      <c r="L129" s="23"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A130" s="11"/>
@@ -8377,8 +8482,8 @@
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="J130" s="15"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="24"/>
+      <c r="K130" s="22"/>
+      <c r="L130" s="23"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A131" s="11"/>
@@ -8391,8 +8496,8 @@
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="15"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="24"/>
+      <c r="K131" s="22"/>
+      <c r="L131" s="23"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A132" s="11"/>
@@ -8405,8 +8510,8 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="15"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="24"/>
+      <c r="K132" s="22"/>
+      <c r="L132" s="23"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A133" s="11"/>
@@ -8419,8 +8524,8 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="15"/>
-      <c r="K133" s="23"/>
-      <c r="L133" s="24"/>
+      <c r="K133" s="22"/>
+      <c r="L133" s="23"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A134" s="11"/>
@@ -8433,8 +8538,8 @@
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
       <c r="J134" s="15"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="24"/>
+      <c r="K134" s="22"/>
+      <c r="L134" s="23"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A135" s="11"/>
@@ -8447,8 +8552,8 @@
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="15"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="24"/>
+      <c r="K135" s="22"/>
+      <c r="L135" s="23"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A136" s="11"/>
@@ -8461,8 +8566,8 @@
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="15"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="24"/>
+      <c r="K136" s="22"/>
+      <c r="L136" s="23"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A137" s="11"/>
@@ -8475,8 +8580,8 @@
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="15"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="24"/>
+      <c r="K137" s="22"/>
+      <c r="L137" s="23"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A138" s="11"/>
@@ -8489,8 +8594,8 @@
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
       <c r="J138" s="15"/>
-      <c r="K138" s="23"/>
-      <c r="L138" s="24"/>
+      <c r="K138" s="22"/>
+      <c r="L138" s="23"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A139" s="11"/>
@@ -8503,8 +8608,8 @@
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="15"/>
-      <c r="K139" s="23"/>
-      <c r="L139" s="24"/>
+      <c r="K139" s="22"/>
+      <c r="L139" s="23"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A140" s="11"/>
@@ -8517,8 +8622,8 @@
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="15"/>
-      <c r="K140" s="23"/>
-      <c r="L140" s="24"/>
+      <c r="K140" s="22"/>
+      <c r="L140" s="23"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A141" s="11"/>
@@ -8531,8 +8636,8 @@
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="15"/>
-      <c r="K141" s="23"/>
-      <c r="L141" s="24"/>
+      <c r="K141" s="22"/>
+      <c r="L141" s="23"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A142" s="11"/>
@@ -8545,8 +8650,8 @@
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
       <c r="J142" s="15"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="24"/>
+      <c r="K142" s="22"/>
+      <c r="L142" s="23"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A143" s="11"/>
@@ -8559,8 +8664,8 @@
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="15"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="24"/>
+      <c r="K143" s="22"/>
+      <c r="L143" s="23"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A144" s="11"/>
@@ -8573,8 +8678,8 @@
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="15"/>
-      <c r="K144" s="23"/>
-      <c r="L144" s="24"/>
+      <c r="K144" s="22"/>
+      <c r="L144" s="23"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A145" s="11"/>
@@ -8587,8 +8692,8 @@
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="15"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="24"/>
+      <c r="K145" s="22"/>
+      <c r="L145" s="23"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A146" s="11"/>
@@ -8601,8 +8706,8 @@
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
       <c r="J146" s="15"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="24"/>
+      <c r="K146" s="22"/>
+      <c r="L146" s="23"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A147" s="11"/>
@@ -8615,8 +8720,8 @@
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
       <c r="J147" s="15"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="24"/>
+      <c r="K147" s="22"/>
+      <c r="L147" s="23"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A148" s="11"/>
@@ -8629,8 +8734,8 @@
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
       <c r="J148" s="15"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="24"/>
+      <c r="K148" s="22"/>
+      <c r="L148" s="23"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A149" s="11"/>
@@ -8643,8 +8748,8 @@
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
       <c r="J149" s="15"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="24"/>
+      <c r="K149" s="22"/>
+      <c r="L149" s="23"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A150" s="11"/>
@@ -8657,8 +8762,8 @@
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
       <c r="J150" s="15"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="24"/>
+      <c r="K150" s="22"/>
+      <c r="L150" s="23"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A151" s="11"/>
@@ -8671,8 +8776,8 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
       <c r="J151" s="15"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="24"/>
+      <c r="K151" s="22"/>
+      <c r="L151" s="23"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A152" s="11"/>
@@ -8685,8 +8790,8 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
       <c r="J152" s="15"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="24"/>
+      <c r="K152" s="22"/>
+      <c r="L152" s="23"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A153" s="11"/>
@@ -8699,8 +8804,8 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
       <c r="J153" s="15"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="24"/>
+      <c r="K153" s="22"/>
+      <c r="L153" s="23"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A154" s="11"/>
@@ -8713,8 +8818,8 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
       <c r="J154" s="15"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="24"/>
+      <c r="K154" s="22"/>
+      <c r="L154" s="23"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A155" s="11"/>
@@ -8727,8 +8832,8 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
       <c r="J155" s="15"/>
-      <c r="K155" s="23"/>
-      <c r="L155" s="24"/>
+      <c r="K155" s="22"/>
+      <c r="L155" s="23"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A156" s="11"/>
@@ -8741,8 +8846,8 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
       <c r="J156" s="15"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="24"/>
+      <c r="K156" s="22"/>
+      <c r="L156" s="23"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A157" s="11"/>
@@ -8755,8 +8860,8 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
       <c r="J157" s="15"/>
-      <c r="K157" s="23"/>
-      <c r="L157" s="24"/>
+      <c r="K157" s="22"/>
+      <c r="L157" s="23"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A158" s="11"/>
@@ -8769,8 +8874,8 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
       <c r="J158" s="15"/>
-      <c r="K158" s="23"/>
-      <c r="L158" s="24"/>
+      <c r="K158" s="22"/>
+      <c r="L158" s="23"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A159" s="11"/>
@@ -8783,8 +8888,8 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
       <c r="J159" s="15"/>
-      <c r="K159" s="23"/>
-      <c r="L159" s="24"/>
+      <c r="K159" s="22"/>
+      <c r="L159" s="23"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A160" s="11"/>
@@ -8797,8 +8902,8 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
       <c r="J160" s="15"/>
-      <c r="K160" s="23"/>
-      <c r="L160" s="24"/>
+      <c r="K160" s="22"/>
+      <c r="L160" s="23"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A161" s="11"/>
@@ -8811,8 +8916,8 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
       <c r="J161" s="15"/>
-      <c r="K161" s="23"/>
-      <c r="L161" s="24"/>
+      <c r="K161" s="22"/>
+      <c r="L161" s="23"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A162" s="11"/>
@@ -8825,8 +8930,8 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
       <c r="J162" s="15"/>
-      <c r="K162" s="23"/>
-      <c r="L162" s="24"/>
+      <c r="K162" s="22"/>
+      <c r="L162" s="23"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A163" s="11"/>
@@ -8839,8 +8944,8 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
       <c r="J163" s="15"/>
-      <c r="K163" s="23"/>
-      <c r="L163" s="24"/>
+      <c r="K163" s="22"/>
+      <c r="L163" s="23"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A164" s="11"/>
@@ -8853,8 +8958,8 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
       <c r="J164" s="15"/>
-      <c r="K164" s="23"/>
-      <c r="L164" s="24"/>
+      <c r="K164" s="22"/>
+      <c r="L164" s="23"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A165" s="11"/>
@@ -8867,8 +8972,8 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
       <c r="J165" s="15"/>
-      <c r="K165" s="23"/>
-      <c r="L165" s="24"/>
+      <c r="K165" s="22"/>
+      <c r="L165" s="23"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A166" s="11"/>
@@ -8881,8 +8986,8 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
       <c r="J166" s="15"/>
-      <c r="K166" s="23"/>
-      <c r="L166" s="24"/>
+      <c r="K166" s="22"/>
+      <c r="L166" s="23"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A167" s="11"/>
@@ -8895,8 +9000,8 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
       <c r="J167" s="15"/>
-      <c r="K167" s="23"/>
-      <c r="L167" s="24"/>
+      <c r="K167" s="22"/>
+      <c r="L167" s="23"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A168" s="11"/>
@@ -8909,8 +9014,8 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
       <c r="J168" s="15"/>
-      <c r="K168" s="23"/>
-      <c r="L168" s="24"/>
+      <c r="K168" s="22"/>
+      <c r="L168" s="23"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A169" s="11"/>
@@ -8923,8 +9028,8 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
       <c r="J169" s="15"/>
-      <c r="K169" s="23"/>
-      <c r="L169" s="24"/>
+      <c r="K169" s="22"/>
+      <c r="L169" s="23"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A170" s="11"/>
@@ -8937,8 +9042,8 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
       <c r="J170" s="15"/>
-      <c r="K170" s="23"/>
-      <c r="L170" s="24"/>
+      <c r="K170" s="22"/>
+      <c r="L170" s="23"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A171" s="11"/>
@@ -8951,8 +9056,8 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
       <c r="J171" s="15"/>
-      <c r="K171" s="23"/>
-      <c r="L171" s="24"/>
+      <c r="K171" s="22"/>
+      <c r="L171" s="23"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A172" s="11"/>
@@ -8965,8 +9070,8 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
       <c r="J172" s="15"/>
-      <c r="K172" s="23"/>
-      <c r="L172" s="24"/>
+      <c r="K172" s="22"/>
+      <c r="L172" s="23"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A173" s="11"/>
@@ -8979,8 +9084,8 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
       <c r="J173" s="15"/>
-      <c r="K173" s="23"/>
-      <c r="L173" s="24"/>
+      <c r="K173" s="22"/>
+      <c r="L173" s="23"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A174" s="11"/>
@@ -8993,8 +9098,8 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
       <c r="J174" s="15"/>
-      <c r="K174" s="23"/>
-      <c r="L174" s="24"/>
+      <c r="K174" s="22"/>
+      <c r="L174" s="23"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A175" s="11"/>
@@ -9007,8 +9112,8 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
       <c r="J175" s="15"/>
-      <c r="K175" s="23"/>
-      <c r="L175" s="24"/>
+      <c r="K175" s="22"/>
+      <c r="L175" s="23"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A176" s="11"/>
@@ -9021,8 +9126,8 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
       <c r="J176" s="15"/>
-      <c r="K176" s="23"/>
-      <c r="L176" s="24"/>
+      <c r="K176" s="22"/>
+      <c r="L176" s="23"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A177" s="11"/>
@@ -9035,8 +9140,8 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
       <c r="J177" s="15"/>
-      <c r="K177" s="23"/>
-      <c r="L177" s="24"/>
+      <c r="K177" s="22"/>
+      <c r="L177" s="23"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A178" s="11"/>
@@ -9049,8 +9154,8 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
       <c r="J178" s="15"/>
-      <c r="K178" s="23"/>
-      <c r="L178" s="24"/>
+      <c r="K178" s="22"/>
+      <c r="L178" s="23"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A179" s="11"/>
@@ -9063,8 +9168,8 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
       <c r="J179" s="15"/>
-      <c r="K179" s="23"/>
-      <c r="L179" s="24"/>
+      <c r="K179" s="22"/>
+      <c r="L179" s="23"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A180" s="11"/>
@@ -9077,8 +9182,8 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
       <c r="J180" s="15"/>
-      <c r="K180" s="23"/>
-      <c r="L180" s="24"/>
+      <c r="K180" s="22"/>
+      <c r="L180" s="23"/>
     </row>
     <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A181" s="11"/>
@@ -9091,8 +9196,8 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
       <c r="J181" s="15"/>
-      <c r="K181" s="23"/>
-      <c r="L181" s="24"/>
+      <c r="K181" s="22"/>
+      <c r="L181" s="23"/>
     </row>
     <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A182" s="11"/>
@@ -9105,8 +9210,8 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
       <c r="J182" s="15"/>
-      <c r="K182" s="23"/>
-      <c r="L182" s="24"/>
+      <c r="K182" s="22"/>
+      <c r="L182" s="23"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A183" s="11"/>
@@ -9119,8 +9224,8 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
       <c r="J183" s="15"/>
-      <c r="K183" s="23"/>
-      <c r="L183" s="24"/>
+      <c r="K183" s="22"/>
+      <c r="L183" s="23"/>
     </row>
     <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A184" s="11"/>
@@ -9133,183 +9238,71 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
       <c r="J184" s="15"/>
-      <c r="K184" s="23"/>
-      <c r="L184" s="24"/>
-    </row>
-    <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A185" s="11"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="14"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="23"/>
-      <c r="L185" s="24"/>
-    </row>
-    <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A186" s="11"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
-      <c r="H186" s="14"/>
-      <c r="I186" s="14"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="23"/>
-      <c r="L186" s="24"/>
-    </row>
-    <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A187" s="11"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="14"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="23"/>
-      <c r="L187" s="24"/>
-    </row>
-    <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A188" s="11"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="14"/>
-      <c r="I188" s="14"/>
-      <c r="J188" s="15"/>
-      <c r="K188" s="23"/>
-      <c r="L188" s="24"/>
-    </row>
-    <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A189" s="11"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="15"/>
-      <c r="K189" s="23"/>
-      <c r="L189" s="24"/>
-    </row>
-    <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A190" s="11"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="14"/>
-      <c r="I190" s="14"/>
-      <c r="J190" s="15"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="24"/>
-    </row>
-    <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A191" s="11"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="14"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="15"/>
-      <c r="K191" s="23"/>
-      <c r="L191" s="24"/>
-    </row>
-    <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A192" s="11"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="14"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="15"/>
-      <c r="K192" s="23"/>
-      <c r="L192" s="24"/>
+      <c r="K184" s="22"/>
+      <c r="L184" s="23"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <conditionalFormatting sqref="N20">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N16:N19">
-    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="28" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="29" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="30" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N22">
-    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D25 D2:D3 D7:D8 D16:D17 D26:D192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D2:D3 D7:D8 D16:D17 D31:D184">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C25 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C26:C192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C31:C184">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="802">
   <si>
     <t>target</t>
   </si>
@@ -2477,20 +2477,85 @@
     <t>user should be navigated to GNU Dashboard</t>
   </si>
   <si>
+    <t>${title.locator}</t>
+  </si>
+  <si>
     <t>${title.header}</t>
+  </si>
+  <si>
+    <t>ColumnSorting</t>
+  </si>
+  <si>
+    <t>Initialize ColumnCount
+Input-columnCount, RowLoc
+output - RowValue</t>
+  </si>
+  <si>
+    <t>C_count</t>
+  </si>
+  <si>
+    <t>Rcount</t>
+  </si>
+  <si>
+    <t>${rowcount}</t>
+  </si>
+  <si>
+    <t>${Rcount}</t>
+  </si>
+  <si>
+    <t>${C_count}</t>
+  </si>
+  <si>
+    <t>${columnCount}</t>
+  </si>
+  <si>
+    <t>${RowLoc}</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ColLoc</t>
+  </si>
+  <si>
+    <t>Val</t>
+  </si>
+  <si>
+    <t>${ColLoc}</t>
+  </si>
+  <si>
+    <t>${Val}</t>
+  </si>
+  <si>
+    <t>RowValue</t>
+  </si>
+  <si>
+    <t>${Val},</t>
+  </si>
+  <si>
+    <t>[NUMBER(${C_count}) =&gt; add(${columnCount})]</t>
+  </si>
+  <si>
+    <t>ProceedIf(${Rcount}!=1)</t>
+  </si>
+  <si>
+    <t>[NUMBER(${C_count}) =&gt; minus(1)]</t>
+  </si>
+  <si>
+    <t>${RowValue}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2525,34 +2590,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.0499893185216834"/>
       <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2563,18 +2605,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2587,6 +2645,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2594,15 +2683,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,55 +2706,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2679,6 +2722,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2705,7 +2762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,7 +2774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,7 +2792,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,19 +2900,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,127 +2942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2915,16 +2972,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2944,37 +3019,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,16 +3060,24 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3023,148 +3086,144 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -3215,15 +3274,30 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3231,7 +3305,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3247,55 +3321,71 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -3617,7 +3707,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -6285,3031 +6375,2964 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O192"/>
+  <dimension ref="A1:O180"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.1666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="36" style="6" customWidth="1"/>
-    <col min="5" max="5" width="61.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="57.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="9.25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="28.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.1666666666667" style="5" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10" style="7" customWidth="1"/>
+    <col min="4" max="4" width="36" style="8" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="8" customWidth="1"/>
+    <col min="6" max="6" width="57.125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="8" customWidth="1"/>
+    <col min="8" max="9" width="9.25" style="8" customWidth="1"/>
+    <col min="10" max="10" width="28.625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="10" customWidth="1"/>
+    <col min="12" max="12" width="12" style="11" customWidth="1"/>
     <col min="13" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="12" t="s">
         <v>724</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="12" t="s">
         <v>725</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="12" t="s">
         <v>726</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="12" t="s">
         <v>727</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="12" t="s">
         <v>728</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="12" t="s">
         <v>729</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="12" t="s">
         <v>730</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="12" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="27" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="12" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="41.4" spans="1:12">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="2" customFormat="1" ht="42" spans="1:12">
+      <c r="A2" s="13" t="s">
         <v>734</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>735</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="16" t="s">
         <v>737</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="13"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>739</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>743</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="41.4" spans="1:12">
-      <c r="A6" s="11" t="s">
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
+      <c r="A6" s="13" t="s">
         <v>744</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>745</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="16" t="s">
         <v>746</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="16" t="s">
         <v>747</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="16" t="s">
         <v>736</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="16" t="s">
         <v>748</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="13"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="16" t="s">
         <v>738</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="17" t="s">
         <v>749</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="16" t="s">
         <v>356</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="16" t="s">
         <v>741</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="16" t="s">
         <v>742</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="16" t="s">
         <v>743</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="96.6" spans="1:12">
-      <c r="A11" s="11" t="s">
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
+      <c r="A11" s="13" t="s">
         <v>750</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="14" t="s">
         <v>751</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="16" t="s">
         <v>752</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="16" t="s">
         <v>753</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="16" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="16" t="s">
         <v>754</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="16" t="s">
         <v>755</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="16" t="s">
         <v>756</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="16" t="s">
         <v>758</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="17" t="s">
         <v>759</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15" t="s">
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="16" t="s">
         <v>761</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="27.6" spans="1:15">
-      <c r="A16" s="11" t="s">
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
+      <c r="A16" s="13" t="s">
         <v>762</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="14" t="s">
         <v>763</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="16" t="s">
         <v>628</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="16" t="s">
         <v>764</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="16" t="s">
         <v>765</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="29"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="16" t="s">
         <v>553</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="16" t="s">
         <v>767</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="19">
         <v>5000</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="29"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14" t="s">
         <v>768</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="16" t="s">
         <v>767</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
         <v>769</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="16" t="s">
         <v>713</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="16" t="s">
         <v>770</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="29"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
         <v>771</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="16" t="s">
         <v>705</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="16" t="s">
         <v>772</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="16" t="s">
         <v>773</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="29"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14" t="s">
         <v>774</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="16" t="s">
         <v>705</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="16" t="s">
         <v>776</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="23"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="29"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
         <v>777</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="16" t="s">
         <v>778</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="23"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="29"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="28" spans="1:15">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="E24" s="14" t="s">
+      <c r="D24" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="E24" s="16" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="23"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
-    </row>
-    <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
-    </row>
-    <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
-    </row>
-    <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
-    </row>
-    <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
+      <c r="F24" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="29"/>
+    </row>
+    <row r="25" customFormat="1" ht="46.5" spans="1:6">
+      <c r="A25" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>783</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="E25" t="s">
+        <v>784</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" ht="15.5" spans="1:6">
+      <c r="A26" s="23"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="E26" t="s">
+        <v>785</v>
+      </c>
+      <c r="F26" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="15.5" spans="1:5">
+      <c r="A27" s="23"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="E27" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="15.5" spans="3:6">
+      <c r="C28" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="E28">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="15.5" spans="3:6">
+      <c r="C29" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="E29" t="s">
+        <v>788</v>
+      </c>
+      <c r="F29" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" ht="15.5" spans="3:8">
+      <c r="C30" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>477</v>
+      </c>
+      <c r="E30" t="s">
+        <v>790</v>
+      </c>
+      <c r="F30" t="s">
+        <v>791</v>
+      </c>
+      <c r="G30" t="s">
+        <v>788</v>
+      </c>
+      <c r="H30" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" ht="15.5" spans="3:6">
+      <c r="C31" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>493</v>
+      </c>
+      <c r="E31" t="s">
+        <v>793</v>
+      </c>
+      <c r="F31" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="32" customFormat="1" ht="15.5" spans="3:5">
+      <c r="C32" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="E32" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="15.5" spans="3:6">
+      <c r="C33" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>796</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="34" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A34" s="24"/>
+      <c r="B34" s="25"/>
+      <c r="C34" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>784</v>
+      </c>
+      <c r="F34" t="s">
+        <v>798</v>
+      </c>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="K34" s="33"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="35"/>
+      <c r="N34" s="34"/>
+      <c r="O34" s="33"/>
+    </row>
+    <row r="35" s="4" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A35" s="24"/>
+      <c r="B35" s="25"/>
+      <c r="C35" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>784</v>
+      </c>
+      <c r="F35" t="s">
+        <v>800</v>
+      </c>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="32" t="s">
+        <v>799</v>
+      </c>
+      <c r="K35" s="33"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="34"/>
+      <c r="O35" s="33"/>
+    </row>
+    <row r="36" customFormat="1" ht="15.5" spans="3:6">
+      <c r="C36" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E36" t="s">
+        <v>784</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="15.5" spans="3:5">
+      <c r="C37" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="22" t="s">
+        <v>526</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>801</v>
+      </c>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
+      <c r="A40" s="13"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="30"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
+      <c r="A41" s="13"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="30"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
+      <c r="A42" s="13"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="30"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="A43" s="13"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
+      <c r="A44" s="13"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="30"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="A45" s="13"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="30"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
+      <c r="A46" s="13"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="16"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="30"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
+      <c r="A47" s="13"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="16"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="30"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
+      <c r="A48" s="13"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="30"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="A49" s="13"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="30"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
+      <c r="A50" s="13"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="30"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
+      <c r="A51" s="13"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="15"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="17"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="30"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
+      <c r="A52" s="13"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="15"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16"/>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="30"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
+      <c r="A53" s="13"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="15"/>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="17"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="30"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="15"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="17"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="30"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
+      <c r="A55" s="13"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="15"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="30"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="A56" s="13"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="15"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="17"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="30"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
+      <c r="A57" s="13"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="15"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="17"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="30"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="15"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="17"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="30"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
+      <c r="A59" s="13"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="15"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="17"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="30"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
+      <c r="A60" s="13"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="15"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="17"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="30"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="17"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="30"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
+      <c r="A62" s="13"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="15"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="16"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="17"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="30"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
+      <c r="A63" s="13"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="17"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="30"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
+      <c r="A64" s="13"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="15"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="17"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="30"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="15"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="17"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="30"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
+      <c r="A66" s="13"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="16"/>
+      <c r="H66" s="16"/>
+      <c r="I66" s="16"/>
+      <c r="J66" s="17"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="30"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
+      <c r="A67" s="13"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="15"/>
+      <c r="D67" s="16"/>
+      <c r="E67" s="16"/>
+      <c r="F67" s="16"/>
+      <c r="G67" s="16"/>
+      <c r="H67" s="16"/>
+      <c r="I67" s="16"/>
+      <c r="J67" s="17"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="30"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
+      <c r="A68" s="13"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="15"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16"/>
+      <c r="G68" s="16"/>
+      <c r="H68" s="16"/>
+      <c r="I68" s="16"/>
+      <c r="J68" s="17"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="30"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
+      <c r="A69" s="13"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="15"/>
+      <c r="D69" s="16"/>
+      <c r="E69" s="16"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="16"/>
+      <c r="H69" s="16"/>
+      <c r="I69" s="16"/>
+      <c r="J69" s="17"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="30"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="15"/>
+      <c r="D70" s="16"/>
+      <c r="E70" s="16"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="16"/>
+      <c r="H70" s="16"/>
+      <c r="I70" s="16"/>
+      <c r="J70" s="17"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="30"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
+      <c r="A71" s="13"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="15"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="17"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="30"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
+      <c r="A72" s="13"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="16"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="16"/>
+      <c r="H72" s="16"/>
+      <c r="I72" s="16"/>
+      <c r="J72" s="17"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="30"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="15"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="16"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="16"/>
+      <c r="H73" s="16"/>
+      <c r="I73" s="16"/>
+      <c r="J73" s="17"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="30"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
+      <c r="A74" s="13"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="16"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16"/>
+      <c r="I74" s="16"/>
+      <c r="J74" s="17"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="30"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
+      <c r="A75" s="13"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="15"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="16"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="16"/>
+      <c r="H75" s="16"/>
+      <c r="I75" s="16"/>
+      <c r="J75" s="17"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="30"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
+      <c r="A76" s="13"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="15"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="16"/>
+      <c r="H76" s="16"/>
+      <c r="I76" s="16"/>
+      <c r="J76" s="17"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="30"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
+      <c r="A77" s="13"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="15"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="16"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="16"/>
+      <c r="H77" s="16"/>
+      <c r="I77" s="16"/>
+      <c r="J77" s="17"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="30"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
+      <c r="A78" s="13"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="15"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="16"/>
+      <c r="F78" s="16"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16"/>
+      <c r="I78" s="16"/>
+      <c r="J78" s="17"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="30"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
+      <c r="A79" s="13"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="15"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="16"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="16"/>
+      <c r="H79" s="16"/>
+      <c r="I79" s="16"/>
+      <c r="J79" s="17"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="30"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
-    </row>
-    <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
-    </row>
-    <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="24"/>
-    </row>
-    <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
-    </row>
-    <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
-    </row>
-    <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
-    </row>
-    <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A86" s="11"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
-    </row>
-    <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
-    </row>
-    <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
-    </row>
-    <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
-    </row>
-    <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
-    </row>
-    <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
-    </row>
-    <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
+      <c r="A80" s="13"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="15"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="16"/>
+      <c r="H80" s="16"/>
+      <c r="I80" s="16"/>
+      <c r="J80" s="17"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="30"/>
+    </row>
+    <row r="81" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A81" s="13"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="15"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="16"/>
+      <c r="F81" s="16"/>
+      <c r="G81" s="16"/>
+      <c r="H81" s="16"/>
+      <c r="I81" s="16"/>
+      <c r="J81" s="17"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="30"/>
+    </row>
+    <row r="82" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A82" s="13"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="16"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="16"/>
+      <c r="H82" s="16"/>
+      <c r="I82" s="16"/>
+      <c r="J82" s="17"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="30"/>
+    </row>
+    <row r="83" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A83" s="13"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="15"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="16"/>
+      <c r="F83" s="16"/>
+      <c r="G83" s="16"/>
+      <c r="H83" s="16"/>
+      <c r="I83" s="16"/>
+      <c r="J83" s="17"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="30"/>
+    </row>
+    <row r="84" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A84" s="13"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="15"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="16"/>
+      <c r="H84" s="16"/>
+      <c r="I84" s="16"/>
+      <c r="J84" s="17"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="30"/>
+    </row>
+    <row r="85" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A85" s="13"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="15"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="16"/>
+      <c r="H85" s="16"/>
+      <c r="I85" s="16"/>
+      <c r="J85" s="17"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="30"/>
+    </row>
+    <row r="86" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A86" s="13"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="15"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
+      <c r="G86" s="16"/>
+      <c r="H86" s="16"/>
+      <c r="I86" s="16"/>
+      <c r="J86" s="17"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="30"/>
+    </row>
+    <row r="87" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A87" s="13"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="15"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="16"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="16"/>
+      <c r="H87" s="16"/>
+      <c r="I87" s="16"/>
+      <c r="J87" s="17"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="30"/>
+    </row>
+    <row r="88" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A88" s="13"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="15"/>
+      <c r="D88" s="16"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="16"/>
+      <c r="G88" s="16"/>
+      <c r="H88" s="16"/>
+      <c r="I88" s="16"/>
+      <c r="J88" s="17"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="30"/>
+    </row>
+    <row r="89" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A89" s="13"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="16"/>
+      <c r="H89" s="16"/>
+      <c r="I89" s="16"/>
+      <c r="J89" s="17"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="30"/>
+    </row>
+    <row r="90" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A90" s="13"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="15"/>
+      <c r="D90" s="16"/>
+      <c r="E90" s="16"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="16"/>
+      <c r="H90" s="16"/>
+      <c r="I90" s="16"/>
+      <c r="J90" s="17"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="30"/>
+    </row>
+    <row r="91" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A91" s="13"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="16"/>
+      <c r="E91" s="16"/>
+      <c r="F91" s="16"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16"/>
+      <c r="I91" s="16"/>
+      <c r="J91" s="17"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="30"/>
+    </row>
+    <row r="92" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A92" s="13"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="15"/>
+      <c r="D92" s="16"/>
+      <c r="E92" s="16"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="16"/>
+      <c r="H92" s="16"/>
+      <c r="I92" s="16"/>
+      <c r="J92" s="17"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="30"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="24"/>
+      <c r="A93" s="13"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16"/>
+      <c r="E93" s="16"/>
+      <c r="F93" s="16"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16"/>
+      <c r="I93" s="16"/>
+      <c r="J93" s="17"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="30"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
+      <c r="A94" s="13"/>
+      <c r="B94" s="14"/>
+      <c r="C94" s="15"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16"/>
+      <c r="I94" s="16"/>
+      <c r="J94" s="17"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="30"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
+      <c r="A95" s="13"/>
+      <c r="B95" s="14"/>
+      <c r="C95" s="15"/>
+      <c r="D95" s="16"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16"/>
+      <c r="I95" s="16"/>
+      <c r="J95" s="17"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="30"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24"/>
+      <c r="A96" s="13"/>
+      <c r="B96" s="14"/>
+      <c r="C96" s="15"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
+      <c r="I96" s="16"/>
+      <c r="J96" s="17"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="30"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="24"/>
+      <c r="A97" s="13"/>
+      <c r="B97" s="14"/>
+      <c r="C97" s="15"/>
+      <c r="D97" s="16"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="16"/>
+      <c r="H97" s="16"/>
+      <c r="I97" s="16"/>
+      <c r="J97" s="17"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="30"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="24"/>
+      <c r="A98" s="13"/>
+      <c r="B98" s="14"/>
+      <c r="C98" s="15"/>
+      <c r="D98" s="16"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="16"/>
+      <c r="H98" s="16"/>
+      <c r="I98" s="16"/>
+      <c r="J98" s="17"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="30"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="24"/>
+      <c r="A99" s="13"/>
+      <c r="B99" s="14"/>
+      <c r="C99" s="15"/>
+      <c r="D99" s="16"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="16"/>
+      <c r="H99" s="16"/>
+      <c r="I99" s="16"/>
+      <c r="J99" s="17"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="30"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="24"/>
+      <c r="A100" s="13"/>
+      <c r="B100" s="14"/>
+      <c r="C100" s="15"/>
+      <c r="D100" s="16"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="16"/>
+      <c r="H100" s="16"/>
+      <c r="I100" s="16"/>
+      <c r="J100" s="17"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="30"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="24"/>
+      <c r="A101" s="13"/>
+      <c r="B101" s="14"/>
+      <c r="C101" s="15"/>
+      <c r="D101" s="16"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="16"/>
+      <c r="G101" s="16"/>
+      <c r="H101" s="16"/>
+      <c r="I101" s="16"/>
+      <c r="J101" s="17"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="30"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24"/>
+      <c r="A102" s="13"/>
+      <c r="B102" s="14"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="16"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
+      <c r="G102" s="16"/>
+      <c r="H102" s="16"/>
+      <c r="I102" s="16"/>
+      <c r="J102" s="17"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="30"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A103" s="11"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="24"/>
+      <c r="A103" s="13"/>
+      <c r="B103" s="14"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="16"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
+      <c r="G103" s="16"/>
+      <c r="H103" s="16"/>
+      <c r="I103" s="16"/>
+      <c r="J103" s="17"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="30"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A104" s="11"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="24"/>
+      <c r="A104" s="13"/>
+      <c r="B104" s="14"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="16"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="16"/>
+      <c r="G104" s="16"/>
+      <c r="H104" s="16"/>
+      <c r="I104" s="16"/>
+      <c r="J104" s="17"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="30"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A105" s="11"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="24"/>
+      <c r="A105" s="13"/>
+      <c r="B105" s="14"/>
+      <c r="C105" s="15"/>
+      <c r="D105" s="16"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
+      <c r="G105" s="16"/>
+      <c r="H105" s="16"/>
+      <c r="I105" s="16"/>
+      <c r="J105" s="17"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="30"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A106" s="11"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="24"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="14"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="16"/>
+      <c r="G106" s="16"/>
+      <c r="H106" s="16"/>
+      <c r="I106" s="16"/>
+      <c r="J106" s="17"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="30"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A107" s="11"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="24"/>
+      <c r="A107" s="13"/>
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="16"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
+      <c r="G107" s="16"/>
+      <c r="H107" s="16"/>
+      <c r="I107" s="16"/>
+      <c r="J107" s="17"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="30"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A108" s="11"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="24"/>
+      <c r="A108" s="13"/>
+      <c r="B108" s="14"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="16"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
+      <c r="G108" s="16"/>
+      <c r="H108" s="16"/>
+      <c r="I108" s="16"/>
+      <c r="J108" s="17"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="30"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="24"/>
+      <c r="A109" s="13"/>
+      <c r="B109" s="14"/>
+      <c r="C109" s="15"/>
+      <c r="D109" s="16"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="16"/>
+      <c r="G109" s="16"/>
+      <c r="H109" s="16"/>
+      <c r="I109" s="16"/>
+      <c r="J109" s="17"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="30"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A110" s="11"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="24"/>
+      <c r="A110" s="13"/>
+      <c r="B110" s="14"/>
+      <c r="C110" s="15"/>
+      <c r="D110" s="16"/>
+      <c r="E110" s="16"/>
+      <c r="F110" s="16"/>
+      <c r="G110" s="16"/>
+      <c r="H110" s="16"/>
+      <c r="I110" s="16"/>
+      <c r="J110" s="17"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="30"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="24"/>
+      <c r="A111" s="13"/>
+      <c r="B111" s="14"/>
+      <c r="C111" s="15"/>
+      <c r="D111" s="16"/>
+      <c r="E111" s="16"/>
+      <c r="F111" s="16"/>
+      <c r="G111" s="16"/>
+      <c r="H111" s="16"/>
+      <c r="I111" s="16"/>
+      <c r="J111" s="17"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="30"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A112" s="11"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="24"/>
+      <c r="A112" s="13"/>
+      <c r="B112" s="14"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="16"/>
+      <c r="E112" s="16"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="16"/>
+      <c r="H112" s="16"/>
+      <c r="I112" s="16"/>
+      <c r="J112" s="17"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="30"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A113" s="11"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="24"/>
+      <c r="A113" s="13"/>
+      <c r="B113" s="14"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="16"/>
+      <c r="E113" s="16"/>
+      <c r="F113" s="16"/>
+      <c r="G113" s="16"/>
+      <c r="H113" s="16"/>
+      <c r="I113" s="16"/>
+      <c r="J113" s="17"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="30"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A114" s="11"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="24"/>
+      <c r="A114" s="13"/>
+      <c r="B114" s="14"/>
+      <c r="C114" s="15"/>
+      <c r="D114" s="16"/>
+      <c r="E114" s="16"/>
+      <c r="F114" s="16"/>
+      <c r="G114" s="16"/>
+      <c r="H114" s="16"/>
+      <c r="I114" s="16"/>
+      <c r="J114" s="17"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="30"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="24"/>
+      <c r="A115" s="13"/>
+      <c r="B115" s="14"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
+      <c r="G115" s="16"/>
+      <c r="H115" s="16"/>
+      <c r="I115" s="16"/>
+      <c r="J115" s="17"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="30"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A116" s="11"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="24"/>
+      <c r="A116" s="13"/>
+      <c r="B116" s="14"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="16"/>
+      <c r="E116" s="16"/>
+      <c r="F116" s="16"/>
+      <c r="G116" s="16"/>
+      <c r="H116" s="16"/>
+      <c r="I116" s="16"/>
+      <c r="J116" s="17"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="30"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A117" s="11"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="24"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="14"/>
+      <c r="C117" s="15"/>
+      <c r="D117" s="16"/>
+      <c r="E117" s="16"/>
+      <c r="F117" s="16"/>
+      <c r="G117" s="16"/>
+      <c r="H117" s="16"/>
+      <c r="I117" s="16"/>
+      <c r="J117" s="17"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="30"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A118" s="11"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="24"/>
+      <c r="A118" s="13"/>
+      <c r="B118" s="14"/>
+      <c r="C118" s="15"/>
+      <c r="D118" s="16"/>
+      <c r="E118" s="16"/>
+      <c r="F118" s="16"/>
+      <c r="G118" s="16"/>
+      <c r="H118" s="16"/>
+      <c r="I118" s="16"/>
+      <c r="J118" s="17"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="30"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A119" s="11"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="24"/>
+      <c r="A119" s="13"/>
+      <c r="B119" s="14"/>
+      <c r="C119" s="15"/>
+      <c r="D119" s="16"/>
+      <c r="E119" s="16"/>
+      <c r="F119" s="16"/>
+      <c r="G119" s="16"/>
+      <c r="H119" s="16"/>
+      <c r="I119" s="16"/>
+      <c r="J119" s="17"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="30"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A120" s="11"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="24"/>
+      <c r="A120" s="13"/>
+      <c r="B120" s="14"/>
+      <c r="C120" s="15"/>
+      <c r="D120" s="16"/>
+      <c r="E120" s="16"/>
+      <c r="F120" s="16"/>
+      <c r="G120" s="16"/>
+      <c r="H120" s="16"/>
+      <c r="I120" s="16"/>
+      <c r="J120" s="17"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="30"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A121" s="11"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="24"/>
+      <c r="A121" s="13"/>
+      <c r="B121" s="14"/>
+      <c r="C121" s="15"/>
+      <c r="D121" s="16"/>
+      <c r="E121" s="16"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="16"/>
+      <c r="H121" s="16"/>
+      <c r="I121" s="16"/>
+      <c r="J121" s="17"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="30"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A122" s="11"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="23"/>
-      <c r="L122" s="24"/>
+      <c r="A122" s="13"/>
+      <c r="B122" s="14"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="16"/>
+      <c r="E122" s="16"/>
+      <c r="F122" s="16"/>
+      <c r="G122" s="16"/>
+      <c r="H122" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="17"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="30"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A123" s="11"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="24"/>
+      <c r="A123" s="13"/>
+      <c r="B123" s="14"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="16"/>
+      <c r="E123" s="16"/>
+      <c r="F123" s="16"/>
+      <c r="G123" s="16"/>
+      <c r="H123" s="16"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="17"/>
+      <c r="K123" s="29"/>
+      <c r="L123" s="30"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A124" s="11"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="24"/>
+      <c r="A124" s="13"/>
+      <c r="B124" s="14"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="16"/>
+      <c r="E124" s="16"/>
+      <c r="F124" s="16"/>
+      <c r="G124" s="16"/>
+      <c r="H124" s="16"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="17"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="30"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A125" s="11"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="24"/>
+      <c r="A125" s="13"/>
+      <c r="B125" s="14"/>
+      <c r="C125" s="15"/>
+      <c r="D125" s="16"/>
+      <c r="E125" s="16"/>
+      <c r="F125" s="16"/>
+      <c r="G125" s="16"/>
+      <c r="H125" s="16"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="17"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="30"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A126" s="11"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="24"/>
+      <c r="A126" s="13"/>
+      <c r="B126" s="14"/>
+      <c r="C126" s="15"/>
+      <c r="D126" s="16"/>
+      <c r="E126" s="16"/>
+      <c r="F126" s="16"/>
+      <c r="G126" s="16"/>
+      <c r="H126" s="16"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="17"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="30"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A127" s="11"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="24"/>
+      <c r="A127" s="13"/>
+      <c r="B127" s="14"/>
+      <c r="C127" s="15"/>
+      <c r="D127" s="16"/>
+      <c r="E127" s="16"/>
+      <c r="F127" s="16"/>
+      <c r="G127" s="16"/>
+      <c r="H127" s="16"/>
+      <c r="I127" s="16"/>
+      <c r="J127" s="17"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="30"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A128" s="11"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="24"/>
+      <c r="A128" s="13"/>
+      <c r="B128" s="14"/>
+      <c r="C128" s="15"/>
+      <c r="D128" s="16"/>
+      <c r="E128" s="16"/>
+      <c r="F128" s="16"/>
+      <c r="G128" s="16"/>
+      <c r="H128" s="16"/>
+      <c r="I128" s="16"/>
+      <c r="J128" s="17"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="30"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A129" s="11"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="23"/>
-      <c r="L129" s="24"/>
+      <c r="A129" s="13"/>
+      <c r="B129" s="14"/>
+      <c r="C129" s="15"/>
+      <c r="D129" s="16"/>
+      <c r="E129" s="16"/>
+      <c r="F129" s="16"/>
+      <c r="G129" s="16"/>
+      <c r="H129" s="16"/>
+      <c r="I129" s="16"/>
+      <c r="J129" s="17"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="30"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A130" s="11"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="24"/>
+      <c r="A130" s="13"/>
+      <c r="B130" s="14"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="16"/>
+      <c r="E130" s="16"/>
+      <c r="F130" s="16"/>
+      <c r="G130" s="16"/>
+      <c r="H130" s="16"/>
+      <c r="I130" s="16"/>
+      <c r="J130" s="17"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="30"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A131" s="11"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="24"/>
+      <c r="A131" s="13"/>
+      <c r="B131" s="14"/>
+      <c r="C131" s="15"/>
+      <c r="D131" s="16"/>
+      <c r="E131" s="16"/>
+      <c r="F131" s="16"/>
+      <c r="G131" s="16"/>
+      <c r="H131" s="16"/>
+      <c r="I131" s="16"/>
+      <c r="J131" s="17"/>
+      <c r="K131" s="29"/>
+      <c r="L131" s="30"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A132" s="11"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="24"/>
+      <c r="A132" s="13"/>
+      <c r="B132" s="14"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="16"/>
+      <c r="E132" s="16"/>
+      <c r="F132" s="16"/>
+      <c r="G132" s="16"/>
+      <c r="H132" s="16"/>
+      <c r="I132" s="16"/>
+      <c r="J132" s="17"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="30"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A133" s="11"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="23"/>
-      <c r="L133" s="24"/>
+      <c r="A133" s="13"/>
+      <c r="B133" s="14"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="16"/>
+      <c r="E133" s="16"/>
+      <c r="F133" s="16"/>
+      <c r="G133" s="16"/>
+      <c r="H133" s="16"/>
+      <c r="I133" s="16"/>
+      <c r="J133" s="17"/>
+      <c r="K133" s="29"/>
+      <c r="L133" s="30"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A134" s="11"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="24"/>
+      <c r="A134" s="13"/>
+      <c r="B134" s="14"/>
+      <c r="C134" s="15"/>
+      <c r="D134" s="16"/>
+      <c r="E134" s="16"/>
+      <c r="F134" s="16"/>
+      <c r="G134" s="16"/>
+      <c r="H134" s="16"/>
+      <c r="I134" s="16"/>
+      <c r="J134" s="17"/>
+      <c r="K134" s="29"/>
+      <c r="L134" s="30"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A135" s="11"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="24"/>
+      <c r="A135" s="13"/>
+      <c r="B135" s="14"/>
+      <c r="C135" s="15"/>
+      <c r="D135" s="16"/>
+      <c r="E135" s="16"/>
+      <c r="F135" s="16"/>
+      <c r="G135" s="16"/>
+      <c r="H135" s="16"/>
+      <c r="I135" s="16"/>
+      <c r="J135" s="17"/>
+      <c r="K135" s="29"/>
+      <c r="L135" s="30"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A136" s="11"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="24"/>
+      <c r="A136" s="13"/>
+      <c r="B136" s="14"/>
+      <c r="C136" s="15"/>
+      <c r="D136" s="16"/>
+      <c r="E136" s="16"/>
+      <c r="F136" s="16"/>
+      <c r="G136" s="16"/>
+      <c r="H136" s="16"/>
+      <c r="I136" s="16"/>
+      <c r="J136" s="17"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="30"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A137" s="11"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="24"/>
+      <c r="A137" s="13"/>
+      <c r="B137" s="14"/>
+      <c r="C137" s="15"/>
+      <c r="D137" s="16"/>
+      <c r="E137" s="16"/>
+      <c r="F137" s="16"/>
+      <c r="G137" s="16"/>
+      <c r="H137" s="16"/>
+      <c r="I137" s="16"/>
+      <c r="J137" s="17"/>
+      <c r="K137" s="29"/>
+      <c r="L137" s="30"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A138" s="11"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="23"/>
-      <c r="L138" s="24"/>
+      <c r="A138" s="13"/>
+      <c r="B138" s="14"/>
+      <c r="C138" s="15"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+      <c r="G138" s="16"/>
+      <c r="H138" s="16"/>
+      <c r="I138" s="16"/>
+      <c r="J138" s="17"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="30"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A139" s="11"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="23"/>
-      <c r="L139" s="24"/>
+      <c r="A139" s="13"/>
+      <c r="B139" s="14"/>
+      <c r="C139" s="15"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+      <c r="G139" s="16"/>
+      <c r="H139" s="16"/>
+      <c r="I139" s="16"/>
+      <c r="J139" s="17"/>
+      <c r="K139" s="29"/>
+      <c r="L139" s="30"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A140" s="11"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="23"/>
-      <c r="L140" s="24"/>
+      <c r="A140" s="13"/>
+      <c r="B140" s="14"/>
+      <c r="C140" s="15"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+      <c r="G140" s="16"/>
+      <c r="H140" s="16"/>
+      <c r="I140" s="16"/>
+      <c r="J140" s="17"/>
+      <c r="K140" s="29"/>
+      <c r="L140" s="30"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A141" s="11"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="23"/>
-      <c r="L141" s="24"/>
+      <c r="A141" s="13"/>
+      <c r="B141" s="14"/>
+      <c r="C141" s="15"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+      <c r="G141" s="16"/>
+      <c r="H141" s="16"/>
+      <c r="I141" s="16"/>
+      <c r="J141" s="17"/>
+      <c r="K141" s="29"/>
+      <c r="L141" s="30"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A142" s="11"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="24"/>
+      <c r="A142" s="13"/>
+      <c r="B142" s="14"/>
+      <c r="C142" s="15"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="16"/>
+      <c r="H142" s="16"/>
+      <c r="I142" s="16"/>
+      <c r="J142" s="17"/>
+      <c r="K142" s="29"/>
+      <c r="L142" s="30"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A143" s="11"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="24"/>
+      <c r="A143" s="13"/>
+      <c r="B143" s="14"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="16"/>
+      <c r="E143" s="16"/>
+      <c r="F143" s="16"/>
+      <c r="G143" s="16"/>
+      <c r="H143" s="16"/>
+      <c r="I143" s="16"/>
+      <c r="J143" s="17"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="30"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A144" s="11"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="23"/>
-      <c r="L144" s="24"/>
+      <c r="A144" s="13"/>
+      <c r="B144" s="14"/>
+      <c r="C144" s="15"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
+      <c r="G144" s="16"/>
+      <c r="H144" s="16"/>
+      <c r="I144" s="16"/>
+      <c r="J144" s="17"/>
+      <c r="K144" s="29"/>
+      <c r="L144" s="30"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A145" s="11"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="24"/>
+      <c r="A145" s="13"/>
+      <c r="B145" s="14"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="16"/>
+      <c r="E145" s="16"/>
+      <c r="F145" s="16"/>
+      <c r="G145" s="16"/>
+      <c r="H145" s="16"/>
+      <c r="I145" s="16"/>
+      <c r="J145" s="17"/>
+      <c r="K145" s="29"/>
+      <c r="L145" s="30"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A146" s="11"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="24"/>
+      <c r="A146" s="13"/>
+      <c r="B146" s="14"/>
+      <c r="C146" s="15"/>
+      <c r="D146" s="16"/>
+      <c r="E146" s="16"/>
+      <c r="F146" s="16"/>
+      <c r="G146" s="16"/>
+      <c r="H146" s="16"/>
+      <c r="I146" s="16"/>
+      <c r="J146" s="17"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="30"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A147" s="11"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="24"/>
+      <c r="A147" s="13"/>
+      <c r="B147" s="14"/>
+      <c r="C147" s="15"/>
+      <c r="D147" s="16"/>
+      <c r="E147" s="16"/>
+      <c r="F147" s="16"/>
+      <c r="G147" s="16"/>
+      <c r="H147" s="16"/>
+      <c r="I147" s="16"/>
+      <c r="J147" s="17"/>
+      <c r="K147" s="29"/>
+      <c r="L147" s="30"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A148" s="11"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="24"/>
+      <c r="A148" s="13"/>
+      <c r="B148" s="14"/>
+      <c r="C148" s="15"/>
+      <c r="D148" s="16"/>
+      <c r="E148" s="16"/>
+      <c r="F148" s="16"/>
+      <c r="G148" s="16"/>
+      <c r="H148" s="16"/>
+      <c r="I148" s="16"/>
+      <c r="J148" s="17"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="30"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A149" s="11"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="24"/>
+      <c r="A149" s="13"/>
+      <c r="B149" s="14"/>
+      <c r="C149" s="15"/>
+      <c r="D149" s="16"/>
+      <c r="E149" s="16"/>
+      <c r="F149" s="16"/>
+      <c r="G149" s="16"/>
+      <c r="H149" s="16"/>
+      <c r="I149" s="16"/>
+      <c r="J149" s="17"/>
+      <c r="K149" s="29"/>
+      <c r="L149" s="30"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A150" s="11"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="24"/>
+      <c r="A150" s="13"/>
+      <c r="B150" s="14"/>
+      <c r="C150" s="15"/>
+      <c r="D150" s="16"/>
+      <c r="E150" s="16"/>
+      <c r="F150" s="16"/>
+      <c r="G150" s="16"/>
+      <c r="H150" s="16"/>
+      <c r="I150" s="16"/>
+      <c r="J150" s="17"/>
+      <c r="K150" s="29"/>
+      <c r="L150" s="30"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A151" s="11"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="14"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="24"/>
+      <c r="A151" s="13"/>
+      <c r="B151" s="14"/>
+      <c r="C151" s="15"/>
+      <c r="D151" s="16"/>
+      <c r="E151" s="16"/>
+      <c r="F151" s="16"/>
+      <c r="G151" s="16"/>
+      <c r="H151" s="16"/>
+      <c r="I151" s="16"/>
+      <c r="J151" s="17"/>
+      <c r="K151" s="29"/>
+      <c r="L151" s="30"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A152" s="11"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="24"/>
+      <c r="A152" s="13"/>
+      <c r="B152" s="14"/>
+      <c r="C152" s="15"/>
+      <c r="D152" s="16"/>
+      <c r="E152" s="16"/>
+      <c r="F152" s="16"/>
+      <c r="G152" s="16"/>
+      <c r="H152" s="16"/>
+      <c r="I152" s="16"/>
+      <c r="J152" s="17"/>
+      <c r="K152" s="29"/>
+      <c r="L152" s="30"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A153" s="11"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="24"/>
+      <c r="A153" s="13"/>
+      <c r="B153" s="14"/>
+      <c r="C153" s="15"/>
+      <c r="D153" s="16"/>
+      <c r="E153" s="16"/>
+      <c r="F153" s="16"/>
+      <c r="G153" s="16"/>
+      <c r="H153" s="16"/>
+      <c r="I153" s="16"/>
+      <c r="J153" s="17"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="30"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A154" s="11"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="24"/>
+      <c r="A154" s="13"/>
+      <c r="B154" s="14"/>
+      <c r="C154" s="15"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
+      <c r="G154" s="16"/>
+      <c r="H154" s="16"/>
+      <c r="I154" s="16"/>
+      <c r="J154" s="17"/>
+      <c r="K154" s="29"/>
+      <c r="L154" s="30"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A155" s="11"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="23"/>
-      <c r="L155" s="24"/>
+      <c r="A155" s="13"/>
+      <c r="B155" s="14"/>
+      <c r="C155" s="15"/>
+      <c r="D155" s="16"/>
+      <c r="E155" s="16"/>
+      <c r="F155" s="16"/>
+      <c r="G155" s="16"/>
+      <c r="H155" s="16"/>
+      <c r="I155" s="16"/>
+      <c r="J155" s="17"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="30"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A156" s="11"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="24"/>
+      <c r="A156" s="13"/>
+      <c r="B156" s="14"/>
+      <c r="C156" s="15"/>
+      <c r="D156" s="16"/>
+      <c r="E156" s="16"/>
+      <c r="F156" s="16"/>
+      <c r="G156" s="16"/>
+      <c r="H156" s="16"/>
+      <c r="I156" s="16"/>
+      <c r="J156" s="17"/>
+      <c r="K156" s="29"/>
+      <c r="L156" s="30"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A157" s="11"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="23"/>
-      <c r="L157" s="24"/>
+      <c r="A157" s="13"/>
+      <c r="B157" s="14"/>
+      <c r="C157" s="15"/>
+      <c r="D157" s="16"/>
+      <c r="E157" s="16"/>
+      <c r="F157" s="16"/>
+      <c r="G157" s="16"/>
+      <c r="H157" s="16"/>
+      <c r="I157" s="16"/>
+      <c r="J157" s="17"/>
+      <c r="K157" s="29"/>
+      <c r="L157" s="30"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A158" s="11"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="14"/>
-      <c r="I158" s="14"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="23"/>
-      <c r="L158" s="24"/>
+      <c r="A158" s="13"/>
+      <c r="B158" s="14"/>
+      <c r="C158" s="15"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="16"/>
+      <c r="G158" s="16"/>
+      <c r="H158" s="16"/>
+      <c r="I158" s="16"/>
+      <c r="J158" s="17"/>
+      <c r="K158" s="29"/>
+      <c r="L158" s="30"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A159" s="11"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="23"/>
-      <c r="L159" s="24"/>
+      <c r="A159" s="13"/>
+      <c r="B159" s="14"/>
+      <c r="C159" s="15"/>
+      <c r="D159" s="16"/>
+      <c r="E159" s="16"/>
+      <c r="F159" s="16"/>
+      <c r="G159" s="16"/>
+      <c r="H159" s="16"/>
+      <c r="I159" s="16"/>
+      <c r="J159" s="17"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="30"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A160" s="11"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="23"/>
-      <c r="L160" s="24"/>
+      <c r="A160" s="13"/>
+      <c r="B160" s="14"/>
+      <c r="C160" s="15"/>
+      <c r="D160" s="16"/>
+      <c r="E160" s="16"/>
+      <c r="F160" s="16"/>
+      <c r="G160" s="16"/>
+      <c r="H160" s="16"/>
+      <c r="I160" s="16"/>
+      <c r="J160" s="17"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="30"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A161" s="11"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="23"/>
-      <c r="L161" s="24"/>
+      <c r="A161" s="13"/>
+      <c r="B161" s="14"/>
+      <c r="C161" s="15"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+      <c r="G161" s="16"/>
+      <c r="H161" s="16"/>
+      <c r="I161" s="16"/>
+      <c r="J161" s="17"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="30"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A162" s="11"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="23"/>
-      <c r="L162" s="24"/>
+      <c r="A162" s="13"/>
+      <c r="B162" s="14"/>
+      <c r="C162" s="15"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="16"/>
+      <c r="H162" s="16"/>
+      <c r="I162" s="16"/>
+      <c r="J162" s="17"/>
+      <c r="K162" s="29"/>
+      <c r="L162" s="30"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A163" s="11"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14"/>
-      <c r="I163" s="14"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="23"/>
-      <c r="L163" s="24"/>
+      <c r="A163" s="13"/>
+      <c r="B163" s="14"/>
+      <c r="C163" s="15"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
+      <c r="G163" s="16"/>
+      <c r="H163" s="16"/>
+      <c r="I163" s="16"/>
+      <c r="J163" s="17"/>
+      <c r="K163" s="29"/>
+      <c r="L163" s="30"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A164" s="11"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="14"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="23"/>
-      <c r="L164" s="24"/>
+      <c r="A164" s="13"/>
+      <c r="B164" s="14"/>
+      <c r="C164" s="15"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="16"/>
+      <c r="G164" s="16"/>
+      <c r="H164" s="16"/>
+      <c r="I164" s="16"/>
+      <c r="J164" s="17"/>
+      <c r="K164" s="29"/>
+      <c r="L164" s="30"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A165" s="11"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14"/>
-      <c r="I165" s="14"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="23"/>
-      <c r="L165" s="24"/>
+      <c r="A165" s="13"/>
+      <c r="B165" s="14"/>
+      <c r="C165" s="15"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="16"/>
+      <c r="G165" s="16"/>
+      <c r="H165" s="16"/>
+      <c r="I165" s="16"/>
+      <c r="J165" s="17"/>
+      <c r="K165" s="29"/>
+      <c r="L165" s="30"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A166" s="11"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14"/>
-      <c r="I166" s="14"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="23"/>
-      <c r="L166" s="24"/>
+      <c r="A166" s="13"/>
+      <c r="B166" s="14"/>
+      <c r="C166" s="15"/>
+      <c r="D166" s="16"/>
+      <c r="E166" s="16"/>
+      <c r="F166" s="16"/>
+      <c r="G166" s="16"/>
+      <c r="H166" s="16"/>
+      <c r="I166" s="16"/>
+      <c r="J166" s="17"/>
+      <c r="K166" s="29"/>
+      <c r="L166" s="30"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A167" s="11"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
-      <c r="I167" s="14"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="23"/>
-      <c r="L167" s="24"/>
+      <c r="A167" s="13"/>
+      <c r="B167" s="14"/>
+      <c r="C167" s="15"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+      <c r="G167" s="16"/>
+      <c r="H167" s="16"/>
+      <c r="I167" s="16"/>
+      <c r="J167" s="17"/>
+      <c r="K167" s="29"/>
+      <c r="L167" s="30"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A168" s="11"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
-      <c r="I168" s="14"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="23"/>
-      <c r="L168" s="24"/>
+      <c r="A168" s="13"/>
+      <c r="B168" s="14"/>
+      <c r="C168" s="15"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+      <c r="G168" s="16"/>
+      <c r="H168" s="16"/>
+      <c r="I168" s="16"/>
+      <c r="J168" s="17"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="30"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A169" s="11"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14"/>
-      <c r="I169" s="14"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="23"/>
-      <c r="L169" s="24"/>
+      <c r="A169" s="13"/>
+      <c r="B169" s="14"/>
+      <c r="C169" s="15"/>
+      <c r="D169" s="16"/>
+      <c r="E169" s="16"/>
+      <c r="F169" s="16"/>
+      <c r="G169" s="16"/>
+      <c r="H169" s="16"/>
+      <c r="I169" s="16"/>
+      <c r="J169" s="17"/>
+      <c r="K169" s="29"/>
+      <c r="L169" s="30"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A170" s="11"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="14"/>
-      <c r="I170" s="14"/>
-      <c r="J170" s="15"/>
-      <c r="K170" s="23"/>
-      <c r="L170" s="24"/>
+      <c r="A170" s="13"/>
+      <c r="B170" s="14"/>
+      <c r="C170" s="15"/>
+      <c r="D170" s="16"/>
+      <c r="E170" s="16"/>
+      <c r="F170" s="16"/>
+      <c r="G170" s="16"/>
+      <c r="H170" s="16"/>
+      <c r="I170" s="16"/>
+      <c r="J170" s="17"/>
+      <c r="K170" s="29"/>
+      <c r="L170" s="30"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A171" s="11"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="14"/>
-      <c r="I171" s="14"/>
-      <c r="J171" s="15"/>
-      <c r="K171" s="23"/>
-      <c r="L171" s="24"/>
+      <c r="A171" s="13"/>
+      <c r="B171" s="14"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="16"/>
+      <c r="E171" s="16"/>
+      <c r="F171" s="16"/>
+      <c r="G171" s="16"/>
+      <c r="H171" s="16"/>
+      <c r="I171" s="16"/>
+      <c r="J171" s="17"/>
+      <c r="K171" s="29"/>
+      <c r="L171" s="30"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A172" s="11"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="14"/>
-      <c r="I172" s="14"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="23"/>
-      <c r="L172" s="24"/>
+      <c r="A172" s="13"/>
+      <c r="B172" s="14"/>
+      <c r="C172" s="15"/>
+      <c r="D172" s="16"/>
+      <c r="E172" s="16"/>
+      <c r="F172" s="16"/>
+      <c r="G172" s="16"/>
+      <c r="H172" s="16"/>
+      <c r="I172" s="16"/>
+      <c r="J172" s="17"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="30"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A173" s="11"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="14"/>
-      <c r="I173" s="14"/>
-      <c r="J173" s="15"/>
-      <c r="K173" s="23"/>
-      <c r="L173" s="24"/>
+      <c r="A173" s="13"/>
+      <c r="B173" s="14"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="16"/>
+      <c r="E173" s="16"/>
+      <c r="F173" s="16"/>
+      <c r="G173" s="16"/>
+      <c r="H173" s="16"/>
+      <c r="I173" s="16"/>
+      <c r="J173" s="17"/>
+      <c r="K173" s="29"/>
+      <c r="L173" s="30"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A174" s="11"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="14"/>
-      <c r="I174" s="14"/>
-      <c r="J174" s="15"/>
-      <c r="K174" s="23"/>
-      <c r="L174" s="24"/>
+      <c r="A174" s="13"/>
+      <c r="B174" s="14"/>
+      <c r="C174" s="15"/>
+      <c r="D174" s="16"/>
+      <c r="E174" s="16"/>
+      <c r="F174" s="16"/>
+      <c r="G174" s="16"/>
+      <c r="H174" s="16"/>
+      <c r="I174" s="16"/>
+      <c r="J174" s="17"/>
+      <c r="K174" s="29"/>
+      <c r="L174" s="30"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A175" s="11"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="14"/>
-      <c r="I175" s="14"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="23"/>
-      <c r="L175" s="24"/>
+      <c r="A175" s="13"/>
+      <c r="B175" s="14"/>
+      <c r="C175" s="15"/>
+      <c r="D175" s="16"/>
+      <c r="E175" s="16"/>
+      <c r="F175" s="16"/>
+      <c r="G175" s="16"/>
+      <c r="H175" s="16"/>
+      <c r="I175" s="16"/>
+      <c r="J175" s="17"/>
+      <c r="K175" s="29"/>
+      <c r="L175" s="30"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A176" s="11"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="14"/>
-      <c r="I176" s="14"/>
-      <c r="J176" s="15"/>
-      <c r="K176" s="23"/>
-      <c r="L176" s="24"/>
+      <c r="A176" s="13"/>
+      <c r="B176" s="14"/>
+      <c r="C176" s="15"/>
+      <c r="D176" s="16"/>
+      <c r="E176" s="16"/>
+      <c r="F176" s="16"/>
+      <c r="G176" s="16"/>
+      <c r="H176" s="16"/>
+      <c r="I176" s="16"/>
+      <c r="J176" s="17"/>
+      <c r="K176" s="29"/>
+      <c r="L176" s="30"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A177" s="11"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="14"/>
-      <c r="I177" s="14"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="23"/>
-      <c r="L177" s="24"/>
+      <c r="A177" s="13"/>
+      <c r="B177" s="14"/>
+      <c r="C177" s="15"/>
+      <c r="D177" s="16"/>
+      <c r="E177" s="16"/>
+      <c r="F177" s="16"/>
+      <c r="G177" s="16"/>
+      <c r="H177" s="16"/>
+      <c r="I177" s="16"/>
+      <c r="J177" s="17"/>
+      <c r="K177" s="29"/>
+      <c r="L177" s="30"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A178" s="11"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="14"/>
-      <c r="I178" s="14"/>
-      <c r="J178" s="15"/>
-      <c r="K178" s="23"/>
-      <c r="L178" s="24"/>
+      <c r="A178" s="13"/>
+      <c r="B178" s="14"/>
+      <c r="C178" s="15"/>
+      <c r="D178" s="16"/>
+      <c r="E178" s="16"/>
+      <c r="F178" s="16"/>
+      <c r="G178" s="16"/>
+      <c r="H178" s="16"/>
+      <c r="I178" s="16"/>
+      <c r="J178" s="17"/>
+      <c r="K178" s="29"/>
+      <c r="L178" s="30"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A179" s="11"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="14"/>
-      <c r="I179" s="14"/>
-      <c r="J179" s="15"/>
-      <c r="K179" s="23"/>
-      <c r="L179" s="24"/>
+      <c r="A179" s="13"/>
+      <c r="B179" s="14"/>
+      <c r="C179" s="15"/>
+      <c r="D179" s="16"/>
+      <c r="E179" s="16"/>
+      <c r="F179" s="16"/>
+      <c r="G179" s="16"/>
+      <c r="H179" s="16"/>
+      <c r="I179" s="16"/>
+      <c r="J179" s="17"/>
+      <c r="K179" s="29"/>
+      <c r="L179" s="30"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A180" s="11"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="14"/>
-      <c r="I180" s="14"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="23"/>
-      <c r="L180" s="24"/>
-    </row>
-    <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A181" s="11"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="14"/>
-      <c r="I181" s="14"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="23"/>
-      <c r="L181" s="24"/>
-    </row>
-    <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A182" s="11"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
-      <c r="H182" s="14"/>
-      <c r="I182" s="14"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="23"/>
-      <c r="L182" s="24"/>
-    </row>
-    <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A183" s="11"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="14"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="23"/>
-      <c r="L183" s="24"/>
-    </row>
-    <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A184" s="11"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
-      <c r="H184" s="14"/>
-      <c r="I184" s="14"/>
-      <c r="J184" s="15"/>
-      <c r="K184" s="23"/>
-      <c r="L184" s="24"/>
-    </row>
-    <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A185" s="11"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="14"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="23"/>
-      <c r="L185" s="24"/>
-    </row>
-    <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A186" s="11"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
-      <c r="H186" s="14"/>
-      <c r="I186" s="14"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="23"/>
-      <c r="L186" s="24"/>
-    </row>
-    <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A187" s="11"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="14"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="23"/>
-      <c r="L187" s="24"/>
-    </row>
-    <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A188" s="11"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="14"/>
-      <c r="I188" s="14"/>
-      <c r="J188" s="15"/>
-      <c r="K188" s="23"/>
-      <c r="L188" s="24"/>
-    </row>
-    <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A189" s="11"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="15"/>
-      <c r="K189" s="23"/>
-      <c r="L189" s="24"/>
-    </row>
-    <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A190" s="11"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="14"/>
-      <c r="I190" s="14"/>
-      <c r="J190" s="15"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="24"/>
-    </row>
-    <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A191" s="11"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="14"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="15"/>
-      <c r="K191" s="23"/>
-      <c r="L191" s="24"/>
-    </row>
-    <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A192" s="11"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="14"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="15"/>
-      <c r="K192" s="23"/>
-      <c r="L192" s="24"/>
+      <c r="A180" s="13"/>
+      <c r="B180" s="14"/>
+      <c r="C180" s="15"/>
+      <c r="D180" s="16"/>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+      <c r="G180" s="16"/>
+      <c r="H180" s="16"/>
+      <c r="I180" s="16"/>
+      <c r="J180" s="17"/>
+      <c r="K180" s="29"/>
+      <c r="L180" s="30"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <conditionalFormatting sqref="N20">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="40" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="41" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="42" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="34" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="35" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="36" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="43" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="44" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="45" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N34">
+    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N34,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N34,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N34,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N35">
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N35,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N35,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N35,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N37">
+    <cfRule type="beginsWith" dxfId="0" priority="4" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N37,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="5" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N37,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="6" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N37,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N16:N19">
-    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="49" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="50" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="51" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N22">
-    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="37" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="38" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="39" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N25:N27">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N28:N30">
+    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N28,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N28,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N28,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N31:N33 N36">
+    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N31,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N31,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N31,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D25 D2:D3 D7:D8 D16:D17 D26:D192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D2:D3 D7:D8 D16:D17 D38:D180">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C25 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C26:C192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C38:C180">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="964" uniqueCount="808">
   <si>
     <t>target</t>
   </si>
@@ -2479,18 +2479,99 @@
   <si>
     <t>${title.header}</t>
   </si>
+  <si>
+    <t>columnSortComparision</t>
+  </si>
+  <si>
+    <t>Fetch values from column, Sort the values in ascending and sort the column in the UI and fetch the values and compare with the existing ones</t>
+  </si>
+  <si>
+    <t>columnValues</t>
+  </si>
+  <si>
+    <t>${rowsOfColumn}</t>
+  </si>
+  <si>
+    <t>${columnValues}</t>
+  </si>
+  <si>
+    <t>Remove the comma from the end of the array</t>
+  </si>
+  <si>
+    <t>[TEXT(${columnValues}) =&gt; removeEnd(\,)]</t>
+  </si>
+  <si>
+    <t>Click on the column to sort in ascending order</t>
+  </si>
+  <si>
+    <t>${columnName1}${columnName}${columnName2}</t>
+  </si>
+  <si>
+    <t>Fetch the values and save in the array text</t>
+  </si>
+  <si>
+    <t>columnValuesAZ</t>
+  </si>
+  <si>
+    <t>[TEXT(${columnValuesAZ}) =&gt; removeEnd(\,)]</t>
+  </si>
+  <si>
+    <t>${columnValuesAZ}</t>
+  </si>
+  <si>
+    <t>Converting it into ascending order</t>
+  </si>
+  <si>
+    <t>columnValuesAZ1</t>
+  </si>
+  <si>
+    <t>$(array|ascending|${columnValues})</t>
+  </si>
+  <si>
+    <t>Comparing in ascending order</t>
+  </si>
+  <si>
+    <t>${columnValuesAZ1}</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>Clicking on the column again to sort in descending order</t>
+  </si>
+  <si>
+    <t>Fetch the values in descending order</t>
+  </si>
+  <si>
+    <t>columnValuesZA</t>
+  </si>
+  <si>
+    <t>columnValuesZA1</t>
+  </si>
+  <si>
+    <t>$(array|descending|${columnValues})</t>
+  </si>
+  <si>
+    <t>${columnValuesZA1}</t>
+  </si>
+  <si>
+    <t>Assert the values in descending order</t>
+  </si>
+  <si>
+    <t>${columnValuesZA}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="30">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2499,6 +2580,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2525,12 +2614,19 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -2540,19 +2636,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
+      <strike/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2563,18 +2651,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2587,6 +2691,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2594,15 +2729,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,55 +2752,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2679,6 +2768,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2705,7 +2808,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,7 +2820,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,7 +2838,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,19 +2946,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,127 +2988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2915,16 +3018,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2944,37 +3065,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,193 +3106,192 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3199,7 +3299,52 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3207,95 +3352,74 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -3617,7 +3741,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -6285,2968 +6409,3198 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O192"/>
+  <dimension ref="A1:O198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.1666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="36" style="6" customWidth="1"/>
-    <col min="5" max="5" width="61.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="57.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="9.25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="28.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.1666666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36" style="7" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="57.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="7" customWidth="1"/>
+    <col min="8" max="9" width="9.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="28.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12" style="10" customWidth="1"/>
     <col min="13" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="11" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="41.4" spans="1:12">
-      <c r="A2" s="11" t="s">
+    <row r="2" s="2" customFormat="1" ht="42" spans="1:12">
+      <c r="A2" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="41.4" spans="1:12">
-      <c r="A6" s="11" t="s">
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
+      <c r="A6" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="96.6" spans="1:12">
-      <c r="A11" s="11" t="s">
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
+      <c r="A11" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="27.6" spans="1:15">
-      <c r="A16" s="11" t="s">
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
+      <c r="A16" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="26"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="26"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="18">
         <v>5000</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="26"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="26"/>
+      <c r="L19" s="27"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="27"/>
+      <c r="O19" s="26"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="26"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="26"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="23"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="26"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="23"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="26"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="23"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="26"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="56" spans="1:12">
+      <c r="A25" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>782</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="1:12">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="F26" s="18"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="28" spans="1:12">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>783</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>787</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="27"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="1:12">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>785</v>
+      </c>
+      <c r="F28" s="18"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="27"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
+        <v>788</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
+        <v>790</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E30" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="E31" s="18" t="s">
+        <v>791</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>793</v>
+      </c>
+      <c r="F32" s="18"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>795</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>796</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="27"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13" t="s">
+        <v>797</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>798</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>793</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="27"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13" t="s">
+        <v>800</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>789</v>
+      </c>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13" t="s">
+        <v>801</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>498</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>802</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>784</v>
+      </c>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="27"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13" t="s">
+        <v>794</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>459</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>803</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>804</v>
+      </c>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="27"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13" t="s">
+        <v>786</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>459</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>803</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>792</v>
+      </c>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="27"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
-    </row>
-    <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>526</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>805</v>
+      </c>
+      <c r="F39" s="18"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="27"/>
+    </row>
+    <row r="40" s="3" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="A40" s="21"/>
+      <c r="B40" s="13" t="s">
+        <v>806</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>805</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>807</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>799</v>
+      </c>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+      <c r="J40" s="29"/>
+      <c r="K40" s="30"/>
+      <c r="L40" s="31"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="27"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="27"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="27"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="27"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="27"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="27"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="27"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="27"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="27"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="27"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="27"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="27"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="27"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="27"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="27"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="27"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="27"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="27"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="27"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="27"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="27"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="27"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="27"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="27"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="27"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="27"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="27"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="27"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="27"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="27"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="27"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="27"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="27"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="27"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="27"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="27"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="27"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="27"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="27"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="27"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="27"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="24"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="27"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="27"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="27"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="27"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A86" s="11"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="27"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="27"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="27"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="27"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="27"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="27"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="24"/>
-    </row>
-    <row r="94" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
-    </row>
-    <row r="95" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
-    </row>
-    <row r="96" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24"/>
-    </row>
-    <row r="97" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="24"/>
-    </row>
-    <row r="98" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="24"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="27"/>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="A93" s="12"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="27"/>
+    </row>
+    <row r="94" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="27"/>
+    </row>
+    <row r="95" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="A95" s="12"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="27"/>
+    </row>
+    <row r="96" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="A96" s="12"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="27"/>
+    </row>
+    <row r="97" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="A97" s="12"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="27"/>
+    </row>
+    <row r="98" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="A98" s="12"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="27"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="24"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="27"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="24"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="27"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="24"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="27"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="27"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A103" s="11"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="24"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="27"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A104" s="11"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="24"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="27"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A105" s="11"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="24"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="27"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A106" s="11"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="24"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="27"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A107" s="11"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="24"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="27"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A108" s="11"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="24"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="27"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="24"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="27"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A110" s="11"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="24"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="27"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="24"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="27"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A112" s="11"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="24"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="27"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A113" s="11"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="24"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="27"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A114" s="11"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="24"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="27"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="24"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="27"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A116" s="11"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="24"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="27"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A117" s="11"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="24"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="27"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A118" s="11"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="24"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="27"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A119" s="11"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="24"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="27"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A120" s="11"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="24"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="27"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A121" s="11"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="24"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="26"/>
+      <c r="L121" s="27"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A122" s="11"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="23"/>
-      <c r="L122" s="24"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="26"/>
+      <c r="L122" s="27"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A123" s="11"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="24"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="27"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A124" s="11"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="24"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="26"/>
+      <c r="L124" s="27"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A125" s="11"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="24"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="26"/>
+      <c r="L125" s="27"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A126" s="11"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="24"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="27"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A127" s="11"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="24"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="27"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A128" s="11"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="24"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="26"/>
+      <c r="L128" s="27"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A129" s="11"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="23"/>
-      <c r="L129" s="24"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="26"/>
+      <c r="L129" s="27"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A130" s="11"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="24"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="26"/>
+      <c r="L130" s="27"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A131" s="11"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="24"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="27"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A132" s="11"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="24"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="26"/>
+      <c r="L132" s="27"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A133" s="11"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="23"/>
-      <c r="L133" s="24"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="26"/>
+      <c r="L133" s="27"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A134" s="11"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="24"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="26"/>
+      <c r="L134" s="27"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A135" s="11"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="24"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="26"/>
+      <c r="L135" s="27"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A136" s="11"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="24"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="27"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A137" s="11"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="24"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="26"/>
+      <c r="L137" s="27"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A138" s="11"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="23"/>
-      <c r="L138" s="24"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="27"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A139" s="11"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="23"/>
-      <c r="L139" s="24"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="26"/>
+      <c r="L139" s="27"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A140" s="11"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="23"/>
-      <c r="L140" s="24"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="26"/>
+      <c r="L140" s="27"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A141" s="11"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="23"/>
-      <c r="L141" s="24"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="26"/>
+      <c r="L141" s="27"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A142" s="11"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="24"/>
+      <c r="A142" s="12"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="26"/>
+      <c r="L142" s="27"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A143" s="11"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="24"/>
+      <c r="A143" s="12"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="26"/>
+      <c r="L143" s="27"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A144" s="11"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="23"/>
-      <c r="L144" s="24"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="27"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A145" s="11"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="24"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="27"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A146" s="11"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="24"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="26"/>
+      <c r="L146" s="27"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A147" s="11"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="24"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="26"/>
+      <c r="L147" s="27"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A148" s="11"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="24"/>
+      <c r="A148" s="12"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="26"/>
+      <c r="L148" s="27"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A149" s="11"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="24"/>
+      <c r="A149" s="12"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="26"/>
+      <c r="L149" s="27"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A150" s="11"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="24"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="26"/>
+      <c r="L150" s="27"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A151" s="11"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="14"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="24"/>
+      <c r="A151" s="12"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c r="K151" s="26"/>
+      <c r="L151" s="27"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A152" s="11"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="24"/>
+      <c r="A152" s="12"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="26"/>
+      <c r="L152" s="27"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A153" s="11"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="24"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="26"/>
+      <c r="L153" s="27"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A154" s="11"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="24"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="26"/>
+      <c r="L154" s="27"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A155" s="11"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="23"/>
-      <c r="L155" s="24"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="26"/>
+      <c r="L155" s="27"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A156" s="11"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="24"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="26"/>
+      <c r="L156" s="27"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A157" s="11"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="23"/>
-      <c r="L157" s="24"/>
+      <c r="A157" s="12"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="16"/>
+      <c r="K157" s="26"/>
+      <c r="L157" s="27"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A158" s="11"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="14"/>
-      <c r="I158" s="14"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="23"/>
-      <c r="L158" s="24"/>
+      <c r="A158" s="12"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="16"/>
+      <c r="K158" s="26"/>
+      <c r="L158" s="27"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A159" s="11"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="23"/>
-      <c r="L159" s="24"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="26"/>
+      <c r="L159" s="27"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A160" s="11"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="23"/>
-      <c r="L160" s="24"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="26"/>
+      <c r="L160" s="27"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A161" s="11"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="23"/>
-      <c r="L161" s="24"/>
+      <c r="A161" s="12"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="16"/>
+      <c r="K161" s="26"/>
+      <c r="L161" s="27"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A162" s="11"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="23"/>
-      <c r="L162" s="24"/>
+      <c r="A162" s="12"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="16"/>
+      <c r="K162" s="26"/>
+      <c r="L162" s="27"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A163" s="11"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14"/>
-      <c r="I163" s="14"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="23"/>
-      <c r="L163" s="24"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="26"/>
+      <c r="L163" s="27"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A164" s="11"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="14"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="23"/>
-      <c r="L164" s="24"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="16"/>
+      <c r="K164" s="26"/>
+      <c r="L164" s="27"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A165" s="11"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14"/>
-      <c r="I165" s="14"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="23"/>
-      <c r="L165" s="24"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="26"/>
+      <c r="L165" s="27"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A166" s="11"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14"/>
-      <c r="I166" s="14"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="23"/>
-      <c r="L166" s="24"/>
+      <c r="A166" s="12"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="16"/>
+      <c r="K166" s="26"/>
+      <c r="L166" s="27"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A167" s="11"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
-      <c r="I167" s="14"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="23"/>
-      <c r="L167" s="24"/>
+      <c r="A167" s="12"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="16"/>
+      <c r="K167" s="26"/>
+      <c r="L167" s="27"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A168" s="11"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
-      <c r="I168" s="14"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="23"/>
-      <c r="L168" s="24"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="16"/>
+      <c r="K168" s="26"/>
+      <c r="L168" s="27"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A169" s="11"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14"/>
-      <c r="I169" s="14"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="23"/>
-      <c r="L169" s="24"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="16"/>
+      <c r="K169" s="26"/>
+      <c r="L169" s="27"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A170" s="11"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="14"/>
-      <c r="I170" s="14"/>
-      <c r="J170" s="15"/>
-      <c r="K170" s="23"/>
-      <c r="L170" s="24"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="16"/>
+      <c r="K170" s="26"/>
+      <c r="L170" s="27"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A171" s="11"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="14"/>
-      <c r="I171" s="14"/>
-      <c r="J171" s="15"/>
-      <c r="K171" s="23"/>
-      <c r="L171" s="24"/>
+      <c r="A171" s="12"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="16"/>
+      <c r="K171" s="26"/>
+      <c r="L171" s="27"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A172" s="11"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="14"/>
-      <c r="I172" s="14"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="23"/>
-      <c r="L172" s="24"/>
+      <c r="A172" s="12"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="16"/>
+      <c r="K172" s="26"/>
+      <c r="L172" s="27"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A173" s="11"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="14"/>
-      <c r="I173" s="14"/>
-      <c r="J173" s="15"/>
-      <c r="K173" s="23"/>
-      <c r="L173" s="24"/>
+      <c r="A173" s="12"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="16"/>
+      <c r="K173" s="26"/>
+      <c r="L173" s="27"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A174" s="11"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="14"/>
-      <c r="I174" s="14"/>
-      <c r="J174" s="15"/>
-      <c r="K174" s="23"/>
-      <c r="L174" s="24"/>
+      <c r="A174" s="12"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="16"/>
+      <c r="K174" s="26"/>
+      <c r="L174" s="27"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A175" s="11"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="14"/>
-      <c r="I175" s="14"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="23"/>
-      <c r="L175" s="24"/>
+      <c r="A175" s="12"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="16"/>
+      <c r="K175" s="26"/>
+      <c r="L175" s="27"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A176" s="11"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="14"/>
-      <c r="I176" s="14"/>
-      <c r="J176" s="15"/>
-      <c r="K176" s="23"/>
-      <c r="L176" s="24"/>
+      <c r="A176" s="12"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="16"/>
+      <c r="K176" s="26"/>
+      <c r="L176" s="27"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A177" s="11"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="14"/>
-      <c r="I177" s="14"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="23"/>
-      <c r="L177" s="24"/>
+      <c r="A177" s="12"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="16"/>
+      <c r="K177" s="26"/>
+      <c r="L177" s="27"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A178" s="11"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="14"/>
-      <c r="I178" s="14"/>
-      <c r="J178" s="15"/>
-      <c r="K178" s="23"/>
-      <c r="L178" s="24"/>
+      <c r="A178" s="12"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="16"/>
+      <c r="K178" s="26"/>
+      <c r="L178" s="27"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A179" s="11"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="14"/>
-      <c r="I179" s="14"/>
-      <c r="J179" s="15"/>
-      <c r="K179" s="23"/>
-      <c r="L179" s="24"/>
+      <c r="A179" s="12"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="16"/>
+      <c r="K179" s="26"/>
+      <c r="L179" s="27"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A180" s="11"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="14"/>
-      <c r="I180" s="14"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="23"/>
-      <c r="L180" s="24"/>
+      <c r="A180" s="12"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="16"/>
+      <c r="K180" s="26"/>
+      <c r="L180" s="27"/>
     </row>
     <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A181" s="11"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="14"/>
-      <c r="I181" s="14"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="23"/>
-      <c r="L181" s="24"/>
+      <c r="A181" s="12"/>
+      <c r="B181" s="13"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="16"/>
+      <c r="K181" s="26"/>
+      <c r="L181" s="27"/>
     </row>
     <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A182" s="11"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
-      <c r="H182" s="14"/>
-      <c r="I182" s="14"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="23"/>
-      <c r="L182" s="24"/>
+      <c r="A182" s="12"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="16"/>
+      <c r="K182" s="26"/>
+      <c r="L182" s="27"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A183" s="11"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="14"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="23"/>
-      <c r="L183" s="24"/>
+      <c r="A183" s="12"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="16"/>
+      <c r="K183" s="26"/>
+      <c r="L183" s="27"/>
     </row>
     <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A184" s="11"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
-      <c r="H184" s="14"/>
-      <c r="I184" s="14"/>
-      <c r="J184" s="15"/>
-      <c r="K184" s="23"/>
-      <c r="L184" s="24"/>
+      <c r="A184" s="12"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="16"/>
+      <c r="K184" s="26"/>
+      <c r="L184" s="27"/>
     </row>
     <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A185" s="11"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="14"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="23"/>
-      <c r="L185" s="24"/>
+      <c r="A185" s="12"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="16"/>
+      <c r="K185" s="26"/>
+      <c r="L185" s="27"/>
     </row>
     <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A186" s="11"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
-      <c r="H186" s="14"/>
-      <c r="I186" s="14"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="23"/>
-      <c r="L186" s="24"/>
+      <c r="A186" s="12"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="16"/>
+      <c r="K186" s="26"/>
+      <c r="L186" s="27"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A187" s="11"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="14"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="23"/>
-      <c r="L187" s="24"/>
+      <c r="A187" s="12"/>
+      <c r="B187" s="13"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="16"/>
+      <c r="K187" s="26"/>
+      <c r="L187" s="27"/>
     </row>
     <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A188" s="11"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="14"/>
-      <c r="I188" s="14"/>
-      <c r="J188" s="15"/>
-      <c r="K188" s="23"/>
-      <c r="L188" s="24"/>
+      <c r="A188" s="12"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="16"/>
+      <c r="K188" s="26"/>
+      <c r="L188" s="27"/>
     </row>
     <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A189" s="11"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="15"/>
-      <c r="K189" s="23"/>
-      <c r="L189" s="24"/>
+      <c r="A189" s="12"/>
+      <c r="B189" s="13"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="16"/>
+      <c r="K189" s="26"/>
+      <c r="L189" s="27"/>
     </row>
     <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A190" s="11"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="14"/>
-      <c r="I190" s="14"/>
-      <c r="J190" s="15"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="24"/>
+      <c r="A190" s="12"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="15"/>
+      <c r="J190" s="16"/>
+      <c r="K190" s="26"/>
+      <c r="L190" s="27"/>
     </row>
     <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A191" s="11"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="14"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="15"/>
-      <c r="K191" s="23"/>
-      <c r="L191" s="24"/>
+      <c r="A191" s="12"/>
+      <c r="B191" s="13"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="16"/>
+      <c r="K191" s="26"/>
+      <c r="L191" s="27"/>
     </row>
     <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A192" s="11"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="14"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="15"/>
-      <c r="K192" s="23"/>
-      <c r="L192" s="24"/>
+      <c r="A192" s="12"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="15"/>
+      <c r="J192" s="16"/>
+      <c r="K192" s="26"/>
+      <c r="L192" s="27"/>
+    </row>
+    <row r="193" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A193" s="12"/>
+      <c r="B193" s="13"/>
+      <c r="C193" s="14"/>
+      <c r="D193" s="15"/>
+      <c r="E193" s="15"/>
+      <c r="F193" s="15"/>
+      <c r="G193" s="15"/>
+      <c r="H193" s="15"/>
+      <c r="I193" s="15"/>
+      <c r="J193" s="16"/>
+      <c r="K193" s="26"/>
+      <c r="L193" s="27"/>
+    </row>
+    <row r="194" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A194" s="12"/>
+      <c r="B194" s="13"/>
+      <c r="C194" s="14"/>
+      <c r="D194" s="15"/>
+      <c r="E194" s="15"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="15"/>
+      <c r="H194" s="15"/>
+      <c r="I194" s="15"/>
+      <c r="J194" s="16"/>
+      <c r="K194" s="26"/>
+      <c r="L194" s="27"/>
+    </row>
+    <row r="195" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A195" s="12"/>
+      <c r="B195" s="13"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="15"/>
+      <c r="E195" s="15"/>
+      <c r="F195" s="15"/>
+      <c r="G195" s="15"/>
+      <c r="H195" s="15"/>
+      <c r="I195" s="15"/>
+      <c r="J195" s="16"/>
+      <c r="K195" s="26"/>
+      <c r="L195" s="27"/>
+    </row>
+    <row r="196" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A196" s="12"/>
+      <c r="B196" s="13"/>
+      <c r="C196" s="14"/>
+      <c r="D196" s="15"/>
+      <c r="E196" s="15"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="15"/>
+      <c r="H196" s="15"/>
+      <c r="I196" s="15"/>
+      <c r="J196" s="16"/>
+      <c r="K196" s="26"/>
+      <c r="L196" s="27"/>
+    </row>
+    <row r="197" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A197" s="12"/>
+      <c r="B197" s="13"/>
+      <c r="C197" s="14"/>
+      <c r="D197" s="15"/>
+      <c r="E197" s="15"/>
+      <c r="F197" s="15"/>
+      <c r="G197" s="15"/>
+      <c r="H197" s="15"/>
+      <c r="I197" s="15"/>
+      <c r="J197" s="16"/>
+      <c r="K197" s="26"/>
+      <c r="L197" s="27"/>
+    </row>
+    <row r="198" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A198" s="12"/>
+      <c r="B198" s="13"/>
+      <c r="C198" s="14"/>
+      <c r="D198" s="15"/>
+      <c r="E198" s="15"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="15"/>
+      <c r="H198" s="15"/>
+      <c r="I198" s="15"/>
+      <c r="J198" s="16"/>
+      <c r="K198" s="26"/>
+      <c r="L198" s="27"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -9306,10 +9660,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D25 D2:D3 D7:D8 D16:D17 D26:D192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D2:D3 D7:D8 D16:D17 D41:D198">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C25 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C26:C192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C25 C26 C27 C28 C29 C30 C31 C32 C33 C34 C35 C36 C37 C38 C39 C40 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C41:C198">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -2504,7 +2504,7 @@
     <t>Click on the column to sort in ascending order</t>
   </si>
   <si>
-    <t>${columnName1}${columnName}${columnName2}</t>
+    <t>${columnName1}columnName${columnName2}</t>
   </si>
   <si>
     <t>Fetch the values and save in the array text</t>
@@ -2625,6 +2625,13 @@
       <strike/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
@@ -2632,13 +2639,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.0499893185216834"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Tahoma"/>
       <charset val="134"/>
     </font>
@@ -3262,7 +3262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3332,18 +3332,34 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3359,15 +3375,15 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6412,9 +6428,9 @@
   <dimension ref="A1:O198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D36" sqref="D36"/>
+      <selection pane="bottomLeft" activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -6461,10 +6477,10 @@
       <c r="I1" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="28" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="25"/>
+      <c r="K1" s="29"/>
       <c r="L1" s="11" t="s">
         <v>733</v>
       </c>
@@ -6492,8 +6508,8 @@
       <c r="H2" s="15"/>
       <c r="I2" s="15"/>
       <c r="J2" s="16"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="27"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="31"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A3" s="12"/>
@@ -6514,8 +6530,8 @@
       <c r="H3" s="15"/>
       <c r="I3" s="15"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="27"/>
+      <c r="K3" s="30"/>
+      <c r="L3" s="31"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A4" s="12"/>
@@ -6538,8 +6554,8 @@
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
       <c r="J4" s="16"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="27"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="31"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A5" s="12"/>
@@ -6560,8 +6576,8 @@
       <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="16"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="27"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="31"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A6" s="12" t="s">
@@ -6586,8 +6602,8 @@
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="27"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="31"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
       <c r="C7" s="14" t="s">
@@ -6606,8 +6622,8 @@
       <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="27"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="31"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A8" s="12"/>
@@ -6628,8 +6644,8 @@
       <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="27"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A9" s="12"/>
@@ -6652,8 +6668,8 @@
       <c r="H9" s="15"/>
       <c r="I9" s="15"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="27"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="31"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A10" s="12"/>
@@ -6674,8 +6690,8 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="26"/>
-      <c r="L10" s="27"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="31"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
       <c r="A11" s="12" t="s">
@@ -6700,8 +6716,8 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="16"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="27"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="31"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A12" s="12"/>
@@ -6722,8 +6738,8 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="27"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="31"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A13" s="12"/>
@@ -6744,8 +6760,8 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="27"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="31"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A14" s="12"/>
@@ -6768,8 +6784,8 @@
       <c r="J14" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="26"/>
-      <c r="L14" s="27"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="31"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A15" s="12"/>
@@ -6788,8 +6804,8 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
       <c r="J15" s="16"/>
-      <c r="K15" s="26"/>
-      <c r="L15" s="27"/>
+      <c r="K15" s="30"/>
+      <c r="L15" s="31"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
       <c r="A16" s="12" t="s">
@@ -6814,11 +6830,11 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
       <c r="J16" s="16"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="26"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="32"/>
+      <c r="N16" s="31"/>
+      <c r="O16" s="30"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="12"/>
@@ -6835,11 +6851,11 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
       <c r="J17" s="16"/>
-      <c r="K17" s="26"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="27"/>
-      <c r="O17" s="26"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="31"/>
+      <c r="O17" s="30"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="12"/>
@@ -6860,11 +6876,11 @@
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="16"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="27"/>
-      <c r="O18" s="26"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="30"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="12"/>
@@ -6885,11 +6901,11 @@
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
       <c r="J19" s="16"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="27"/>
-      <c r="O19" s="26"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="30"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A20" s="12"/>
@@ -6910,11 +6926,11 @@
       <c r="H20" s="15"/>
       <c r="I20" s="15"/>
       <c r="J20" s="16"/>
-      <c r="K20" s="26"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="28"/>
-      <c r="N20" s="27"/>
-      <c r="O20" s="26"/>
+      <c r="K20" s="30"/>
+      <c r="L20" s="31"/>
+      <c r="M20" s="32"/>
+      <c r="N20" s="31"/>
+      <c r="O20" s="30"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="12"/>
@@ -6937,11 +6953,11 @@
       <c r="H21" s="15"/>
       <c r="I21" s="15"/>
       <c r="J21" s="16"/>
-      <c r="K21" s="26"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="27"/>
-      <c r="O21" s="26"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="31"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="30"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="12"/>
@@ -6964,11 +6980,11 @@
       <c r="H22" s="15"/>
       <c r="I22" s="15"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="26"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="27"/>
-      <c r="O22" s="26"/>
+      <c r="K22" s="30"/>
+      <c r="L22" s="31"/>
+      <c r="M22" s="32"/>
+      <c r="N22" s="31"/>
+      <c r="O22" s="30"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="12"/>
@@ -6989,11 +7005,11 @@
       <c r="H23" s="15"/>
       <c r="I23" s="15"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="26"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="28"/>
-      <c r="N23" s="27"/>
-      <c r="O23" s="26"/>
+      <c r="K23" s="30"/>
+      <c r="L23" s="31"/>
+      <c r="M23" s="32"/>
+      <c r="N23" s="31"/>
+      <c r="O23" s="30"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A24" s="12"/>
@@ -7014,11 +7030,11 @@
       <c r="H24" s="15"/>
       <c r="I24" s="15"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="26"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="27"/>
-      <c r="O24" s="26"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="31"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="31"/>
+      <c r="O24" s="30"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="56" spans="1:12">
       <c r="A25" s="12" t="s">
@@ -7043,28 +7059,28 @@
       <c r="H25" s="15"/>
       <c r="I25" s="15"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="26"/>
-      <c r="L25" s="27"/>
-    </row>
-    <row r="26" s="2" customFormat="1" spans="1:12">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="19" t="s">
+      <c r="K25" s="30"/>
+      <c r="L25" s="31"/>
+    </row>
+    <row r="26" s="3" customFormat="1" spans="1:12">
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="E26" s="18" t="s">
+      <c r="E26" s="25" t="s">
         <v>785</v>
       </c>
-      <c r="F26" s="18"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="15"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="26"/>
-      <c r="L26" s="27"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="35"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="28" spans="1:12">
       <c r="A27" s="12"/>
@@ -7087,28 +7103,28 @@
       <c r="H27" s="15"/>
       <c r="I27" s="15"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="26"/>
-      <c r="L27" s="27"/>
-    </row>
-    <row r="28" s="2" customFormat="1" spans="1:12">
-      <c r="A28" s="12"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="19" t="s">
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
+    </row>
+    <row r="28" s="3" customFormat="1" spans="1:12">
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="E28" s="18" t="s">
+      <c r="E28" s="25" t="s">
         <v>785</v>
       </c>
-      <c r="F28" s="18"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="26"/>
-      <c r="L28" s="27"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="35"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A29" s="12"/>
@@ -7129,8 +7145,8 @@
       <c r="H29" s="15"/>
       <c r="I29" s="15"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="26"/>
-      <c r="L29" s="27"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="31"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A30" s="12"/>
@@ -7153,8 +7169,8 @@
       <c r="H30" s="15"/>
       <c r="I30" s="15"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="26"/>
-      <c r="L30" s="27"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="31"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A31" s="12"/>
@@ -7177,28 +7193,28 @@
       <c r="H31" s="15"/>
       <c r="I31" s="15"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="27"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="19" t="s">
+      <c r="K31" s="30"/>
+      <c r="L31" s="31"/>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="A32" s="21"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="E32" s="18" t="s">
+      <c r="E32" s="25" t="s">
         <v>793</v>
       </c>
-      <c r="F32" s="18"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="15"/>
-      <c r="I32" s="15"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="26"/>
-      <c r="L32" s="27"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="35"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A33" s="12"/>
@@ -7221,8 +7237,8 @@
       <c r="H33" s="15"/>
       <c r="I33" s="15"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="26"/>
-      <c r="L33" s="27"/>
+      <c r="K33" s="30"/>
+      <c r="L33" s="31"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A34" s="12"/>
@@ -7247,8 +7263,8 @@
       <c r="H34" s="15"/>
       <c r="I34" s="15"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="26"/>
-      <c r="L34" s="27"/>
+      <c r="K34" s="30"/>
+      <c r="L34" s="31"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A35" s="12"/>
@@ -7269,8 +7285,8 @@
       <c r="H35" s="15"/>
       <c r="I35" s="15"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="26"/>
-      <c r="L35" s="27"/>
+      <c r="K35" s="30"/>
+      <c r="L35" s="31"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A36" s="12"/>
@@ -7293,8 +7309,8 @@
       <c r="H36" s="15"/>
       <c r="I36" s="15"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="26"/>
-      <c r="L36" s="27"/>
+      <c r="K36" s="30"/>
+      <c r="L36" s="31"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A37" s="12"/>
@@ -7317,8 +7333,8 @@
       <c r="H37" s="15"/>
       <c r="I37" s="15"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="26"/>
-      <c r="L37" s="27"/>
+      <c r="K37" s="30"/>
+      <c r="L37" s="31"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A38" s="12"/>
@@ -7341,8 +7357,8 @@
       <c r="H38" s="15"/>
       <c r="I38" s="15"/>
       <c r="J38" s="16"/>
-      <c r="K38" s="26"/>
-      <c r="L38" s="27"/>
+      <c r="K38" s="30"/>
+      <c r="L38" s="31"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A39" s="12"/>
@@ -7361,15 +7377,15 @@
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
       <c r="J39" s="16"/>
-      <c r="K39" s="26"/>
-      <c r="L39" s="27"/>
+      <c r="K39" s="30"/>
+      <c r="L39" s="31"/>
     </row>
     <row r="40" s="3" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A40" s="21"/>
       <c r="B40" s="13" t="s">
         <v>806</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D40" s="15" t="s">
@@ -7384,11 +7400,11 @@
       <c r="G40" s="15" t="s">
         <v>799</v>
       </c>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
-      <c r="J40" s="29"/>
-      <c r="K40" s="30"/>
-      <c r="L40" s="31"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="35"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A41" s="12"/>
@@ -7401,8 +7417,8 @@
       <c r="H41" s="15"/>
       <c r="I41" s="15"/>
       <c r="J41" s="16"/>
-      <c r="K41" s="26"/>
-      <c r="L41" s="27"/>
+      <c r="K41" s="30"/>
+      <c r="L41" s="31"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A42" s="12"/>
@@ -7415,8 +7431,8 @@
       <c r="H42" s="15"/>
       <c r="I42" s="15"/>
       <c r="J42" s="16"/>
-      <c r="K42" s="26"/>
-      <c r="L42" s="27"/>
+      <c r="K42" s="30"/>
+      <c r="L42" s="31"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A43" s="12"/>
@@ -7429,8 +7445,8 @@
       <c r="H43" s="15"/>
       <c r="I43" s="15"/>
       <c r="J43" s="16"/>
-      <c r="K43" s="26"/>
-      <c r="L43" s="27"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="31"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A44" s="12"/>
@@ -7443,8 +7459,8 @@
       <c r="H44" s="15"/>
       <c r="I44" s="15"/>
       <c r="J44" s="16"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="27"/>
+      <c r="K44" s="30"/>
+      <c r="L44" s="31"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A45" s="12"/>
@@ -7457,8 +7473,8 @@
       <c r="H45" s="15"/>
       <c r="I45" s="15"/>
       <c r="J45" s="16"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="27"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="31"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A46" s="12"/>
@@ -7471,8 +7487,8 @@
       <c r="H46" s="15"/>
       <c r="I46" s="15"/>
       <c r="J46" s="16"/>
-      <c r="K46" s="26"/>
-      <c r="L46" s="27"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="31"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A47" s="12"/>
@@ -7485,8 +7501,8 @@
       <c r="H47" s="15"/>
       <c r="I47" s="15"/>
       <c r="J47" s="16"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="27"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="31"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A48" s="12"/>
@@ -7499,8 +7515,8 @@
       <c r="H48" s="15"/>
       <c r="I48" s="15"/>
       <c r="J48" s="16"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="27"/>
+      <c r="K48" s="30"/>
+      <c r="L48" s="31"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A49" s="12"/>
@@ -7513,8 +7529,8 @@
       <c r="H49" s="15"/>
       <c r="I49" s="15"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="27"/>
+      <c r="K49" s="30"/>
+      <c r="L49" s="31"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A50" s="12"/>
@@ -7527,8 +7543,8 @@
       <c r="H50" s="15"/>
       <c r="I50" s="15"/>
       <c r="J50" s="16"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="27"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="31"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A51" s="12"/>
@@ -7541,8 +7557,8 @@
       <c r="H51" s="15"/>
       <c r="I51" s="15"/>
       <c r="J51" s="16"/>
-      <c r="K51" s="26"/>
-      <c r="L51" s="27"/>
+      <c r="K51" s="30"/>
+      <c r="L51" s="31"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A52" s="12"/>
@@ -7555,8 +7571,8 @@
       <c r="H52" s="15"/>
       <c r="I52" s="15"/>
       <c r="J52" s="16"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="27"/>
+      <c r="K52" s="30"/>
+      <c r="L52" s="31"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A53" s="12"/>
@@ -7569,8 +7585,8 @@
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
       <c r="J53" s="16"/>
-      <c r="K53" s="26"/>
-      <c r="L53" s="27"/>
+      <c r="K53" s="30"/>
+      <c r="L53" s="31"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A54" s="12"/>
@@ -7583,8 +7599,8 @@
       <c r="H54" s="15"/>
       <c r="I54" s="15"/>
       <c r="J54" s="16"/>
-      <c r="K54" s="26"/>
-      <c r="L54" s="27"/>
+      <c r="K54" s="30"/>
+      <c r="L54" s="31"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A55" s="12"/>
@@ -7597,8 +7613,8 @@
       <c r="H55" s="15"/>
       <c r="I55" s="15"/>
       <c r="J55" s="16"/>
-      <c r="K55" s="26"/>
-      <c r="L55" s="27"/>
+      <c r="K55" s="30"/>
+      <c r="L55" s="31"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A56" s="12"/>
@@ -7611,8 +7627,8 @@
       <c r="H56" s="15"/>
       <c r="I56" s="15"/>
       <c r="J56" s="16"/>
-      <c r="K56" s="26"/>
-      <c r="L56" s="27"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="31"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A57" s="12"/>
@@ -7625,8 +7641,8 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
       <c r="J57" s="16"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="27"/>
+      <c r="K57" s="30"/>
+      <c r="L57" s="31"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A58" s="12"/>
@@ -7639,8 +7655,8 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
       <c r="J58" s="16"/>
-      <c r="K58" s="26"/>
-      <c r="L58" s="27"/>
+      <c r="K58" s="30"/>
+      <c r="L58" s="31"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A59" s="12"/>
@@ -7653,8 +7669,8 @@
       <c r="H59" s="15"/>
       <c r="I59" s="15"/>
       <c r="J59" s="16"/>
-      <c r="K59" s="26"/>
-      <c r="L59" s="27"/>
+      <c r="K59" s="30"/>
+      <c r="L59" s="31"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A60" s="12"/>
@@ -7667,8 +7683,8 @@
       <c r="H60" s="15"/>
       <c r="I60" s="15"/>
       <c r="J60" s="16"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="27"/>
+      <c r="K60" s="30"/>
+      <c r="L60" s="31"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A61" s="12"/>
@@ -7681,8 +7697,8 @@
       <c r="H61" s="15"/>
       <c r="I61" s="15"/>
       <c r="J61" s="16"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="27"/>
+      <c r="K61" s="30"/>
+      <c r="L61" s="31"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A62" s="12"/>
@@ -7695,8 +7711,8 @@
       <c r="H62" s="15"/>
       <c r="I62" s="15"/>
       <c r="J62" s="16"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="27"/>
+      <c r="K62" s="30"/>
+      <c r="L62" s="31"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A63" s="12"/>
@@ -7709,8 +7725,8 @@
       <c r="H63" s="15"/>
       <c r="I63" s="15"/>
       <c r="J63" s="16"/>
-      <c r="K63" s="26"/>
-      <c r="L63" s="27"/>
+      <c r="K63" s="30"/>
+      <c r="L63" s="31"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A64" s="12"/>
@@ -7723,8 +7739,8 @@
       <c r="H64" s="15"/>
       <c r="I64" s="15"/>
       <c r="J64" s="16"/>
-      <c r="K64" s="26"/>
-      <c r="L64" s="27"/>
+      <c r="K64" s="30"/>
+      <c r="L64" s="31"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A65" s="12"/>
@@ -7737,8 +7753,8 @@
       <c r="H65" s="15"/>
       <c r="I65" s="15"/>
       <c r="J65" s="16"/>
-      <c r="K65" s="26"/>
-      <c r="L65" s="27"/>
+      <c r="K65" s="30"/>
+      <c r="L65" s="31"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A66" s="12"/>
@@ -7751,8 +7767,8 @@
       <c r="H66" s="15"/>
       <c r="I66" s="15"/>
       <c r="J66" s="16"/>
-      <c r="K66" s="26"/>
-      <c r="L66" s="27"/>
+      <c r="K66" s="30"/>
+      <c r="L66" s="31"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A67" s="12"/>
@@ -7765,8 +7781,8 @@
       <c r="H67" s="15"/>
       <c r="I67" s="15"/>
       <c r="J67" s="16"/>
-      <c r="K67" s="26"/>
-      <c r="L67" s="27"/>
+      <c r="K67" s="30"/>
+      <c r="L67" s="31"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A68" s="12"/>
@@ -7779,8 +7795,8 @@
       <c r="H68" s="15"/>
       <c r="I68" s="15"/>
       <c r="J68" s="16"/>
-      <c r="K68" s="26"/>
-      <c r="L68" s="27"/>
+      <c r="K68" s="30"/>
+      <c r="L68" s="31"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A69" s="12"/>
@@ -7793,8 +7809,8 @@
       <c r="H69" s="15"/>
       <c r="I69" s="15"/>
       <c r="J69" s="16"/>
-      <c r="K69" s="26"/>
-      <c r="L69" s="27"/>
+      <c r="K69" s="30"/>
+      <c r="L69" s="31"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A70" s="12"/>
@@ -7807,8 +7823,8 @@
       <c r="H70" s="15"/>
       <c r="I70" s="15"/>
       <c r="J70" s="16"/>
-      <c r="K70" s="26"/>
-      <c r="L70" s="27"/>
+      <c r="K70" s="30"/>
+      <c r="L70" s="31"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A71" s="12"/>
@@ -7821,8 +7837,8 @@
       <c r="H71" s="15"/>
       <c r="I71" s="15"/>
       <c r="J71" s="16"/>
-      <c r="K71" s="26"/>
-      <c r="L71" s="27"/>
+      <c r="K71" s="30"/>
+      <c r="L71" s="31"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A72" s="12"/>
@@ -7835,8 +7851,8 @@
       <c r="H72" s="15"/>
       <c r="I72" s="15"/>
       <c r="J72" s="16"/>
-      <c r="K72" s="26"/>
-      <c r="L72" s="27"/>
+      <c r="K72" s="30"/>
+      <c r="L72" s="31"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A73" s="12"/>
@@ -7849,8 +7865,8 @@
       <c r="H73" s="15"/>
       <c r="I73" s="15"/>
       <c r="J73" s="16"/>
-      <c r="K73" s="26"/>
-      <c r="L73" s="27"/>
+      <c r="K73" s="30"/>
+      <c r="L73" s="31"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A74" s="12"/>
@@ -7863,8 +7879,8 @@
       <c r="H74" s="15"/>
       <c r="I74" s="15"/>
       <c r="J74" s="16"/>
-      <c r="K74" s="26"/>
-      <c r="L74" s="27"/>
+      <c r="K74" s="30"/>
+      <c r="L74" s="31"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A75" s="12"/>
@@ -7877,8 +7893,8 @@
       <c r="H75" s="15"/>
       <c r="I75" s="15"/>
       <c r="J75" s="16"/>
-      <c r="K75" s="26"/>
-      <c r="L75" s="27"/>
+      <c r="K75" s="30"/>
+      <c r="L75" s="31"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A76" s="12"/>
@@ -7891,8 +7907,8 @@
       <c r="H76" s="15"/>
       <c r="I76" s="15"/>
       <c r="J76" s="16"/>
-      <c r="K76" s="26"/>
-      <c r="L76" s="27"/>
+      <c r="K76" s="30"/>
+      <c r="L76" s="31"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A77" s="12"/>
@@ -7905,8 +7921,8 @@
       <c r="H77" s="15"/>
       <c r="I77" s="15"/>
       <c r="J77" s="16"/>
-      <c r="K77" s="26"/>
-      <c r="L77" s="27"/>
+      <c r="K77" s="30"/>
+      <c r="L77" s="31"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A78" s="12"/>
@@ -7919,8 +7935,8 @@
       <c r="H78" s="15"/>
       <c r="I78" s="15"/>
       <c r="J78" s="16"/>
-      <c r="K78" s="26"/>
-      <c r="L78" s="27"/>
+      <c r="K78" s="30"/>
+      <c r="L78" s="31"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A79" s="12"/>
@@ -7933,8 +7949,8 @@
       <c r="H79" s="15"/>
       <c r="I79" s="15"/>
       <c r="J79" s="16"/>
-      <c r="K79" s="26"/>
-      <c r="L79" s="27"/>
+      <c r="K79" s="30"/>
+      <c r="L79" s="31"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A80" s="12"/>
@@ -7947,8 +7963,8 @@
       <c r="H80" s="15"/>
       <c r="I80" s="15"/>
       <c r="J80" s="16"/>
-      <c r="K80" s="26"/>
-      <c r="L80" s="27"/>
+      <c r="K80" s="30"/>
+      <c r="L80" s="31"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A81" s="12"/>
@@ -7961,8 +7977,8 @@
       <c r="H81" s="15"/>
       <c r="I81" s="15"/>
       <c r="J81" s="16"/>
-      <c r="K81" s="26"/>
-      <c r="L81" s="27"/>
+      <c r="K81" s="30"/>
+      <c r="L81" s="31"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A82" s="12"/>
@@ -7975,8 +7991,8 @@
       <c r="H82" s="15"/>
       <c r="I82" s="15"/>
       <c r="J82" s="16"/>
-      <c r="K82" s="26"/>
-      <c r="L82" s="27"/>
+      <c r="K82" s="30"/>
+      <c r="L82" s="31"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A83" s="12"/>
@@ -7989,8 +8005,8 @@
       <c r="H83" s="15"/>
       <c r="I83" s="15"/>
       <c r="J83" s="16"/>
-      <c r="K83" s="26"/>
-      <c r="L83" s="27"/>
+      <c r="K83" s="30"/>
+      <c r="L83" s="31"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A84" s="12"/>
@@ -8003,8 +8019,8 @@
       <c r="H84" s="15"/>
       <c r="I84" s="15"/>
       <c r="J84" s="16"/>
-      <c r="K84" s="26"/>
-      <c r="L84" s="27"/>
+      <c r="K84" s="30"/>
+      <c r="L84" s="31"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A85" s="12"/>
@@ -8017,8 +8033,8 @@
       <c r="H85" s="15"/>
       <c r="I85" s="15"/>
       <c r="J85" s="16"/>
-      <c r="K85" s="26"/>
-      <c r="L85" s="27"/>
+      <c r="K85" s="30"/>
+      <c r="L85" s="31"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A86" s="12"/>
@@ -8031,8 +8047,8 @@
       <c r="H86" s="15"/>
       <c r="I86" s="15"/>
       <c r="J86" s="16"/>
-      <c r="K86" s="26"/>
-      <c r="L86" s="27"/>
+      <c r="K86" s="30"/>
+      <c r="L86" s="31"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A87" s="12"/>
@@ -8045,8 +8061,8 @@
       <c r="H87" s="15"/>
       <c r="I87" s="15"/>
       <c r="J87" s="16"/>
-      <c r="K87" s="26"/>
-      <c r="L87" s="27"/>
+      <c r="K87" s="30"/>
+      <c r="L87" s="31"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A88" s="12"/>
@@ -8059,8 +8075,8 @@
       <c r="H88" s="15"/>
       <c r="I88" s="15"/>
       <c r="J88" s="16"/>
-      <c r="K88" s="26"/>
-      <c r="L88" s="27"/>
+      <c r="K88" s="30"/>
+      <c r="L88" s="31"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A89" s="12"/>
@@ -8073,8 +8089,8 @@
       <c r="H89" s="15"/>
       <c r="I89" s="15"/>
       <c r="J89" s="16"/>
-      <c r="K89" s="26"/>
-      <c r="L89" s="27"/>
+      <c r="K89" s="30"/>
+      <c r="L89" s="31"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A90" s="12"/>
@@ -8087,8 +8103,8 @@
       <c r="H90" s="15"/>
       <c r="I90" s="15"/>
       <c r="J90" s="16"/>
-      <c r="K90" s="26"/>
-      <c r="L90" s="27"/>
+      <c r="K90" s="30"/>
+      <c r="L90" s="31"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A91" s="12"/>
@@ -8101,8 +8117,8 @@
       <c r="H91" s="15"/>
       <c r="I91" s="15"/>
       <c r="J91" s="16"/>
-      <c r="K91" s="26"/>
-      <c r="L91" s="27"/>
+      <c r="K91" s="30"/>
+      <c r="L91" s="31"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A92" s="12"/>
@@ -8115,8 +8131,8 @@
       <c r="H92" s="15"/>
       <c r="I92" s="15"/>
       <c r="J92" s="16"/>
-      <c r="K92" s="26"/>
-      <c r="L92" s="27"/>
+      <c r="K92" s="30"/>
+      <c r="L92" s="31"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A93" s="12"/>
@@ -8129,8 +8145,8 @@
       <c r="H93" s="15"/>
       <c r="I93" s="15"/>
       <c r="J93" s="16"/>
-      <c r="K93" s="26"/>
-      <c r="L93" s="27"/>
+      <c r="K93" s="30"/>
+      <c r="L93" s="31"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A94" s="12"/>
@@ -8143,8 +8159,8 @@
       <c r="H94" s="15"/>
       <c r="I94" s="15"/>
       <c r="J94" s="16"/>
-      <c r="K94" s="26"/>
-      <c r="L94" s="27"/>
+      <c r="K94" s="30"/>
+      <c r="L94" s="31"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A95" s="12"/>
@@ -8157,8 +8173,8 @@
       <c r="H95" s="15"/>
       <c r="I95" s="15"/>
       <c r="J95" s="16"/>
-      <c r="K95" s="26"/>
-      <c r="L95" s="27"/>
+      <c r="K95" s="30"/>
+      <c r="L95" s="31"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A96" s="12"/>
@@ -8171,8 +8187,8 @@
       <c r="H96" s="15"/>
       <c r="I96" s="15"/>
       <c r="J96" s="16"/>
-      <c r="K96" s="26"/>
-      <c r="L96" s="27"/>
+      <c r="K96" s="30"/>
+      <c r="L96" s="31"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A97" s="12"/>
@@ -8185,8 +8201,8 @@
       <c r="H97" s="15"/>
       <c r="I97" s="15"/>
       <c r="J97" s="16"/>
-      <c r="K97" s="26"/>
-      <c r="L97" s="27"/>
+      <c r="K97" s="30"/>
+      <c r="L97" s="31"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A98" s="12"/>
@@ -8199,8 +8215,8 @@
       <c r="H98" s="15"/>
       <c r="I98" s="15"/>
       <c r="J98" s="16"/>
-      <c r="K98" s="26"/>
-      <c r="L98" s="27"/>
+      <c r="K98" s="30"/>
+      <c r="L98" s="31"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A99" s="12"/>
@@ -8213,8 +8229,8 @@
       <c r="H99" s="15"/>
       <c r="I99" s="15"/>
       <c r="J99" s="16"/>
-      <c r="K99" s="26"/>
-      <c r="L99" s="27"/>
+      <c r="K99" s="30"/>
+      <c r="L99" s="31"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A100" s="12"/>
@@ -8227,8 +8243,8 @@
       <c r="H100" s="15"/>
       <c r="I100" s="15"/>
       <c r="J100" s="16"/>
-      <c r="K100" s="26"/>
-      <c r="L100" s="27"/>
+      <c r="K100" s="30"/>
+      <c r="L100" s="31"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A101" s="12"/>
@@ -8241,8 +8257,8 @@
       <c r="H101" s="15"/>
       <c r="I101" s="15"/>
       <c r="J101" s="16"/>
-      <c r="K101" s="26"/>
-      <c r="L101" s="27"/>
+      <c r="K101" s="30"/>
+      <c r="L101" s="31"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A102" s="12"/>
@@ -8255,8 +8271,8 @@
       <c r="H102" s="15"/>
       <c r="I102" s="15"/>
       <c r="J102" s="16"/>
-      <c r="K102" s="26"/>
-      <c r="L102" s="27"/>
+      <c r="K102" s="30"/>
+      <c r="L102" s="31"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A103" s="12"/>
@@ -8269,8 +8285,8 @@
       <c r="H103" s="15"/>
       <c r="I103" s="15"/>
       <c r="J103" s="16"/>
-      <c r="K103" s="26"/>
-      <c r="L103" s="27"/>
+      <c r="K103" s="30"/>
+      <c r="L103" s="31"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A104" s="12"/>
@@ -8283,8 +8299,8 @@
       <c r="H104" s="15"/>
       <c r="I104" s="15"/>
       <c r="J104" s="16"/>
-      <c r="K104" s="26"/>
-      <c r="L104" s="27"/>
+      <c r="K104" s="30"/>
+      <c r="L104" s="31"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A105" s="12"/>
@@ -8297,8 +8313,8 @@
       <c r="H105" s="15"/>
       <c r="I105" s="15"/>
       <c r="J105" s="16"/>
-      <c r="K105" s="26"/>
-      <c r="L105" s="27"/>
+      <c r="K105" s="30"/>
+      <c r="L105" s="31"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A106" s="12"/>
@@ -8311,8 +8327,8 @@
       <c r="H106" s="15"/>
       <c r="I106" s="15"/>
       <c r="J106" s="16"/>
-      <c r="K106" s="26"/>
-      <c r="L106" s="27"/>
+      <c r="K106" s="30"/>
+      <c r="L106" s="31"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A107" s="12"/>
@@ -8325,8 +8341,8 @@
       <c r="H107" s="15"/>
       <c r="I107" s="15"/>
       <c r="J107" s="16"/>
-      <c r="K107" s="26"/>
-      <c r="L107" s="27"/>
+      <c r="K107" s="30"/>
+      <c r="L107" s="31"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A108" s="12"/>
@@ -8339,8 +8355,8 @@
       <c r="H108" s="15"/>
       <c r="I108" s="15"/>
       <c r="J108" s="16"/>
-      <c r="K108" s="26"/>
-      <c r="L108" s="27"/>
+      <c r="K108" s="30"/>
+      <c r="L108" s="31"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A109" s="12"/>
@@ -8353,8 +8369,8 @@
       <c r="H109" s="15"/>
       <c r="I109" s="15"/>
       <c r="J109" s="16"/>
-      <c r="K109" s="26"/>
-      <c r="L109" s="27"/>
+      <c r="K109" s="30"/>
+      <c r="L109" s="31"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A110" s="12"/>
@@ -8367,8 +8383,8 @@
       <c r="H110" s="15"/>
       <c r="I110" s="15"/>
       <c r="J110" s="16"/>
-      <c r="K110" s="26"/>
-      <c r="L110" s="27"/>
+      <c r="K110" s="30"/>
+      <c r="L110" s="31"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A111" s="12"/>
@@ -8381,8 +8397,8 @@
       <c r="H111" s="15"/>
       <c r="I111" s="15"/>
       <c r="J111" s="16"/>
-      <c r="K111" s="26"/>
-      <c r="L111" s="27"/>
+      <c r="K111" s="30"/>
+      <c r="L111" s="31"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A112" s="12"/>
@@ -8395,8 +8411,8 @@
       <c r="H112" s="15"/>
       <c r="I112" s="15"/>
       <c r="J112" s="16"/>
-      <c r="K112" s="26"/>
-      <c r="L112" s="27"/>
+      <c r="K112" s="30"/>
+      <c r="L112" s="31"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A113" s="12"/>
@@ -8409,8 +8425,8 @@
       <c r="H113" s="15"/>
       <c r="I113" s="15"/>
       <c r="J113" s="16"/>
-      <c r="K113" s="26"/>
-      <c r="L113" s="27"/>
+      <c r="K113" s="30"/>
+      <c r="L113" s="31"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A114" s="12"/>
@@ -8423,8 +8439,8 @@
       <c r="H114" s="15"/>
       <c r="I114" s="15"/>
       <c r="J114" s="16"/>
-      <c r="K114" s="26"/>
-      <c r="L114" s="27"/>
+      <c r="K114" s="30"/>
+      <c r="L114" s="31"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A115" s="12"/>
@@ -8437,8 +8453,8 @@
       <c r="H115" s="15"/>
       <c r="I115" s="15"/>
       <c r="J115" s="16"/>
-      <c r="K115" s="26"/>
-      <c r="L115" s="27"/>
+      <c r="K115" s="30"/>
+      <c r="L115" s="31"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A116" s="12"/>
@@ -8451,8 +8467,8 @@
       <c r="H116" s="15"/>
       <c r="I116" s="15"/>
       <c r="J116" s="16"/>
-      <c r="K116" s="26"/>
-      <c r="L116" s="27"/>
+      <c r="K116" s="30"/>
+      <c r="L116" s="31"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A117" s="12"/>
@@ -8465,8 +8481,8 @@
       <c r="H117" s="15"/>
       <c r="I117" s="15"/>
       <c r="J117" s="16"/>
-      <c r="K117" s="26"/>
-      <c r="L117" s="27"/>
+      <c r="K117" s="30"/>
+      <c r="L117" s="31"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A118" s="12"/>
@@ -8479,8 +8495,8 @@
       <c r="H118" s="15"/>
       <c r="I118" s="15"/>
       <c r="J118" s="16"/>
-      <c r="K118" s="26"/>
-      <c r="L118" s="27"/>
+      <c r="K118" s="30"/>
+      <c r="L118" s="31"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A119" s="12"/>
@@ -8493,8 +8509,8 @@
       <c r="H119" s="15"/>
       <c r="I119" s="15"/>
       <c r="J119" s="16"/>
-      <c r="K119" s="26"/>
-      <c r="L119" s="27"/>
+      <c r="K119" s="30"/>
+      <c r="L119" s="31"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A120" s="12"/>
@@ -8507,8 +8523,8 @@
       <c r="H120" s="15"/>
       <c r="I120" s="15"/>
       <c r="J120" s="16"/>
-      <c r="K120" s="26"/>
-      <c r="L120" s="27"/>
+      <c r="K120" s="30"/>
+      <c r="L120" s="31"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A121" s="12"/>
@@ -8521,8 +8537,8 @@
       <c r="H121" s="15"/>
       <c r="I121" s="15"/>
       <c r="J121" s="16"/>
-      <c r="K121" s="26"/>
-      <c r="L121" s="27"/>
+      <c r="K121" s="30"/>
+      <c r="L121" s="31"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A122" s="12"/>
@@ -8535,8 +8551,8 @@
       <c r="H122" s="15"/>
       <c r="I122" s="15"/>
       <c r="J122" s="16"/>
-      <c r="K122" s="26"/>
-      <c r="L122" s="27"/>
+      <c r="K122" s="30"/>
+      <c r="L122" s="31"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A123" s="12"/>
@@ -8549,8 +8565,8 @@
       <c r="H123" s="15"/>
       <c r="I123" s="15"/>
       <c r="J123" s="16"/>
-      <c r="K123" s="26"/>
-      <c r="L123" s="27"/>
+      <c r="K123" s="30"/>
+      <c r="L123" s="31"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A124" s="12"/>
@@ -8563,8 +8579,8 @@
       <c r="H124" s="15"/>
       <c r="I124" s="15"/>
       <c r="J124" s="16"/>
-      <c r="K124" s="26"/>
-      <c r="L124" s="27"/>
+      <c r="K124" s="30"/>
+      <c r="L124" s="31"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A125" s="12"/>
@@ -8577,8 +8593,8 @@
       <c r="H125" s="15"/>
       <c r="I125" s="15"/>
       <c r="J125" s="16"/>
-      <c r="K125" s="26"/>
-      <c r="L125" s="27"/>
+      <c r="K125" s="30"/>
+      <c r="L125" s="31"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A126" s="12"/>
@@ -8591,8 +8607,8 @@
       <c r="H126" s="15"/>
       <c r="I126" s="15"/>
       <c r="J126" s="16"/>
-      <c r="K126" s="26"/>
-      <c r="L126" s="27"/>
+      <c r="K126" s="30"/>
+      <c r="L126" s="31"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A127" s="12"/>
@@ -8605,8 +8621,8 @@
       <c r="H127" s="15"/>
       <c r="I127" s="15"/>
       <c r="J127" s="16"/>
-      <c r="K127" s="26"/>
-      <c r="L127" s="27"/>
+      <c r="K127" s="30"/>
+      <c r="L127" s="31"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A128" s="12"/>
@@ -8619,8 +8635,8 @@
       <c r="H128" s="15"/>
       <c r="I128" s="15"/>
       <c r="J128" s="16"/>
-      <c r="K128" s="26"/>
-      <c r="L128" s="27"/>
+      <c r="K128" s="30"/>
+      <c r="L128" s="31"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A129" s="12"/>
@@ -8633,8 +8649,8 @@
       <c r="H129" s="15"/>
       <c r="I129" s="15"/>
       <c r="J129" s="16"/>
-      <c r="K129" s="26"/>
-      <c r="L129" s="27"/>
+      <c r="K129" s="30"/>
+      <c r="L129" s="31"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A130" s="12"/>
@@ -8647,8 +8663,8 @@
       <c r="H130" s="15"/>
       <c r="I130" s="15"/>
       <c r="J130" s="16"/>
-      <c r="K130" s="26"/>
-      <c r="L130" s="27"/>
+      <c r="K130" s="30"/>
+      <c r="L130" s="31"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A131" s="12"/>
@@ -8661,8 +8677,8 @@
       <c r="H131" s="15"/>
       <c r="I131" s="15"/>
       <c r="J131" s="16"/>
-      <c r="K131" s="26"/>
-      <c r="L131" s="27"/>
+      <c r="K131" s="30"/>
+      <c r="L131" s="31"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A132" s="12"/>
@@ -8675,8 +8691,8 @@
       <c r="H132" s="15"/>
       <c r="I132" s="15"/>
       <c r="J132" s="16"/>
-      <c r="K132" s="26"/>
-      <c r="L132" s="27"/>
+      <c r="K132" s="30"/>
+      <c r="L132" s="31"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A133" s="12"/>
@@ -8689,8 +8705,8 @@
       <c r="H133" s="15"/>
       <c r="I133" s="15"/>
       <c r="J133" s="16"/>
-      <c r="K133" s="26"/>
-      <c r="L133" s="27"/>
+      <c r="K133" s="30"/>
+      <c r="L133" s="31"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A134" s="12"/>
@@ -8703,8 +8719,8 @@
       <c r="H134" s="15"/>
       <c r="I134" s="15"/>
       <c r="J134" s="16"/>
-      <c r="K134" s="26"/>
-      <c r="L134" s="27"/>
+      <c r="K134" s="30"/>
+      <c r="L134" s="31"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A135" s="12"/>
@@ -8717,8 +8733,8 @@
       <c r="H135" s="15"/>
       <c r="I135" s="15"/>
       <c r="J135" s="16"/>
-      <c r="K135" s="26"/>
-      <c r="L135" s="27"/>
+      <c r="K135" s="30"/>
+      <c r="L135" s="31"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A136" s="12"/>
@@ -8731,8 +8747,8 @@
       <c r="H136" s="15"/>
       <c r="I136" s="15"/>
       <c r="J136" s="16"/>
-      <c r="K136" s="26"/>
-      <c r="L136" s="27"/>
+      <c r="K136" s="30"/>
+      <c r="L136" s="31"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A137" s="12"/>
@@ -8745,8 +8761,8 @@
       <c r="H137" s="15"/>
       <c r="I137" s="15"/>
       <c r="J137" s="16"/>
-      <c r="K137" s="26"/>
-      <c r="L137" s="27"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="31"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A138" s="12"/>
@@ -8759,8 +8775,8 @@
       <c r="H138" s="15"/>
       <c r="I138" s="15"/>
       <c r="J138" s="16"/>
-      <c r="K138" s="26"/>
-      <c r="L138" s="27"/>
+      <c r="K138" s="30"/>
+      <c r="L138" s="31"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A139" s="12"/>
@@ -8773,8 +8789,8 @@
       <c r="H139" s="15"/>
       <c r="I139" s="15"/>
       <c r="J139" s="16"/>
-      <c r="K139" s="26"/>
-      <c r="L139" s="27"/>
+      <c r="K139" s="30"/>
+      <c r="L139" s="31"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A140" s="12"/>
@@ -8787,8 +8803,8 @@
       <c r="H140" s="15"/>
       <c r="I140" s="15"/>
       <c r="J140" s="16"/>
-      <c r="K140" s="26"/>
-      <c r="L140" s="27"/>
+      <c r="K140" s="30"/>
+      <c r="L140" s="31"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A141" s="12"/>
@@ -8801,8 +8817,8 @@
       <c r="H141" s="15"/>
       <c r="I141" s="15"/>
       <c r="J141" s="16"/>
-      <c r="K141" s="26"/>
-      <c r="L141" s="27"/>
+      <c r="K141" s="30"/>
+      <c r="L141" s="31"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A142" s="12"/>
@@ -8815,8 +8831,8 @@
       <c r="H142" s="15"/>
       <c r="I142" s="15"/>
       <c r="J142" s="16"/>
-      <c r="K142" s="26"/>
-      <c r="L142" s="27"/>
+      <c r="K142" s="30"/>
+      <c r="L142" s="31"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A143" s="12"/>
@@ -8829,8 +8845,8 @@
       <c r="H143" s="15"/>
       <c r="I143" s="15"/>
       <c r="J143" s="16"/>
-      <c r="K143" s="26"/>
-      <c r="L143" s="27"/>
+      <c r="K143" s="30"/>
+      <c r="L143" s="31"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A144" s="12"/>
@@ -8843,8 +8859,8 @@
       <c r="H144" s="15"/>
       <c r="I144" s="15"/>
       <c r="J144" s="16"/>
-      <c r="K144" s="26"/>
-      <c r="L144" s="27"/>
+      <c r="K144" s="30"/>
+      <c r="L144" s="31"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A145" s="12"/>
@@ -8857,8 +8873,8 @@
       <c r="H145" s="15"/>
       <c r="I145" s="15"/>
       <c r="J145" s="16"/>
-      <c r="K145" s="26"/>
-      <c r="L145" s="27"/>
+      <c r="K145" s="30"/>
+      <c r="L145" s="31"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A146" s="12"/>
@@ -8871,8 +8887,8 @@
       <c r="H146" s="15"/>
       <c r="I146" s="15"/>
       <c r="J146" s="16"/>
-      <c r="K146" s="26"/>
-      <c r="L146" s="27"/>
+      <c r="K146" s="30"/>
+      <c r="L146" s="31"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A147" s="12"/>
@@ -8885,8 +8901,8 @@
       <c r="H147" s="15"/>
       <c r="I147" s="15"/>
       <c r="J147" s="16"/>
-      <c r="K147" s="26"/>
-      <c r="L147" s="27"/>
+      <c r="K147" s="30"/>
+      <c r="L147" s="31"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A148" s="12"/>
@@ -8899,8 +8915,8 @@
       <c r="H148" s="15"/>
       <c r="I148" s="15"/>
       <c r="J148" s="16"/>
-      <c r="K148" s="26"/>
-      <c r="L148" s="27"/>
+      <c r="K148" s="30"/>
+      <c r="L148" s="31"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A149" s="12"/>
@@ -8913,8 +8929,8 @@
       <c r="H149" s="15"/>
       <c r="I149" s="15"/>
       <c r="J149" s="16"/>
-      <c r="K149" s="26"/>
-      <c r="L149" s="27"/>
+      <c r="K149" s="30"/>
+      <c r="L149" s="31"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A150" s="12"/>
@@ -8927,8 +8943,8 @@
       <c r="H150" s="15"/>
       <c r="I150" s="15"/>
       <c r="J150" s="16"/>
-      <c r="K150" s="26"/>
-      <c r="L150" s="27"/>
+      <c r="K150" s="30"/>
+      <c r="L150" s="31"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A151" s="12"/>
@@ -8941,8 +8957,8 @@
       <c r="H151" s="15"/>
       <c r="I151" s="15"/>
       <c r="J151" s="16"/>
-      <c r="K151" s="26"/>
-      <c r="L151" s="27"/>
+      <c r="K151" s="30"/>
+      <c r="L151" s="31"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A152" s="12"/>
@@ -8955,8 +8971,8 @@
       <c r="H152" s="15"/>
       <c r="I152" s="15"/>
       <c r="J152" s="16"/>
-      <c r="K152" s="26"/>
-      <c r="L152" s="27"/>
+      <c r="K152" s="30"/>
+      <c r="L152" s="31"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A153" s="12"/>
@@ -8969,8 +8985,8 @@
       <c r="H153" s="15"/>
       <c r="I153" s="15"/>
       <c r="J153" s="16"/>
-      <c r="K153" s="26"/>
-      <c r="L153" s="27"/>
+      <c r="K153" s="30"/>
+      <c r="L153" s="31"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A154" s="12"/>
@@ -8983,8 +8999,8 @@
       <c r="H154" s="15"/>
       <c r="I154" s="15"/>
       <c r="J154" s="16"/>
-      <c r="K154" s="26"/>
-      <c r="L154" s="27"/>
+      <c r="K154" s="30"/>
+      <c r="L154" s="31"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A155" s="12"/>
@@ -8997,8 +9013,8 @@
       <c r="H155" s="15"/>
       <c r="I155" s="15"/>
       <c r="J155" s="16"/>
-      <c r="K155" s="26"/>
-      <c r="L155" s="27"/>
+      <c r="K155" s="30"/>
+      <c r="L155" s="31"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A156" s="12"/>
@@ -9011,8 +9027,8 @@
       <c r="H156" s="15"/>
       <c r="I156" s="15"/>
       <c r="J156" s="16"/>
-      <c r="K156" s="26"/>
-      <c r="L156" s="27"/>
+      <c r="K156" s="30"/>
+      <c r="L156" s="31"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A157" s="12"/>
@@ -9025,8 +9041,8 @@
       <c r="H157" s="15"/>
       <c r="I157" s="15"/>
       <c r="J157" s="16"/>
-      <c r="K157" s="26"/>
-      <c r="L157" s="27"/>
+      <c r="K157" s="30"/>
+      <c r="L157" s="31"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A158" s="12"/>
@@ -9039,8 +9055,8 @@
       <c r="H158" s="15"/>
       <c r="I158" s="15"/>
       <c r="J158" s="16"/>
-      <c r="K158" s="26"/>
-      <c r="L158" s="27"/>
+      <c r="K158" s="30"/>
+      <c r="L158" s="31"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A159" s="12"/>
@@ -9053,8 +9069,8 @@
       <c r="H159" s="15"/>
       <c r="I159" s="15"/>
       <c r="J159" s="16"/>
-      <c r="K159" s="26"/>
-      <c r="L159" s="27"/>
+      <c r="K159" s="30"/>
+      <c r="L159" s="31"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A160" s="12"/>
@@ -9067,8 +9083,8 @@
       <c r="H160" s="15"/>
       <c r="I160" s="15"/>
       <c r="J160" s="16"/>
-      <c r="K160" s="26"/>
-      <c r="L160" s="27"/>
+      <c r="K160" s="30"/>
+      <c r="L160" s="31"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A161" s="12"/>
@@ -9081,8 +9097,8 @@
       <c r="H161" s="15"/>
       <c r="I161" s="15"/>
       <c r="J161" s="16"/>
-      <c r="K161" s="26"/>
-      <c r="L161" s="27"/>
+      <c r="K161" s="30"/>
+      <c r="L161" s="31"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A162" s="12"/>
@@ -9095,8 +9111,8 @@
       <c r="H162" s="15"/>
       <c r="I162" s="15"/>
       <c r="J162" s="16"/>
-      <c r="K162" s="26"/>
-      <c r="L162" s="27"/>
+      <c r="K162" s="30"/>
+      <c r="L162" s="31"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A163" s="12"/>
@@ -9109,8 +9125,8 @@
       <c r="H163" s="15"/>
       <c r="I163" s="15"/>
       <c r="J163" s="16"/>
-      <c r="K163" s="26"/>
-      <c r="L163" s="27"/>
+      <c r="K163" s="30"/>
+      <c r="L163" s="31"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A164" s="12"/>
@@ -9123,8 +9139,8 @@
       <c r="H164" s="15"/>
       <c r="I164" s="15"/>
       <c r="J164" s="16"/>
-      <c r="K164" s="26"/>
-      <c r="L164" s="27"/>
+      <c r="K164" s="30"/>
+      <c r="L164" s="31"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A165" s="12"/>
@@ -9137,8 +9153,8 @@
       <c r="H165" s="15"/>
       <c r="I165" s="15"/>
       <c r="J165" s="16"/>
-      <c r="K165" s="26"/>
-      <c r="L165" s="27"/>
+      <c r="K165" s="30"/>
+      <c r="L165" s="31"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A166" s="12"/>
@@ -9151,8 +9167,8 @@
       <c r="H166" s="15"/>
       <c r="I166" s="15"/>
       <c r="J166" s="16"/>
-      <c r="K166" s="26"/>
-      <c r="L166" s="27"/>
+      <c r="K166" s="30"/>
+      <c r="L166" s="31"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A167" s="12"/>
@@ -9165,8 +9181,8 @@
       <c r="H167" s="15"/>
       <c r="I167" s="15"/>
       <c r="J167" s="16"/>
-      <c r="K167" s="26"/>
-      <c r="L167" s="27"/>
+      <c r="K167" s="30"/>
+      <c r="L167" s="31"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A168" s="12"/>
@@ -9179,8 +9195,8 @@
       <c r="H168" s="15"/>
       <c r="I168" s="15"/>
       <c r="J168" s="16"/>
-      <c r="K168" s="26"/>
-      <c r="L168" s="27"/>
+      <c r="K168" s="30"/>
+      <c r="L168" s="31"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A169" s="12"/>
@@ -9193,8 +9209,8 @@
       <c r="H169" s="15"/>
       <c r="I169" s="15"/>
       <c r="J169" s="16"/>
-      <c r="K169" s="26"/>
-      <c r="L169" s="27"/>
+      <c r="K169" s="30"/>
+      <c r="L169" s="31"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A170" s="12"/>
@@ -9207,8 +9223,8 @@
       <c r="H170" s="15"/>
       <c r="I170" s="15"/>
       <c r="J170" s="16"/>
-      <c r="K170" s="26"/>
-      <c r="L170" s="27"/>
+      <c r="K170" s="30"/>
+      <c r="L170" s="31"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A171" s="12"/>
@@ -9221,8 +9237,8 @@
       <c r="H171" s="15"/>
       <c r="I171" s="15"/>
       <c r="J171" s="16"/>
-      <c r="K171" s="26"/>
-      <c r="L171" s="27"/>
+      <c r="K171" s="30"/>
+      <c r="L171" s="31"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A172" s="12"/>
@@ -9235,8 +9251,8 @@
       <c r="H172" s="15"/>
       <c r="I172" s="15"/>
       <c r="J172" s="16"/>
-      <c r="K172" s="26"/>
-      <c r="L172" s="27"/>
+      <c r="K172" s="30"/>
+      <c r="L172" s="31"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A173" s="12"/>
@@ -9249,8 +9265,8 @@
       <c r="H173" s="15"/>
       <c r="I173" s="15"/>
       <c r="J173" s="16"/>
-      <c r="K173" s="26"/>
-      <c r="L173" s="27"/>
+      <c r="K173" s="30"/>
+      <c r="L173" s="31"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A174" s="12"/>
@@ -9263,8 +9279,8 @@
       <c r="H174" s="15"/>
       <c r="I174" s="15"/>
       <c r="J174" s="16"/>
-      <c r="K174" s="26"/>
-      <c r="L174" s="27"/>
+      <c r="K174" s="30"/>
+      <c r="L174" s="31"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A175" s="12"/>
@@ -9277,8 +9293,8 @@
       <c r="H175" s="15"/>
       <c r="I175" s="15"/>
       <c r="J175" s="16"/>
-      <c r="K175" s="26"/>
-      <c r="L175" s="27"/>
+      <c r="K175" s="30"/>
+      <c r="L175" s="31"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A176" s="12"/>
@@ -9291,8 +9307,8 @@
       <c r="H176" s="15"/>
       <c r="I176" s="15"/>
       <c r="J176" s="16"/>
-      <c r="K176" s="26"/>
-      <c r="L176" s="27"/>
+      <c r="K176" s="30"/>
+      <c r="L176" s="31"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A177" s="12"/>
@@ -9305,8 +9321,8 @@
       <c r="H177" s="15"/>
       <c r="I177" s="15"/>
       <c r="J177" s="16"/>
-      <c r="K177" s="26"/>
-      <c r="L177" s="27"/>
+      <c r="K177" s="30"/>
+      <c r="L177" s="31"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A178" s="12"/>
@@ -9319,8 +9335,8 @@
       <c r="H178" s="15"/>
       <c r="I178" s="15"/>
       <c r="J178" s="16"/>
-      <c r="K178" s="26"/>
-      <c r="L178" s="27"/>
+      <c r="K178" s="30"/>
+      <c r="L178" s="31"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A179" s="12"/>
@@ -9333,8 +9349,8 @@
       <c r="H179" s="15"/>
       <c r="I179" s="15"/>
       <c r="J179" s="16"/>
-      <c r="K179" s="26"/>
-      <c r="L179" s="27"/>
+      <c r="K179" s="30"/>
+      <c r="L179" s="31"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A180" s="12"/>
@@ -9347,8 +9363,8 @@
       <c r="H180" s="15"/>
       <c r="I180" s="15"/>
       <c r="J180" s="16"/>
-      <c r="K180" s="26"/>
-      <c r="L180" s="27"/>
+      <c r="K180" s="30"/>
+      <c r="L180" s="31"/>
     </row>
     <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A181" s="12"/>
@@ -9361,8 +9377,8 @@
       <c r="H181" s="15"/>
       <c r="I181" s="15"/>
       <c r="J181" s="16"/>
-      <c r="K181" s="26"/>
-      <c r="L181" s="27"/>
+      <c r="K181" s="30"/>
+      <c r="L181" s="31"/>
     </row>
     <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A182" s="12"/>
@@ -9375,8 +9391,8 @@
       <c r="H182" s="15"/>
       <c r="I182" s="15"/>
       <c r="J182" s="16"/>
-      <c r="K182" s="26"/>
-      <c r="L182" s="27"/>
+      <c r="K182" s="30"/>
+      <c r="L182" s="31"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A183" s="12"/>
@@ -9389,8 +9405,8 @@
       <c r="H183" s="15"/>
       <c r="I183" s="15"/>
       <c r="J183" s="16"/>
-      <c r="K183" s="26"/>
-      <c r="L183" s="27"/>
+      <c r="K183" s="30"/>
+      <c r="L183" s="31"/>
     </row>
     <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A184" s="12"/>
@@ -9403,8 +9419,8 @@
       <c r="H184" s="15"/>
       <c r="I184" s="15"/>
       <c r="J184" s="16"/>
-      <c r="K184" s="26"/>
-      <c r="L184" s="27"/>
+      <c r="K184" s="30"/>
+      <c r="L184" s="31"/>
     </row>
     <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A185" s="12"/>
@@ -9417,8 +9433,8 @@
       <c r="H185" s="15"/>
       <c r="I185" s="15"/>
       <c r="J185" s="16"/>
-      <c r="K185" s="26"/>
-      <c r="L185" s="27"/>
+      <c r="K185" s="30"/>
+      <c r="L185" s="31"/>
     </row>
     <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A186" s="12"/>
@@ -9431,8 +9447,8 @@
       <c r="H186" s="15"/>
       <c r="I186" s="15"/>
       <c r="J186" s="16"/>
-      <c r="K186" s="26"/>
-      <c r="L186" s="27"/>
+      <c r="K186" s="30"/>
+      <c r="L186" s="31"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A187" s="12"/>
@@ -9445,8 +9461,8 @@
       <c r="H187" s="15"/>
       <c r="I187" s="15"/>
       <c r="J187" s="16"/>
-      <c r="K187" s="26"/>
-      <c r="L187" s="27"/>
+      <c r="K187" s="30"/>
+      <c r="L187" s="31"/>
     </row>
     <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A188" s="12"/>
@@ -9459,8 +9475,8 @@
       <c r="H188" s="15"/>
       <c r="I188" s="15"/>
       <c r="J188" s="16"/>
-      <c r="K188" s="26"/>
-      <c r="L188" s="27"/>
+      <c r="K188" s="30"/>
+      <c r="L188" s="31"/>
     </row>
     <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A189" s="12"/>
@@ -9473,8 +9489,8 @@
       <c r="H189" s="15"/>
       <c r="I189" s="15"/>
       <c r="J189" s="16"/>
-      <c r="K189" s="26"/>
-      <c r="L189" s="27"/>
+      <c r="K189" s="30"/>
+      <c r="L189" s="31"/>
     </row>
     <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A190" s="12"/>
@@ -9487,8 +9503,8 @@
       <c r="H190" s="15"/>
       <c r="I190" s="15"/>
       <c r="J190" s="16"/>
-      <c r="K190" s="26"/>
-      <c r="L190" s="27"/>
+      <c r="K190" s="30"/>
+      <c r="L190" s="31"/>
     </row>
     <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A191" s="12"/>
@@ -9501,8 +9517,8 @@
       <c r="H191" s="15"/>
       <c r="I191" s="15"/>
       <c r="J191" s="16"/>
-      <c r="K191" s="26"/>
-      <c r="L191" s="27"/>
+      <c r="K191" s="30"/>
+      <c r="L191" s="31"/>
     </row>
     <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A192" s="12"/>
@@ -9515,8 +9531,8 @@
       <c r="H192" s="15"/>
       <c r="I192" s="15"/>
       <c r="J192" s="16"/>
-      <c r="K192" s="26"/>
-      <c r="L192" s="27"/>
+      <c r="K192" s="30"/>
+      <c r="L192" s="31"/>
     </row>
     <row r="193" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A193" s="12"/>
@@ -9529,8 +9545,8 @@
       <c r="H193" s="15"/>
       <c r="I193" s="15"/>
       <c r="J193" s="16"/>
-      <c r="K193" s="26"/>
-      <c r="L193" s="27"/>
+      <c r="K193" s="30"/>
+      <c r="L193" s="31"/>
     </row>
     <row r="194" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A194" s="12"/>
@@ -9543,8 +9559,8 @@
       <c r="H194" s="15"/>
       <c r="I194" s="15"/>
       <c r="J194" s="16"/>
-      <c r="K194" s="26"/>
-      <c r="L194" s="27"/>
+      <c r="K194" s="30"/>
+      <c r="L194" s="31"/>
     </row>
     <row r="195" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A195" s="12"/>
@@ -9557,8 +9573,8 @@
       <c r="H195" s="15"/>
       <c r="I195" s="15"/>
       <c r="J195" s="16"/>
-      <c r="K195" s="26"/>
-      <c r="L195" s="27"/>
+      <c r="K195" s="30"/>
+      <c r="L195" s="31"/>
     </row>
     <row r="196" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A196" s="12"/>
@@ -9571,8 +9587,8 @@
       <c r="H196" s="15"/>
       <c r="I196" s="15"/>
       <c r="J196" s="16"/>
-      <c r="K196" s="26"/>
-      <c r="L196" s="27"/>
+      <c r="K196" s="30"/>
+      <c r="L196" s="31"/>
     </row>
     <row r="197" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A197" s="12"/>
@@ -9585,8 +9601,8 @@
       <c r="H197" s="15"/>
       <c r="I197" s="15"/>
       <c r="J197" s="16"/>
-      <c r="K197" s="26"/>
-      <c r="L197" s="27"/>
+      <c r="K197" s="30"/>
+      <c r="L197" s="31"/>
     </row>
     <row r="198" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A198" s="12"/>
@@ -9599,8 +9615,8 @@
       <c r="H198" s="15"/>
       <c r="I198" s="15"/>
       <c r="J198" s="16"/>
-      <c r="K198" s="26"/>
-      <c r="L198" s="27"/>
+      <c r="K198" s="30"/>
+      <c r="L198" s="31"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9024" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2483,14 +2483,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2499,6 +2499,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2525,6 +2533,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -2540,21 +2570,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2563,18 +2578,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2587,6 +2618,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2594,15 +2656,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,55 +2679,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2679,6 +2695,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2705,7 +2735,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,7 +2747,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,7 +2765,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,19 +2873,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,127 +2915,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2915,16 +2945,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2944,37 +2992,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,16 +3033,24 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3023,175 +3059,166 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3199,7 +3226,64 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3207,95 +3291,74 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6295,2958 +6358,2958 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="20.1666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="36" style="6" customWidth="1"/>
-    <col min="5" max="5" width="61.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="57.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="9.25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="28.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.1666666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36" style="7" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="57.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="7" customWidth="1"/>
+    <col min="8" max="9" width="9.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="28.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12" style="10" customWidth="1"/>
     <col min="13" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="27" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="22"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="28"/>
+      <c r="L1" s="11" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="41.4" spans="1:12">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="30"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="30"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="41.4" spans="1:12">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="30"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="30"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="29"/>
+      <c r="L9" s="30"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="30"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="96.6" spans="1:12">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="30"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="29"/>
+      <c r="L12" s="30"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="29"/>
+      <c r="L14" s="30"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="30"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="27.6" spans="1:15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="29"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="31"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="29"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="18">
         <v>5000</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="29"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="29"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13" t="s">
         <v>768</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="29"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="29"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="29"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="29"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="29"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="23"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="29"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="29"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="23"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="29"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20" t="s">
         <v>779</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="22" t="s">
         <v>559</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="22" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="15"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="32"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="32"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="30"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="30"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="30"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="30"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="30"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="30"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="30"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="15"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="30"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="13"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="30"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="30"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="30"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="30"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="30"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="30"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="30"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="30"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="30"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="30"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="30"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="30"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="30"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="30"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="30"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="30"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="30"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="30"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="29"/>
+      <c r="L51" s="30"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="29"/>
+      <c r="L52" s="30"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="29"/>
+      <c r="L53" s="30"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="29"/>
+      <c r="L54" s="30"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="29"/>
+      <c r="L55" s="30"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="29"/>
+      <c r="L56" s="30"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="30"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="29"/>
+      <c r="L58" s="30"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="29"/>
+      <c r="L59" s="30"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="30"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="29"/>
+      <c r="L61" s="30"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="29"/>
+      <c r="L62" s="30"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="30"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="29"/>
+      <c r="L64" s="30"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="29"/>
+      <c r="L65" s="30"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="30"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="29"/>
+      <c r="L67" s="30"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="29"/>
+      <c r="L68" s="30"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="29"/>
+      <c r="L69" s="30"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="29"/>
+      <c r="L70" s="30"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="30"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="29"/>
+      <c r="L72" s="30"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="29"/>
+      <c r="L73" s="30"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="29"/>
+      <c r="L74" s="30"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="29"/>
+      <c r="L75" s="30"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="29"/>
+      <c r="L76" s="30"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="29"/>
+      <c r="L77" s="30"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="29"/>
+      <c r="L78" s="30"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="29"/>
+      <c r="L79" s="30"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="29"/>
+      <c r="L80" s="30"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="29"/>
+      <c r="L81" s="30"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="24"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="29"/>
+      <c r="L82" s="30"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="29"/>
+      <c r="L83" s="30"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="29"/>
+      <c r="L84" s="30"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="29"/>
+      <c r="L85" s="30"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A86" s="11"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="29"/>
+      <c r="L86" s="30"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="29"/>
+      <c r="L87" s="30"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="29"/>
+      <c r="L88" s="30"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="29"/>
+      <c r="L89" s="30"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="29"/>
+      <c r="L90" s="30"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="29"/>
+      <c r="L91" s="30"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="29"/>
+      <c r="L92" s="30"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="24"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="29"/>
+      <c r="L93" s="30"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="29"/>
+      <c r="L94" s="30"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="29"/>
+      <c r="L95" s="30"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="29"/>
+      <c r="L96" s="30"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="24"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="29"/>
+      <c r="L97" s="30"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="24"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="29"/>
+      <c r="L98" s="30"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="24"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="29"/>
+      <c r="L99" s="30"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="24"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="29"/>
+      <c r="L100" s="30"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="24"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="29"/>
+      <c r="L101" s="30"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="29"/>
+      <c r="L102" s="30"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A103" s="11"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="24"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="29"/>
+      <c r="L103" s="30"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A104" s="11"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="24"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="29"/>
+      <c r="L104" s="30"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A105" s="11"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="24"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="29"/>
+      <c r="L105" s="30"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A106" s="11"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="24"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="29"/>
+      <c r="L106" s="30"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A107" s="11"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="24"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="29"/>
+      <c r="L107" s="30"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A108" s="11"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="24"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="29"/>
+      <c r="L108" s="30"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="24"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="29"/>
+      <c r="L109" s="30"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A110" s="11"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="24"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="29"/>
+      <c r="L110" s="30"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="24"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="29"/>
+      <c r="L111" s="30"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A112" s="11"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="24"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="29"/>
+      <c r="L112" s="30"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A113" s="11"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="24"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="29"/>
+      <c r="L113" s="30"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A114" s="11"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="24"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="29"/>
+      <c r="L114" s="30"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="24"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="29"/>
+      <c r="L115" s="30"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A116" s="11"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="24"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="29"/>
+      <c r="L116" s="30"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A117" s="11"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="24"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="29"/>
+      <c r="L117" s="30"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A118" s="11"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="24"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="29"/>
+      <c r="L118" s="30"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A119" s="11"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="24"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="29"/>
+      <c r="L119" s="30"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A120" s="11"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="24"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="29"/>
+      <c r="L120" s="30"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A121" s="11"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="24"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="29"/>
+      <c r="L121" s="30"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A122" s="11"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="23"/>
-      <c r="L122" s="24"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="29"/>
+      <c r="L122" s="30"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A123" s="11"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="24"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="29"/>
+      <c r="L123" s="30"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A124" s="11"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="24"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="29"/>
+      <c r="L124" s="30"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A125" s="11"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="24"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="29"/>
+      <c r="L125" s="30"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A126" s="11"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="24"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="29"/>
+      <c r="L126" s="30"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A127" s="11"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="24"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="29"/>
+      <c r="L127" s="30"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A128" s="11"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="24"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="29"/>
+      <c r="L128" s="30"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A129" s="11"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="23"/>
-      <c r="L129" s="24"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="29"/>
+      <c r="L129" s="30"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A130" s="11"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="24"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="29"/>
+      <c r="L130" s="30"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A131" s="11"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="24"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="29"/>
+      <c r="L131" s="30"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A132" s="11"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="24"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="29"/>
+      <c r="L132" s="30"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A133" s="11"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="23"/>
-      <c r="L133" s="24"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="29"/>
+      <c r="L133" s="30"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A134" s="11"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="24"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="29"/>
+      <c r="L134" s="30"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A135" s="11"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="24"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="29"/>
+      <c r="L135" s="30"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A136" s="11"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="24"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="29"/>
+      <c r="L136" s="30"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A137" s="11"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="24"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="29"/>
+      <c r="L137" s="30"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A138" s="11"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="23"/>
-      <c r="L138" s="24"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="29"/>
+      <c r="L138" s="30"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A139" s="11"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="23"/>
-      <c r="L139" s="24"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="29"/>
+      <c r="L139" s="30"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A140" s="11"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="23"/>
-      <c r="L140" s="24"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="29"/>
+      <c r="L140" s="30"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A141" s="11"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="23"/>
-      <c r="L141" s="24"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="29"/>
+      <c r="L141" s="30"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A142" s="11"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="24"/>
+      <c r="A142" s="12"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="29"/>
+      <c r="L142" s="30"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A143" s="11"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="24"/>
+      <c r="A143" s="12"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="29"/>
+      <c r="L143" s="30"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A144" s="11"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="23"/>
-      <c r="L144" s="24"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="29"/>
+      <c r="L144" s="30"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A145" s="11"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="24"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="29"/>
+      <c r="L145" s="30"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A146" s="11"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="24"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="29"/>
+      <c r="L146" s="30"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A147" s="11"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="24"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="29"/>
+      <c r="L147" s="30"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A148" s="11"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="24"/>
+      <c r="A148" s="12"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="29"/>
+      <c r="L148" s="30"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A149" s="11"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="24"/>
+      <c r="A149" s="12"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="29"/>
+      <c r="L149" s="30"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A150" s="11"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="24"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="29"/>
+      <c r="L150" s="30"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A151" s="11"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="14"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="24"/>
+      <c r="A151" s="12"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c r="K151" s="29"/>
+      <c r="L151" s="30"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A152" s="11"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="24"/>
+      <c r="A152" s="12"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="29"/>
+      <c r="L152" s="30"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A153" s="11"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="24"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="29"/>
+      <c r="L153" s="30"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A154" s="11"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="24"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="29"/>
+      <c r="L154" s="30"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A155" s="11"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="23"/>
-      <c r="L155" s="24"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="29"/>
+      <c r="L155" s="30"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A156" s="11"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="24"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="29"/>
+      <c r="L156" s="30"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A157" s="11"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="23"/>
-      <c r="L157" s="24"/>
+      <c r="A157" s="12"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="16"/>
+      <c r="K157" s="29"/>
+      <c r="L157" s="30"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A158" s="11"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="14"/>
-      <c r="I158" s="14"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="23"/>
-      <c r="L158" s="24"/>
+      <c r="A158" s="12"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="16"/>
+      <c r="K158" s="29"/>
+      <c r="L158" s="30"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A159" s="11"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="23"/>
-      <c r="L159" s="24"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="29"/>
+      <c r="L159" s="30"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A160" s="11"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="23"/>
-      <c r="L160" s="24"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="29"/>
+      <c r="L160" s="30"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A161" s="11"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="23"/>
-      <c r="L161" s="24"/>
+      <c r="A161" s="12"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="16"/>
+      <c r="K161" s="29"/>
+      <c r="L161" s="30"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A162" s="11"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="23"/>
-      <c r="L162" s="24"/>
+      <c r="A162" s="12"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="16"/>
+      <c r="K162" s="29"/>
+      <c r="L162" s="30"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A163" s="11"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14"/>
-      <c r="I163" s="14"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="23"/>
-      <c r="L163" s="24"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="29"/>
+      <c r="L163" s="30"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A164" s="11"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="14"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="23"/>
-      <c r="L164" s="24"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="16"/>
+      <c r="K164" s="29"/>
+      <c r="L164" s="30"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A165" s="11"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14"/>
-      <c r="I165" s="14"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="23"/>
-      <c r="L165" s="24"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="29"/>
+      <c r="L165" s="30"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A166" s="11"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14"/>
-      <c r="I166" s="14"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="23"/>
-      <c r="L166" s="24"/>
+      <c r="A166" s="12"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="16"/>
+      <c r="K166" s="29"/>
+      <c r="L166" s="30"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A167" s="11"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
-      <c r="I167" s="14"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="23"/>
-      <c r="L167" s="24"/>
+      <c r="A167" s="12"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="16"/>
+      <c r="K167" s="29"/>
+      <c r="L167" s="30"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A168" s="11"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
-      <c r="I168" s="14"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="23"/>
-      <c r="L168" s="24"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="16"/>
+      <c r="K168" s="29"/>
+      <c r="L168" s="30"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A169" s="11"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14"/>
-      <c r="I169" s="14"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="23"/>
-      <c r="L169" s="24"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="16"/>
+      <c r="K169" s="29"/>
+      <c r="L169" s="30"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A170" s="11"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="14"/>
-      <c r="I170" s="14"/>
-      <c r="J170" s="15"/>
-      <c r="K170" s="23"/>
-      <c r="L170" s="24"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="16"/>
+      <c r="K170" s="29"/>
+      <c r="L170" s="30"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A171" s="11"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="14"/>
-      <c r="I171" s="14"/>
-      <c r="J171" s="15"/>
-      <c r="K171" s="23"/>
-      <c r="L171" s="24"/>
+      <c r="A171" s="12"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="16"/>
+      <c r="K171" s="29"/>
+      <c r="L171" s="30"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A172" s="11"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="14"/>
-      <c r="I172" s="14"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="23"/>
-      <c r="L172" s="24"/>
+      <c r="A172" s="12"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="16"/>
+      <c r="K172" s="29"/>
+      <c r="L172" s="30"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A173" s="11"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="14"/>
-      <c r="I173" s="14"/>
-      <c r="J173" s="15"/>
-      <c r="K173" s="23"/>
-      <c r="L173" s="24"/>
+      <c r="A173" s="12"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="16"/>
+      <c r="K173" s="29"/>
+      <c r="L173" s="30"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A174" s="11"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="14"/>
-      <c r="I174" s="14"/>
-      <c r="J174" s="15"/>
-      <c r="K174" s="23"/>
-      <c r="L174" s="24"/>
+      <c r="A174" s="12"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="16"/>
+      <c r="K174" s="29"/>
+      <c r="L174" s="30"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A175" s="11"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="14"/>
-      <c r="I175" s="14"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="23"/>
-      <c r="L175" s="24"/>
+      <c r="A175" s="12"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="16"/>
+      <c r="K175" s="29"/>
+      <c r="L175" s="30"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A176" s="11"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="14"/>
-      <c r="I176" s="14"/>
-      <c r="J176" s="15"/>
-      <c r="K176" s="23"/>
-      <c r="L176" s="24"/>
+      <c r="A176" s="12"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="16"/>
+      <c r="K176" s="29"/>
+      <c r="L176" s="30"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A177" s="11"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="14"/>
-      <c r="I177" s="14"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="23"/>
-      <c r="L177" s="24"/>
+      <c r="A177" s="12"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="16"/>
+      <c r="K177" s="29"/>
+      <c r="L177" s="30"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A178" s="11"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="14"/>
-      <c r="I178" s="14"/>
-      <c r="J178" s="15"/>
-      <c r="K178" s="23"/>
-      <c r="L178" s="24"/>
+      <c r="A178" s="12"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="16"/>
+      <c r="K178" s="29"/>
+      <c r="L178" s="30"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A179" s="11"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="14"/>
-      <c r="I179" s="14"/>
-      <c r="J179" s="15"/>
-      <c r="K179" s="23"/>
-      <c r="L179" s="24"/>
+      <c r="A179" s="12"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="16"/>
+      <c r="K179" s="29"/>
+      <c r="L179" s="30"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A180" s="11"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="14"/>
-      <c r="I180" s="14"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="23"/>
-      <c r="L180" s="24"/>
+      <c r="A180" s="12"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="16"/>
+      <c r="K180" s="29"/>
+      <c r="L180" s="30"/>
     </row>
     <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A181" s="11"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="14"/>
-      <c r="I181" s="14"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="23"/>
-      <c r="L181" s="24"/>
+      <c r="A181" s="12"/>
+      <c r="B181" s="13"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="16"/>
+      <c r="K181" s="29"/>
+      <c r="L181" s="30"/>
     </row>
     <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A182" s="11"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
-      <c r="H182" s="14"/>
-      <c r="I182" s="14"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="23"/>
-      <c r="L182" s="24"/>
+      <c r="A182" s="12"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="16"/>
+      <c r="K182" s="29"/>
+      <c r="L182" s="30"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A183" s="11"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="14"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="23"/>
-      <c r="L183" s="24"/>
+      <c r="A183" s="12"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="16"/>
+      <c r="K183" s="29"/>
+      <c r="L183" s="30"/>
     </row>
     <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A184" s="11"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
-      <c r="H184" s="14"/>
-      <c r="I184" s="14"/>
-      <c r="J184" s="15"/>
-      <c r="K184" s="23"/>
-      <c r="L184" s="24"/>
+      <c r="A184" s="12"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="16"/>
+      <c r="K184" s="29"/>
+      <c r="L184" s="30"/>
     </row>
     <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A185" s="11"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="14"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="23"/>
-      <c r="L185" s="24"/>
+      <c r="A185" s="12"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="16"/>
+      <c r="K185" s="29"/>
+      <c r="L185" s="30"/>
     </row>
     <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A186" s="11"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
-      <c r="H186" s="14"/>
-      <c r="I186" s="14"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="23"/>
-      <c r="L186" s="24"/>
+      <c r="A186" s="12"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="16"/>
+      <c r="K186" s="29"/>
+      <c r="L186" s="30"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A187" s="11"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="14"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="23"/>
-      <c r="L187" s="24"/>
+      <c r="A187" s="12"/>
+      <c r="B187" s="13"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="16"/>
+      <c r="K187" s="29"/>
+      <c r="L187" s="30"/>
     </row>
     <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A188" s="11"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="14"/>
-      <c r="I188" s="14"/>
-      <c r="J188" s="15"/>
-      <c r="K188" s="23"/>
-      <c r="L188" s="24"/>
+      <c r="A188" s="12"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="16"/>
+      <c r="K188" s="29"/>
+      <c r="L188" s="30"/>
     </row>
     <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A189" s="11"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="15"/>
-      <c r="K189" s="23"/>
-      <c r="L189" s="24"/>
+      <c r="A189" s="12"/>
+      <c r="B189" s="13"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="16"/>
+      <c r="K189" s="29"/>
+      <c r="L189" s="30"/>
     </row>
     <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A190" s="11"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="14"/>
-      <c r="I190" s="14"/>
-      <c r="J190" s="15"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="24"/>
+      <c r="A190" s="12"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="15"/>
+      <c r="J190" s="16"/>
+      <c r="K190" s="29"/>
+      <c r="L190" s="30"/>
     </row>
     <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A191" s="11"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="14"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="15"/>
-      <c r="K191" s="23"/>
-      <c r="L191" s="24"/>
+      <c r="A191" s="12"/>
+      <c r="B191" s="13"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="16"/>
+      <c r="K191" s="29"/>
+      <c r="L191" s="30"/>
     </row>
     <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A192" s="11"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="14"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="15"/>
-      <c r="K192" s="23"/>
-      <c r="L192" s="24"/>
+      <c r="A192" s="12"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="15"/>
+      <c r="J192" s="16"/>
+      <c r="K192" s="29"/>
+      <c r="L192" s="30"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="784">
   <si>
     <t>target</t>
   </si>
@@ -2479,16 +2479,25 @@
   <si>
     <t>${title.header}</t>
   </si>
+  <si>
+    <t>Welcome Accion!</t>
+  </si>
+  <si>
+    <t>mobileLogin</t>
+  </si>
+  <si>
+    <t>Resize the window to mobile view</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2525,12 +2534,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2538,21 +2545,6 @@
       <color theme="0" tint="-0.0499893185216834"/>
       <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2563,18 +2555,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2587,6 +2595,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2594,15 +2633,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,55 +2656,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2679,6 +2672,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2705,7 +2712,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,7 +2724,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,7 +2742,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,19 +2850,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,127 +2892,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2915,16 +2922,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2944,37 +2969,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,161 +3010,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3215,17 +3222,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3250,52 +3248,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -6288,9 +6286,9 @@
   <dimension ref="A1:O192"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
@@ -6337,10 +6335,10 @@
       <c r="I1" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="22"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="10" t="s">
         <v>733</v>
       </c>
@@ -6368,8 +6366,8 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A3" s="11"/>
@@ -6390,8 +6388,8 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A4" s="11"/>
@@ -6414,8 +6412,8 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A5" s="11"/>
@@ -6436,8 +6434,8 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="41.4" spans="1:12">
       <c r="A6" s="11" t="s">
@@ -6462,8 +6460,8 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
       <c r="C7" s="13" t="s">
@@ -6482,8 +6480,8 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A8" s="11"/>
@@ -6504,8 +6502,8 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A9" s="11"/>
@@ -6528,8 +6526,8 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A10" s="11"/>
@@ -6550,8 +6548,8 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="96.6" spans="1:12">
       <c r="A11" s="11" t="s">
@@ -6576,8 +6574,8 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A12" s="11"/>
@@ -6598,8 +6596,8 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A13" s="11"/>
@@ -6620,8 +6618,8 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A14" s="11"/>
@@ -6644,8 +6642,8 @@
       <c r="J14" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A15" s="11"/>
@@ -6664,8 +6662,8 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="27.6" spans="1:15">
       <c r="A16" s="11" t="s">
@@ -6690,11 +6688,11 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="11"/>
@@ -6711,11 +6709,11 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="11"/>
@@ -6736,11 +6734,11 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="11"/>
@@ -6761,11 +6759,11 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A20" s="11"/>
@@ -6786,11 +6784,11 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="21"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="11"/>
@@ -6813,11 +6811,11 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="21"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="11"/>
@@ -6840,11 +6838,11 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="23"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="11"/>
@@ -6865,13 +6863,13 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="23"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A24" s="11"/>
       <c r="B24" s="12" t="s">
         <v>779</v>
@@ -6880,147 +6878,233 @@
         <v>30</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="18" t="s">
+        <v>781</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="23"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="21"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>765</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="B26" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="E26" s="14">
+        <v>430</v>
+      </c>
+      <c r="F26" s="14">
+        <v>932</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A27" s="11"/>
       <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="C27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="F27" s="17">
+        <v>5000</v>
+      </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>767</v>
+      </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="B29" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="B30" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>773</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="14"/>
+      <c r="B31" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>776</v>
+      </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="B32" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>778</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="B33" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>781</v>
+      </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A34" s="11"/>
@@ -7033,8 +7117,8 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A35" s="11"/>
@@ -7047,8 +7131,8 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A36" s="11"/>
@@ -7061,8 +7145,8 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A37" s="11"/>
@@ -7075,8 +7159,8 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A38" s="11"/>
@@ -7089,8 +7173,8 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A39" s="11"/>
@@ -7103,8 +7187,8 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A40" s="11"/>
@@ -7117,8 +7201,8 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A41" s="11"/>
@@ -7131,8 +7215,8 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A42" s="11"/>
@@ -7145,8 +7229,8 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A43" s="11"/>
@@ -7159,8 +7243,8 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A44" s="11"/>
@@ -7173,8 +7257,8 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A45" s="11"/>
@@ -7187,8 +7271,8 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A46" s="11"/>
@@ -7201,8 +7285,8 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A47" s="11"/>
@@ -7215,8 +7299,8 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A48" s="11"/>
@@ -7229,8 +7313,8 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A49" s="11"/>
@@ -7243,8 +7327,8 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="15"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A50" s="11"/>
@@ -7257,8 +7341,8 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A51" s="11"/>
@@ -7271,8 +7355,8 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A52" s="11"/>
@@ -7285,8 +7369,8 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A53" s="11"/>
@@ -7299,8 +7383,8 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="22"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A54" s="11"/>
@@ -7313,8 +7397,8 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="15"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="22"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A55" s="11"/>
@@ -7327,8 +7411,8 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="22"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A56" s="11"/>
@@ -7341,8 +7425,8 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="22"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A57" s="11"/>
@@ -7355,8 +7439,8 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="15"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="22"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A58" s="11"/>
@@ -7369,8 +7453,8 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="15"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A59" s="11"/>
@@ -7383,8 +7467,8 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="22"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A60" s="11"/>
@@ -7397,8 +7481,8 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="15"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="22"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A61" s="11"/>
@@ -7411,8 +7495,8 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="15"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="22"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A62" s="11"/>
@@ -7425,8 +7509,8 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="15"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="22"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A63" s="11"/>
@@ -7439,8 +7523,8 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="15"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="22"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A64" s="11"/>
@@ -7453,8 +7537,8 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="15"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="22"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A65" s="11"/>
@@ -7467,8 +7551,8 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="15"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="22"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A66" s="11"/>
@@ -7481,8 +7565,8 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="15"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="22"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A67" s="11"/>
@@ -7495,8 +7579,8 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="15"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="22"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A68" s="11"/>
@@ -7509,8 +7593,8 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="15"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="22"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A69" s="11"/>
@@ -7523,8 +7607,8 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="15"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="22"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A70" s="11"/>
@@ -7537,8 +7621,8 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="15"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="22"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A71" s="11"/>
@@ -7551,8 +7635,8 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="15"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="22"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A72" s="11"/>
@@ -7565,8 +7649,8 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="15"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="22"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A73" s="11"/>
@@ -7579,8 +7663,8 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="15"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="22"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A74" s="11"/>
@@ -7593,8 +7677,8 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="15"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="22"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A75" s="11"/>
@@ -7607,8 +7691,8 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="15"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="22"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A76" s="11"/>
@@ -7621,8 +7705,8 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="15"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="22"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A77" s="11"/>
@@ -7635,8 +7719,8 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="15"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="22"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A78" s="11"/>
@@ -7649,8 +7733,8 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="15"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="22"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A79" s="11"/>
@@ -7663,8 +7747,8 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="15"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="22"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A80" s="11"/>
@@ -7677,8 +7761,8 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="15"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="22"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A81" s="11"/>
@@ -7691,8 +7775,8 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="15"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="22"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A82" s="11"/>
@@ -7705,8 +7789,8 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="15"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="24"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="22"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A83" s="11"/>
@@ -7719,8 +7803,8 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="15"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="22"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A84" s="11"/>
@@ -7733,8 +7817,8 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="15"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="22"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A85" s="11"/>
@@ -7747,8 +7831,8 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="15"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="22"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A86" s="11"/>
@@ -7761,8 +7845,8 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="15"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="22"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A87" s="11"/>
@@ -7775,8 +7859,8 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="15"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="22"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A88" s="11"/>
@@ -7789,8 +7873,8 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="22"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A89" s="11"/>
@@ -7803,8 +7887,8 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="15"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="22"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A90" s="11"/>
@@ -7817,8 +7901,8 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="22"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A91" s="11"/>
@@ -7831,8 +7915,8 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="15"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="22"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A92" s="11"/>
@@ -7845,8 +7929,8 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="15"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="22"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A93" s="11"/>
@@ -7859,8 +7943,8 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="15"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="24"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="22"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A94" s="11"/>
@@ -7873,8 +7957,8 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="15"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="22"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A95" s="11"/>
@@ -7887,8 +7971,8 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="15"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="22"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A96" s="11"/>
@@ -7901,8 +7985,8 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="15"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="22"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A97" s="11"/>
@@ -7915,8 +7999,8 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="15"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="24"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="22"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A98" s="11"/>
@@ -7929,8 +8013,8 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="15"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="24"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="22"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A99" s="11"/>
@@ -7943,8 +8027,8 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="15"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="24"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="22"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A100" s="11"/>
@@ -7957,8 +8041,8 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="15"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="24"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="22"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A101" s="11"/>
@@ -7971,8 +8055,8 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="15"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="24"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="22"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A102" s="11"/>
@@ -7985,8 +8069,8 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="15"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="22"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A103" s="11"/>
@@ -7999,8 +8083,8 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="15"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="24"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="22"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A104" s="11"/>
@@ -8013,8 +8097,8 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="15"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="24"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="22"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A105" s="11"/>
@@ -8027,8 +8111,8 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="15"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="24"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="22"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A106" s="11"/>
@@ -8041,8 +8125,8 @@
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="15"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="24"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="22"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A107" s="11"/>
@@ -8055,8 +8139,8 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="15"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="24"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="22"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A108" s="11"/>
@@ -8069,8 +8153,8 @@
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="15"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="24"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="22"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A109" s="11"/>
@@ -8083,8 +8167,8 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="15"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="24"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="22"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A110" s="11"/>
@@ -8097,8 +8181,8 @@
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="15"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="24"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="22"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A111" s="11"/>
@@ -8111,8 +8195,8 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="15"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="24"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="22"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A112" s="11"/>
@@ -8125,8 +8209,8 @@
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="15"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="24"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="22"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A113" s="11"/>
@@ -8139,8 +8223,8 @@
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="15"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="24"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="22"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A114" s="11"/>
@@ -8153,8 +8237,8 @@
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="15"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="24"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="22"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A115" s="11"/>
@@ -8167,8 +8251,8 @@
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="15"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="24"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="22"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A116" s="11"/>
@@ -8181,8 +8265,8 @@
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="15"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="24"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="22"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A117" s="11"/>
@@ -8195,8 +8279,8 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="15"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="24"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="22"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A118" s="11"/>
@@ -8209,8 +8293,8 @@
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="15"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="24"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="22"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A119" s="11"/>
@@ -8223,8 +8307,8 @@
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="15"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="24"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="22"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A120" s="11"/>
@@ -8237,8 +8321,8 @@
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="15"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="24"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="22"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A121" s="11"/>
@@ -8251,8 +8335,8 @@
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="15"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="24"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="22"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A122" s="11"/>
@@ -8265,8 +8349,8 @@
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
       <c r="J122" s="15"/>
-      <c r="K122" s="23"/>
-      <c r="L122" s="24"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="22"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A123" s="11"/>
@@ -8279,8 +8363,8 @@
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="15"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="24"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="22"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A124" s="11"/>
@@ -8293,8 +8377,8 @@
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="15"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="24"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="22"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A125" s="11"/>
@@ -8307,8 +8391,8 @@
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="15"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="24"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="22"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A126" s="11"/>
@@ -8321,8 +8405,8 @@
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
       <c r="J126" s="15"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="24"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="22"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A127" s="11"/>
@@ -8335,8 +8419,8 @@
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="15"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="24"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="22"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A128" s="11"/>
@@ -8349,8 +8433,8 @@
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
       <c r="J128" s="15"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="24"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="22"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A129" s="11"/>
@@ -8363,8 +8447,8 @@
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="15"/>
-      <c r="K129" s="23"/>
-      <c r="L129" s="24"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="22"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A130" s="11"/>
@@ -8377,8 +8461,8 @@
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="J130" s="15"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="24"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="22"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A131" s="11"/>
@@ -8391,8 +8475,8 @@
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="15"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="24"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="22"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A132" s="11"/>
@@ -8405,8 +8489,8 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="15"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="24"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="22"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A133" s="11"/>
@@ -8419,8 +8503,8 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="15"/>
-      <c r="K133" s="23"/>
-      <c r="L133" s="24"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="22"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A134" s="11"/>
@@ -8433,8 +8517,8 @@
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
       <c r="J134" s="15"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="24"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="22"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A135" s="11"/>
@@ -8447,8 +8531,8 @@
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="15"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="24"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="22"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A136" s="11"/>
@@ -8461,8 +8545,8 @@
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="15"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="24"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="22"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A137" s="11"/>
@@ -8475,8 +8559,8 @@
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="15"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="24"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="22"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A138" s="11"/>
@@ -8489,8 +8573,8 @@
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
       <c r="J138" s="15"/>
-      <c r="K138" s="23"/>
-      <c r="L138" s="24"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="22"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A139" s="11"/>
@@ -8503,8 +8587,8 @@
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="15"/>
-      <c r="K139" s="23"/>
-      <c r="L139" s="24"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="22"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A140" s="11"/>
@@ -8517,8 +8601,8 @@
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="15"/>
-      <c r="K140" s="23"/>
-      <c r="L140" s="24"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="22"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A141" s="11"/>
@@ -8531,8 +8615,8 @@
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="15"/>
-      <c r="K141" s="23"/>
-      <c r="L141" s="24"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="22"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A142" s="11"/>
@@ -8545,8 +8629,8 @@
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
       <c r="J142" s="15"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="24"/>
+      <c r="K142" s="21"/>
+      <c r="L142" s="22"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A143" s="11"/>
@@ -8559,8 +8643,8 @@
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="15"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="24"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="22"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A144" s="11"/>
@@ -8573,8 +8657,8 @@
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="15"/>
-      <c r="K144" s="23"/>
-      <c r="L144" s="24"/>
+      <c r="K144" s="21"/>
+      <c r="L144" s="22"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A145" s="11"/>
@@ -8587,8 +8671,8 @@
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="15"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="24"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="22"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A146" s="11"/>
@@ -8601,8 +8685,8 @@
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
       <c r="J146" s="15"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="24"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="22"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A147" s="11"/>
@@ -8615,8 +8699,8 @@
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
       <c r="J147" s="15"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="24"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="22"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A148" s="11"/>
@@ -8629,8 +8713,8 @@
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
       <c r="J148" s="15"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="24"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="22"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A149" s="11"/>
@@ -8643,8 +8727,8 @@
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
       <c r="J149" s="15"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="24"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="22"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A150" s="11"/>
@@ -8657,8 +8741,8 @@
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
       <c r="J150" s="15"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="24"/>
+      <c r="K150" s="21"/>
+      <c r="L150" s="22"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A151" s="11"/>
@@ -8671,8 +8755,8 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
       <c r="J151" s="15"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="24"/>
+      <c r="K151" s="21"/>
+      <c r="L151" s="22"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A152" s="11"/>
@@ -8685,8 +8769,8 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
       <c r="J152" s="15"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="24"/>
+      <c r="K152" s="21"/>
+      <c r="L152" s="22"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A153" s="11"/>
@@ -8699,8 +8783,8 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
       <c r="J153" s="15"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="24"/>
+      <c r="K153" s="21"/>
+      <c r="L153" s="22"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A154" s="11"/>
@@ -8713,8 +8797,8 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
       <c r="J154" s="15"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="24"/>
+      <c r="K154" s="21"/>
+      <c r="L154" s="22"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A155" s="11"/>
@@ -8727,8 +8811,8 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
       <c r="J155" s="15"/>
-      <c r="K155" s="23"/>
-      <c r="L155" s="24"/>
+      <c r="K155" s="21"/>
+      <c r="L155" s="22"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A156" s="11"/>
@@ -8741,8 +8825,8 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
       <c r="J156" s="15"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="24"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="22"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A157" s="11"/>
@@ -8755,8 +8839,8 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
       <c r="J157" s="15"/>
-      <c r="K157" s="23"/>
-      <c r="L157" s="24"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="22"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A158" s="11"/>
@@ -8769,8 +8853,8 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
       <c r="J158" s="15"/>
-      <c r="K158" s="23"/>
-      <c r="L158" s="24"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="22"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A159" s="11"/>
@@ -8783,8 +8867,8 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
       <c r="J159" s="15"/>
-      <c r="K159" s="23"/>
-      <c r="L159" s="24"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="22"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A160" s="11"/>
@@ -8797,8 +8881,8 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
       <c r="J160" s="15"/>
-      <c r="K160" s="23"/>
-      <c r="L160" s="24"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="22"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A161" s="11"/>
@@ -8811,8 +8895,8 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
       <c r="J161" s="15"/>
-      <c r="K161" s="23"/>
-      <c r="L161" s="24"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="22"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A162" s="11"/>
@@ -8825,8 +8909,8 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
       <c r="J162" s="15"/>
-      <c r="K162" s="23"/>
-      <c r="L162" s="24"/>
+      <c r="K162" s="21"/>
+      <c r="L162" s="22"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A163" s="11"/>
@@ -8839,8 +8923,8 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
       <c r="J163" s="15"/>
-      <c r="K163" s="23"/>
-      <c r="L163" s="24"/>
+      <c r="K163" s="21"/>
+      <c r="L163" s="22"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A164" s="11"/>
@@ -8853,8 +8937,8 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
       <c r="J164" s="15"/>
-      <c r="K164" s="23"/>
-      <c r="L164" s="24"/>
+      <c r="K164" s="21"/>
+      <c r="L164" s="22"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A165" s="11"/>
@@ -8867,8 +8951,8 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
       <c r="J165" s="15"/>
-      <c r="K165" s="23"/>
-      <c r="L165" s="24"/>
+      <c r="K165" s="21"/>
+      <c r="L165" s="22"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A166" s="11"/>
@@ -8881,8 +8965,8 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
       <c r="J166" s="15"/>
-      <c r="K166" s="23"/>
-      <c r="L166" s="24"/>
+      <c r="K166" s="21"/>
+      <c r="L166" s="22"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A167" s="11"/>
@@ -8895,8 +8979,8 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
       <c r="J167" s="15"/>
-      <c r="K167" s="23"/>
-      <c r="L167" s="24"/>
+      <c r="K167" s="21"/>
+      <c r="L167" s="22"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A168" s="11"/>
@@ -8909,8 +8993,8 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
       <c r="J168" s="15"/>
-      <c r="K168" s="23"/>
-      <c r="L168" s="24"/>
+      <c r="K168" s="21"/>
+      <c r="L168" s="22"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A169" s="11"/>
@@ -8923,8 +9007,8 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
       <c r="J169" s="15"/>
-      <c r="K169" s="23"/>
-      <c r="L169" s="24"/>
+      <c r="K169" s="21"/>
+      <c r="L169" s="22"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A170" s="11"/>
@@ -8937,8 +9021,8 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
       <c r="J170" s="15"/>
-      <c r="K170" s="23"/>
-      <c r="L170" s="24"/>
+      <c r="K170" s="21"/>
+      <c r="L170" s="22"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A171" s="11"/>
@@ -8951,8 +9035,8 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
       <c r="J171" s="15"/>
-      <c r="K171" s="23"/>
-      <c r="L171" s="24"/>
+      <c r="K171" s="21"/>
+      <c r="L171" s="22"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A172" s="11"/>
@@ -8965,8 +9049,8 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
       <c r="J172" s="15"/>
-      <c r="K172" s="23"/>
-      <c r="L172" s="24"/>
+      <c r="K172" s="21"/>
+      <c r="L172" s="22"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A173" s="11"/>
@@ -8979,8 +9063,8 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
       <c r="J173" s="15"/>
-      <c r="K173" s="23"/>
-      <c r="L173" s="24"/>
+      <c r="K173" s="21"/>
+      <c r="L173" s="22"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A174" s="11"/>
@@ -8993,8 +9077,8 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
       <c r="J174" s="15"/>
-      <c r="K174" s="23"/>
-      <c r="L174" s="24"/>
+      <c r="K174" s="21"/>
+      <c r="L174" s="22"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A175" s="11"/>
@@ -9007,8 +9091,8 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
       <c r="J175" s="15"/>
-      <c r="K175" s="23"/>
-      <c r="L175" s="24"/>
+      <c r="K175" s="21"/>
+      <c r="L175" s="22"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A176" s="11"/>
@@ -9021,8 +9105,8 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
       <c r="J176" s="15"/>
-      <c r="K176" s="23"/>
-      <c r="L176" s="24"/>
+      <c r="K176" s="21"/>
+      <c r="L176" s="22"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A177" s="11"/>
@@ -9035,8 +9119,8 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
       <c r="J177" s="15"/>
-      <c r="K177" s="23"/>
-      <c r="L177" s="24"/>
+      <c r="K177" s="21"/>
+      <c r="L177" s="22"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A178" s="11"/>
@@ -9049,8 +9133,8 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
       <c r="J178" s="15"/>
-      <c r="K178" s="23"/>
-      <c r="L178" s="24"/>
+      <c r="K178" s="21"/>
+      <c r="L178" s="22"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A179" s="11"/>
@@ -9063,8 +9147,8 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
       <c r="J179" s="15"/>
-      <c r="K179" s="23"/>
-      <c r="L179" s="24"/>
+      <c r="K179" s="21"/>
+      <c r="L179" s="22"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A180" s="11"/>
@@ -9077,8 +9161,8 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
       <c r="J180" s="15"/>
-      <c r="K180" s="23"/>
-      <c r="L180" s="24"/>
+      <c r="K180" s="21"/>
+      <c r="L180" s="22"/>
     </row>
     <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A181" s="11"/>
@@ -9091,8 +9175,8 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
       <c r="J181" s="15"/>
-      <c r="K181" s="23"/>
-      <c r="L181" s="24"/>
+      <c r="K181" s="21"/>
+      <c r="L181" s="22"/>
     </row>
     <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A182" s="11"/>
@@ -9105,8 +9189,8 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
       <c r="J182" s="15"/>
-      <c r="K182" s="23"/>
-      <c r="L182" s="24"/>
+      <c r="K182" s="21"/>
+      <c r="L182" s="22"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A183" s="11"/>
@@ -9119,8 +9203,8 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
       <c r="J183" s="15"/>
-      <c r="K183" s="23"/>
-      <c r="L183" s="24"/>
+      <c r="K183" s="21"/>
+      <c r="L183" s="22"/>
     </row>
     <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A184" s="11"/>
@@ -9133,8 +9217,8 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
       <c r="J184" s="15"/>
-      <c r="K184" s="23"/>
-      <c r="L184" s="24"/>
+      <c r="K184" s="21"/>
+      <c r="L184" s="22"/>
     </row>
     <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A185" s="11"/>
@@ -9147,8 +9231,8 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
       <c r="J185" s="15"/>
-      <c r="K185" s="23"/>
-      <c r="L185" s="24"/>
+      <c r="K185" s="21"/>
+      <c r="L185" s="22"/>
     </row>
     <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A186" s="11"/>
@@ -9161,8 +9245,8 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
       <c r="J186" s="15"/>
-      <c r="K186" s="23"/>
-      <c r="L186" s="24"/>
+      <c r="K186" s="21"/>
+      <c r="L186" s="22"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A187" s="11"/>
@@ -9175,8 +9259,8 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
       <c r="J187" s="15"/>
-      <c r="K187" s="23"/>
-      <c r="L187" s="24"/>
+      <c r="K187" s="21"/>
+      <c r="L187" s="22"/>
     </row>
     <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A188" s="11"/>
@@ -9189,8 +9273,8 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
       <c r="J188" s="15"/>
-      <c r="K188" s="23"/>
-      <c r="L188" s="24"/>
+      <c r="K188" s="21"/>
+      <c r="L188" s="22"/>
     </row>
     <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A189" s="11"/>
@@ -9203,8 +9287,8 @@
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
       <c r="J189" s="15"/>
-      <c r="K189" s="23"/>
-      <c r="L189" s="24"/>
+      <c r="K189" s="21"/>
+      <c r="L189" s="22"/>
     </row>
     <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A190" s="11"/>
@@ -9217,8 +9301,8 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
       <c r="J190" s="15"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="24"/>
+      <c r="K190" s="21"/>
+      <c r="L190" s="22"/>
     </row>
     <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A191" s="11"/>
@@ -9231,8 +9315,8 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
       <c r="J191" s="15"/>
-      <c r="K191" s="23"/>
-      <c r="L191" s="24"/>
+      <c r="K191" s="21"/>
+      <c r="L191" s="22"/>
     </row>
     <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A192" s="11"/>
@@ -9245,8 +9329,8 @@
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
       <c r="J192" s="15"/>
-      <c r="K192" s="23"/>
-      <c r="L192" s="24"/>
+      <c r="K192" s="21"/>
+      <c r="L192" s="22"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -9306,15 +9390,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D25 D2:D3 D7:D8 D16:D17 D26:D192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D27 D28 D29 D30 D31 D32 D33 D2:D3 D7:D8 D16:D17 D25:D26 D34:D192">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C25 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C26:C192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C27 C28 C29 C30 C31 C32 C33 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C25:C26 C34:C192">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" display="${uiurl}" tooltip="https://gnukhata.gitlab.io/gkapp/#/user-login"/>
+    <hyperlink ref="E25" r:id="rId1" display="${uiurl}" tooltip="https://gnukhata.gitlab.io/gkapp/#/user-login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6830" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="783">
   <si>
     <t>target</t>
   </si>
@@ -2438,6 +2438,12 @@
     <t>Given I maximize the browser window</t>
   </si>
   <si>
+    <t>resize the window</t>
+  </si>
+  <si>
+    <t>430</t>
+  </si>
+  <si>
     <t>${login.clickDefault}</t>
   </si>
   <si>
@@ -2483,14 +2489,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2525,6 +2531,18 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -2540,21 +2558,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2563,18 +2566,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2587,6 +2606,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2594,15 +2644,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,55 +2667,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2679,6 +2683,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2705,7 +2723,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,7 +2735,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,7 +2753,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,19 +2861,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,127 +2903,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2915,16 +2933,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2944,37 +2980,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,161 +3021,163 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3211,6 +3229,22 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
@@ -3223,7 +3257,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3231,7 +3265,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3250,52 +3284,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -3617,7 +3651,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -6285,15 +6319,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O192"/>
+  <dimension ref="A1:O193"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.1666666666667" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="4" customWidth="1"/>
@@ -6337,15 +6371,15 @@
       <c r="I1" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="25" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="22"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="10" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="41.4" spans="1:12">
+    <row r="2" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A2" s="11" t="s">
         <v>734</v>
       </c>
@@ -6368,8 +6402,8 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A3" s="11"/>
@@ -6390,8 +6424,8 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="28"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A4" s="11"/>
@@ -6414,8 +6448,8 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="28"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A5" s="11"/>
@@ -6436,10 +6470,10 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="41.4" spans="1:12">
+      <c r="K5" s="27"/>
+      <c r="L5" s="28"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A6" s="11" t="s">
         <v>744</v>
       </c>
@@ -6462,8 +6496,8 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
       <c r="C7" s="13" t="s">
@@ -6482,8 +6516,8 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A8" s="11"/>
@@ -6504,8 +6538,8 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A9" s="11"/>
@@ -6528,8 +6562,8 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A10" s="11"/>
@@ -6550,10 +6584,10 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="96.6" spans="1:12">
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
       <c r="A11" s="11" t="s">
         <v>750</v>
       </c>
@@ -6576,8 +6610,8 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A12" s="11"/>
@@ -6598,8 +6632,8 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A13" s="11"/>
@@ -6620,8 +6654,8 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A14" s="11"/>
@@ -6644,8 +6678,8 @@
       <c r="J14" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A15" s="11"/>
@@ -6664,10 +6698,10 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="27.6" spans="1:15">
+      <c r="K15" s="27"/>
+      <c r="L15" s="28"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>762</v>
       </c>
@@ -6690,11 +6724,11 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="27"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="11"/>
@@ -6711,88 +6745,90 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="28"/>
+      <c r="O17" s="27"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="17" t="s">
+        <v>767</v>
+      </c>
+      <c r="C18" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="14" t="s">
-        <v>553</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>767</v>
-      </c>
-      <c r="F18" s="17">
-        <v>5000</v>
+      <c r="D18" s="19" t="s">
+        <v>640</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>768</v>
+      </c>
+      <c r="F18" s="20">
+        <v>932</v>
       </c>
       <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="28"/>
+      <c r="O18" s="27"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
-        <v>768</v>
-      </c>
+      <c r="B19" s="12"/>
       <c r="C19" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>363</v>
+        <v>553</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>767</v>
-      </c>
-      <c r="F19" s="14"/>
+        <v>769</v>
+      </c>
+      <c r="F19" s="21">
+        <v>5000</v>
+      </c>
       <c r="G19" s="14"/>
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
-    </row>
-    <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="K19" s="27"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="27"/>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A20" s="11"/>
       <c r="B20" s="12" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>713</v>
+        <v>363</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>770</v>
-      </c>
-      <c r="F20" s="15"/>
+        <v>769</v>
+      </c>
+      <c r="F20" s="14"/>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
-    </row>
-    <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="K20" s="27"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="28"/>
+      <c r="O20" s="27"/>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A21" s="11"/>
       <c r="B21" s="12" t="s">
         <v>771</v>
@@ -6801,28 +6837,26 @@
         <v>30</v>
       </c>
       <c r="D21" s="14" t="s">
-        <v>705</v>
+        <v>713</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>773</v>
-      </c>
+      <c r="F21" s="15"/>
       <c r="G21" s="14"/>
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="27"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="11"/>
       <c r="B22" s="12" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C22" s="13" t="s">
         <v>30</v>
@@ -6831,47 +6865,49 @@
         <v>705</v>
       </c>
       <c r="E22" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="F22" s="14" t="s">
         <v>775</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>776</v>
       </c>
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="23"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="28"/>
+      <c r="O22" s="27"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="11"/>
       <c r="B23" s="12" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C23" s="13" t="s">
         <v>30</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>363</v>
+        <v>705</v>
       </c>
       <c r="E23" s="14" t="s">
+        <v>777</v>
+      </c>
+      <c r="F23" s="14" t="s">
         <v>778</v>
       </c>
-      <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="23"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="28"/>
+      <c r="O23" s="27"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A24" s="11"/>
       <c r="B24" s="12" t="s">
         <v>779</v>
@@ -6880,49 +6916,60 @@
         <v>30</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>559</v>
+        <v>363</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="23"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K24" s="27"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="28"/>
+      <c r="O24" s="27"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="B25" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>782</v>
+      </c>
+      <c r="F25" s="15"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="28"/>
+      <c r="O25" s="27"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A26" s="11"/>
       <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="28"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A27" s="11"/>
@@ -6935,8 +6982,8 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="28"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A28" s="11"/>
@@ -6949,8 +6996,8 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="28"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A29" s="11"/>
@@ -6963,8 +7010,8 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="28"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A30" s="11"/>
@@ -6977,36 +7024,36 @@
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="28"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A31" s="11"/>
       <c r="B31" s="12"/>
       <c r="C31" s="13"/>
       <c r="D31" s="14"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="14"/>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="28"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A32" s="11"/>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
       <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
+      <c r="K32" s="27"/>
+      <c r="L32" s="28"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A33" s="11"/>
@@ -7019,8 +7066,8 @@
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="K33" s="27"/>
+      <c r="L33" s="28"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A34" s="11"/>
@@ -7033,8 +7080,8 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="K34" s="27"/>
+      <c r="L34" s="28"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A35" s="11"/>
@@ -7047,8 +7094,8 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="K35" s="27"/>
+      <c r="L35" s="28"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A36" s="11"/>
@@ -7061,8 +7108,8 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
+      <c r="K36" s="27"/>
+      <c r="L36" s="28"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A37" s="11"/>
@@ -7075,8 +7122,8 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="28"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A38" s="11"/>
@@ -7089,8 +7136,8 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
+      <c r="K38" s="27"/>
+      <c r="L38" s="28"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A39" s="11"/>
@@ -7103,8 +7150,8 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
+      <c r="K39" s="27"/>
+      <c r="L39" s="28"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A40" s="11"/>
@@ -7117,8 +7164,8 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="28"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A41" s="11"/>
@@ -7131,8 +7178,8 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="28"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A42" s="11"/>
@@ -7145,8 +7192,8 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="28"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A43" s="11"/>
@@ -7159,8 +7206,8 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="K43" s="27"/>
+      <c r="L43" s="28"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A44" s="11"/>
@@ -7173,8 +7220,8 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
+      <c r="K44" s="27"/>
+      <c r="L44" s="28"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A45" s="11"/>
@@ -7187,8 +7234,8 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="K45" s="27"/>
+      <c r="L45" s="28"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A46" s="11"/>
@@ -7201,8 +7248,8 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="28"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A47" s="11"/>
@@ -7215,8 +7262,8 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
+      <c r="K47" s="27"/>
+      <c r="L47" s="28"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A48" s="11"/>
@@ -7229,8 +7276,8 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
+      <c r="K48" s="27"/>
+      <c r="L48" s="28"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A49" s="11"/>
@@ -7243,8 +7290,8 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="15"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="28"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A50" s="11"/>
@@ -7257,8 +7304,8 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
+      <c r="K50" s="27"/>
+      <c r="L50" s="28"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A51" s="11"/>
@@ -7271,8 +7318,8 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
+      <c r="K51" s="27"/>
+      <c r="L51" s="28"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A52" s="11"/>
@@ -7285,8 +7332,8 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
+      <c r="K52" s="27"/>
+      <c r="L52" s="28"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A53" s="11"/>
@@ -7299,8 +7346,8 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="28"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A54" s="11"/>
@@ -7313,8 +7360,8 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="15"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
+      <c r="K54" s="27"/>
+      <c r="L54" s="28"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A55" s="11"/>
@@ -7327,8 +7374,8 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
+      <c r="K55" s="27"/>
+      <c r="L55" s="28"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A56" s="11"/>
@@ -7341,8 +7388,8 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="K56" s="27"/>
+      <c r="L56" s="28"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A57" s="11"/>
@@ -7355,8 +7402,8 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="15"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
+      <c r="K57" s="27"/>
+      <c r="L57" s="28"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A58" s="11"/>
@@ -7369,8 +7416,8 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="15"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
+      <c r="K58" s="27"/>
+      <c r="L58" s="28"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A59" s="11"/>
@@ -7383,8 +7430,8 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
+      <c r="K59" s="27"/>
+      <c r="L59" s="28"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A60" s="11"/>
@@ -7397,8 +7444,8 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="15"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
+      <c r="K60" s="27"/>
+      <c r="L60" s="28"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A61" s="11"/>
@@ -7411,8 +7458,8 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="15"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
+      <c r="K61" s="27"/>
+      <c r="L61" s="28"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A62" s="11"/>
@@ -7425,8 +7472,8 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="15"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
+      <c r="K62" s="27"/>
+      <c r="L62" s="28"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A63" s="11"/>
@@ -7439,8 +7486,8 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="15"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
+      <c r="K63" s="27"/>
+      <c r="L63" s="28"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A64" s="11"/>
@@ -7453,8 +7500,8 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="15"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
+      <c r="K64" s="27"/>
+      <c r="L64" s="28"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A65" s="11"/>
@@ -7467,8 +7514,8 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="15"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
+      <c r="K65" s="27"/>
+      <c r="L65" s="28"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A66" s="11"/>
@@ -7481,8 +7528,8 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="15"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
+      <c r="K66" s="27"/>
+      <c r="L66" s="28"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A67" s="11"/>
@@ -7495,8 +7542,8 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="15"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
+      <c r="K67" s="27"/>
+      <c r="L67" s="28"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A68" s="11"/>
@@ -7509,8 +7556,8 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="15"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
+      <c r="K68" s="27"/>
+      <c r="L68" s="28"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A69" s="11"/>
@@ -7523,8 +7570,8 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="15"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
+      <c r="K69" s="27"/>
+      <c r="L69" s="28"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A70" s="11"/>
@@ -7537,8 +7584,8 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="15"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
+      <c r="K70" s="27"/>
+      <c r="L70" s="28"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A71" s="11"/>
@@ -7551,8 +7598,8 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="15"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="28"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A72" s="11"/>
@@ -7565,8 +7612,8 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="15"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
+      <c r="K72" s="27"/>
+      <c r="L72" s="28"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A73" s="11"/>
@@ -7579,8 +7626,8 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="15"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
+      <c r="K73" s="27"/>
+      <c r="L73" s="28"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A74" s="11"/>
@@ -7593,8 +7640,8 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="15"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
+      <c r="K74" s="27"/>
+      <c r="L74" s="28"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A75" s="11"/>
@@ -7607,8 +7654,8 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="15"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
+      <c r="K75" s="27"/>
+      <c r="L75" s="28"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A76" s="11"/>
@@ -7621,8 +7668,8 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="15"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
+      <c r="K76" s="27"/>
+      <c r="L76" s="28"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A77" s="11"/>
@@ -7635,8 +7682,8 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="15"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
+      <c r="K77" s="27"/>
+      <c r="L77" s="28"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A78" s="11"/>
@@ -7649,8 +7696,8 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="15"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
+      <c r="K78" s="27"/>
+      <c r="L78" s="28"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A79" s="11"/>
@@ -7663,8 +7710,8 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="15"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
+      <c r="K79" s="27"/>
+      <c r="L79" s="28"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A80" s="11"/>
@@ -7677,8 +7724,8 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="15"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
+      <c r="K80" s="27"/>
+      <c r="L80" s="28"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A81" s="11"/>
@@ -7691,8 +7738,8 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="15"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
+      <c r="K81" s="27"/>
+      <c r="L81" s="28"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A82" s="11"/>
@@ -7705,8 +7752,8 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="15"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="24"/>
+      <c r="K82" s="27"/>
+      <c r="L82" s="28"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A83" s="11"/>
@@ -7719,8 +7766,8 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="15"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
+      <c r="K83" s="27"/>
+      <c r="L83" s="28"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A84" s="11"/>
@@ -7733,8 +7780,8 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="15"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
+      <c r="K84" s="27"/>
+      <c r="L84" s="28"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A85" s="11"/>
@@ -7747,8 +7794,8 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="15"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
+      <c r="K85" s="27"/>
+      <c r="L85" s="28"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A86" s="11"/>
@@ -7761,8 +7808,8 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="15"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
+      <c r="K86" s="27"/>
+      <c r="L86" s="28"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A87" s="11"/>
@@ -7775,8 +7822,8 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="15"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
+      <c r="K87" s="27"/>
+      <c r="L87" s="28"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A88" s="11"/>
@@ -7789,8 +7836,8 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
+      <c r="K88" s="27"/>
+      <c r="L88" s="28"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A89" s="11"/>
@@ -7803,8 +7850,8 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="15"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="28"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A90" s="11"/>
@@ -7817,8 +7864,8 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
+      <c r="K90" s="27"/>
+      <c r="L90" s="28"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A91" s="11"/>
@@ -7831,8 +7878,8 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="15"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
+      <c r="K91" s="27"/>
+      <c r="L91" s="28"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A92" s="11"/>
@@ -7845,10 +7892,10 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="15"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
-    </row>
-    <row r="93" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="K92" s="27"/>
+      <c r="L92" s="28"/>
+    </row>
+    <row r="93" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A93" s="11"/>
       <c r="B93" s="12"/>
       <c r="C93" s="13"/>
@@ -7859,8 +7906,8 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="15"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="24"/>
+      <c r="K93" s="27"/>
+      <c r="L93" s="28"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A94" s="11"/>
@@ -7873,8 +7920,8 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="15"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
+      <c r="K94" s="27"/>
+      <c r="L94" s="28"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A95" s="11"/>
@@ -7887,8 +7934,8 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="15"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
+      <c r="K95" s="27"/>
+      <c r="L95" s="28"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A96" s="11"/>
@@ -7901,8 +7948,8 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="15"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24"/>
+      <c r="K96" s="27"/>
+      <c r="L96" s="28"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A97" s="11"/>
@@ -7915,8 +7962,8 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="15"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="24"/>
+      <c r="K97" s="27"/>
+      <c r="L97" s="28"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A98" s="11"/>
@@ -7929,8 +7976,8 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="15"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="24"/>
+      <c r="K98" s="27"/>
+      <c r="L98" s="28"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A99" s="11"/>
@@ -7943,8 +7990,8 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="15"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="24"/>
+      <c r="K99" s="27"/>
+      <c r="L99" s="28"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A100" s="11"/>
@@ -7957,8 +8004,8 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="15"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="24"/>
+      <c r="K100" s="27"/>
+      <c r="L100" s="28"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A101" s="11"/>
@@ -7971,8 +8018,8 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="15"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="24"/>
+      <c r="K101" s="27"/>
+      <c r="L101" s="28"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A102" s="11"/>
@@ -7985,8 +8032,8 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="15"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24"/>
+      <c r="K102" s="27"/>
+      <c r="L102" s="28"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A103" s="11"/>
@@ -7999,8 +8046,8 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="15"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="24"/>
+      <c r="K103" s="27"/>
+      <c r="L103" s="28"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A104" s="11"/>
@@ -8013,8 +8060,8 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="15"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="24"/>
+      <c r="K104" s="27"/>
+      <c r="L104" s="28"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A105" s="11"/>
@@ -8027,8 +8074,8 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="15"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="24"/>
+      <c r="K105" s="27"/>
+      <c r="L105" s="28"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A106" s="11"/>
@@ -8041,8 +8088,8 @@
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="15"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="24"/>
+      <c r="K106" s="27"/>
+      <c r="L106" s="28"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A107" s="11"/>
@@ -8055,8 +8102,8 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="15"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="24"/>
+      <c r="K107" s="27"/>
+      <c r="L107" s="28"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A108" s="11"/>
@@ -8069,8 +8116,8 @@
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="15"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="24"/>
+      <c r="K108" s="27"/>
+      <c r="L108" s="28"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A109" s="11"/>
@@ -8083,8 +8130,8 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="15"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="24"/>
+      <c r="K109" s="27"/>
+      <c r="L109" s="28"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A110" s="11"/>
@@ -8097,8 +8144,8 @@
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="15"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="24"/>
+      <c r="K110" s="27"/>
+      <c r="L110" s="28"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A111" s="11"/>
@@ -8111,8 +8158,8 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="15"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="24"/>
+      <c r="K111" s="27"/>
+      <c r="L111" s="28"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A112" s="11"/>
@@ -8125,8 +8172,8 @@
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="15"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="24"/>
+      <c r="K112" s="27"/>
+      <c r="L112" s="28"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A113" s="11"/>
@@ -8139,8 +8186,8 @@
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="15"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="24"/>
+      <c r="K113" s="27"/>
+      <c r="L113" s="28"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A114" s="11"/>
@@ -8153,8 +8200,8 @@
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="15"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="24"/>
+      <c r="K114" s="27"/>
+      <c r="L114" s="28"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A115" s="11"/>
@@ -8167,8 +8214,8 @@
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="15"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="24"/>
+      <c r="K115" s="27"/>
+      <c r="L115" s="28"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A116" s="11"/>
@@ -8181,8 +8228,8 @@
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="15"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="24"/>
+      <c r="K116" s="27"/>
+      <c r="L116" s="28"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A117" s="11"/>
@@ -8195,8 +8242,8 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="15"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="24"/>
+      <c r="K117" s="27"/>
+      <c r="L117" s="28"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A118" s="11"/>
@@ -8209,8 +8256,8 @@
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="15"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="24"/>
+      <c r="K118" s="27"/>
+      <c r="L118" s="28"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A119" s="11"/>
@@ -8223,8 +8270,8 @@
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="15"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="24"/>
+      <c r="K119" s="27"/>
+      <c r="L119" s="28"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A120" s="11"/>
@@ -8237,8 +8284,8 @@
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="15"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="24"/>
+      <c r="K120" s="27"/>
+      <c r="L120" s="28"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A121" s="11"/>
@@ -8251,8 +8298,8 @@
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="15"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="24"/>
+      <c r="K121" s="27"/>
+      <c r="L121" s="28"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A122" s="11"/>
@@ -8265,8 +8312,8 @@
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
       <c r="J122" s="15"/>
-      <c r="K122" s="23"/>
-      <c r="L122" s="24"/>
+      <c r="K122" s="27"/>
+      <c r="L122" s="28"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A123" s="11"/>
@@ -8279,8 +8326,8 @@
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="15"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="24"/>
+      <c r="K123" s="27"/>
+      <c r="L123" s="28"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A124" s="11"/>
@@ -8293,8 +8340,8 @@
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="15"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="24"/>
+      <c r="K124" s="27"/>
+      <c r="L124" s="28"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A125" s="11"/>
@@ -8307,8 +8354,8 @@
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="15"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="24"/>
+      <c r="K125" s="27"/>
+      <c r="L125" s="28"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A126" s="11"/>
@@ -8321,8 +8368,8 @@
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
       <c r="J126" s="15"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="24"/>
+      <c r="K126" s="27"/>
+      <c r="L126" s="28"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A127" s="11"/>
@@ -8335,8 +8382,8 @@
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="15"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="24"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="28"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A128" s="11"/>
@@ -8349,8 +8396,8 @@
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
       <c r="J128" s="15"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="24"/>
+      <c r="K128" s="27"/>
+      <c r="L128" s="28"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A129" s="11"/>
@@ -8363,8 +8410,8 @@
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="15"/>
-      <c r="K129" s="23"/>
-      <c r="L129" s="24"/>
+      <c r="K129" s="27"/>
+      <c r="L129" s="28"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A130" s="11"/>
@@ -8377,8 +8424,8 @@
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="J130" s="15"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="24"/>
+      <c r="K130" s="27"/>
+      <c r="L130" s="28"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A131" s="11"/>
@@ -8391,8 +8438,8 @@
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="15"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="24"/>
+      <c r="K131" s="27"/>
+      <c r="L131" s="28"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A132" s="11"/>
@@ -8405,8 +8452,8 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="15"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="24"/>
+      <c r="K132" s="27"/>
+      <c r="L132" s="28"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A133" s="11"/>
@@ -8419,8 +8466,8 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="15"/>
-      <c r="K133" s="23"/>
-      <c r="L133" s="24"/>
+      <c r="K133" s="27"/>
+      <c r="L133" s="28"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A134" s="11"/>
@@ -8433,8 +8480,8 @@
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
       <c r="J134" s="15"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="24"/>
+      <c r="K134" s="27"/>
+      <c r="L134" s="28"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A135" s="11"/>
@@ -8447,8 +8494,8 @@
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="15"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="24"/>
+      <c r="K135" s="27"/>
+      <c r="L135" s="28"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A136" s="11"/>
@@ -8461,8 +8508,8 @@
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="15"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="24"/>
+      <c r="K136" s="27"/>
+      <c r="L136" s="28"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A137" s="11"/>
@@ -8475,8 +8522,8 @@
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="15"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="24"/>
+      <c r="K137" s="27"/>
+      <c r="L137" s="28"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A138" s="11"/>
@@ -8489,8 +8536,8 @@
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
       <c r="J138" s="15"/>
-      <c r="K138" s="23"/>
-      <c r="L138" s="24"/>
+      <c r="K138" s="27"/>
+      <c r="L138" s="28"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A139" s="11"/>
@@ -8503,8 +8550,8 @@
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="15"/>
-      <c r="K139" s="23"/>
-      <c r="L139" s="24"/>
+      <c r="K139" s="27"/>
+      <c r="L139" s="28"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A140" s="11"/>
@@ -8517,8 +8564,8 @@
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="15"/>
-      <c r="K140" s="23"/>
-      <c r="L140" s="24"/>
+      <c r="K140" s="27"/>
+      <c r="L140" s="28"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A141" s="11"/>
@@ -8531,8 +8578,8 @@
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="15"/>
-      <c r="K141" s="23"/>
-      <c r="L141" s="24"/>
+      <c r="K141" s="27"/>
+      <c r="L141" s="28"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A142" s="11"/>
@@ -8545,8 +8592,8 @@
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
       <c r="J142" s="15"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="24"/>
+      <c r="K142" s="27"/>
+      <c r="L142" s="28"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A143" s="11"/>
@@ -8559,8 +8606,8 @@
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="15"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="24"/>
+      <c r="K143" s="27"/>
+      <c r="L143" s="28"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A144" s="11"/>
@@ -8573,8 +8620,8 @@
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="15"/>
-      <c r="K144" s="23"/>
-      <c r="L144" s="24"/>
+      <c r="K144" s="27"/>
+      <c r="L144" s="28"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A145" s="11"/>
@@ -8587,8 +8634,8 @@
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="15"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="24"/>
+      <c r="K145" s="27"/>
+      <c r="L145" s="28"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A146" s="11"/>
@@ -8601,8 +8648,8 @@
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
       <c r="J146" s="15"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="24"/>
+      <c r="K146" s="27"/>
+      <c r="L146" s="28"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A147" s="11"/>
@@ -8615,8 +8662,8 @@
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
       <c r="J147" s="15"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="24"/>
+      <c r="K147" s="27"/>
+      <c r="L147" s="28"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A148" s="11"/>
@@ -8629,8 +8676,8 @@
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
       <c r="J148" s="15"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="24"/>
+      <c r="K148" s="27"/>
+      <c r="L148" s="28"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A149" s="11"/>
@@ -8643,8 +8690,8 @@
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
       <c r="J149" s="15"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="24"/>
+      <c r="K149" s="27"/>
+      <c r="L149" s="28"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A150" s="11"/>
@@ -8657,8 +8704,8 @@
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
       <c r="J150" s="15"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="24"/>
+      <c r="K150" s="27"/>
+      <c r="L150" s="28"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A151" s="11"/>
@@ -8671,8 +8718,8 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
       <c r="J151" s="15"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="24"/>
+      <c r="K151" s="27"/>
+      <c r="L151" s="28"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A152" s="11"/>
@@ -8685,8 +8732,8 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
       <c r="J152" s="15"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="24"/>
+      <c r="K152" s="27"/>
+      <c r="L152" s="28"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A153" s="11"/>
@@ -8699,8 +8746,8 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
       <c r="J153" s="15"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="24"/>
+      <c r="K153" s="27"/>
+      <c r="L153" s="28"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A154" s="11"/>
@@ -8713,8 +8760,8 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
       <c r="J154" s="15"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="24"/>
+      <c r="K154" s="27"/>
+      <c r="L154" s="28"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A155" s="11"/>
@@ -8727,8 +8774,8 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
       <c r="J155" s="15"/>
-      <c r="K155" s="23"/>
-      <c r="L155" s="24"/>
+      <c r="K155" s="27"/>
+      <c r="L155" s="28"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A156" s="11"/>
@@ -8741,8 +8788,8 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
       <c r="J156" s="15"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="24"/>
+      <c r="K156" s="27"/>
+      <c r="L156" s="28"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A157" s="11"/>
@@ -8755,8 +8802,8 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
       <c r="J157" s="15"/>
-      <c r="K157" s="23"/>
-      <c r="L157" s="24"/>
+      <c r="K157" s="27"/>
+      <c r="L157" s="28"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A158" s="11"/>
@@ -8769,8 +8816,8 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
       <c r="J158" s="15"/>
-      <c r="K158" s="23"/>
-      <c r="L158" s="24"/>
+      <c r="K158" s="27"/>
+      <c r="L158" s="28"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A159" s="11"/>
@@ -8783,8 +8830,8 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
       <c r="J159" s="15"/>
-      <c r="K159" s="23"/>
-      <c r="L159" s="24"/>
+      <c r="K159" s="27"/>
+      <c r="L159" s="28"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A160" s="11"/>
@@ -8797,8 +8844,8 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
       <c r="J160" s="15"/>
-      <c r="K160" s="23"/>
-      <c r="L160" s="24"/>
+      <c r="K160" s="27"/>
+      <c r="L160" s="28"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A161" s="11"/>
@@ -8811,8 +8858,8 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
       <c r="J161" s="15"/>
-      <c r="K161" s="23"/>
-      <c r="L161" s="24"/>
+      <c r="K161" s="27"/>
+      <c r="L161" s="28"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A162" s="11"/>
@@ -8825,8 +8872,8 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
       <c r="J162" s="15"/>
-      <c r="K162" s="23"/>
-      <c r="L162" s="24"/>
+      <c r="K162" s="27"/>
+      <c r="L162" s="28"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A163" s="11"/>
@@ -8839,8 +8886,8 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
       <c r="J163" s="15"/>
-      <c r="K163" s="23"/>
-      <c r="L163" s="24"/>
+      <c r="K163" s="27"/>
+      <c r="L163" s="28"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A164" s="11"/>
@@ -8853,8 +8900,8 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
       <c r="J164" s="15"/>
-      <c r="K164" s="23"/>
-      <c r="L164" s="24"/>
+      <c r="K164" s="27"/>
+      <c r="L164" s="28"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A165" s="11"/>
@@ -8867,8 +8914,8 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
       <c r="J165" s="15"/>
-      <c r="K165" s="23"/>
-      <c r="L165" s="24"/>
+      <c r="K165" s="27"/>
+      <c r="L165" s="28"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A166" s="11"/>
@@ -8881,8 +8928,8 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
       <c r="J166" s="15"/>
-      <c r="K166" s="23"/>
-      <c r="L166" s="24"/>
+      <c r="K166" s="27"/>
+      <c r="L166" s="28"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A167" s="11"/>
@@ -8895,8 +8942,8 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
       <c r="J167" s="15"/>
-      <c r="K167" s="23"/>
-      <c r="L167" s="24"/>
+      <c r="K167" s="27"/>
+      <c r="L167" s="28"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A168" s="11"/>
@@ -8909,8 +8956,8 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
       <c r="J168" s="15"/>
-      <c r="K168" s="23"/>
-      <c r="L168" s="24"/>
+      <c r="K168" s="27"/>
+      <c r="L168" s="28"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A169" s="11"/>
@@ -8923,8 +8970,8 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
       <c r="J169" s="15"/>
-      <c r="K169" s="23"/>
-      <c r="L169" s="24"/>
+      <c r="K169" s="27"/>
+      <c r="L169" s="28"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A170" s="11"/>
@@ -8937,8 +8984,8 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
       <c r="J170" s="15"/>
-      <c r="K170" s="23"/>
-      <c r="L170" s="24"/>
+      <c r="K170" s="27"/>
+      <c r="L170" s="28"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A171" s="11"/>
@@ -8951,8 +8998,8 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
       <c r="J171" s="15"/>
-      <c r="K171" s="23"/>
-      <c r="L171" s="24"/>
+      <c r="K171" s="27"/>
+      <c r="L171" s="28"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A172" s="11"/>
@@ -8965,8 +9012,8 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
       <c r="J172" s="15"/>
-      <c r="K172" s="23"/>
-      <c r="L172" s="24"/>
+      <c r="K172" s="27"/>
+      <c r="L172" s="28"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A173" s="11"/>
@@ -8979,8 +9026,8 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
       <c r="J173" s="15"/>
-      <c r="K173" s="23"/>
-      <c r="L173" s="24"/>
+      <c r="K173" s="27"/>
+      <c r="L173" s="28"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A174" s="11"/>
@@ -8993,8 +9040,8 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
       <c r="J174" s="15"/>
-      <c r="K174" s="23"/>
-      <c r="L174" s="24"/>
+      <c r="K174" s="27"/>
+      <c r="L174" s="28"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A175" s="11"/>
@@ -9007,8 +9054,8 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
       <c r="J175" s="15"/>
-      <c r="K175" s="23"/>
-      <c r="L175" s="24"/>
+      <c r="K175" s="27"/>
+      <c r="L175" s="28"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A176" s="11"/>
@@ -9021,8 +9068,8 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
       <c r="J176" s="15"/>
-      <c r="K176" s="23"/>
-      <c r="L176" s="24"/>
+      <c r="K176" s="27"/>
+      <c r="L176" s="28"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A177" s="11"/>
@@ -9035,8 +9082,8 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
       <c r="J177" s="15"/>
-      <c r="K177" s="23"/>
-      <c r="L177" s="24"/>
+      <c r="K177" s="27"/>
+      <c r="L177" s="28"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A178" s="11"/>
@@ -9049,8 +9096,8 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
       <c r="J178" s="15"/>
-      <c r="K178" s="23"/>
-      <c r="L178" s="24"/>
+      <c r="K178" s="27"/>
+      <c r="L178" s="28"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A179" s="11"/>
@@ -9063,8 +9110,8 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
       <c r="J179" s="15"/>
-      <c r="K179" s="23"/>
-      <c r="L179" s="24"/>
+      <c r="K179" s="27"/>
+      <c r="L179" s="28"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A180" s="11"/>
@@ -9077,8 +9124,8 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
       <c r="J180" s="15"/>
-      <c r="K180" s="23"/>
-      <c r="L180" s="24"/>
+      <c r="K180" s="27"/>
+      <c r="L180" s="28"/>
     </row>
     <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A181" s="11"/>
@@ -9091,8 +9138,8 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
       <c r="J181" s="15"/>
-      <c r="K181" s="23"/>
-      <c r="L181" s="24"/>
+      <c r="K181" s="27"/>
+      <c r="L181" s="28"/>
     </row>
     <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A182" s="11"/>
@@ -9105,8 +9152,8 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
       <c r="J182" s="15"/>
-      <c r="K182" s="23"/>
-      <c r="L182" s="24"/>
+      <c r="K182" s="27"/>
+      <c r="L182" s="28"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A183" s="11"/>
@@ -9119,8 +9166,8 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
       <c r="J183" s="15"/>
-      <c r="K183" s="23"/>
-      <c r="L183" s="24"/>
+      <c r="K183" s="27"/>
+      <c r="L183" s="28"/>
     </row>
     <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A184" s="11"/>
@@ -9133,8 +9180,8 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
       <c r="J184" s="15"/>
-      <c r="K184" s="23"/>
-      <c r="L184" s="24"/>
+      <c r="K184" s="27"/>
+      <c r="L184" s="28"/>
     </row>
     <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A185" s="11"/>
@@ -9147,8 +9194,8 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
       <c r="J185" s="15"/>
-      <c r="K185" s="23"/>
-      <c r="L185" s="24"/>
+      <c r="K185" s="27"/>
+      <c r="L185" s="28"/>
     </row>
     <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A186" s="11"/>
@@ -9161,8 +9208,8 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
       <c r="J186" s="15"/>
-      <c r="K186" s="23"/>
-      <c r="L186" s="24"/>
+      <c r="K186" s="27"/>
+      <c r="L186" s="28"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A187" s="11"/>
@@ -9175,8 +9222,8 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
       <c r="J187" s="15"/>
-      <c r="K187" s="23"/>
-      <c r="L187" s="24"/>
+      <c r="K187" s="27"/>
+      <c r="L187" s="28"/>
     </row>
     <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A188" s="11"/>
@@ -9189,8 +9236,8 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
       <c r="J188" s="15"/>
-      <c r="K188" s="23"/>
-      <c r="L188" s="24"/>
+      <c r="K188" s="27"/>
+      <c r="L188" s="28"/>
     </row>
     <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A189" s="11"/>
@@ -9203,8 +9250,8 @@
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
       <c r="J189" s="15"/>
-      <c r="K189" s="23"/>
-      <c r="L189" s="24"/>
+      <c r="K189" s="27"/>
+      <c r="L189" s="28"/>
     </row>
     <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A190" s="11"/>
@@ -9217,8 +9264,8 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
       <c r="J190" s="15"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="24"/>
+      <c r="K190" s="27"/>
+      <c r="L190" s="28"/>
     </row>
     <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A191" s="11"/>
@@ -9231,8 +9278,8 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
       <c r="J191" s="15"/>
-      <c r="K191" s="23"/>
-      <c r="L191" s="24"/>
+      <c r="K191" s="27"/>
+      <c r="L191" s="28"/>
     </row>
     <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A192" s="11"/>
@@ -9245,45 +9292,59 @@
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
       <c r="J192" s="15"/>
-      <c r="K192" s="23"/>
-      <c r="L192" s="24"/>
+      <c r="K192" s="27"/>
+      <c r="L192" s="28"/>
+    </row>
+    <row r="193" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
+      <c r="A193" s="11"/>
+      <c r="B193" s="12"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="14"/>
+      <c r="E193" s="14"/>
+      <c r="F193" s="14"/>
+      <c r="G193" s="14"/>
+      <c r="H193" s="14"/>
+      <c r="I193" s="14"/>
+      <c r="J193" s="15"/>
+      <c r="K193" s="27"/>
+      <c r="L193" s="28"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
-  <conditionalFormatting sqref="N20">
+  <conditionalFormatting sqref="N21">
     <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N23">
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16:N19">
+  <conditionalFormatting sqref="N25">
+    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N25,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N25,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N25,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:N20">
     <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
     </cfRule>
@@ -9294,22 +9355,22 @@
       <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N21:N22">
+  <conditionalFormatting sqref="N22:N23">
     <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
+      <formula>LEFT(N22,LEN("WARN"))="WARN"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
+      <formula>LEFT(N22,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
     <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
+      <formula>LEFT(N22,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D25 D2:D3 D7:D8 D16:D17 D26:D192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D25 D26 D2:D3 D7:D8 D16:D17 D27:D193">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C25 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C26:C192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C25 C26 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C27:C193">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="788">
   <si>
     <t>target</t>
   </si>
@@ -2456,41 +2456,62 @@
     <t>${input.username}</t>
   </si>
   <si>
+    <t>${login.username}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    And I type the Password</t>
+  </si>
+  <si>
+    <t>${input.password}</t>
+  </si>
+  <si>
+    <t>${login.password}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    And I click on the submit button</t>
+  </si>
+  <si>
+    <t>${button.submit}</t>
+  </si>
+  <si>
+    <t>user should be navigated to GNU Dashboard</t>
+  </si>
+  <si>
+    <t>${title.locator}</t>
+  </si>
+  <si>
+    <t>${title.header}</t>
+  </si>
+  <si>
+    <t>mobilelogin</t>
+  </si>
+  <si>
+    <t>Resize the window for mobile testing</t>
+  </si>
+  <si>
+    <t>wait for login page to load</t>
+  </si>
+  <si>
     <t>${username}</t>
   </si>
   <si>
-    <t xml:space="preserve">    And I type the Password</t>
-  </si>
-  <si>
-    <t>${input.password}</t>
-  </si>
-  <si>
     <t>${password}</t>
   </si>
   <si>
-    <t xml:space="preserve">    And I click on the submit button</t>
-  </si>
-  <si>
-    <t>${button.submit}</t>
-  </si>
-  <si>
-    <t>user should be navigated to GNU Dashboard</t>
-  </si>
-  <si>
-    <t>${title.header}</t>
+    <t>Welcome Accion!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2525,34 +2546,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.0499893185216834"/>
       <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2563,18 +2561,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2587,6 +2601,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2594,15 +2639,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,55 +2662,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2679,6 +2678,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2705,7 +2718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,7 +2730,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,7 +2748,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,19 +2856,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,127 +2898,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2915,16 +2928,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2944,37 +2975,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,16 +3016,24 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3023,143 +3042,137 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3215,23 +3228,11 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3250,52 +3251,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -3617,7 +3618,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -6287,13 +6288,13 @@
   <sheetPr/>
   <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.1666666666667" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="4" customWidth="1"/>
@@ -6337,15 +6338,15 @@
       <c r="I1" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="18" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="22"/>
+      <c r="K1" s="19"/>
       <c r="L1" s="10" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="41.4" spans="1:12">
+    <row r="2" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A2" s="11" t="s">
         <v>734</v>
       </c>
@@ -6368,8 +6369,8 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A3" s="11"/>
@@ -6390,8 +6391,8 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A4" s="11"/>
@@ -6414,8 +6415,8 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A5" s="11"/>
@@ -6436,10 +6437,10 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="41.4" spans="1:12">
+      <c r="K5" s="20"/>
+      <c r="L5" s="21"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A6" s="11" t="s">
         <v>744</v>
       </c>
@@ -6462,8 +6463,8 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
       <c r="C7" s="13" t="s">
@@ -6482,8 +6483,8 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A8" s="11"/>
@@ -6504,8 +6505,8 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A9" s="11"/>
@@ -6528,8 +6529,8 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A10" s="11"/>
@@ -6550,10 +6551,10 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="96.6" spans="1:12">
+      <c r="K10" s="20"/>
+      <c r="L10" s="21"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
       <c r="A11" s="11" t="s">
         <v>750</v>
       </c>
@@ -6576,8 +6577,8 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A12" s="11"/>
@@ -6598,8 +6599,8 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A13" s="11"/>
@@ -6620,8 +6621,8 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A14" s="11"/>
@@ -6644,8 +6645,8 @@
       <c r="J14" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A15" s="11"/>
@@ -6664,10 +6665,10 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="27.6" spans="1:15">
+      <c r="K15" s="20"/>
+      <c r="L15" s="21"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>762</v>
       </c>
@@ -6690,11 +6691,11 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="20"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="11"/>
@@ -6711,11 +6712,11 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="20"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="11"/>
@@ -6736,11 +6737,11 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="20"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="11"/>
@@ -6761,11 +6762,11 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="21"/>
+      <c r="O19" s="20"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A20" s="11"/>
@@ -6786,11 +6787,11 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="20"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="11"/>
@@ -6813,11 +6814,11 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="21"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="21"/>
+      <c r="O21" s="20"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="11"/>
@@ -6840,11 +6841,11 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="23"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="21"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="21"/>
+      <c r="O22" s="20"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="11"/>
@@ -6865,11 +6866,11 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="23"/>
+      <c r="K23" s="20"/>
+      <c r="L23" s="21"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="21"/>
+      <c r="O23" s="20"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A24" s="11"/>
@@ -6880,147 +6881,262 @@
         <v>30</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="14" t="s">
+        <v>781</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="23"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="21"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="21"/>
+      <c r="O24" s="20"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="28" spans="1:15">
+      <c r="A25" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>765</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K25" s="20"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="20"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="B26" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="E26" s="2">
+        <v>430</v>
+      </c>
+      <c r="F26" s="2">
+        <v>932</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K26" s="20"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="20"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="B27" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="F27" s="17">
+        <v>5000</v>
+      </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K27" s="20"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="20"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>767</v>
+      </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K28" s="20"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="20"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="B29" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K29" s="20"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="20"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="B30" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>785</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K30" s="20"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="20"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="14"/>
+      <c r="B31" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>786</v>
+      </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K31" s="20"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="20"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="B32" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>778</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="K32" s="20"/>
+      <c r="L32" s="21"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="20"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
       <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="B33" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>787</v>
+      </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="21"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="20"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A34" s="11"/>
@@ -7033,8 +7149,8 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="21"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A35" s="11"/>
@@ -7047,8 +7163,8 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="21"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A36" s="11"/>
@@ -7061,8 +7177,8 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="21"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A37" s="11"/>
@@ -7075,8 +7191,8 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="21"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A38" s="11"/>
@@ -7089,8 +7205,8 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="21"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A39" s="11"/>
@@ -7103,8 +7219,8 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="21"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A40" s="11"/>
@@ -7117,8 +7233,8 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="21"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A41" s="11"/>
@@ -7131,8 +7247,8 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="21"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A42" s="11"/>
@@ -7145,8 +7261,8 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="21"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A43" s="11"/>
@@ -7159,8 +7275,8 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="21"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A44" s="11"/>
@@ -7173,8 +7289,8 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="21"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A45" s="11"/>
@@ -7187,8 +7303,8 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="21"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A46" s="11"/>
@@ -7201,8 +7317,8 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="21"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A47" s="11"/>
@@ -7215,8 +7331,8 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="21"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A48" s="11"/>
@@ -7229,8 +7345,8 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="21"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A49" s="11"/>
@@ -7243,8 +7359,8 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="15"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="21"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A50" s="11"/>
@@ -7257,8 +7373,8 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="21"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A51" s="11"/>
@@ -7271,8 +7387,8 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="21"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A52" s="11"/>
@@ -7285,8 +7401,8 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="21"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A53" s="11"/>
@@ -7299,8 +7415,8 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="21"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A54" s="11"/>
@@ -7313,8 +7429,8 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="15"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
+      <c r="K54" s="20"/>
+      <c r="L54" s="21"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A55" s="11"/>
@@ -7327,8 +7443,8 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="21"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A56" s="11"/>
@@ -7341,8 +7457,8 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="K56" s="20"/>
+      <c r="L56" s="21"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A57" s="11"/>
@@ -7355,8 +7471,8 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="15"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
+      <c r="K57" s="20"/>
+      <c r="L57" s="21"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A58" s="11"/>
@@ -7369,8 +7485,8 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="15"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
+      <c r="K58" s="20"/>
+      <c r="L58" s="21"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A59" s="11"/>
@@ -7383,8 +7499,8 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
+      <c r="K59" s="20"/>
+      <c r="L59" s="21"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A60" s="11"/>
@@ -7397,8 +7513,8 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="15"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
+      <c r="K60" s="20"/>
+      <c r="L60" s="21"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A61" s="11"/>
@@ -7411,8 +7527,8 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="15"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="21"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A62" s="11"/>
@@ -7425,8 +7541,8 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="15"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
+      <c r="K62" s="20"/>
+      <c r="L62" s="21"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A63" s="11"/>
@@ -7439,8 +7555,8 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="15"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
+      <c r="K63" s="20"/>
+      <c r="L63" s="21"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A64" s="11"/>
@@ -7453,8 +7569,8 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="15"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
+      <c r="K64" s="20"/>
+      <c r="L64" s="21"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A65" s="11"/>
@@ -7467,8 +7583,8 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="15"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
+      <c r="K65" s="20"/>
+      <c r="L65" s="21"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A66" s="11"/>
@@ -7481,8 +7597,8 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="15"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
+      <c r="K66" s="20"/>
+      <c r="L66" s="21"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A67" s="11"/>
@@ -7495,8 +7611,8 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="15"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
+      <c r="K67" s="20"/>
+      <c r="L67" s="21"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A68" s="11"/>
@@ -7509,8 +7625,8 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="15"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
+      <c r="K68" s="20"/>
+      <c r="L68" s="21"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A69" s="11"/>
@@ -7523,8 +7639,8 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="15"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
+      <c r="K69" s="20"/>
+      <c r="L69" s="21"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A70" s="11"/>
@@ -7537,8 +7653,8 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="15"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
+      <c r="K70" s="20"/>
+      <c r="L70" s="21"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A71" s="11"/>
@@ -7551,8 +7667,8 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="15"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
+      <c r="K71" s="20"/>
+      <c r="L71" s="21"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A72" s="11"/>
@@ -7565,8 +7681,8 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="15"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
+      <c r="K72" s="20"/>
+      <c r="L72" s="21"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A73" s="11"/>
@@ -7579,8 +7695,8 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="15"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
+      <c r="K73" s="20"/>
+      <c r="L73" s="21"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A74" s="11"/>
@@ -7593,8 +7709,8 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="15"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
+      <c r="K74" s="20"/>
+      <c r="L74" s="21"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A75" s="11"/>
@@ -7607,8 +7723,8 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="15"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
+      <c r="K75" s="20"/>
+      <c r="L75" s="21"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A76" s="11"/>
@@ -7621,8 +7737,8 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="15"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
+      <c r="K76" s="20"/>
+      <c r="L76" s="21"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A77" s="11"/>
@@ -7635,8 +7751,8 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="15"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
+      <c r="K77" s="20"/>
+      <c r="L77" s="21"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A78" s="11"/>
@@ -7649,8 +7765,8 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="15"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
+      <c r="K78" s="20"/>
+      <c r="L78" s="21"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A79" s="11"/>
@@ -7663,8 +7779,8 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="15"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
+      <c r="K79" s="20"/>
+      <c r="L79" s="21"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A80" s="11"/>
@@ -7677,8 +7793,8 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="15"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
+      <c r="K80" s="20"/>
+      <c r="L80" s="21"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A81" s="11"/>
@@ -7691,8 +7807,8 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="15"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
+      <c r="K81" s="20"/>
+      <c r="L81" s="21"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A82" s="11"/>
@@ -7705,8 +7821,8 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="15"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="24"/>
+      <c r="K82" s="20"/>
+      <c r="L82" s="21"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A83" s="11"/>
@@ -7719,8 +7835,8 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="15"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
+      <c r="K83" s="20"/>
+      <c r="L83" s="21"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A84" s="11"/>
@@ -7733,8 +7849,8 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="15"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
+      <c r="K84" s="20"/>
+      <c r="L84" s="21"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A85" s="11"/>
@@ -7747,8 +7863,8 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="15"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
+      <c r="K85" s="20"/>
+      <c r="L85" s="21"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A86" s="11"/>
@@ -7761,8 +7877,8 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="15"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
+      <c r="K86" s="20"/>
+      <c r="L86" s="21"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A87" s="11"/>
@@ -7775,8 +7891,8 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="15"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
+      <c r="K87" s="20"/>
+      <c r="L87" s="21"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A88" s="11"/>
@@ -7789,8 +7905,8 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
+      <c r="K88" s="20"/>
+      <c r="L88" s="21"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A89" s="11"/>
@@ -7803,8 +7919,8 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="15"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
+      <c r="K89" s="20"/>
+      <c r="L89" s="21"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A90" s="11"/>
@@ -7817,8 +7933,8 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
+      <c r="K90" s="20"/>
+      <c r="L90" s="21"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A91" s="11"/>
@@ -7831,8 +7947,8 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="15"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
+      <c r="K91" s="20"/>
+      <c r="L91" s="21"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A92" s="11"/>
@@ -7845,8 +7961,8 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="15"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
+      <c r="K92" s="20"/>
+      <c r="L92" s="21"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A93" s="11"/>
@@ -7859,8 +7975,8 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="15"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="24"/>
+      <c r="K93" s="20"/>
+      <c r="L93" s="21"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A94" s="11"/>
@@ -7873,8 +7989,8 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="15"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
+      <c r="K94" s="20"/>
+      <c r="L94" s="21"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A95" s="11"/>
@@ -7887,8 +8003,8 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="15"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
+      <c r="K95" s="20"/>
+      <c r="L95" s="21"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A96" s="11"/>
@@ -7901,8 +8017,8 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="15"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24"/>
+      <c r="K96" s="20"/>
+      <c r="L96" s="21"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A97" s="11"/>
@@ -7915,8 +8031,8 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="15"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="24"/>
+      <c r="K97" s="20"/>
+      <c r="L97" s="21"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A98" s="11"/>
@@ -7929,8 +8045,8 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="15"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="24"/>
+      <c r="K98" s="20"/>
+      <c r="L98" s="21"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A99" s="11"/>
@@ -7943,8 +8059,8 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="15"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="24"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="21"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A100" s="11"/>
@@ -7957,8 +8073,8 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="15"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="24"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="21"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A101" s="11"/>
@@ -7971,8 +8087,8 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="15"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="24"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="21"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A102" s="11"/>
@@ -7985,8 +8101,8 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="15"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="21"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A103" s="11"/>
@@ -7999,8 +8115,8 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="15"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="24"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="21"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A104" s="11"/>
@@ -8013,8 +8129,8 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="15"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="24"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="21"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A105" s="11"/>
@@ -8027,8 +8143,8 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="15"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="24"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="21"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A106" s="11"/>
@@ -8041,8 +8157,8 @@
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="15"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="24"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="21"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A107" s="11"/>
@@ -8055,8 +8171,8 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="15"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="24"/>
+      <c r="K107" s="20"/>
+      <c r="L107" s="21"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A108" s="11"/>
@@ -8069,8 +8185,8 @@
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="15"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="24"/>
+      <c r="K108" s="20"/>
+      <c r="L108" s="21"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A109" s="11"/>
@@ -8083,8 +8199,8 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="15"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="24"/>
+      <c r="K109" s="20"/>
+      <c r="L109" s="21"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A110" s="11"/>
@@ -8097,8 +8213,8 @@
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="15"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="24"/>
+      <c r="K110" s="20"/>
+      <c r="L110" s="21"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A111" s="11"/>
@@ -8111,8 +8227,8 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="15"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="24"/>
+      <c r="K111" s="20"/>
+      <c r="L111" s="21"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A112" s="11"/>
@@ -8125,8 +8241,8 @@
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="15"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="24"/>
+      <c r="K112" s="20"/>
+      <c r="L112" s="21"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A113" s="11"/>
@@ -8139,8 +8255,8 @@
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="15"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="24"/>
+      <c r="K113" s="20"/>
+      <c r="L113" s="21"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A114" s="11"/>
@@ -8153,8 +8269,8 @@
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="15"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="24"/>
+      <c r="K114" s="20"/>
+      <c r="L114" s="21"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A115" s="11"/>
@@ -8167,8 +8283,8 @@
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="15"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="24"/>
+      <c r="K115" s="20"/>
+      <c r="L115" s="21"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A116" s="11"/>
@@ -8181,8 +8297,8 @@
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="15"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="24"/>
+      <c r="K116" s="20"/>
+      <c r="L116" s="21"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A117" s="11"/>
@@ -8195,8 +8311,8 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="15"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="24"/>
+      <c r="K117" s="20"/>
+      <c r="L117" s="21"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A118" s="11"/>
@@ -8209,8 +8325,8 @@
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="15"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="24"/>
+      <c r="K118" s="20"/>
+      <c r="L118" s="21"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A119" s="11"/>
@@ -8223,8 +8339,8 @@
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="15"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="24"/>
+      <c r="K119" s="20"/>
+      <c r="L119" s="21"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A120" s="11"/>
@@ -8237,8 +8353,8 @@
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="15"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="24"/>
+      <c r="K120" s="20"/>
+      <c r="L120" s="21"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A121" s="11"/>
@@ -8251,8 +8367,8 @@
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="15"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="24"/>
+      <c r="K121" s="20"/>
+      <c r="L121" s="21"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A122" s="11"/>
@@ -8265,8 +8381,8 @@
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
       <c r="J122" s="15"/>
-      <c r="K122" s="23"/>
-      <c r="L122" s="24"/>
+      <c r="K122" s="20"/>
+      <c r="L122" s="21"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A123" s="11"/>
@@ -8279,8 +8395,8 @@
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="15"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="24"/>
+      <c r="K123" s="20"/>
+      <c r="L123" s="21"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A124" s="11"/>
@@ -8293,8 +8409,8 @@
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="15"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="24"/>
+      <c r="K124" s="20"/>
+      <c r="L124" s="21"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A125" s="11"/>
@@ -8307,8 +8423,8 @@
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="15"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="24"/>
+      <c r="K125" s="20"/>
+      <c r="L125" s="21"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A126" s="11"/>
@@ -8321,8 +8437,8 @@
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
       <c r="J126" s="15"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="24"/>
+      <c r="K126" s="20"/>
+      <c r="L126" s="21"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A127" s="11"/>
@@ -8335,8 +8451,8 @@
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="15"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="24"/>
+      <c r="K127" s="20"/>
+      <c r="L127" s="21"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A128" s="11"/>
@@ -8349,8 +8465,8 @@
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
       <c r="J128" s="15"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="24"/>
+      <c r="K128" s="20"/>
+      <c r="L128" s="21"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A129" s="11"/>
@@ -8363,8 +8479,8 @@
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="15"/>
-      <c r="K129" s="23"/>
-      <c r="L129" s="24"/>
+      <c r="K129" s="20"/>
+      <c r="L129" s="21"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A130" s="11"/>
@@ -8377,8 +8493,8 @@
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="J130" s="15"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="24"/>
+      <c r="K130" s="20"/>
+      <c r="L130" s="21"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A131" s="11"/>
@@ -8391,8 +8507,8 @@
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="15"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="24"/>
+      <c r="K131" s="20"/>
+      <c r="L131" s="21"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A132" s="11"/>
@@ -8405,8 +8521,8 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="15"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="24"/>
+      <c r="K132" s="20"/>
+      <c r="L132" s="21"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A133" s="11"/>
@@ -8419,8 +8535,8 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="15"/>
-      <c r="K133" s="23"/>
-      <c r="L133" s="24"/>
+      <c r="K133" s="20"/>
+      <c r="L133" s="21"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A134" s="11"/>
@@ -8433,8 +8549,8 @@
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
       <c r="J134" s="15"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="24"/>
+      <c r="K134" s="20"/>
+      <c r="L134" s="21"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A135" s="11"/>
@@ -8447,8 +8563,8 @@
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="15"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="24"/>
+      <c r="K135" s="20"/>
+      <c r="L135" s="21"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A136" s="11"/>
@@ -8461,8 +8577,8 @@
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="15"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="24"/>
+      <c r="K136" s="20"/>
+      <c r="L136" s="21"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A137" s="11"/>
@@ -8475,8 +8591,8 @@
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="15"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="24"/>
+      <c r="K137" s="20"/>
+      <c r="L137" s="21"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A138" s="11"/>
@@ -8489,8 +8605,8 @@
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
       <c r="J138" s="15"/>
-      <c r="K138" s="23"/>
-      <c r="L138" s="24"/>
+      <c r="K138" s="20"/>
+      <c r="L138" s="21"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A139" s="11"/>
@@ -8503,8 +8619,8 @@
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="15"/>
-      <c r="K139" s="23"/>
-      <c r="L139" s="24"/>
+      <c r="K139" s="20"/>
+      <c r="L139" s="21"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A140" s="11"/>
@@ -8517,8 +8633,8 @@
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="15"/>
-      <c r="K140" s="23"/>
-      <c r="L140" s="24"/>
+      <c r="K140" s="20"/>
+      <c r="L140" s="21"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A141" s="11"/>
@@ -8531,8 +8647,8 @@
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="15"/>
-      <c r="K141" s="23"/>
-      <c r="L141" s="24"/>
+      <c r="K141" s="20"/>
+      <c r="L141" s="21"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A142" s="11"/>
@@ -8545,8 +8661,8 @@
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
       <c r="J142" s="15"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="24"/>
+      <c r="K142" s="20"/>
+      <c r="L142" s="21"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A143" s="11"/>
@@ -8559,8 +8675,8 @@
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="15"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="24"/>
+      <c r="K143" s="20"/>
+      <c r="L143" s="21"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A144" s="11"/>
@@ -8573,8 +8689,8 @@
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="15"/>
-      <c r="K144" s="23"/>
-      <c r="L144" s="24"/>
+      <c r="K144" s="20"/>
+      <c r="L144" s="21"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A145" s="11"/>
@@ -8587,8 +8703,8 @@
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="15"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="24"/>
+      <c r="K145" s="20"/>
+      <c r="L145" s="21"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A146" s="11"/>
@@ -8601,8 +8717,8 @@
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
       <c r="J146" s="15"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="24"/>
+      <c r="K146" s="20"/>
+      <c r="L146" s="21"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A147" s="11"/>
@@ -8615,8 +8731,8 @@
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
       <c r="J147" s="15"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="24"/>
+      <c r="K147" s="20"/>
+      <c r="L147" s="21"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A148" s="11"/>
@@ -8629,8 +8745,8 @@
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
       <c r="J148" s="15"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="24"/>
+      <c r="K148" s="20"/>
+      <c r="L148" s="21"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A149" s="11"/>
@@ -8643,8 +8759,8 @@
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
       <c r="J149" s="15"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="24"/>
+      <c r="K149" s="20"/>
+      <c r="L149" s="21"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A150" s="11"/>
@@ -8657,8 +8773,8 @@
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
       <c r="J150" s="15"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="24"/>
+      <c r="K150" s="20"/>
+      <c r="L150" s="21"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A151" s="11"/>
@@ -8671,8 +8787,8 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
       <c r="J151" s="15"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="24"/>
+      <c r="K151" s="20"/>
+      <c r="L151" s="21"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A152" s="11"/>
@@ -8685,8 +8801,8 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
       <c r="J152" s="15"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="24"/>
+      <c r="K152" s="20"/>
+      <c r="L152" s="21"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A153" s="11"/>
@@ -8699,8 +8815,8 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
       <c r="J153" s="15"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="24"/>
+      <c r="K153" s="20"/>
+      <c r="L153" s="21"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A154" s="11"/>
@@ -8713,8 +8829,8 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
       <c r="J154" s="15"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="24"/>
+      <c r="K154" s="20"/>
+      <c r="L154" s="21"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A155" s="11"/>
@@ -8727,8 +8843,8 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
       <c r="J155" s="15"/>
-      <c r="K155" s="23"/>
-      <c r="L155" s="24"/>
+      <c r="K155" s="20"/>
+      <c r="L155" s="21"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A156" s="11"/>
@@ -8741,8 +8857,8 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
       <c r="J156" s="15"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="24"/>
+      <c r="K156" s="20"/>
+      <c r="L156" s="21"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A157" s="11"/>
@@ -8755,8 +8871,8 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
       <c r="J157" s="15"/>
-      <c r="K157" s="23"/>
-      <c r="L157" s="24"/>
+      <c r="K157" s="20"/>
+      <c r="L157" s="21"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A158" s="11"/>
@@ -8769,8 +8885,8 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
       <c r="J158" s="15"/>
-      <c r="K158" s="23"/>
-      <c r="L158" s="24"/>
+      <c r="K158" s="20"/>
+      <c r="L158" s="21"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A159" s="11"/>
@@ -8783,8 +8899,8 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
       <c r="J159" s="15"/>
-      <c r="K159" s="23"/>
-      <c r="L159" s="24"/>
+      <c r="K159" s="20"/>
+      <c r="L159" s="21"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A160" s="11"/>
@@ -8797,8 +8913,8 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
       <c r="J160" s="15"/>
-      <c r="K160" s="23"/>
-      <c r="L160" s="24"/>
+      <c r="K160" s="20"/>
+      <c r="L160" s="21"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A161" s="11"/>
@@ -8811,8 +8927,8 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
       <c r="J161" s="15"/>
-      <c r="K161" s="23"/>
-      <c r="L161" s="24"/>
+      <c r="K161" s="20"/>
+      <c r="L161" s="21"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A162" s="11"/>
@@ -8825,8 +8941,8 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
       <c r="J162" s="15"/>
-      <c r="K162" s="23"/>
-      <c r="L162" s="24"/>
+      <c r="K162" s="20"/>
+      <c r="L162" s="21"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A163" s="11"/>
@@ -8839,8 +8955,8 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
       <c r="J163" s="15"/>
-      <c r="K163" s="23"/>
-      <c r="L163" s="24"/>
+      <c r="K163" s="20"/>
+      <c r="L163" s="21"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A164" s="11"/>
@@ -8853,8 +8969,8 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
       <c r="J164" s="15"/>
-      <c r="K164" s="23"/>
-      <c r="L164" s="24"/>
+      <c r="K164" s="20"/>
+      <c r="L164" s="21"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A165" s="11"/>
@@ -8867,8 +8983,8 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
       <c r="J165" s="15"/>
-      <c r="K165" s="23"/>
-      <c r="L165" s="24"/>
+      <c r="K165" s="20"/>
+      <c r="L165" s="21"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A166" s="11"/>
@@ -8881,8 +8997,8 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
       <c r="J166" s="15"/>
-      <c r="K166" s="23"/>
-      <c r="L166" s="24"/>
+      <c r="K166" s="20"/>
+      <c r="L166" s="21"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A167" s="11"/>
@@ -8895,8 +9011,8 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
       <c r="J167" s="15"/>
-      <c r="K167" s="23"/>
-      <c r="L167" s="24"/>
+      <c r="K167" s="20"/>
+      <c r="L167" s="21"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A168" s="11"/>
@@ -8909,8 +9025,8 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
       <c r="J168" s="15"/>
-      <c r="K168" s="23"/>
-      <c r="L168" s="24"/>
+      <c r="K168" s="20"/>
+      <c r="L168" s="21"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A169" s="11"/>
@@ -8923,8 +9039,8 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
       <c r="J169" s="15"/>
-      <c r="K169" s="23"/>
-      <c r="L169" s="24"/>
+      <c r="K169" s="20"/>
+      <c r="L169" s="21"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A170" s="11"/>
@@ -8937,8 +9053,8 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
       <c r="J170" s="15"/>
-      <c r="K170" s="23"/>
-      <c r="L170" s="24"/>
+      <c r="K170" s="20"/>
+      <c r="L170" s="21"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A171" s="11"/>
@@ -8951,8 +9067,8 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
       <c r="J171" s="15"/>
-      <c r="K171" s="23"/>
-      <c r="L171" s="24"/>
+      <c r="K171" s="20"/>
+      <c r="L171" s="21"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A172" s="11"/>
@@ -8965,8 +9081,8 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
       <c r="J172" s="15"/>
-      <c r="K172" s="23"/>
-      <c r="L172" s="24"/>
+      <c r="K172" s="20"/>
+      <c r="L172" s="21"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A173" s="11"/>
@@ -8979,8 +9095,8 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
       <c r="J173" s="15"/>
-      <c r="K173" s="23"/>
-      <c r="L173" s="24"/>
+      <c r="K173" s="20"/>
+      <c r="L173" s="21"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A174" s="11"/>
@@ -8993,8 +9109,8 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
       <c r="J174" s="15"/>
-      <c r="K174" s="23"/>
-      <c r="L174" s="24"/>
+      <c r="K174" s="20"/>
+      <c r="L174" s="21"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A175" s="11"/>
@@ -9007,8 +9123,8 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
       <c r="J175" s="15"/>
-      <c r="K175" s="23"/>
-      <c r="L175" s="24"/>
+      <c r="K175" s="20"/>
+      <c r="L175" s="21"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A176" s="11"/>
@@ -9021,8 +9137,8 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
       <c r="J176" s="15"/>
-      <c r="K176" s="23"/>
-      <c r="L176" s="24"/>
+      <c r="K176" s="20"/>
+      <c r="L176" s="21"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A177" s="11"/>
@@ -9035,8 +9151,8 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
       <c r="J177" s="15"/>
-      <c r="K177" s="23"/>
-      <c r="L177" s="24"/>
+      <c r="K177" s="20"/>
+      <c r="L177" s="21"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A178" s="11"/>
@@ -9049,8 +9165,8 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
       <c r="J178" s="15"/>
-      <c r="K178" s="23"/>
-      <c r="L178" s="24"/>
+      <c r="K178" s="20"/>
+      <c r="L178" s="21"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A179" s="11"/>
@@ -9063,8 +9179,8 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
       <c r="J179" s="15"/>
-      <c r="K179" s="23"/>
-      <c r="L179" s="24"/>
+      <c r="K179" s="20"/>
+      <c r="L179" s="21"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A180" s="11"/>
@@ -9077,8 +9193,8 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
       <c r="J180" s="15"/>
-      <c r="K180" s="23"/>
-      <c r="L180" s="24"/>
+      <c r="K180" s="20"/>
+      <c r="L180" s="21"/>
     </row>
     <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A181" s="11"/>
@@ -9091,8 +9207,8 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
       <c r="J181" s="15"/>
-      <c r="K181" s="23"/>
-      <c r="L181" s="24"/>
+      <c r="K181" s="20"/>
+      <c r="L181" s="21"/>
     </row>
     <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A182" s="11"/>
@@ -9105,8 +9221,8 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
       <c r="J182" s="15"/>
-      <c r="K182" s="23"/>
-      <c r="L182" s="24"/>
+      <c r="K182" s="20"/>
+      <c r="L182" s="21"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A183" s="11"/>
@@ -9119,8 +9235,8 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
       <c r="J183" s="15"/>
-      <c r="K183" s="23"/>
-      <c r="L183" s="24"/>
+      <c r="K183" s="20"/>
+      <c r="L183" s="21"/>
     </row>
     <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A184" s="11"/>
@@ -9133,8 +9249,8 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
       <c r="J184" s="15"/>
-      <c r="K184" s="23"/>
-      <c r="L184" s="24"/>
+      <c r="K184" s="20"/>
+      <c r="L184" s="21"/>
     </row>
     <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A185" s="11"/>
@@ -9147,8 +9263,8 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
       <c r="J185" s="15"/>
-      <c r="K185" s="23"/>
-      <c r="L185" s="24"/>
+      <c r="K185" s="20"/>
+      <c r="L185" s="21"/>
     </row>
     <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A186" s="11"/>
@@ -9161,8 +9277,8 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
       <c r="J186" s="15"/>
-      <c r="K186" s="23"/>
-      <c r="L186" s="24"/>
+      <c r="K186" s="20"/>
+      <c r="L186" s="21"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A187" s="11"/>
@@ -9175,8 +9291,8 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
       <c r="J187" s="15"/>
-      <c r="K187" s="23"/>
-      <c r="L187" s="24"/>
+      <c r="K187" s="20"/>
+      <c r="L187" s="21"/>
     </row>
     <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A188" s="11"/>
@@ -9189,8 +9305,8 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
       <c r="J188" s="15"/>
-      <c r="K188" s="23"/>
-      <c r="L188" s="24"/>
+      <c r="K188" s="20"/>
+      <c r="L188" s="21"/>
     </row>
     <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A189" s="11"/>
@@ -9203,8 +9319,8 @@
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
       <c r="J189" s="15"/>
-      <c r="K189" s="23"/>
-      <c r="L189" s="24"/>
+      <c r="K189" s="20"/>
+      <c r="L189" s="21"/>
     </row>
     <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A190" s="11"/>
@@ -9217,8 +9333,8 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
       <c r="J190" s="15"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="24"/>
+      <c r="K190" s="20"/>
+      <c r="L190" s="21"/>
     </row>
     <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A191" s="11"/>
@@ -9231,8 +9347,8 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
       <c r="J191" s="15"/>
-      <c r="K191" s="23"/>
-      <c r="L191" s="24"/>
+      <c r="K191" s="20"/>
+      <c r="L191" s="21"/>
     </row>
     <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A192" s="11"/>
@@ -9245,76 +9361,88 @@
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
       <c r="J192" s="15"/>
-      <c r="K192" s="23"/>
-      <c r="L192" s="24"/>
+      <c r="K192" s="20"/>
+      <c r="L192" s="21"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <conditionalFormatting sqref="N20">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N33">
+    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
+      <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
+      <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
+    </cfRule>
+    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
+      <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N16:N19">
-    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N22">
-    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D25 D2:D3 D7:D8 D16:D17 D26:D192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D25 D33 D2:D3 D7:D8 D16:D17 D26:D32 D34:D192">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C25 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C26:C192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C25 C33 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C26:C32 C34:C192">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" display="${uiurl}" tooltip="https://gnukhata.gitlab.io/gkapp/#/user-login"/>
+    <hyperlink ref="E25" r:id="rId1" display="${uiurl}" tooltip="https://gnukhata.gitlab.io/gkapp/#/user-login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="784">
   <si>
     <t>target</t>
   </si>
@@ -2456,7 +2456,7 @@
     <t>${input.username}</t>
   </si>
   <si>
-    <t>${login.username}</t>
+    <t>${username}</t>
   </si>
   <si>
     <t xml:space="preserve">    And I type the Password</t>
@@ -2465,7 +2465,7 @@
     <t>${input.password}</t>
   </si>
   <si>
-    <t>${login.password}</t>
+    <t>${password}</t>
   </si>
   <si>
     <t xml:space="preserve">    And I click on the submit button</t>
@@ -2477,28 +2477,16 @@
     <t>user should be navigated to GNU Dashboard</t>
   </si>
   <si>
-    <t>${title.locator}</t>
-  </si>
-  <si>
     <t>${title.header}</t>
   </si>
   <si>
-    <t>mobilelogin</t>
-  </si>
-  <si>
-    <t>Resize the window for mobile testing</t>
-  </si>
-  <si>
-    <t>wait for login page to load</t>
-  </si>
-  <si>
-    <t>${username}</t>
-  </si>
-  <si>
-    <t>${password}</t>
-  </si>
-  <si>
     <t>Welcome Accion!</t>
+  </si>
+  <si>
+    <t>mobileLogin</t>
+  </si>
+  <si>
+    <t>Resize the window to mobile view</t>
   </si>
 </sst>
 </file>
@@ -2511,7 +2499,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2543,6 +2531,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -3042,16 +3036,13 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3060,119 +3051,122 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3228,11 +3222,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6288,10 +6285,10 @@
   <sheetPr/>
   <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -6338,10 +6335,10 @@
       <c r="I1" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="19"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="10" t="s">
         <v>733</v>
       </c>
@@ -6369,8 +6366,8 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A3" s="11"/>
@@ -6391,8 +6388,8 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A4" s="11"/>
@@ -6415,8 +6412,8 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A5" s="11"/>
@@ -6437,8 +6434,8 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A6" s="11" t="s">
@@ -6463,8 +6460,8 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
       <c r="C7" s="13" t="s">
@@ -6483,8 +6480,8 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A8" s="11"/>
@@ -6505,8 +6502,8 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="21"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A9" s="11"/>
@@ -6529,8 +6526,8 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A10" s="11"/>
@@ -6551,8 +6548,8 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
       <c r="A11" s="11" t="s">
@@ -6577,8 +6574,8 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A12" s="11"/>
@@ -6599,8 +6596,8 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A13" s="11"/>
@@ -6621,8 +6618,8 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A14" s="11"/>
@@ -6645,8 +6642,8 @@
       <c r="J14" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="20"/>
-      <c r="L14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A15" s="11"/>
@@ -6665,8 +6662,8 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
       <c r="A16" s="11" t="s">
@@ -6691,11 +6688,11 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="20"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="11"/>
@@ -6712,11 +6709,11 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="20"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="11"/>
@@ -6737,11 +6734,11 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="20"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="11"/>
@@ -6762,11 +6759,11 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="20"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A20" s="11"/>
@@ -6787,11 +6784,11 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="20"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="21"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="11"/>
@@ -6814,11 +6811,11 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="20"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="21"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="11"/>
@@ -6841,11 +6838,11 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="20"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="11"/>
@@ -6866,13 +6863,13 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="20"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="20"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A24" s="11"/>
       <c r="B24" s="12" t="s">
         <v>779</v>
@@ -6881,25 +6878,25 @@
         <v>30</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="14" t="s">
+      <c r="F24" s="18" t="s">
         <v>781</v>
       </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="20"/>
-    </row>
-    <row r="25" s="2" customFormat="1" ht="28" spans="1:15">
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="21"/>
+    </row>
+    <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A25" s="11" t="s">
         <v>782</v>
       </c>
@@ -6922,13 +6919,10 @@
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="20"/>
-    </row>
-    <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
+    </row>
+    <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
         <v>783</v>
@@ -6939,27 +6933,22 @@
       <c r="D26" s="14" t="s">
         <v>640</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="14">
         <v>430</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="14">
         <v>932</v>
       </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="20"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
+    </row>
+    <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
-        <v>784</v>
-      </c>
+      <c r="B27" s="12"/>
       <c r="C27" s="13" t="s">
         <v>30</v>
       </c>
@@ -6976,13 +6965,10 @@
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="20"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
+    </row>
+    <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A28" s="11"/>
       <c r="B28" s="12" t="s">
         <v>768</v>
@@ -7001,13 +6987,10 @@
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="20"/>
-    </row>
-    <row r="29" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
+    </row>
+    <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A29" s="11"/>
       <c r="B29" s="12" t="s">
         <v>769</v>
@@ -7026,13 +7009,10 @@
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="20"/>
-    </row>
-    <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
+    </row>
+    <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A30" s="11"/>
       <c r="B30" s="12" t="s">
         <v>771</v>
@@ -7047,19 +7027,16 @@
         <v>772</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="20"/>
-    </row>
-    <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
+    </row>
+    <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A31" s="11"/>
       <c r="B31" s="12" t="s">
         <v>774</v>
@@ -7074,19 +7051,16 @@
         <v>775</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="20"/>
-    </row>
-    <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
+    </row>
+    <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A32" s="11"/>
       <c r="B32" s="12" t="s">
         <v>777</v>
@@ -7105,13 +7079,10 @@
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="20"/>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
+    </row>
+    <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A33" s="11"/>
       <c r="B33" s="12" t="s">
         <v>779</v>
@@ -7120,23 +7091,20 @@
         <v>30</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="F33" s="14" t="s">
-        <v>787</v>
+      <c r="F33" s="18" t="s">
+        <v>781</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="20"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A34" s="11"/>
@@ -7149,8 +7117,8 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A35" s="11"/>
@@ -7163,8 +7131,8 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="21"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A36" s="11"/>
@@ -7177,8 +7145,8 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="21"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A37" s="11"/>
@@ -7191,8 +7159,8 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="21"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A38" s="11"/>
@@ -7205,8 +7173,8 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="21"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A39" s="11"/>
@@ -7219,8 +7187,8 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="21"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A40" s="11"/>
@@ -7233,8 +7201,8 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="21"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A41" s="11"/>
@@ -7247,8 +7215,8 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A42" s="11"/>
@@ -7261,8 +7229,8 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="21"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A43" s="11"/>
@@ -7275,8 +7243,8 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A44" s="11"/>
@@ -7289,8 +7257,8 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A45" s="11"/>
@@ -7303,8 +7271,8 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A46" s="11"/>
@@ -7317,8 +7285,8 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A47" s="11"/>
@@ -7331,8 +7299,8 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A48" s="11"/>
@@ -7345,8 +7313,8 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="21"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A49" s="11"/>
@@ -7359,8 +7327,8 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="15"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="21"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A50" s="11"/>
@@ -7373,8 +7341,8 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="21"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A51" s="11"/>
@@ -7387,8 +7355,8 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="21"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A52" s="11"/>
@@ -7401,8 +7369,8 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="21"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A53" s="11"/>
@@ -7415,8 +7383,8 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="21"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="22"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A54" s="11"/>
@@ -7429,8 +7397,8 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="15"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="21"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="22"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A55" s="11"/>
@@ -7443,8 +7411,8 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="22"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A56" s="11"/>
@@ -7457,8 +7425,8 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="21"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="22"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A57" s="11"/>
@@ -7471,8 +7439,8 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="15"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="21"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="22"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A58" s="11"/>
@@ -7485,8 +7453,8 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="15"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="21"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A59" s="11"/>
@@ -7499,8 +7467,8 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="21"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="22"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A60" s="11"/>
@@ -7513,8 +7481,8 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="15"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="21"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="22"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A61" s="11"/>
@@ -7527,8 +7495,8 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="15"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="21"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="22"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A62" s="11"/>
@@ -7541,8 +7509,8 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="15"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="21"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="22"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A63" s="11"/>
@@ -7555,8 +7523,8 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="15"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="21"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="22"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A64" s="11"/>
@@ -7569,8 +7537,8 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="15"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="21"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="22"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A65" s="11"/>
@@ -7583,8 +7551,8 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="15"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="21"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="22"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A66" s="11"/>
@@ -7597,8 +7565,8 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="15"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="21"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="22"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A67" s="11"/>
@@ -7611,8 +7579,8 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="15"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="21"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="22"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A68" s="11"/>
@@ -7625,8 +7593,8 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="15"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="21"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="22"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A69" s="11"/>
@@ -7639,8 +7607,8 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="15"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="21"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="22"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A70" s="11"/>
@@ -7653,8 +7621,8 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="15"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="21"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="22"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A71" s="11"/>
@@ -7667,8 +7635,8 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="15"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="21"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="22"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A72" s="11"/>
@@ -7681,8 +7649,8 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="15"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="21"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="22"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A73" s="11"/>
@@ -7695,8 +7663,8 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="15"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="21"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="22"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A74" s="11"/>
@@ -7709,8 +7677,8 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="15"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="21"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="22"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A75" s="11"/>
@@ -7723,8 +7691,8 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="15"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="21"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="22"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A76" s="11"/>
@@ -7737,8 +7705,8 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="15"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="21"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="22"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A77" s="11"/>
@@ -7751,8 +7719,8 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="15"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="21"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="22"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A78" s="11"/>
@@ -7765,8 +7733,8 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="15"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="21"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="22"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A79" s="11"/>
@@ -7779,8 +7747,8 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="15"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="22"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A80" s="11"/>
@@ -7793,8 +7761,8 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="15"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="21"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="22"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A81" s="11"/>
@@ -7807,8 +7775,8 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="15"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="22"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A82" s="11"/>
@@ -7821,8 +7789,8 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="15"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="21"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="22"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A83" s="11"/>
@@ -7835,8 +7803,8 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="15"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="22"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A84" s="11"/>
@@ -7849,8 +7817,8 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="15"/>
-      <c r="K84" s="20"/>
-      <c r="L84" s="21"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="22"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A85" s="11"/>
@@ -7863,8 +7831,8 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="15"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="22"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A86" s="11"/>
@@ -7877,8 +7845,8 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="15"/>
-      <c r="K86" s="20"/>
-      <c r="L86" s="21"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="22"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A87" s="11"/>
@@ -7891,8 +7859,8 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="15"/>
-      <c r="K87" s="20"/>
-      <c r="L87" s="21"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="22"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A88" s="11"/>
@@ -7905,8 +7873,8 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="20"/>
-      <c r="L88" s="21"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="22"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A89" s="11"/>
@@ -7919,8 +7887,8 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="15"/>
-      <c r="K89" s="20"/>
-      <c r="L89" s="21"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="22"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A90" s="11"/>
@@ -7933,8 +7901,8 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="20"/>
-      <c r="L90" s="21"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="22"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A91" s="11"/>
@@ -7947,8 +7915,8 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="15"/>
-      <c r="K91" s="20"/>
-      <c r="L91" s="21"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="22"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A92" s="11"/>
@@ -7961,8 +7929,8 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="15"/>
-      <c r="K92" s="20"/>
-      <c r="L92" s="21"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="22"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A93" s="11"/>
@@ -7975,8 +7943,8 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="15"/>
-      <c r="K93" s="20"/>
-      <c r="L93" s="21"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="22"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A94" s="11"/>
@@ -7989,8 +7957,8 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="15"/>
-      <c r="K94" s="20"/>
-      <c r="L94" s="21"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="22"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A95" s="11"/>
@@ -8003,8 +7971,8 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="15"/>
-      <c r="K95" s="20"/>
-      <c r="L95" s="21"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="22"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A96" s="11"/>
@@ -8017,8 +7985,8 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="15"/>
-      <c r="K96" s="20"/>
-      <c r="L96" s="21"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="22"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A97" s="11"/>
@@ -8031,8 +7999,8 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="15"/>
-      <c r="K97" s="20"/>
-      <c r="L97" s="21"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="22"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A98" s="11"/>
@@ -8045,8 +8013,8 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="15"/>
-      <c r="K98" s="20"/>
-      <c r="L98" s="21"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="22"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A99" s="11"/>
@@ -8059,8 +8027,8 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="15"/>
-      <c r="K99" s="20"/>
-      <c r="L99" s="21"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="22"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A100" s="11"/>
@@ -8073,8 +8041,8 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="15"/>
-      <c r="K100" s="20"/>
-      <c r="L100" s="21"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="22"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A101" s="11"/>
@@ -8087,8 +8055,8 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="15"/>
-      <c r="K101" s="20"/>
-      <c r="L101" s="21"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="22"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A102" s="11"/>
@@ -8101,8 +8069,8 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="15"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="22"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A103" s="11"/>
@@ -8115,8 +8083,8 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="15"/>
-      <c r="K103" s="20"/>
-      <c r="L103" s="21"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="22"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A104" s="11"/>
@@ -8129,8 +8097,8 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="15"/>
-      <c r="K104" s="20"/>
-      <c r="L104" s="21"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="22"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A105" s="11"/>
@@ -8143,8 +8111,8 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="15"/>
-      <c r="K105" s="20"/>
-      <c r="L105" s="21"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="22"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A106" s="11"/>
@@ -8157,8 +8125,8 @@
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="15"/>
-      <c r="K106" s="20"/>
-      <c r="L106" s="21"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="22"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A107" s="11"/>
@@ -8171,8 +8139,8 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="15"/>
-      <c r="K107" s="20"/>
-      <c r="L107" s="21"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="22"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A108" s="11"/>
@@ -8185,8 +8153,8 @@
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="15"/>
-      <c r="K108" s="20"/>
-      <c r="L108" s="21"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="22"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A109" s="11"/>
@@ -8199,8 +8167,8 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="15"/>
-      <c r="K109" s="20"/>
-      <c r="L109" s="21"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="22"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A110" s="11"/>
@@ -8213,8 +8181,8 @@
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="15"/>
-      <c r="K110" s="20"/>
-      <c r="L110" s="21"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="22"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A111" s="11"/>
@@ -8227,8 +8195,8 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="15"/>
-      <c r="K111" s="20"/>
-      <c r="L111" s="21"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="22"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A112" s="11"/>
@@ -8241,8 +8209,8 @@
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="15"/>
-      <c r="K112" s="20"/>
-      <c r="L112" s="21"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="22"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A113" s="11"/>
@@ -8255,8 +8223,8 @@
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="15"/>
-      <c r="K113" s="20"/>
-      <c r="L113" s="21"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="22"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A114" s="11"/>
@@ -8269,8 +8237,8 @@
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="15"/>
-      <c r="K114" s="20"/>
-      <c r="L114" s="21"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="22"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A115" s="11"/>
@@ -8283,8 +8251,8 @@
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="15"/>
-      <c r="K115" s="20"/>
-      <c r="L115" s="21"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="22"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A116" s="11"/>
@@ -8297,8 +8265,8 @@
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="15"/>
-      <c r="K116" s="20"/>
-      <c r="L116" s="21"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="22"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A117" s="11"/>
@@ -8311,8 +8279,8 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="15"/>
-      <c r="K117" s="20"/>
-      <c r="L117" s="21"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="22"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A118" s="11"/>
@@ -8325,8 +8293,8 @@
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="15"/>
-      <c r="K118" s="20"/>
-      <c r="L118" s="21"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="22"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A119" s="11"/>
@@ -8339,8 +8307,8 @@
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="15"/>
-      <c r="K119" s="20"/>
-      <c r="L119" s="21"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="22"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A120" s="11"/>
@@ -8353,8 +8321,8 @@
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="15"/>
-      <c r="K120" s="20"/>
-      <c r="L120" s="21"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="22"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A121" s="11"/>
@@ -8367,8 +8335,8 @@
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="15"/>
-      <c r="K121" s="20"/>
-      <c r="L121" s="21"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="22"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A122" s="11"/>
@@ -8381,8 +8349,8 @@
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
       <c r="J122" s="15"/>
-      <c r="K122" s="20"/>
-      <c r="L122" s="21"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="22"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A123" s="11"/>
@@ -8395,8 +8363,8 @@
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="15"/>
-      <c r="K123" s="20"/>
-      <c r="L123" s="21"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="22"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A124" s="11"/>
@@ -8409,8 +8377,8 @@
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="15"/>
-      <c r="K124" s="20"/>
-      <c r="L124" s="21"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="22"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A125" s="11"/>
@@ -8423,8 +8391,8 @@
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="15"/>
-      <c r="K125" s="20"/>
-      <c r="L125" s="21"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="22"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A126" s="11"/>
@@ -8437,8 +8405,8 @@
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
       <c r="J126" s="15"/>
-      <c r="K126" s="20"/>
-      <c r="L126" s="21"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="22"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A127" s="11"/>
@@ -8451,8 +8419,8 @@
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="15"/>
-      <c r="K127" s="20"/>
-      <c r="L127" s="21"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="22"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A128" s="11"/>
@@ -8465,8 +8433,8 @@
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
       <c r="J128" s="15"/>
-      <c r="K128" s="20"/>
-      <c r="L128" s="21"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="22"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A129" s="11"/>
@@ -8479,8 +8447,8 @@
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="15"/>
-      <c r="K129" s="20"/>
-      <c r="L129" s="21"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="22"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A130" s="11"/>
@@ -8493,8 +8461,8 @@
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="J130" s="15"/>
-      <c r="K130" s="20"/>
-      <c r="L130" s="21"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="22"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A131" s="11"/>
@@ -8507,8 +8475,8 @@
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="15"/>
-      <c r="K131" s="20"/>
-      <c r="L131" s="21"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="22"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A132" s="11"/>
@@ -8521,8 +8489,8 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="15"/>
-      <c r="K132" s="20"/>
-      <c r="L132" s="21"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="22"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A133" s="11"/>
@@ -8535,8 +8503,8 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="15"/>
-      <c r="K133" s="20"/>
-      <c r="L133" s="21"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="22"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A134" s="11"/>
@@ -8549,8 +8517,8 @@
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
       <c r="J134" s="15"/>
-      <c r="K134" s="20"/>
-      <c r="L134" s="21"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="22"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A135" s="11"/>
@@ -8563,8 +8531,8 @@
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="15"/>
-      <c r="K135" s="20"/>
-      <c r="L135" s="21"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="22"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A136" s="11"/>
@@ -8577,8 +8545,8 @@
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="15"/>
-      <c r="K136" s="20"/>
-      <c r="L136" s="21"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="22"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A137" s="11"/>
@@ -8591,8 +8559,8 @@
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="15"/>
-      <c r="K137" s="20"/>
-      <c r="L137" s="21"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="22"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A138" s="11"/>
@@ -8605,8 +8573,8 @@
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
       <c r="J138" s="15"/>
-      <c r="K138" s="20"/>
-      <c r="L138" s="21"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="22"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A139" s="11"/>
@@ -8619,8 +8587,8 @@
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="15"/>
-      <c r="K139" s="20"/>
-      <c r="L139" s="21"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="22"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A140" s="11"/>
@@ -8633,8 +8601,8 @@
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="15"/>
-      <c r="K140" s="20"/>
-      <c r="L140" s="21"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="22"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A141" s="11"/>
@@ -8647,8 +8615,8 @@
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="15"/>
-      <c r="K141" s="20"/>
-      <c r="L141" s="21"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="22"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A142" s="11"/>
@@ -8661,8 +8629,8 @@
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
       <c r="J142" s="15"/>
-      <c r="K142" s="20"/>
-      <c r="L142" s="21"/>
+      <c r="K142" s="21"/>
+      <c r="L142" s="22"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A143" s="11"/>
@@ -8675,8 +8643,8 @@
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="15"/>
-      <c r="K143" s="20"/>
-      <c r="L143" s="21"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="22"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A144" s="11"/>
@@ -8689,8 +8657,8 @@
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="15"/>
-      <c r="K144" s="20"/>
-      <c r="L144" s="21"/>
+      <c r="K144" s="21"/>
+      <c r="L144" s="22"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A145" s="11"/>
@@ -8703,8 +8671,8 @@
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="15"/>
-      <c r="K145" s="20"/>
-      <c r="L145" s="21"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="22"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A146" s="11"/>
@@ -8717,8 +8685,8 @@
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
       <c r="J146" s="15"/>
-      <c r="K146" s="20"/>
-      <c r="L146" s="21"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="22"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A147" s="11"/>
@@ -8731,8 +8699,8 @@
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
       <c r="J147" s="15"/>
-      <c r="K147" s="20"/>
-      <c r="L147" s="21"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="22"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A148" s="11"/>
@@ -8745,8 +8713,8 @@
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
       <c r="J148" s="15"/>
-      <c r="K148" s="20"/>
-      <c r="L148" s="21"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="22"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A149" s="11"/>
@@ -8759,8 +8727,8 @@
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
       <c r="J149" s="15"/>
-      <c r="K149" s="20"/>
-      <c r="L149" s="21"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="22"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A150" s="11"/>
@@ -8773,8 +8741,8 @@
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
       <c r="J150" s="15"/>
-      <c r="K150" s="20"/>
-      <c r="L150" s="21"/>
+      <c r="K150" s="21"/>
+      <c r="L150" s="22"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A151" s="11"/>
@@ -8787,8 +8755,8 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
       <c r="J151" s="15"/>
-      <c r="K151" s="20"/>
-      <c r="L151" s="21"/>
+      <c r="K151" s="21"/>
+      <c r="L151" s="22"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A152" s="11"/>
@@ -8801,8 +8769,8 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
       <c r="J152" s="15"/>
-      <c r="K152" s="20"/>
-      <c r="L152" s="21"/>
+      <c r="K152" s="21"/>
+      <c r="L152" s="22"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A153" s="11"/>
@@ -8815,8 +8783,8 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
       <c r="J153" s="15"/>
-      <c r="K153" s="20"/>
-      <c r="L153" s="21"/>
+      <c r="K153" s="21"/>
+      <c r="L153" s="22"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A154" s="11"/>
@@ -8829,8 +8797,8 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
       <c r="J154" s="15"/>
-      <c r="K154" s="20"/>
-      <c r="L154" s="21"/>
+      <c r="K154" s="21"/>
+      <c r="L154" s="22"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A155" s="11"/>
@@ -8843,8 +8811,8 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
       <c r="J155" s="15"/>
-      <c r="K155" s="20"/>
-      <c r="L155" s="21"/>
+      <c r="K155" s="21"/>
+      <c r="L155" s="22"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A156" s="11"/>
@@ -8857,8 +8825,8 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
       <c r="J156" s="15"/>
-      <c r="K156" s="20"/>
-      <c r="L156" s="21"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="22"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A157" s="11"/>
@@ -8871,8 +8839,8 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
       <c r="J157" s="15"/>
-      <c r="K157" s="20"/>
-      <c r="L157" s="21"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="22"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A158" s="11"/>
@@ -8885,8 +8853,8 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
       <c r="J158" s="15"/>
-      <c r="K158" s="20"/>
-      <c r="L158" s="21"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="22"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A159" s="11"/>
@@ -8899,8 +8867,8 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
       <c r="J159" s="15"/>
-      <c r="K159" s="20"/>
-      <c r="L159" s="21"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="22"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A160" s="11"/>
@@ -8913,8 +8881,8 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
       <c r="J160" s="15"/>
-      <c r="K160" s="20"/>
-      <c r="L160" s="21"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="22"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A161" s="11"/>
@@ -8927,8 +8895,8 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
       <c r="J161" s="15"/>
-      <c r="K161" s="20"/>
-      <c r="L161" s="21"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="22"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A162" s="11"/>
@@ -8941,8 +8909,8 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
       <c r="J162" s="15"/>
-      <c r="K162" s="20"/>
-      <c r="L162" s="21"/>
+      <c r="K162" s="21"/>
+      <c r="L162" s="22"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A163" s="11"/>
@@ -8955,8 +8923,8 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
       <c r="J163" s="15"/>
-      <c r="K163" s="20"/>
-      <c r="L163" s="21"/>
+      <c r="K163" s="21"/>
+      <c r="L163" s="22"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A164" s="11"/>
@@ -8969,8 +8937,8 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
       <c r="J164" s="15"/>
-      <c r="K164" s="20"/>
-      <c r="L164" s="21"/>
+      <c r="K164" s="21"/>
+      <c r="L164" s="22"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A165" s="11"/>
@@ -8983,8 +8951,8 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
       <c r="J165" s="15"/>
-      <c r="K165" s="20"/>
-      <c r="L165" s="21"/>
+      <c r="K165" s="21"/>
+      <c r="L165" s="22"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A166" s="11"/>
@@ -8997,8 +8965,8 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
       <c r="J166" s="15"/>
-      <c r="K166" s="20"/>
-      <c r="L166" s="21"/>
+      <c r="K166" s="21"/>
+      <c r="L166" s="22"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A167" s="11"/>
@@ -9011,8 +8979,8 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
       <c r="J167" s="15"/>
-      <c r="K167" s="20"/>
-      <c r="L167" s="21"/>
+      <c r="K167" s="21"/>
+      <c r="L167" s="22"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A168" s="11"/>
@@ -9025,8 +8993,8 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
       <c r="J168" s="15"/>
-      <c r="K168" s="20"/>
-      <c r="L168" s="21"/>
+      <c r="K168" s="21"/>
+      <c r="L168" s="22"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A169" s="11"/>
@@ -9039,8 +9007,8 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
       <c r="J169" s="15"/>
-      <c r="K169" s="20"/>
-      <c r="L169" s="21"/>
+      <c r="K169" s="21"/>
+      <c r="L169" s="22"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A170" s="11"/>
@@ -9053,8 +9021,8 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
       <c r="J170" s="15"/>
-      <c r="K170" s="20"/>
-      <c r="L170" s="21"/>
+      <c r="K170" s="21"/>
+      <c r="L170" s="22"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A171" s="11"/>
@@ -9067,8 +9035,8 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
       <c r="J171" s="15"/>
-      <c r="K171" s="20"/>
-      <c r="L171" s="21"/>
+      <c r="K171" s="21"/>
+      <c r="L171" s="22"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A172" s="11"/>
@@ -9081,8 +9049,8 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
       <c r="J172" s="15"/>
-      <c r="K172" s="20"/>
-      <c r="L172" s="21"/>
+      <c r="K172" s="21"/>
+      <c r="L172" s="22"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A173" s="11"/>
@@ -9095,8 +9063,8 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
       <c r="J173" s="15"/>
-      <c r="K173" s="20"/>
-      <c r="L173" s="21"/>
+      <c r="K173" s="21"/>
+      <c r="L173" s="22"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A174" s="11"/>
@@ -9109,8 +9077,8 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
       <c r="J174" s="15"/>
-      <c r="K174" s="20"/>
-      <c r="L174" s="21"/>
+      <c r="K174" s="21"/>
+      <c r="L174" s="22"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A175" s="11"/>
@@ -9123,8 +9091,8 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
       <c r="J175" s="15"/>
-      <c r="K175" s="20"/>
-      <c r="L175" s="21"/>
+      <c r="K175" s="21"/>
+      <c r="L175" s="22"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A176" s="11"/>
@@ -9137,8 +9105,8 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
       <c r="J176" s="15"/>
-      <c r="K176" s="20"/>
-      <c r="L176" s="21"/>
+      <c r="K176" s="21"/>
+      <c r="L176" s="22"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A177" s="11"/>
@@ -9151,8 +9119,8 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
       <c r="J177" s="15"/>
-      <c r="K177" s="20"/>
-      <c r="L177" s="21"/>
+      <c r="K177" s="21"/>
+      <c r="L177" s="22"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A178" s="11"/>
@@ -9165,8 +9133,8 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
       <c r="J178" s="15"/>
-      <c r="K178" s="20"/>
-      <c r="L178" s="21"/>
+      <c r="K178" s="21"/>
+      <c r="L178" s="22"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A179" s="11"/>
@@ -9179,8 +9147,8 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
       <c r="J179" s="15"/>
-      <c r="K179" s="20"/>
-      <c r="L179" s="21"/>
+      <c r="K179" s="21"/>
+      <c r="L179" s="22"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A180" s="11"/>
@@ -9193,8 +9161,8 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
       <c r="J180" s="15"/>
-      <c r="K180" s="20"/>
-      <c r="L180" s="21"/>
+      <c r="K180" s="21"/>
+      <c r="L180" s="22"/>
     </row>
     <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A181" s="11"/>
@@ -9207,8 +9175,8 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
       <c r="J181" s="15"/>
-      <c r="K181" s="20"/>
-      <c r="L181" s="21"/>
+      <c r="K181" s="21"/>
+      <c r="L181" s="22"/>
     </row>
     <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A182" s="11"/>
@@ -9221,8 +9189,8 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
       <c r="J182" s="15"/>
-      <c r="K182" s="20"/>
-      <c r="L182" s="21"/>
+      <c r="K182" s="21"/>
+      <c r="L182" s="22"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A183" s="11"/>
@@ -9235,8 +9203,8 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
       <c r="J183" s="15"/>
-      <c r="K183" s="20"/>
-      <c r="L183" s="21"/>
+      <c r="K183" s="21"/>
+      <c r="L183" s="22"/>
     </row>
     <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A184" s="11"/>
@@ -9249,8 +9217,8 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
       <c r="J184" s="15"/>
-      <c r="K184" s="20"/>
-      <c r="L184" s="21"/>
+      <c r="K184" s="21"/>
+      <c r="L184" s="22"/>
     </row>
     <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A185" s="11"/>
@@ -9263,8 +9231,8 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
       <c r="J185" s="15"/>
-      <c r="K185" s="20"/>
-      <c r="L185" s="21"/>
+      <c r="K185" s="21"/>
+      <c r="L185" s="22"/>
     </row>
     <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A186" s="11"/>
@@ -9277,8 +9245,8 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
       <c r="J186" s="15"/>
-      <c r="K186" s="20"/>
-      <c r="L186" s="21"/>
+      <c r="K186" s="21"/>
+      <c r="L186" s="22"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A187" s="11"/>
@@ -9291,8 +9259,8 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
       <c r="J187" s="15"/>
-      <c r="K187" s="20"/>
-      <c r="L187" s="21"/>
+      <c r="K187" s="21"/>
+      <c r="L187" s="22"/>
     </row>
     <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A188" s="11"/>
@@ -9305,8 +9273,8 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
       <c r="J188" s="15"/>
-      <c r="K188" s="20"/>
-      <c r="L188" s="21"/>
+      <c r="K188" s="21"/>
+      <c r="L188" s="22"/>
     </row>
     <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A189" s="11"/>
@@ -9319,8 +9287,8 @@
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
       <c r="J189" s="15"/>
-      <c r="K189" s="20"/>
-      <c r="L189" s="21"/>
+      <c r="K189" s="21"/>
+      <c r="L189" s="22"/>
     </row>
     <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A190" s="11"/>
@@ -9333,8 +9301,8 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
       <c r="J190" s="15"/>
-      <c r="K190" s="20"/>
-      <c r="L190" s="21"/>
+      <c r="K190" s="21"/>
+      <c r="L190" s="22"/>
     </row>
     <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A191" s="11"/>
@@ -9347,8 +9315,8 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
       <c r="J191" s="15"/>
-      <c r="K191" s="20"/>
-      <c r="L191" s="21"/>
+      <c r="K191" s="21"/>
+      <c r="L191" s="22"/>
     </row>
     <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A192" s="11"/>
@@ -9361,82 +9329,71 @@
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
       <c r="J192" s="15"/>
-      <c r="K192" s="20"/>
-      <c r="L192" s="21"/>
+      <c r="K192" s="21"/>
+      <c r="L192" s="22"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
   <conditionalFormatting sqref="N20">
-    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N20,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N20,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N20,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N23">
-    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="7" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N23,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="8" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N23,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="9" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N23,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="beginsWith" dxfId="0" priority="19" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="16" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N24,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="20" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="17" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N24,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="21" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="18" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N24,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N33">
-    <cfRule type="beginsWith" dxfId="2" priority="3" stopIfTrue="1" operator="equal" text="PASS">
-      <formula>LEFT(N33,LEN("PASS"))="PASS"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="2" stopIfTrue="1" operator="equal" text="FAIL">
-      <formula>LEFT(N33,LEN("FAIL"))="FAIL"</formula>
-    </cfRule>
-    <cfRule type="beginsWith" dxfId="0" priority="1" stopIfTrue="1" operator="equal" text="WARN">
-      <formula>LEFT(N33,LEN("WARN"))="WARN"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N16:N19">
-    <cfRule type="beginsWith" dxfId="0" priority="25" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="22" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N16,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="26" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="23" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N16,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="27" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="24" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N16,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:N22">
-    <cfRule type="beginsWith" dxfId="0" priority="13" stopIfTrue="1" operator="equal" text="WARN">
+    <cfRule type="beginsWith" dxfId="0" priority="10" stopIfTrue="1" operator="equal" text="WARN">
       <formula>LEFT(N21,LEN("WARN"))="WARN"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1" priority="14" stopIfTrue="1" operator="equal" text="FAIL">
+    <cfRule type="beginsWith" dxfId="1" priority="11" stopIfTrue="1" operator="equal" text="FAIL">
       <formula>LEFT(N21,LEN("FAIL"))="FAIL"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="2" priority="15" stopIfTrue="1" operator="equal" text="PASS">
+    <cfRule type="beginsWith" dxfId="2" priority="12" stopIfTrue="1" operator="equal" text="PASS">
       <formula>LEFT(N21,LEN("PASS"))="PASS"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D25 D33 D2:D3 D7:D8 D16:D17 D26:D32 D34:D192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D27 D28 D29 D30 D31 D32 D33 D2:D3 D7:D8 D16:D17 D25:D26 D34:D192">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C25 C33 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C26:C32 C34:C192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C27 C28 C29 C30 C31 C32 C33 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C25:C26 C34:C192">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9287" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -2480,7 +2480,7 @@
     <t>${title.header}</t>
   </si>
   <si>
-    <t>Welcome Accion!</t>
+    <t>Welcome Accion</t>
   </si>
   <si>
     <t>mobileLogin</t>
@@ -2494,10 +2494,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -3024,16 +3024,16 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3615,7 +3615,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -6285,13 +6285,13 @@
   <sheetPr/>
   <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.1666666666667" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="4" customWidth="1"/>
@@ -6343,7 +6343,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="41.4" spans="1:12">
+    <row r="2" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A2" s="11" t="s">
         <v>734</v>
       </c>
@@ -6437,7 +6437,7 @@
       <c r="K5" s="21"/>
       <c r="L5" s="22"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="41.4" spans="1:12">
+    <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A6" s="11" t="s">
         <v>744</v>
       </c>
@@ -6551,7 +6551,7 @@
       <c r="K10" s="21"/>
       <c r="L10" s="22"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="96.6" spans="1:12">
+    <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
       <c r="A11" s="11" t="s">
         <v>750</v>
       </c>
@@ -6665,7 +6665,7 @@
       <c r="K15" s="21"/>
       <c r="L15" s="22"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="27.6" spans="1:15">
+    <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>762</v>
       </c>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="931" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="785">
   <si>
     <t>target</t>
   </si>
@@ -2487,6 +2487,9 @@
   </si>
   <si>
     <t>Resize the window to mobile view</t>
+  </si>
+  <si>
+    <t>wait for element to be present</t>
   </si>
 </sst>
 </file>
@@ -6285,10 +6288,10 @@
   <sheetPr/>
   <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -6948,7 +6951,9 @@
     </row>
     <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>784</v>
+      </c>
       <c r="C27" s="13" t="s">
         <v>30</v>
       </c>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -2480,7 +2480,7 @@
     <t>${title.header}</t>
   </si>
   <si>
-    <t>Welcome Accion</t>
+    <t>Welcome Accion!</t>
   </si>
   <si>
     <t>mobileLogin</t>
@@ -6288,10 +6288,10 @@
   <sheetPr/>
   <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="786">
   <si>
     <t>target</t>
   </si>
@@ -2490,6 +2490,9 @@
   </si>
   <si>
     <t>wait for element to be present</t>
+  </si>
+  <si>
+    <t>Welcome Accion</t>
   </si>
 </sst>
 </file>
@@ -6291,7 +6294,7 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -7102,7 +7105,7 @@
         <v>780</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="782">
   <si>
     <t>target</t>
   </si>
@@ -2479,16 +2479,19 @@
   <si>
     <t>${title.header}</t>
   </si>
+  <si>
+    <t>Welcome Accion</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2540,21 +2543,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -2563,18 +2551,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2587,6 +2591,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2594,15 +2629,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,55 +2652,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2679,6 +2668,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2705,7 +2708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,7 +2720,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,7 +2738,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,19 +2846,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,127 +2888,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2915,16 +2918,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2944,37 +2965,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,16 +3006,24 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3023,139 +3032,133 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3223,7 +3226,7 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -3250,52 +3253,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -3617,7 +3620,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -6287,13 +6290,13 @@
   <sheetPr/>
   <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.1666666666667" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="4" customWidth="1"/>
@@ -6345,7 +6348,7 @@
         <v>733</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="41.4" spans="1:12">
+    <row r="2" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A2" s="11" t="s">
         <v>734</v>
       </c>
@@ -6439,7 +6442,7 @@
       <c r="K5" s="23"/>
       <c r="L5" s="24"/>
     </row>
-    <row r="6" s="2" customFormat="1" ht="41.4" spans="1:12">
+    <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A6" s="11" t="s">
         <v>744</v>
       </c>
@@ -6553,7 +6556,7 @@
       <c r="K10" s="23"/>
       <c r="L10" s="24"/>
     </row>
-    <row r="11" s="2" customFormat="1" ht="96.6" spans="1:12">
+    <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
       <c r="A11" s="11" t="s">
         <v>750</v>
       </c>
@@ -6667,7 +6670,7 @@
       <c r="K15" s="23"/>
       <c r="L15" s="24"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="27.6" spans="1:15">
+    <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>762</v>
       </c>
@@ -6880,12 +6883,14 @@
         <v>30</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="15" t="s">
+        <v>781</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="785">
   <si>
     <t>target</t>
   </si>
@@ -2480,7 +2480,7 @@
     <t>${title.header}</t>
   </si>
   <si>
-    <t>Welcome Accion!</t>
+    <t>Welcome Accion</t>
   </si>
   <si>
     <t>mobileLogin</t>
@@ -2490,9 +2490,6 @@
   </si>
   <si>
     <t>wait for element to be present</t>
-  </si>
-  <si>
-    <t>Welcome Accion</t>
   </si>
 </sst>
 </file>
@@ -6294,7 +6291,7 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -7105,7 +7102,7 @@
         <v>780</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="785">
   <si>
     <t>target</t>
   </si>
@@ -2479,16 +2479,28 @@
   <si>
     <t>${title.header}</t>
   </si>
+  <si>
+    <t>Welcome Accion</t>
+  </si>
+  <si>
+    <t>mobileLogin</t>
+  </si>
+  <si>
+    <t>Resize the window to mobile view</t>
+  </si>
+  <si>
+    <t>wait for element to be present</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -2525,12 +2537,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="12"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -2538,21 +2548,6 @@
       <color theme="0" tint="-0.0499893185216834"/>
       <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2563,18 +2558,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2587,6 +2598,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -2594,15 +2636,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2616,55 +2659,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2679,6 +2675,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2705,7 +2715,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2717,7 +2727,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2729,7 +2745,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2741,19 +2853,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2765,127 +2895,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2915,16 +2925,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2944,37 +2972,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3005,16 +3013,24 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3023,143 +3039,137 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3215,17 +3225,8 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3250,52 +3251,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -3617,7 +3618,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="18" width="8.33333333333333" customWidth="1" collapsed="1"/>
   </cols>
@@ -6287,13 +6288,13 @@
   <sheetPr/>
   <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="$A24:$XFD24"/>
+      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="20.1666666666667" style="3" customWidth="1"/>
     <col min="2" max="2" width="31.5" style="4" customWidth="1"/>
@@ -6337,15 +6338,15 @@
       <c r="I1" s="10" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="22"/>
+      <c r="K1" s="20"/>
       <c r="L1" s="10" t="s">
         <v>733</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="41.4" spans="1:12">
+    <row r="2" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A2" s="11" t="s">
         <v>734</v>
       </c>
@@ -6368,8 +6369,8 @@
       <c r="H2" s="14"/>
       <c r="I2" s="14"/>
       <c r="J2" s="15"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="24"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="22"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A3" s="11"/>
@@ -6390,8 +6391,8 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
       <c r="J3" s="15"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="24"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="22"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A4" s="11"/>
@@ -6414,8 +6415,8 @@
       <c r="H4" s="14"/>
       <c r="I4" s="14"/>
       <c r="J4" s="15"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="24"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="22"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A5" s="11"/>
@@ -6436,10 +6437,10 @@
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="24"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="41.4" spans="1:12">
+      <c r="K5" s="21"/>
+      <c r="L5" s="22"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
       <c r="A6" s="11" t="s">
         <v>744</v>
       </c>
@@ -6462,8 +6463,8 @@
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="15"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="22"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
       <c r="C7" s="13" t="s">
@@ -6482,8 +6483,8 @@
       <c r="H7" s="14"/>
       <c r="I7" s="14"/>
       <c r="J7" s="15"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A8" s="11"/>
@@ -6504,8 +6505,8 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A9" s="11"/>
@@ -6528,8 +6529,8 @@
       <c r="H9" s="14"/>
       <c r="I9" s="14"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A10" s="11"/>
@@ -6550,10 +6551,10 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
       <c r="J10" s="15"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="96.6" spans="1:12">
+      <c r="K10" s="21"/>
+      <c r="L10" s="22"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
       <c r="A11" s="11" t="s">
         <v>750</v>
       </c>
@@ -6576,8 +6577,8 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
       <c r="J11" s="15"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A12" s="11"/>
@@ -6598,8 +6599,8 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
       <c r="J12" s="15"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A13" s="11"/>
@@ -6620,8 +6621,8 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
       <c r="J13" s="15"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A14" s="11"/>
@@ -6644,8 +6645,8 @@
       <c r="J14" s="15" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="23"/>
-      <c r="L14" s="24"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A15" s="11"/>
@@ -6664,10 +6665,10 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
       <c r="J15" s="15"/>
-      <c r="K15" s="23"/>
-      <c r="L15" s="24"/>
-    </row>
-    <row r="16" s="2" customFormat="1" ht="27.6" spans="1:15">
+      <c r="K15" s="21"/>
+      <c r="L15" s="22"/>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
       <c r="A16" s="11" t="s">
         <v>762</v>
       </c>
@@ -6690,11 +6691,11 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
       <c r="J16" s="15"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="24"/>
-      <c r="O16" s="23"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="21"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A17" s="11"/>
@@ -6711,11 +6712,11 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="24"/>
-      <c r="O17" s="23"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="21"/>
     </row>
     <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A18" s="11"/>
@@ -6736,11 +6737,11 @@
       <c r="H18" s="14"/>
       <c r="I18" s="14"/>
       <c r="J18" s="15"/>
-      <c r="K18" s="23"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="24"/>
-      <c r="O18" s="23"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="21"/>
     </row>
     <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A19" s="11"/>
@@ -6761,11 +6762,11 @@
       <c r="H19" s="14"/>
       <c r="I19" s="14"/>
       <c r="J19" s="15"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="24"/>
-      <c r="O19" s="23"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="21"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
       <c r="A20" s="11"/>
@@ -6786,11 +6787,11 @@
       <c r="H20" s="14"/>
       <c r="I20" s="14"/>
       <c r="J20" s="15"/>
-      <c r="K20" s="23"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="24"/>
-      <c r="O20" s="23"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="21"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A21" s="11"/>
@@ -6813,11 +6814,11 @@
       <c r="H21" s="14"/>
       <c r="I21" s="14"/>
       <c r="J21" s="15"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
-      <c r="N21" s="24"/>
-      <c r="O21" s="23"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="21"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A22" s="11"/>
@@ -6840,11 +6841,11 @@
       <c r="H22" s="14"/>
       <c r="I22" s="14"/>
       <c r="J22" s="15"/>
-      <c r="K22" s="23"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
-      <c r="N22" s="24"/>
-      <c r="O22" s="23"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="21"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
       <c r="A23" s="11"/>
@@ -6865,13 +6866,13 @@
       <c r="H23" s="14"/>
       <c r="I23" s="14"/>
       <c r="J23" s="15"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="24"/>
-      <c r="O23" s="23"/>
-    </row>
-    <row r="24" s="2" customFormat="1" ht="19" customHeight="1" spans="1:15">
+      <c r="K23" s="21"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="21"/>
+    </row>
+    <row r="24" s="2" customFormat="1" ht="30" customHeight="1" spans="1:15">
       <c r="A24" s="11"/>
       <c r="B24" s="12" t="s">
         <v>779</v>
@@ -6880,147 +6881,235 @@
         <v>30</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>559</v>
+        <v>530</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="15"/>
+      <c r="F24" s="18" t="s">
+        <v>781</v>
+      </c>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
       <c r="J24" s="15"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="24"/>
-      <c r="O24" s="23"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="21"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A25" s="11"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
+      <c r="A25" s="11" t="s">
+        <v>782</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>763</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>628</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>765</v>
+      </c>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
       <c r="I25" s="14"/>
       <c r="J25" s="15"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="24"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="22"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="B26" s="12" t="s">
+        <v>783</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>640</v>
+      </c>
+      <c r="E26" s="14">
+        <v>430</v>
+      </c>
+      <c r="F26" s="14">
+        <v>932</v>
+      </c>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
       <c r="I26" s="14"/>
       <c r="J26" s="15"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="24"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="22"/>
     </row>
     <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A27" s="11"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="B27" s="12" t="s">
+        <v>784</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>553</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="F27" s="17">
+        <v>5000</v>
+      </c>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
       <c r="I27" s="14"/>
       <c r="J27" s="15"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="24"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="22"/>
     </row>
     <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
+      <c r="B28" s="12" t="s">
+        <v>768</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>767</v>
+      </c>
       <c r="F28" s="14"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
       <c r="I28" s="14"/>
       <c r="J28" s="15"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="24"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="22"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A29" s="11"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="B29" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>713</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>770</v>
+      </c>
+      <c r="F29" s="15"/>
       <c r="G29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="14"/>
       <c r="J29" s="15"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="24"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="22"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
+      <c r="B30" s="12" t="s">
+        <v>771</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>773</v>
+      </c>
       <c r="G30" s="14"/>
       <c r="H30" s="14"/>
       <c r="I30" s="14"/>
       <c r="J30" s="15"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="24"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="22"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A31" s="11"/>
-      <c r="B31" s="12"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="20"/>
-      <c r="F31" s="14"/>
+      <c r="B31" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>705</v>
+      </c>
+      <c r="E31" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>776</v>
+      </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
       <c r="I31" s="14"/>
       <c r="J31" s="15"/>
-      <c r="K31" s="23"/>
-      <c r="L31" s="24"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="22"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A32" s="11"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
+      <c r="B32" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D32" s="14" t="s">
+        <v>363</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>778</v>
+      </c>
       <c r="F32" s="14"/>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
       <c r="J32" s="15"/>
-      <c r="K32" s="23"/>
-      <c r="L32" s="24"/>
+      <c r="K32" s="21"/>
+      <c r="L32" s="22"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A33" s="11"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="B33" s="12" t="s">
+        <v>779</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>781</v>
+      </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
       <c r="J33" s="15"/>
-      <c r="K33" s="23"/>
-      <c r="L33" s="24"/>
+      <c r="K33" s="21"/>
+      <c r="L33" s="22"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A34" s="11"/>
@@ -7033,8 +7122,8 @@
       <c r="H34" s="14"/>
       <c r="I34" s="14"/>
       <c r="J34" s="15"/>
-      <c r="K34" s="23"/>
-      <c r="L34" s="24"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="22"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A35" s="11"/>
@@ -7047,8 +7136,8 @@
       <c r="H35" s="14"/>
       <c r="I35" s="14"/>
       <c r="J35" s="15"/>
-      <c r="K35" s="23"/>
-      <c r="L35" s="24"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A36" s="11"/>
@@ -7061,8 +7150,8 @@
       <c r="H36" s="14"/>
       <c r="I36" s="14"/>
       <c r="J36" s="15"/>
-      <c r="K36" s="23"/>
-      <c r="L36" s="24"/>
+      <c r="K36" s="21"/>
+      <c r="L36" s="22"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A37" s="11"/>
@@ -7075,8 +7164,8 @@
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
       <c r="J37" s="15"/>
-      <c r="K37" s="23"/>
-      <c r="L37" s="24"/>
+      <c r="K37" s="21"/>
+      <c r="L37" s="22"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A38" s="11"/>
@@ -7089,8 +7178,8 @@
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="15"/>
-      <c r="K38" s="23"/>
-      <c r="L38" s="24"/>
+      <c r="K38" s="21"/>
+      <c r="L38" s="22"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A39" s="11"/>
@@ -7103,8 +7192,8 @@
       <c r="H39" s="14"/>
       <c r="I39" s="14"/>
       <c r="J39" s="15"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="24"/>
+      <c r="K39" s="21"/>
+      <c r="L39" s="22"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A40" s="11"/>
@@ -7117,8 +7206,8 @@
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="15"/>
-      <c r="K40" s="23"/>
-      <c r="L40" s="24"/>
+      <c r="K40" s="21"/>
+      <c r="L40" s="22"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A41" s="11"/>
@@ -7131,8 +7220,8 @@
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
       <c r="J41" s="15"/>
-      <c r="K41" s="23"/>
-      <c r="L41" s="24"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="22"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A42" s="11"/>
@@ -7145,8 +7234,8 @@
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="15"/>
-      <c r="K42" s="23"/>
-      <c r="L42" s="24"/>
+      <c r="K42" s="21"/>
+      <c r="L42" s="22"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A43" s="11"/>
@@ -7159,8 +7248,8 @@
       <c r="H43" s="14"/>
       <c r="I43" s="14"/>
       <c r="J43" s="15"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="24"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="22"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A44" s="11"/>
@@ -7173,8 +7262,8 @@
       <c r="H44" s="14"/>
       <c r="I44" s="14"/>
       <c r="J44" s="15"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="24"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="22"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A45" s="11"/>
@@ -7187,8 +7276,8 @@
       <c r="H45" s="14"/>
       <c r="I45" s="14"/>
       <c r="J45" s="15"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="24"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="22"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A46" s="11"/>
@@ -7201,8 +7290,8 @@
       <c r="H46" s="14"/>
       <c r="I46" s="14"/>
       <c r="J46" s="15"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="24"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="22"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A47" s="11"/>
@@ -7215,8 +7304,8 @@
       <c r="H47" s="14"/>
       <c r="I47" s="14"/>
       <c r="J47" s="15"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="24"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="22"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A48" s="11"/>
@@ -7229,8 +7318,8 @@
       <c r="H48" s="14"/>
       <c r="I48" s="14"/>
       <c r="J48" s="15"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="24"/>
+      <c r="K48" s="21"/>
+      <c r="L48" s="22"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A49" s="11"/>
@@ -7243,8 +7332,8 @@
       <c r="H49" s="14"/>
       <c r="I49" s="14"/>
       <c r="J49" s="15"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="24"/>
+      <c r="K49" s="21"/>
+      <c r="L49" s="22"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A50" s="11"/>
@@ -7257,8 +7346,8 @@
       <c r="H50" s="14"/>
       <c r="I50" s="14"/>
       <c r="J50" s="15"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="24"/>
+      <c r="K50" s="21"/>
+      <c r="L50" s="22"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A51" s="11"/>
@@ -7271,8 +7360,8 @@
       <c r="H51" s="14"/>
       <c r="I51" s="14"/>
       <c r="J51" s="15"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="24"/>
+      <c r="K51" s="21"/>
+      <c r="L51" s="22"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A52" s="11"/>
@@ -7285,8 +7374,8 @@
       <c r="H52" s="14"/>
       <c r="I52" s="14"/>
       <c r="J52" s="15"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="24"/>
+      <c r="K52" s="21"/>
+      <c r="L52" s="22"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A53" s="11"/>
@@ -7299,8 +7388,8 @@
       <c r="H53" s="14"/>
       <c r="I53" s="14"/>
       <c r="J53" s="15"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="24"/>
+      <c r="K53" s="21"/>
+      <c r="L53" s="22"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A54" s="11"/>
@@ -7313,8 +7402,8 @@
       <c r="H54" s="14"/>
       <c r="I54" s="14"/>
       <c r="J54" s="15"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="24"/>
+      <c r="K54" s="21"/>
+      <c r="L54" s="22"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A55" s="11"/>
@@ -7327,8 +7416,8 @@
       <c r="H55" s="14"/>
       <c r="I55" s="14"/>
       <c r="J55" s="15"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="24"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="22"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A56" s="11"/>
@@ -7341,8 +7430,8 @@
       <c r="H56" s="14"/>
       <c r="I56" s="14"/>
       <c r="J56" s="15"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="24"/>
+      <c r="K56" s="21"/>
+      <c r="L56" s="22"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A57" s="11"/>
@@ -7355,8 +7444,8 @@
       <c r="H57" s="14"/>
       <c r="I57" s="14"/>
       <c r="J57" s="15"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="24"/>
+      <c r="K57" s="21"/>
+      <c r="L57" s="22"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A58" s="11"/>
@@ -7369,8 +7458,8 @@
       <c r="H58" s="14"/>
       <c r="I58" s="14"/>
       <c r="J58" s="15"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="24"/>
+      <c r="K58" s="21"/>
+      <c r="L58" s="22"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A59" s="11"/>
@@ -7383,8 +7472,8 @@
       <c r="H59" s="14"/>
       <c r="I59" s="14"/>
       <c r="J59" s="15"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="24"/>
+      <c r="K59" s="21"/>
+      <c r="L59" s="22"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A60" s="11"/>
@@ -7397,8 +7486,8 @@
       <c r="H60" s="14"/>
       <c r="I60" s="14"/>
       <c r="J60" s="15"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="24"/>
+      <c r="K60" s="21"/>
+      <c r="L60" s="22"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A61" s="11"/>
@@ -7411,8 +7500,8 @@
       <c r="H61" s="14"/>
       <c r="I61" s="14"/>
       <c r="J61" s="15"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="24"/>
+      <c r="K61" s="21"/>
+      <c r="L61" s="22"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A62" s="11"/>
@@ -7425,8 +7514,8 @@
       <c r="H62" s="14"/>
       <c r="I62" s="14"/>
       <c r="J62" s="15"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="24"/>
+      <c r="K62" s="21"/>
+      <c r="L62" s="22"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A63" s="11"/>
@@ -7439,8 +7528,8 @@
       <c r="H63" s="14"/>
       <c r="I63" s="14"/>
       <c r="J63" s="15"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="24"/>
+      <c r="K63" s="21"/>
+      <c r="L63" s="22"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A64" s="11"/>
@@ -7453,8 +7542,8 @@
       <c r="H64" s="14"/>
       <c r="I64" s="14"/>
       <c r="J64" s="15"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="24"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="22"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A65" s="11"/>
@@ -7467,8 +7556,8 @@
       <c r="H65" s="14"/>
       <c r="I65" s="14"/>
       <c r="J65" s="15"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="24"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="22"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A66" s="11"/>
@@ -7481,8 +7570,8 @@
       <c r="H66" s="14"/>
       <c r="I66" s="14"/>
       <c r="J66" s="15"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="24"/>
+      <c r="K66" s="21"/>
+      <c r="L66" s="22"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A67" s="11"/>
@@ -7495,8 +7584,8 @@
       <c r="H67" s="14"/>
       <c r="I67" s="14"/>
       <c r="J67" s="15"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="24"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="22"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A68" s="11"/>
@@ -7509,8 +7598,8 @@
       <c r="H68" s="14"/>
       <c r="I68" s="14"/>
       <c r="J68" s="15"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="24"/>
+      <c r="K68" s="21"/>
+      <c r="L68" s="22"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A69" s="11"/>
@@ -7523,8 +7612,8 @@
       <c r="H69" s="14"/>
       <c r="I69" s="14"/>
       <c r="J69" s="15"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="24"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="22"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A70" s="11"/>
@@ -7537,8 +7626,8 @@
       <c r="H70" s="14"/>
       <c r="I70" s="14"/>
       <c r="J70" s="15"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="24"/>
+      <c r="K70" s="21"/>
+      <c r="L70" s="22"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A71" s="11"/>
@@ -7551,8 +7640,8 @@
       <c r="H71" s="14"/>
       <c r="I71" s="14"/>
       <c r="J71" s="15"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="24"/>
+      <c r="K71" s="21"/>
+      <c r="L71" s="22"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A72" s="11"/>
@@ -7565,8 +7654,8 @@
       <c r="H72" s="14"/>
       <c r="I72" s="14"/>
       <c r="J72" s="15"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="24"/>
+      <c r="K72" s="21"/>
+      <c r="L72" s="22"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A73" s="11"/>
@@ -7579,8 +7668,8 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="15"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="24"/>
+      <c r="K73" s="21"/>
+      <c r="L73" s="22"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A74" s="11"/>
@@ -7593,8 +7682,8 @@
       <c r="H74" s="14"/>
       <c r="I74" s="14"/>
       <c r="J74" s="15"/>
-      <c r="K74" s="23"/>
-      <c r="L74" s="24"/>
+      <c r="K74" s="21"/>
+      <c r="L74" s="22"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A75" s="11"/>
@@ -7607,8 +7696,8 @@
       <c r="H75" s="14"/>
       <c r="I75" s="14"/>
       <c r="J75" s="15"/>
-      <c r="K75" s="23"/>
-      <c r="L75" s="24"/>
+      <c r="K75" s="21"/>
+      <c r="L75" s="22"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A76" s="11"/>
@@ -7621,8 +7710,8 @@
       <c r="H76" s="14"/>
       <c r="I76" s="14"/>
       <c r="J76" s="15"/>
-      <c r="K76" s="23"/>
-      <c r="L76" s="24"/>
+      <c r="K76" s="21"/>
+      <c r="L76" s="22"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A77" s="11"/>
@@ -7635,8 +7724,8 @@
       <c r="H77" s="14"/>
       <c r="I77" s="14"/>
       <c r="J77" s="15"/>
-      <c r="K77" s="23"/>
-      <c r="L77" s="24"/>
+      <c r="K77" s="21"/>
+      <c r="L77" s="22"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A78" s="11"/>
@@ -7649,8 +7738,8 @@
       <c r="H78" s="14"/>
       <c r="I78" s="14"/>
       <c r="J78" s="15"/>
-      <c r="K78" s="23"/>
-      <c r="L78" s="24"/>
+      <c r="K78" s="21"/>
+      <c r="L78" s="22"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A79" s="11"/>
@@ -7663,8 +7752,8 @@
       <c r="H79" s="14"/>
       <c r="I79" s="14"/>
       <c r="J79" s="15"/>
-      <c r="K79" s="23"/>
-      <c r="L79" s="24"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="22"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A80" s="11"/>
@@ -7677,8 +7766,8 @@
       <c r="H80" s="14"/>
       <c r="I80" s="14"/>
       <c r="J80" s="15"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="24"/>
+      <c r="K80" s="21"/>
+      <c r="L80" s="22"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A81" s="11"/>
@@ -7691,8 +7780,8 @@
       <c r="H81" s="14"/>
       <c r="I81" s="14"/>
       <c r="J81" s="15"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="24"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="22"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A82" s="11"/>
@@ -7705,8 +7794,8 @@
       <c r="H82" s="14"/>
       <c r="I82" s="14"/>
       <c r="J82" s="15"/>
-      <c r="K82" s="23"/>
-      <c r="L82" s="24"/>
+      <c r="K82" s="21"/>
+      <c r="L82" s="22"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A83" s="11"/>
@@ -7719,8 +7808,8 @@
       <c r="H83" s="14"/>
       <c r="I83" s="14"/>
       <c r="J83" s="15"/>
-      <c r="K83" s="23"/>
-      <c r="L83" s="24"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="22"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A84" s="11"/>
@@ -7733,8 +7822,8 @@
       <c r="H84" s="14"/>
       <c r="I84" s="14"/>
       <c r="J84" s="15"/>
-      <c r="K84" s="23"/>
-      <c r="L84" s="24"/>
+      <c r="K84" s="21"/>
+      <c r="L84" s="22"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A85" s="11"/>
@@ -7747,8 +7836,8 @@
       <c r="H85" s="14"/>
       <c r="I85" s="14"/>
       <c r="J85" s="15"/>
-      <c r="K85" s="23"/>
-      <c r="L85" s="24"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="22"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A86" s="11"/>
@@ -7761,8 +7850,8 @@
       <c r="H86" s="14"/>
       <c r="I86" s="14"/>
       <c r="J86" s="15"/>
-      <c r="K86" s="23"/>
-      <c r="L86" s="24"/>
+      <c r="K86" s="21"/>
+      <c r="L86" s="22"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A87" s="11"/>
@@ -7775,8 +7864,8 @@
       <c r="H87" s="14"/>
       <c r="I87" s="14"/>
       <c r="J87" s="15"/>
-      <c r="K87" s="23"/>
-      <c r="L87" s="24"/>
+      <c r="K87" s="21"/>
+      <c r="L87" s="22"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A88" s="11"/>
@@ -7789,8 +7878,8 @@
       <c r="H88" s="14"/>
       <c r="I88" s="14"/>
       <c r="J88" s="15"/>
-      <c r="K88" s="23"/>
-      <c r="L88" s="24"/>
+      <c r="K88" s="21"/>
+      <c r="L88" s="22"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A89" s="11"/>
@@ -7803,8 +7892,8 @@
       <c r="H89" s="14"/>
       <c r="I89" s="14"/>
       <c r="J89" s="15"/>
-      <c r="K89" s="23"/>
-      <c r="L89" s="24"/>
+      <c r="K89" s="21"/>
+      <c r="L89" s="22"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A90" s="11"/>
@@ -7817,8 +7906,8 @@
       <c r="H90" s="14"/>
       <c r="I90" s="14"/>
       <c r="J90" s="15"/>
-      <c r="K90" s="23"/>
-      <c r="L90" s="24"/>
+      <c r="K90" s="21"/>
+      <c r="L90" s="22"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A91" s="11"/>
@@ -7831,8 +7920,8 @@
       <c r="H91" s="14"/>
       <c r="I91" s="14"/>
       <c r="J91" s="15"/>
-      <c r="K91" s="23"/>
-      <c r="L91" s="24"/>
+      <c r="K91" s="21"/>
+      <c r="L91" s="22"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A92" s="11"/>
@@ -7845,8 +7934,8 @@
       <c r="H92" s="14"/>
       <c r="I92" s="14"/>
       <c r="J92" s="15"/>
-      <c r="K92" s="23"/>
-      <c r="L92" s="24"/>
+      <c r="K92" s="21"/>
+      <c r="L92" s="22"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A93" s="11"/>
@@ -7859,8 +7948,8 @@
       <c r="H93" s="14"/>
       <c r="I93" s="14"/>
       <c r="J93" s="15"/>
-      <c r="K93" s="23"/>
-      <c r="L93" s="24"/>
+      <c r="K93" s="21"/>
+      <c r="L93" s="22"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A94" s="11"/>
@@ -7873,8 +7962,8 @@
       <c r="H94" s="14"/>
       <c r="I94" s="14"/>
       <c r="J94" s="15"/>
-      <c r="K94" s="23"/>
-      <c r="L94" s="24"/>
+      <c r="K94" s="21"/>
+      <c r="L94" s="22"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A95" s="11"/>
@@ -7887,8 +7976,8 @@
       <c r="H95" s="14"/>
       <c r="I95" s="14"/>
       <c r="J95" s="15"/>
-      <c r="K95" s="23"/>
-      <c r="L95" s="24"/>
+      <c r="K95" s="21"/>
+      <c r="L95" s="22"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A96" s="11"/>
@@ -7901,8 +7990,8 @@
       <c r="H96" s="14"/>
       <c r="I96" s="14"/>
       <c r="J96" s="15"/>
-      <c r="K96" s="23"/>
-      <c r="L96" s="24"/>
+      <c r="K96" s="21"/>
+      <c r="L96" s="22"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A97" s="11"/>
@@ -7915,8 +8004,8 @@
       <c r="H97" s="14"/>
       <c r="I97" s="14"/>
       <c r="J97" s="15"/>
-      <c r="K97" s="23"/>
-      <c r="L97" s="24"/>
+      <c r="K97" s="21"/>
+      <c r="L97" s="22"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A98" s="11"/>
@@ -7929,8 +8018,8 @@
       <c r="H98" s="14"/>
       <c r="I98" s="14"/>
       <c r="J98" s="15"/>
-      <c r="K98" s="23"/>
-      <c r="L98" s="24"/>
+      <c r="K98" s="21"/>
+      <c r="L98" s="22"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A99" s="11"/>
@@ -7943,8 +8032,8 @@
       <c r="H99" s="14"/>
       <c r="I99" s="14"/>
       <c r="J99" s="15"/>
-      <c r="K99" s="23"/>
-      <c r="L99" s="24"/>
+      <c r="K99" s="21"/>
+      <c r="L99" s="22"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A100" s="11"/>
@@ -7957,8 +8046,8 @@
       <c r="H100" s="14"/>
       <c r="I100" s="14"/>
       <c r="J100" s="15"/>
-      <c r="K100" s="23"/>
-      <c r="L100" s="24"/>
+      <c r="K100" s="21"/>
+      <c r="L100" s="22"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A101" s="11"/>
@@ -7971,8 +8060,8 @@
       <c r="H101" s="14"/>
       <c r="I101" s="14"/>
       <c r="J101" s="15"/>
-      <c r="K101" s="23"/>
-      <c r="L101" s="24"/>
+      <c r="K101" s="21"/>
+      <c r="L101" s="22"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A102" s="11"/>
@@ -7985,8 +8074,8 @@
       <c r="H102" s="14"/>
       <c r="I102" s="14"/>
       <c r="J102" s="15"/>
-      <c r="K102" s="23"/>
-      <c r="L102" s="24"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="22"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A103" s="11"/>
@@ -7999,8 +8088,8 @@
       <c r="H103" s="14"/>
       <c r="I103" s="14"/>
       <c r="J103" s="15"/>
-      <c r="K103" s="23"/>
-      <c r="L103" s="24"/>
+      <c r="K103" s="21"/>
+      <c r="L103" s="22"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A104" s="11"/>
@@ -8013,8 +8102,8 @@
       <c r="H104" s="14"/>
       <c r="I104" s="14"/>
       <c r="J104" s="15"/>
-      <c r="K104" s="23"/>
-      <c r="L104" s="24"/>
+      <c r="K104" s="21"/>
+      <c r="L104" s="22"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A105" s="11"/>
@@ -8027,8 +8116,8 @@
       <c r="H105" s="14"/>
       <c r="I105" s="14"/>
       <c r="J105" s="15"/>
-      <c r="K105" s="23"/>
-      <c r="L105" s="24"/>
+      <c r="K105" s="21"/>
+      <c r="L105" s="22"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A106" s="11"/>
@@ -8041,8 +8130,8 @@
       <c r="H106" s="14"/>
       <c r="I106" s="14"/>
       <c r="J106" s="15"/>
-      <c r="K106" s="23"/>
-      <c r="L106" s="24"/>
+      <c r="K106" s="21"/>
+      <c r="L106" s="22"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A107" s="11"/>
@@ -8055,8 +8144,8 @@
       <c r="H107" s="14"/>
       <c r="I107" s="14"/>
       <c r="J107" s="15"/>
-      <c r="K107" s="23"/>
-      <c r="L107" s="24"/>
+      <c r="K107" s="21"/>
+      <c r="L107" s="22"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A108" s="11"/>
@@ -8069,8 +8158,8 @@
       <c r="H108" s="14"/>
       <c r="I108" s="14"/>
       <c r="J108" s="15"/>
-      <c r="K108" s="23"/>
-      <c r="L108" s="24"/>
+      <c r="K108" s="21"/>
+      <c r="L108" s="22"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A109" s="11"/>
@@ -8083,8 +8172,8 @@
       <c r="H109" s="14"/>
       <c r="I109" s="14"/>
       <c r="J109" s="15"/>
-      <c r="K109" s="23"/>
-      <c r="L109" s="24"/>
+      <c r="K109" s="21"/>
+      <c r="L109" s="22"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A110" s="11"/>
@@ -8097,8 +8186,8 @@
       <c r="H110" s="14"/>
       <c r="I110" s="14"/>
       <c r="J110" s="15"/>
-      <c r="K110" s="23"/>
-      <c r="L110" s="24"/>
+      <c r="K110" s="21"/>
+      <c r="L110" s="22"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A111" s="11"/>
@@ -8111,8 +8200,8 @@
       <c r="H111" s="14"/>
       <c r="I111" s="14"/>
       <c r="J111" s="15"/>
-      <c r="K111" s="23"/>
-      <c r="L111" s="24"/>
+      <c r="K111" s="21"/>
+      <c r="L111" s="22"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A112" s="11"/>
@@ -8125,8 +8214,8 @@
       <c r="H112" s="14"/>
       <c r="I112" s="14"/>
       <c r="J112" s="15"/>
-      <c r="K112" s="23"/>
-      <c r="L112" s="24"/>
+      <c r="K112" s="21"/>
+      <c r="L112" s="22"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A113" s="11"/>
@@ -8139,8 +8228,8 @@
       <c r="H113" s="14"/>
       <c r="I113" s="14"/>
       <c r="J113" s="15"/>
-      <c r="K113" s="23"/>
-      <c r="L113" s="24"/>
+      <c r="K113" s="21"/>
+      <c r="L113" s="22"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A114" s="11"/>
@@ -8153,8 +8242,8 @@
       <c r="H114" s="14"/>
       <c r="I114" s="14"/>
       <c r="J114" s="15"/>
-      <c r="K114" s="23"/>
-      <c r="L114" s="24"/>
+      <c r="K114" s="21"/>
+      <c r="L114" s="22"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A115" s="11"/>
@@ -8167,8 +8256,8 @@
       <c r="H115" s="14"/>
       <c r="I115" s="14"/>
       <c r="J115" s="15"/>
-      <c r="K115" s="23"/>
-      <c r="L115" s="24"/>
+      <c r="K115" s="21"/>
+      <c r="L115" s="22"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A116" s="11"/>
@@ -8181,8 +8270,8 @@
       <c r="H116" s="14"/>
       <c r="I116" s="14"/>
       <c r="J116" s="15"/>
-      <c r="K116" s="23"/>
-      <c r="L116" s="24"/>
+      <c r="K116" s="21"/>
+      <c r="L116" s="22"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A117" s="11"/>
@@ -8195,8 +8284,8 @@
       <c r="H117" s="14"/>
       <c r="I117" s="14"/>
       <c r="J117" s="15"/>
-      <c r="K117" s="23"/>
-      <c r="L117" s="24"/>
+      <c r="K117" s="21"/>
+      <c r="L117" s="22"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A118" s="11"/>
@@ -8209,8 +8298,8 @@
       <c r="H118" s="14"/>
       <c r="I118" s="14"/>
       <c r="J118" s="15"/>
-      <c r="K118" s="23"/>
-      <c r="L118" s="24"/>
+      <c r="K118" s="21"/>
+      <c r="L118" s="22"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A119" s="11"/>
@@ -8223,8 +8312,8 @@
       <c r="H119" s="14"/>
       <c r="I119" s="14"/>
       <c r="J119" s="15"/>
-      <c r="K119" s="23"/>
-      <c r="L119" s="24"/>
+      <c r="K119" s="21"/>
+      <c r="L119" s="22"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A120" s="11"/>
@@ -8237,8 +8326,8 @@
       <c r="H120" s="14"/>
       <c r="I120" s="14"/>
       <c r="J120" s="15"/>
-      <c r="K120" s="23"/>
-      <c r="L120" s="24"/>
+      <c r="K120" s="21"/>
+      <c r="L120" s="22"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A121" s="11"/>
@@ -8251,8 +8340,8 @@
       <c r="H121" s="14"/>
       <c r="I121" s="14"/>
       <c r="J121" s="15"/>
-      <c r="K121" s="23"/>
-      <c r="L121" s="24"/>
+      <c r="K121" s="21"/>
+      <c r="L121" s="22"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A122" s="11"/>
@@ -8265,8 +8354,8 @@
       <c r="H122" s="14"/>
       <c r="I122" s="14"/>
       <c r="J122" s="15"/>
-      <c r="K122" s="23"/>
-      <c r="L122" s="24"/>
+      <c r="K122" s="21"/>
+      <c r="L122" s="22"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A123" s="11"/>
@@ -8279,8 +8368,8 @@
       <c r="H123" s="14"/>
       <c r="I123" s="14"/>
       <c r="J123" s="15"/>
-      <c r="K123" s="23"/>
-      <c r="L123" s="24"/>
+      <c r="K123" s="21"/>
+      <c r="L123" s="22"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A124" s="11"/>
@@ -8293,8 +8382,8 @@
       <c r="H124" s="14"/>
       <c r="I124" s="14"/>
       <c r="J124" s="15"/>
-      <c r="K124" s="23"/>
-      <c r="L124" s="24"/>
+      <c r="K124" s="21"/>
+      <c r="L124" s="22"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A125" s="11"/>
@@ -8307,8 +8396,8 @@
       <c r="H125" s="14"/>
       <c r="I125" s="14"/>
       <c r="J125" s="15"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="24"/>
+      <c r="K125" s="21"/>
+      <c r="L125" s="22"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A126" s="11"/>
@@ -8321,8 +8410,8 @@
       <c r="H126" s="14"/>
       <c r="I126" s="14"/>
       <c r="J126" s="15"/>
-      <c r="K126" s="23"/>
-      <c r="L126" s="24"/>
+      <c r="K126" s="21"/>
+      <c r="L126" s="22"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A127" s="11"/>
@@ -8335,8 +8424,8 @@
       <c r="H127" s="14"/>
       <c r="I127" s="14"/>
       <c r="J127" s="15"/>
-      <c r="K127" s="23"/>
-      <c r="L127" s="24"/>
+      <c r="K127" s="21"/>
+      <c r="L127" s="22"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A128" s="11"/>
@@ -8349,8 +8438,8 @@
       <c r="H128" s="14"/>
       <c r="I128" s="14"/>
       <c r="J128" s="15"/>
-      <c r="K128" s="23"/>
-      <c r="L128" s="24"/>
+      <c r="K128" s="21"/>
+      <c r="L128" s="22"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A129" s="11"/>
@@ -8363,8 +8452,8 @@
       <c r="H129" s="14"/>
       <c r="I129" s="14"/>
       <c r="J129" s="15"/>
-      <c r="K129" s="23"/>
-      <c r="L129" s="24"/>
+      <c r="K129" s="21"/>
+      <c r="L129" s="22"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A130" s="11"/>
@@ -8377,8 +8466,8 @@
       <c r="H130" s="14"/>
       <c r="I130" s="14"/>
       <c r="J130" s="15"/>
-      <c r="K130" s="23"/>
-      <c r="L130" s="24"/>
+      <c r="K130" s="21"/>
+      <c r="L130" s="22"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A131" s="11"/>
@@ -8391,8 +8480,8 @@
       <c r="H131" s="14"/>
       <c r="I131" s="14"/>
       <c r="J131" s="15"/>
-      <c r="K131" s="23"/>
-      <c r="L131" s="24"/>
+      <c r="K131" s="21"/>
+      <c r="L131" s="22"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A132" s="11"/>
@@ -8405,8 +8494,8 @@
       <c r="H132" s="14"/>
       <c r="I132" s="14"/>
       <c r="J132" s="15"/>
-      <c r="K132" s="23"/>
-      <c r="L132" s="24"/>
+      <c r="K132" s="21"/>
+      <c r="L132" s="22"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A133" s="11"/>
@@ -8419,8 +8508,8 @@
       <c r="H133" s="14"/>
       <c r="I133" s="14"/>
       <c r="J133" s="15"/>
-      <c r="K133" s="23"/>
-      <c r="L133" s="24"/>
+      <c r="K133" s="21"/>
+      <c r="L133" s="22"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A134" s="11"/>
@@ -8433,8 +8522,8 @@
       <c r="H134" s="14"/>
       <c r="I134" s="14"/>
       <c r="J134" s="15"/>
-      <c r="K134" s="23"/>
-      <c r="L134" s="24"/>
+      <c r="K134" s="21"/>
+      <c r="L134" s="22"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A135" s="11"/>
@@ -8447,8 +8536,8 @@
       <c r="H135" s="14"/>
       <c r="I135" s="14"/>
       <c r="J135" s="15"/>
-      <c r="K135" s="23"/>
-      <c r="L135" s="24"/>
+      <c r="K135" s="21"/>
+      <c r="L135" s="22"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A136" s="11"/>
@@ -8461,8 +8550,8 @@
       <c r="H136" s="14"/>
       <c r="I136" s="14"/>
       <c r="J136" s="15"/>
-      <c r="K136" s="23"/>
-      <c r="L136" s="24"/>
+      <c r="K136" s="21"/>
+      <c r="L136" s="22"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A137" s="11"/>
@@ -8475,8 +8564,8 @@
       <c r="H137" s="14"/>
       <c r="I137" s="14"/>
       <c r="J137" s="15"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="24"/>
+      <c r="K137" s="21"/>
+      <c r="L137" s="22"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A138" s="11"/>
@@ -8489,8 +8578,8 @@
       <c r="H138" s="14"/>
       <c r="I138" s="14"/>
       <c r="J138" s="15"/>
-      <c r="K138" s="23"/>
-      <c r="L138" s="24"/>
+      <c r="K138" s="21"/>
+      <c r="L138" s="22"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A139" s="11"/>
@@ -8503,8 +8592,8 @@
       <c r="H139" s="14"/>
       <c r="I139" s="14"/>
       <c r="J139" s="15"/>
-      <c r="K139" s="23"/>
-      <c r="L139" s="24"/>
+      <c r="K139" s="21"/>
+      <c r="L139" s="22"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A140" s="11"/>
@@ -8517,8 +8606,8 @@
       <c r="H140" s="14"/>
       <c r="I140" s="14"/>
       <c r="J140" s="15"/>
-      <c r="K140" s="23"/>
-      <c r="L140" s="24"/>
+      <c r="K140" s="21"/>
+      <c r="L140" s="22"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A141" s="11"/>
@@ -8531,8 +8620,8 @@
       <c r="H141" s="14"/>
       <c r="I141" s="14"/>
       <c r="J141" s="15"/>
-      <c r="K141" s="23"/>
-      <c r="L141" s="24"/>
+      <c r="K141" s="21"/>
+      <c r="L141" s="22"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A142" s="11"/>
@@ -8545,8 +8634,8 @@
       <c r="H142" s="14"/>
       <c r="I142" s="14"/>
       <c r="J142" s="15"/>
-      <c r="K142" s="23"/>
-      <c r="L142" s="24"/>
+      <c r="K142" s="21"/>
+      <c r="L142" s="22"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A143" s="11"/>
@@ -8559,8 +8648,8 @@
       <c r="H143" s="14"/>
       <c r="I143" s="14"/>
       <c r="J143" s="15"/>
-      <c r="K143" s="23"/>
-      <c r="L143" s="24"/>
+      <c r="K143" s="21"/>
+      <c r="L143" s="22"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A144" s="11"/>
@@ -8573,8 +8662,8 @@
       <c r="H144" s="14"/>
       <c r="I144" s="14"/>
       <c r="J144" s="15"/>
-      <c r="K144" s="23"/>
-      <c r="L144" s="24"/>
+      <c r="K144" s="21"/>
+      <c r="L144" s="22"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A145" s="11"/>
@@ -8587,8 +8676,8 @@
       <c r="H145" s="14"/>
       <c r="I145" s="14"/>
       <c r="J145" s="15"/>
-      <c r="K145" s="23"/>
-      <c r="L145" s="24"/>
+      <c r="K145" s="21"/>
+      <c r="L145" s="22"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A146" s="11"/>
@@ -8601,8 +8690,8 @@
       <c r="H146" s="14"/>
       <c r="I146" s="14"/>
       <c r="J146" s="15"/>
-      <c r="K146" s="23"/>
-      <c r="L146" s="24"/>
+      <c r="K146" s="21"/>
+      <c r="L146" s="22"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A147" s="11"/>
@@ -8615,8 +8704,8 @@
       <c r="H147" s="14"/>
       <c r="I147" s="14"/>
       <c r="J147" s="15"/>
-      <c r="K147" s="23"/>
-      <c r="L147" s="24"/>
+      <c r="K147" s="21"/>
+      <c r="L147" s="22"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A148" s="11"/>
@@ -8629,8 +8718,8 @@
       <c r="H148" s="14"/>
       <c r="I148" s="14"/>
       <c r="J148" s="15"/>
-      <c r="K148" s="23"/>
-      <c r="L148" s="24"/>
+      <c r="K148" s="21"/>
+      <c r="L148" s="22"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A149" s="11"/>
@@ -8643,8 +8732,8 @@
       <c r="H149" s="14"/>
       <c r="I149" s="14"/>
       <c r="J149" s="15"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="24"/>
+      <c r="K149" s="21"/>
+      <c r="L149" s="22"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A150" s="11"/>
@@ -8657,8 +8746,8 @@
       <c r="H150" s="14"/>
       <c r="I150" s="14"/>
       <c r="J150" s="15"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="24"/>
+      <c r="K150" s="21"/>
+      <c r="L150" s="22"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A151" s="11"/>
@@ -8671,8 +8760,8 @@
       <c r="H151" s="14"/>
       <c r="I151" s="14"/>
       <c r="J151" s="15"/>
-      <c r="K151" s="23"/>
-      <c r="L151" s="24"/>
+      <c r="K151" s="21"/>
+      <c r="L151" s="22"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A152" s="11"/>
@@ -8685,8 +8774,8 @@
       <c r="H152" s="14"/>
       <c r="I152" s="14"/>
       <c r="J152" s="15"/>
-      <c r="K152" s="23"/>
-      <c r="L152" s="24"/>
+      <c r="K152" s="21"/>
+      <c r="L152" s="22"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A153" s="11"/>
@@ -8699,8 +8788,8 @@
       <c r="H153" s="14"/>
       <c r="I153" s="14"/>
       <c r="J153" s="15"/>
-      <c r="K153" s="23"/>
-      <c r="L153" s="24"/>
+      <c r="K153" s="21"/>
+      <c r="L153" s="22"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A154" s="11"/>
@@ -8713,8 +8802,8 @@
       <c r="H154" s="14"/>
       <c r="I154" s="14"/>
       <c r="J154" s="15"/>
-      <c r="K154" s="23"/>
-      <c r="L154" s="24"/>
+      <c r="K154" s="21"/>
+      <c r="L154" s="22"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A155" s="11"/>
@@ -8727,8 +8816,8 @@
       <c r="H155" s="14"/>
       <c r="I155" s="14"/>
       <c r="J155" s="15"/>
-      <c r="K155" s="23"/>
-      <c r="L155" s="24"/>
+      <c r="K155" s="21"/>
+      <c r="L155" s="22"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A156" s="11"/>
@@ -8741,8 +8830,8 @@
       <c r="H156" s="14"/>
       <c r="I156" s="14"/>
       <c r="J156" s="15"/>
-      <c r="K156" s="23"/>
-      <c r="L156" s="24"/>
+      <c r="K156" s="21"/>
+      <c r="L156" s="22"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A157" s="11"/>
@@ -8755,8 +8844,8 @@
       <c r="H157" s="14"/>
       <c r="I157" s="14"/>
       <c r="J157" s="15"/>
-      <c r="K157" s="23"/>
-      <c r="L157" s="24"/>
+      <c r="K157" s="21"/>
+      <c r="L157" s="22"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A158" s="11"/>
@@ -8769,8 +8858,8 @@
       <c r="H158" s="14"/>
       <c r="I158" s="14"/>
       <c r="J158" s="15"/>
-      <c r="K158" s="23"/>
-      <c r="L158" s="24"/>
+      <c r="K158" s="21"/>
+      <c r="L158" s="22"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A159" s="11"/>
@@ -8783,8 +8872,8 @@
       <c r="H159" s="14"/>
       <c r="I159" s="14"/>
       <c r="J159" s="15"/>
-      <c r="K159" s="23"/>
-      <c r="L159" s="24"/>
+      <c r="K159" s="21"/>
+      <c r="L159" s="22"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A160" s="11"/>
@@ -8797,8 +8886,8 @@
       <c r="H160" s="14"/>
       <c r="I160" s="14"/>
       <c r="J160" s="15"/>
-      <c r="K160" s="23"/>
-      <c r="L160" s="24"/>
+      <c r="K160" s="21"/>
+      <c r="L160" s="22"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A161" s="11"/>
@@ -8811,8 +8900,8 @@
       <c r="H161" s="14"/>
       <c r="I161" s="14"/>
       <c r="J161" s="15"/>
-      <c r="K161" s="23"/>
-      <c r="L161" s="24"/>
+      <c r="K161" s="21"/>
+      <c r="L161" s="22"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A162" s="11"/>
@@ -8825,8 +8914,8 @@
       <c r="H162" s="14"/>
       <c r="I162" s="14"/>
       <c r="J162" s="15"/>
-      <c r="K162" s="23"/>
-      <c r="L162" s="24"/>
+      <c r="K162" s="21"/>
+      <c r="L162" s="22"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A163" s="11"/>
@@ -8839,8 +8928,8 @@
       <c r="H163" s="14"/>
       <c r="I163" s="14"/>
       <c r="J163" s="15"/>
-      <c r="K163" s="23"/>
-      <c r="L163" s="24"/>
+      <c r="K163" s="21"/>
+      <c r="L163" s="22"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A164" s="11"/>
@@ -8853,8 +8942,8 @@
       <c r="H164" s="14"/>
       <c r="I164" s="14"/>
       <c r="J164" s="15"/>
-      <c r="K164" s="23"/>
-      <c r="L164" s="24"/>
+      <c r="K164" s="21"/>
+      <c r="L164" s="22"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A165" s="11"/>
@@ -8867,8 +8956,8 @@
       <c r="H165" s="14"/>
       <c r="I165" s="14"/>
       <c r="J165" s="15"/>
-      <c r="K165" s="23"/>
-      <c r="L165" s="24"/>
+      <c r="K165" s="21"/>
+      <c r="L165" s="22"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A166" s="11"/>
@@ -8881,8 +8970,8 @@
       <c r="H166" s="14"/>
       <c r="I166" s="14"/>
       <c r="J166" s="15"/>
-      <c r="K166" s="23"/>
-      <c r="L166" s="24"/>
+      <c r="K166" s="21"/>
+      <c r="L166" s="22"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A167" s="11"/>
@@ -8895,8 +8984,8 @@
       <c r="H167" s="14"/>
       <c r="I167" s="14"/>
       <c r="J167" s="15"/>
-      <c r="K167" s="23"/>
-      <c r="L167" s="24"/>
+      <c r="K167" s="21"/>
+      <c r="L167" s="22"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A168" s="11"/>
@@ -8909,8 +8998,8 @@
       <c r="H168" s="14"/>
       <c r="I168" s="14"/>
       <c r="J168" s="15"/>
-      <c r="K168" s="23"/>
-      <c r="L168" s="24"/>
+      <c r="K168" s="21"/>
+      <c r="L168" s="22"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A169" s="11"/>
@@ -8923,8 +9012,8 @@
       <c r="H169" s="14"/>
       <c r="I169" s="14"/>
       <c r="J169" s="15"/>
-      <c r="K169" s="23"/>
-      <c r="L169" s="24"/>
+      <c r="K169" s="21"/>
+      <c r="L169" s="22"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A170" s="11"/>
@@ -8937,8 +9026,8 @@
       <c r="H170" s="14"/>
       <c r="I170" s="14"/>
       <c r="J170" s="15"/>
-      <c r="K170" s="23"/>
-      <c r="L170" s="24"/>
+      <c r="K170" s="21"/>
+      <c r="L170" s="22"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A171" s="11"/>
@@ -8951,8 +9040,8 @@
       <c r="H171" s="14"/>
       <c r="I171" s="14"/>
       <c r="J171" s="15"/>
-      <c r="K171" s="23"/>
-      <c r="L171" s="24"/>
+      <c r="K171" s="21"/>
+      <c r="L171" s="22"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A172" s="11"/>
@@ -8965,8 +9054,8 @@
       <c r="H172" s="14"/>
       <c r="I172" s="14"/>
       <c r="J172" s="15"/>
-      <c r="K172" s="23"/>
-      <c r="L172" s="24"/>
+      <c r="K172" s="21"/>
+      <c r="L172" s="22"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A173" s="11"/>
@@ -8979,8 +9068,8 @@
       <c r="H173" s="14"/>
       <c r="I173" s="14"/>
       <c r="J173" s="15"/>
-      <c r="K173" s="23"/>
-      <c r="L173" s="24"/>
+      <c r="K173" s="21"/>
+      <c r="L173" s="22"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A174" s="11"/>
@@ -8993,8 +9082,8 @@
       <c r="H174" s="14"/>
       <c r="I174" s="14"/>
       <c r="J174" s="15"/>
-      <c r="K174" s="23"/>
-      <c r="L174" s="24"/>
+      <c r="K174" s="21"/>
+      <c r="L174" s="22"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A175" s="11"/>
@@ -9007,8 +9096,8 @@
       <c r="H175" s="14"/>
       <c r="I175" s="14"/>
       <c r="J175" s="15"/>
-      <c r="K175" s="23"/>
-      <c r="L175" s="24"/>
+      <c r="K175" s="21"/>
+      <c r="L175" s="22"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A176" s="11"/>
@@ -9021,8 +9110,8 @@
       <c r="H176" s="14"/>
       <c r="I176" s="14"/>
       <c r="J176" s="15"/>
-      <c r="K176" s="23"/>
-      <c r="L176" s="24"/>
+      <c r="K176" s="21"/>
+      <c r="L176" s="22"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A177" s="11"/>
@@ -9035,8 +9124,8 @@
       <c r="H177" s="14"/>
       <c r="I177" s="14"/>
       <c r="J177" s="15"/>
-      <c r="K177" s="23"/>
-      <c r="L177" s="24"/>
+      <c r="K177" s="21"/>
+      <c r="L177" s="22"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A178" s="11"/>
@@ -9049,8 +9138,8 @@
       <c r="H178" s="14"/>
       <c r="I178" s="14"/>
       <c r="J178" s="15"/>
-      <c r="K178" s="23"/>
-      <c r="L178" s="24"/>
+      <c r="K178" s="21"/>
+      <c r="L178" s="22"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A179" s="11"/>
@@ -9063,8 +9152,8 @@
       <c r="H179" s="14"/>
       <c r="I179" s="14"/>
       <c r="J179" s="15"/>
-      <c r="K179" s="23"/>
-      <c r="L179" s="24"/>
+      <c r="K179" s="21"/>
+      <c r="L179" s="22"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A180" s="11"/>
@@ -9077,8 +9166,8 @@
       <c r="H180" s="14"/>
       <c r="I180" s="14"/>
       <c r="J180" s="15"/>
-      <c r="K180" s="23"/>
-      <c r="L180" s="24"/>
+      <c r="K180" s="21"/>
+      <c r="L180" s="22"/>
     </row>
     <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A181" s="11"/>
@@ -9091,8 +9180,8 @@
       <c r="H181" s="14"/>
       <c r="I181" s="14"/>
       <c r="J181" s="15"/>
-      <c r="K181" s="23"/>
-      <c r="L181" s="24"/>
+      <c r="K181" s="21"/>
+      <c r="L181" s="22"/>
     </row>
     <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A182" s="11"/>
@@ -9105,8 +9194,8 @@
       <c r="H182" s="14"/>
       <c r="I182" s="14"/>
       <c r="J182" s="15"/>
-      <c r="K182" s="23"/>
-      <c r="L182" s="24"/>
+      <c r="K182" s="21"/>
+      <c r="L182" s="22"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A183" s="11"/>
@@ -9119,8 +9208,8 @@
       <c r="H183" s="14"/>
       <c r="I183" s="14"/>
       <c r="J183" s="15"/>
-      <c r="K183" s="23"/>
-      <c r="L183" s="24"/>
+      <c r="K183" s="21"/>
+      <c r="L183" s="22"/>
     </row>
     <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A184" s="11"/>
@@ -9133,8 +9222,8 @@
       <c r="H184" s="14"/>
       <c r="I184" s="14"/>
       <c r="J184" s="15"/>
-      <c r="K184" s="23"/>
-      <c r="L184" s="24"/>
+      <c r="K184" s="21"/>
+      <c r="L184" s="22"/>
     </row>
     <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A185" s="11"/>
@@ -9147,8 +9236,8 @@
       <c r="H185" s="14"/>
       <c r="I185" s="14"/>
       <c r="J185" s="15"/>
-      <c r="K185" s="23"/>
-      <c r="L185" s="24"/>
+      <c r="K185" s="21"/>
+      <c r="L185" s="22"/>
     </row>
     <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A186" s="11"/>
@@ -9161,8 +9250,8 @@
       <c r="H186" s="14"/>
       <c r="I186" s="14"/>
       <c r="J186" s="15"/>
-      <c r="K186" s="23"/>
-      <c r="L186" s="24"/>
+      <c r="K186" s="21"/>
+      <c r="L186" s="22"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A187" s="11"/>
@@ -9175,8 +9264,8 @@
       <c r="H187" s="14"/>
       <c r="I187" s="14"/>
       <c r="J187" s="15"/>
-      <c r="K187" s="23"/>
-      <c r="L187" s="24"/>
+      <c r="K187" s="21"/>
+      <c r="L187" s="22"/>
     </row>
     <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A188" s="11"/>
@@ -9189,8 +9278,8 @@
       <c r="H188" s="14"/>
       <c r="I188" s="14"/>
       <c r="J188" s="15"/>
-      <c r="K188" s="23"/>
-      <c r="L188" s="24"/>
+      <c r="K188" s="21"/>
+      <c r="L188" s="22"/>
     </row>
     <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A189" s="11"/>
@@ -9203,8 +9292,8 @@
       <c r="H189" s="14"/>
       <c r="I189" s="14"/>
       <c r="J189" s="15"/>
-      <c r="K189" s="23"/>
-      <c r="L189" s="24"/>
+      <c r="K189" s="21"/>
+      <c r="L189" s="22"/>
     </row>
     <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A190" s="11"/>
@@ -9217,8 +9306,8 @@
       <c r="H190" s="14"/>
       <c r="I190" s="14"/>
       <c r="J190" s="15"/>
-      <c r="K190" s="23"/>
-      <c r="L190" s="24"/>
+      <c r="K190" s="21"/>
+      <c r="L190" s="22"/>
     </row>
     <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A191" s="11"/>
@@ -9231,8 +9320,8 @@
       <c r="H191" s="14"/>
       <c r="I191" s="14"/>
       <c r="J191" s="15"/>
-      <c r="K191" s="23"/>
-      <c r="L191" s="24"/>
+      <c r="K191" s="21"/>
+      <c r="L191" s="22"/>
     </row>
     <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
       <c r="A192" s="11"/>
@@ -9245,8 +9334,8 @@
       <c r="H192" s="14"/>
       <c r="I192" s="14"/>
       <c r="J192" s="15"/>
-      <c r="K192" s="23"/>
-      <c r="L192" s="24"/>
+      <c r="K192" s="21"/>
+      <c r="L192" s="22"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
@@ -9306,15 +9395,16 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D25 D2:D3 D7:D8 D16:D17 D26:D192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D4 D5 D6 D9 D10 D11 D12 D13 D14 D15 D18 D19 D20 D21 D22 D23 D24 D27 D28 D29 D30 D31 D32 D33 D2:D3 D7:D8 D16:D17 D25:D26 D34:D192">
       <formula1>INDIRECT(C2)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C25 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C26:C192">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C6 C11 C12 C13 C14 C15 C18 C19 C20 C21 C22 C23 C24 C27 C28 C29 C30 C31 C32 C33 C2:C3 C4:C5 C7:C8 C9:C10 C16:C17 C25:C26 C34:C192">
       <formula1>target</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" display="${uiurl}" tooltip="https://gnukhata.gitlab.io/gkapp/#/user-login"/>
+    <hyperlink ref="E25" r:id="rId1" display="${uiurl}" tooltip="https://gnukhata.gitlab.io/gkapp/#/user-login"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -56,7 +56,20 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2495,7 +2508,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -6291,7 +6304,7 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -56,12 +56,25 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="930" uniqueCount="784">
   <si>
     <t>target</t>
   </si>
@@ -2480,9 +2493,6 @@
     <t>${title.header}</t>
   </si>
   <si>
-    <t>Welcome Accion</t>
-  </si>
-  <si>
     <t>mobileLogin</t>
   </si>
   <si>
@@ -2495,7 +2505,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
@@ -6291,7 +6301,7 @@
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F25" sqref="F25"/>
+      <selection pane="bottomLeft" activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
@@ -6881,14 +6891,12 @@
         <v>30</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E24" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="18" t="s">
-        <v>781</v>
-      </c>
+      <c r="F24" s="18"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
       <c r="I24" s="14"/>
@@ -6901,7 +6909,7 @@
     </row>
     <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A25" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>763</v>
@@ -6928,7 +6936,7 @@
     <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A26" s="11"/>
       <c r="B26" s="12" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C26" s="13" t="s">
         <v>30</v>
@@ -6952,7 +6960,7 @@
     <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
       <c r="A27" s="11"/>
       <c r="B27" s="12" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C27" s="13" t="s">
         <v>30</v>
@@ -7096,14 +7104,12 @@
         <v>30</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>530</v>
+        <v>253</v>
       </c>
       <c r="E33" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>781</v>
-      </c>
+      <c r="F33" s="18"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>

--- a/tests/artifact/script/GNUKhata.macro.xlsx
+++ b/tests/artifact/script/GNUKhata.macro.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6950" tabRatio="500" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="6920" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -56,12 +56,25 @@
     <definedName name="javaui">'#system'!$N$2:$N$16</definedName>
     <definedName name="browserstack">'#system'!$G$2:$G$7</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="786">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="785">
   <si>
     <t>target</t>
   </si>
@@ -2491,21 +2504,18 @@
   <si>
     <t>wait for element to be present</t>
   </si>
-  <si>
-    <t>Welcome Accion</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2514,6 +2524,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -2534,6 +2552,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
@@ -3042,169 +3082,166 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3212,7 +3249,51 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3220,34 +3301,26 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -6291,3054 +6364,3054 @@
   <sheetPr/>
   <dimension ref="A1:O192"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F34" sqref="F34"/>
+      <selection pane="bottomLeft" activeCell="A27" sqref="$A27:$XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="20.1666666666667" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.5" style="4" customWidth="1"/>
-    <col min="3" max="3" width="10" style="5" customWidth="1"/>
-    <col min="4" max="4" width="36" style="6" customWidth="1"/>
-    <col min="5" max="5" width="61.5" style="6" customWidth="1"/>
-    <col min="6" max="6" width="57.125" style="6" customWidth="1"/>
-    <col min="7" max="7" width="9.375" style="6" customWidth="1"/>
-    <col min="8" max="9" width="9.25" style="6" customWidth="1"/>
-    <col min="10" max="10" width="28.625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="1.66666666666667" style="8" customWidth="1"/>
-    <col min="12" max="12" width="12" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.1666666666667" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.5" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10" style="6" customWidth="1"/>
+    <col min="4" max="4" width="36" style="7" customWidth="1"/>
+    <col min="5" max="5" width="61.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="57.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="7" customWidth="1"/>
+    <col min="8" max="9" width="9.25" style="7" customWidth="1"/>
+    <col min="10" max="10" width="28.625" style="8" customWidth="1"/>
+    <col min="11" max="11" width="1.66666666666667" style="9" customWidth="1"/>
+    <col min="12" max="12" width="12" style="10" customWidth="1"/>
     <col min="13" max="16384" width="10.8333333333333" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:12">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>726</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>727</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>728</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>729</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>730</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>731</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="24" t="s">
         <v>732</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="10" t="s">
+      <c r="K1" s="25"/>
+      <c r="L1" s="11" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="42" spans="1:12">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>734</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="13" t="s">
         <v>735</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="15" t="s">
         <v>737</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="22"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A3" s="11"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="13" t="s">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="22"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="27"/>
     </row>
     <row r="4" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="13" t="s">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="22"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="27"/>
     </row>
     <row r="5" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13" t="s">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="22"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="27"/>
     </row>
     <row r="6" s="2" customFormat="1" ht="42" spans="1:12">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>744</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="13" t="s">
         <v>745</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>263</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="15" t="s">
         <v>746</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="22"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
     </row>
     <row r="7" s="2" customFormat="1" ht="18" customHeight="1" spans="3:12">
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="15" t="s">
         <v>736</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="22"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="26"/>
+      <c r="L7" s="27"/>
     </row>
     <row r="8" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="13" t="s">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>749</v>
       </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="22"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="27"/>
     </row>
     <row r="9" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A9" s="11"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="13" t="s">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="15" t="s">
         <v>741</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="22"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="27"/>
     </row>
     <row r="10" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13" t="s">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="15" t="s">
         <v>742</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="15" t="s">
         <v>743</v>
       </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="22"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="27"/>
     </row>
     <row r="11" s="2" customFormat="1" ht="98" spans="1:12">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>750</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="13" t="s">
         <v>751</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="15" t="s">
         <v>752</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="15" t="s">
         <v>753</v>
       </c>
-      <c r="G11" s="16"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="22"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="27"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13" t="s">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="15" t="s">
         <v>754</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="G12" s="16"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="22"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="27"/>
     </row>
     <row r="13" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A13" s="11"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="13" t="s">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="22"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="27"/>
     </row>
     <row r="14" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13" t="s">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="16" t="s">
         <v>759</v>
       </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="15" t="s">
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="16" t="s">
         <v>760</v>
       </c>
-      <c r="K14" s="21"/>
-      <c r="L14" s="22"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="27"/>
     </row>
     <row r="15" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A15" s="11"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="13" t="s">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="15" t="s">
         <v>761</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="22"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="27"/>
     </row>
     <row r="16" s="2" customFormat="1" ht="28" spans="1:15">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>762</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="23"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="21"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="28"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="26"/>
     </row>
     <row r="17" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A17" s="11"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13" t="s">
         <v>766</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="15" t="s">
         <v>620</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="21"/>
-    </row>
-    <row r="18" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13" t="s">
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="26"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="28"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="26"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="22">
         <v>5000</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="23"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="21"/>
-    </row>
-    <row r="19" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12" t="s">
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="31"/>
+      <c r="O18" s="30"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="23" customHeight="1" spans="1:15">
+      <c r="A19" s="18"/>
+      <c r="B19" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="14" t="s">
+      <c r="D19" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="30"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="30"/>
     </row>
     <row r="20" s="2" customFormat="1" ht="22" customHeight="1" spans="1:15">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="14" t="s">
+      <c r="D20" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="F20" s="15"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="23"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="21"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="26"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="27"/>
+      <c r="O20" s="26"/>
     </row>
     <row r="21" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="12" t="s">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="14" t="s">
+      <c r="D21" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E21" s="14" t="s">
+      <c r="E21" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="21"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="26"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="26"/>
     </row>
     <row r="22" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E22" s="14" t="s">
+      <c r="E22" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="23"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="21"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="26"/>
+      <c r="L22" s="27"/>
+      <c r="M22" s="28"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="26"/>
     </row>
     <row r="23" s="2" customFormat="1" ht="23" customHeight="1" spans="1:15">
-      <c r="A23" s="11"/>
-      <c r="B23" s="12" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="14" t="s">
+      <c r="D23" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E23" s="14" t="s">
+      <c r="E23" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="23"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="21"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="26"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="28"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="26"/>
     </row>
     <row r="24" s="2" customFormat="1" ht="30" customHeight="1" spans="1:15">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="14" t="s">
+      <c r="D24" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="E24" s="14" t="s">
+      <c r="E24" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="F24" s="18" t="s">
+      <c r="F24" s="23" t="s">
         <v>781</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="15"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="23"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="21"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="27"/>
+      <c r="M24" s="28"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="26"/>
     </row>
     <row r="25" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="12" t="s">
         <v>782</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="13" t="s">
         <v>763</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="14" t="s">
+      <c r="D25" s="15" t="s">
         <v>628</v>
       </c>
-      <c r="E25" s="14" t="s">
+      <c r="E25" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="15"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="22"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+      <c r="I25" s="15"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="27"/>
     </row>
     <row r="26" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12" t="s">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13" t="s">
         <v>783</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D26" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>640</v>
       </c>
-      <c r="E26" s="14">
+      <c r="E26" s="15">
         <v>430</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="15">
         <v>932</v>
       </c>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="15"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="22"/>
-    </row>
-    <row r="27" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A27" s="11"/>
-      <c r="B27" s="12" t="s">
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="27"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="A27" s="18"/>
+      <c r="B27" s="19" t="s">
         <v>784</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="14" t="s">
+      <c r="D27" s="21" t="s">
         <v>553</v>
       </c>
-      <c r="E27" s="14" t="s">
+      <c r="E27" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="22">
         <v>5000</v>
       </c>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="15"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="22"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12" t="s">
+      <c r="G27" s="21"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="31"/>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="23" customHeight="1" spans="1:12">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19" t="s">
         <v>768</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D28" s="14" t="s">
+      <c r="D28" s="21" t="s">
         <v>363</v>
       </c>
-      <c r="E28" s="14" t="s">
+      <c r="E28" s="21" t="s">
         <v>767</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="15"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="22"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="31"/>
     </row>
     <row r="29" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A29" s="11"/>
-      <c r="B29" s="12" t="s">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13" t="s">
         <v>769</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D29" s="14" t="s">
+      <c r="D29" s="15" t="s">
         <v>713</v>
       </c>
-      <c r="E29" s="14" t="s">
+      <c r="E29" s="15" t="s">
         <v>770</v>
       </c>
-      <c r="F29" s="15"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="15"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="22"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="27"/>
     </row>
     <row r="30" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12" t="s">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="14" t="s">
+      <c r="D30" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="15" t="s">
         <v>772</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="15" t="s">
         <v>773</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="15"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="22"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="27"/>
     </row>
     <row r="31" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A31" s="11"/>
-      <c r="B31" s="12" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13" t="s">
         <v>774</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D31" s="14" t="s">
+      <c r="D31" s="15" t="s">
         <v>705</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="15" t="s">
         <v>775</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="15"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="22"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="26"/>
+      <c r="L31" s="27"/>
     </row>
     <row r="32" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A32" s="11"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D32" s="14" t="s">
+      <c r="D32" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="15" t="s">
         <v>778</v>
       </c>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="15"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="22"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="15"/>
+      <c r="H32" s="15"/>
+      <c r="I32" s="15"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="26"/>
+      <c r="L32" s="27"/>
     </row>
     <row r="33" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A33" s="11"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13" t="s">
         <v>779</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D33" s="14" t="s">
+      <c r="D33" s="15" t="s">
         <v>530</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="F33" s="18" t="s">
-        <v>785</v>
-      </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="15"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="22"/>
+      <c r="F33" s="23" t="s">
+        <v>781</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="15"/>
+      <c r="I33" s="15"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="26"/>
+      <c r="L33" s="27"/>
     </row>
     <row r="34" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A34" s="11"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="15"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="22"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="15"/>
+      <c r="H34" s="15"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="26"/>
+      <c r="L34" s="27"/>
     </row>
     <row r="35" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A35" s="11"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="14"/>
-      <c r="F35" s="14"/>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="15"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="22"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="13"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="15"/>
+      <c r="H35" s="15"/>
+      <c r="I35" s="15"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="26"/>
+      <c r="L35" s="27"/>
     </row>
     <row r="36" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="22"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="13"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="26"/>
+      <c r="L36" s="27"/>
     </row>
     <row r="37" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="14"/>
-      <c r="F37" s="14"/>
-      <c r="G37" s="14"/>
-      <c r="H37" s="14"/>
-      <c r="I37" s="14"/>
-      <c r="J37" s="15"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="22"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="16"/>
+      <c r="K37" s="26"/>
+      <c r="L37" s="27"/>
     </row>
     <row r="38" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="14"/>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="15"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="22"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="15"/>
+      <c r="H38" s="15"/>
+      <c r="I38" s="15"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="27"/>
     </row>
     <row r="39" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="15"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="22"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="27"/>
     </row>
     <row r="40" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="14"/>
-      <c r="E40" s="14"/>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="15"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="22"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
+      <c r="I40" s="15"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="27"/>
     </row>
     <row r="41" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="15"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="22"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="15"/>
+      <c r="H41" s="15"/>
+      <c r="I41" s="15"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="27"/>
     </row>
     <row r="42" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14"/>
-      <c r="E42" s="14"/>
-      <c r="F42" s="14"/>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="21"/>
-      <c r="L42" s="22"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="27"/>
     </row>
     <row r="43" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="15"/>
-      <c r="K43" s="21"/>
-      <c r="L43" s="22"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="27"/>
     </row>
     <row r="44" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="21"/>
-      <c r="L44" s="22"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="27"/>
     </row>
     <row r="45" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="15"/>
-      <c r="K45" s="21"/>
-      <c r="L45" s="22"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="27"/>
     </row>
     <row r="46" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="15"/>
-      <c r="K46" s="21"/>
-      <c r="L46" s="22"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="27"/>
     </row>
     <row r="47" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14"/>
-      <c r="E47" s="14"/>
-      <c r="F47" s="14"/>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="15"/>
-      <c r="K47" s="21"/>
-      <c r="L47" s="22"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="15"/>
+      <c r="H47" s="15"/>
+      <c r="I47" s="15"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="27"/>
     </row>
     <row r="48" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="15"/>
-      <c r="K48" s="21"/>
-      <c r="L48" s="22"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+      <c r="I48" s="15"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="27"/>
     </row>
     <row r="49" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="21"/>
-      <c r="L49" s="22"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="27"/>
     </row>
     <row r="50" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14"/>
-      <c r="E50" s="14"/>
-      <c r="F50" s="14"/>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="15"/>
-      <c r="K50" s="21"/>
-      <c r="L50" s="22"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="15"/>
+      <c r="H50" s="15"/>
+      <c r="I50" s="15"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="27"/>
     </row>
     <row r="51" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="15"/>
-      <c r="K51" s="21"/>
-      <c r="L51" s="22"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="15"/>
+      <c r="E51" s="15"/>
+      <c r="F51" s="15"/>
+      <c r="G51" s="15"/>
+      <c r="H51" s="15"/>
+      <c r="I51" s="15"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="27"/>
     </row>
     <row r="52" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="14"/>
-      <c r="E52" s="14"/>
-      <c r="F52" s="14"/>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="15"/>
-      <c r="K52" s="21"/>
-      <c r="L52" s="22"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+      <c r="F52" s="15"/>
+      <c r="G52" s="15"/>
+      <c r="H52" s="15"/>
+      <c r="I52" s="15"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="27"/>
     </row>
     <row r="53" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14"/>
-      <c r="E53" s="14"/>
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="15"/>
-      <c r="K53" s="21"/>
-      <c r="L53" s="22"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+      <c r="F53" s="15"/>
+      <c r="G53" s="15"/>
+      <c r="H53" s="15"/>
+      <c r="I53" s="15"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="27"/>
     </row>
     <row r="54" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14"/>
-      <c r="E54" s="14"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="15"/>
-      <c r="K54" s="21"/>
-      <c r="L54" s="22"/>
+      <c r="A54" s="12"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="15"/>
+      <c r="E54" s="15"/>
+      <c r="F54" s="15"/>
+      <c r="G54" s="15"/>
+      <c r="H54" s="15"/>
+      <c r="I54" s="15"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="27"/>
     </row>
     <row r="55" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="14"/>
-      <c r="E55" s="14"/>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="15"/>
-      <c r="K55" s="21"/>
-      <c r="L55" s="22"/>
+      <c r="A55" s="12"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="15"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="15"/>
+      <c r="G55" s="15"/>
+      <c r="H55" s="15"/>
+      <c r="I55" s="15"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="27"/>
     </row>
     <row r="56" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14"/>
-      <c r="E56" s="14"/>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="15"/>
-      <c r="K56" s="21"/>
-      <c r="L56" s="22"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="15"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="15"/>
+      <c r="G56" s="15"/>
+      <c r="H56" s="15"/>
+      <c r="I56" s="15"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="27"/>
     </row>
     <row r="57" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="15"/>
-      <c r="K57" s="21"/>
-      <c r="L57" s="22"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="15"/>
+      <c r="E57" s="15"/>
+      <c r="F57" s="15"/>
+      <c r="G57" s="15"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="26"/>
+      <c r="L57" s="27"/>
     </row>
     <row r="58" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A58" s="11"/>
-      <c r="B58" s="12"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="14"/>
-      <c r="E58" s="14"/>
-      <c r="F58" s="14"/>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="15"/>
-      <c r="K58" s="21"/>
-      <c r="L58" s="22"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="15"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="26"/>
+      <c r="L58" s="27"/>
     </row>
     <row r="59" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A59" s="11"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14"/>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="15"/>
-      <c r="K59" s="21"/>
-      <c r="L59" s="22"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="15"/>
+      <c r="E59" s="15"/>
+      <c r="F59" s="15"/>
+      <c r="G59" s="15"/>
+      <c r="H59" s="15"/>
+      <c r="I59" s="15"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="27"/>
     </row>
     <row r="60" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A60" s="11"/>
-      <c r="B60" s="12"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14"/>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="21"/>
-      <c r="L60" s="22"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="15"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="26"/>
+      <c r="L60" s="27"/>
     </row>
     <row r="61" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A61" s="11"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14"/>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="15"/>
-      <c r="K61" s="21"/>
-      <c r="L61" s="22"/>
+      <c r="A61" s="12"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="15"/>
+      <c r="G61" s="15"/>
+      <c r="H61" s="15"/>
+      <c r="I61" s="15"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="27"/>
     </row>
     <row r="62" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A62" s="11"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14"/>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="15"/>
-      <c r="K62" s="21"/>
-      <c r="L62" s="22"/>
+      <c r="A62" s="12"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="15"/>
+      <c r="E62" s="15"/>
+      <c r="F62" s="15"/>
+      <c r="G62" s="15"/>
+      <c r="H62" s="15"/>
+      <c r="I62" s="15"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="26"/>
+      <c r="L62" s="27"/>
     </row>
     <row r="63" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A63" s="11"/>
-      <c r="B63" s="12"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14"/>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="15"/>
-      <c r="K63" s="21"/>
-      <c r="L63" s="22"/>
+      <c r="A63" s="12"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="15"/>
+      <c r="G63" s="15"/>
+      <c r="H63" s="15"/>
+      <c r="I63" s="15"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="26"/>
+      <c r="L63" s="27"/>
     </row>
     <row r="64" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A64" s="11"/>
-      <c r="B64" s="12"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14"/>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="15"/>
-      <c r="K64" s="21"/>
-      <c r="L64" s="22"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="15"/>
+      <c r="E64" s="15"/>
+      <c r="F64" s="15"/>
+      <c r="G64" s="15"/>
+      <c r="H64" s="15"/>
+      <c r="I64" s="15"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="26"/>
+      <c r="L64" s="27"/>
     </row>
     <row r="65" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A65" s="11"/>
-      <c r="B65" s="12"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="14"/>
-      <c r="E65" s="14"/>
-      <c r="F65" s="14"/>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="15"/>
-      <c r="K65" s="21"/>
-      <c r="L65" s="22"/>
+      <c r="A65" s="12"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="15"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="15"/>
+      <c r="G65" s="15"/>
+      <c r="H65" s="15"/>
+      <c r="I65" s="15"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="26"/>
+      <c r="L65" s="27"/>
     </row>
     <row r="66" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A66" s="11"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14"/>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="21"/>
-      <c r="L66" s="22"/>
+      <c r="A66" s="12"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
+      <c r="H66" s="15"/>
+      <c r="I66" s="15"/>
+      <c r="J66" s="16"/>
+      <c r="K66" s="26"/>
+      <c r="L66" s="27"/>
     </row>
     <row r="67" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A67" s="11"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14"/>
-      <c r="E67" s="14"/>
-      <c r="F67" s="14"/>
-      <c r="G67" s="14"/>
-      <c r="H67" s="14"/>
-      <c r="I67" s="14"/>
-      <c r="J67" s="15"/>
-      <c r="K67" s="21"/>
-      <c r="L67" s="22"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="15"/>
+      <c r="E67" s="15"/>
+      <c r="F67" s="15"/>
+      <c r="G67" s="15"/>
+      <c r="H67" s="15"/>
+      <c r="I67" s="15"/>
+      <c r="J67" s="16"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="27"/>
     </row>
     <row r="68" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A68" s="11"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14"/>
-      <c r="E68" s="14"/>
-      <c r="F68" s="14"/>
-      <c r="G68" s="14"/>
-      <c r="H68" s="14"/>
-      <c r="I68" s="14"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="21"/>
-      <c r="L68" s="22"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="15"/>
+      <c r="E68" s="15"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="15"/>
+      <c r="H68" s="15"/>
+      <c r="I68" s="15"/>
+      <c r="J68" s="16"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="27"/>
     </row>
     <row r="69" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A69" s="11"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14"/>
-      <c r="E69" s="14"/>
-      <c r="F69" s="14"/>
-      <c r="G69" s="14"/>
-      <c r="H69" s="14"/>
-      <c r="I69" s="14"/>
-      <c r="J69" s="15"/>
-      <c r="K69" s="21"/>
-      <c r="L69" s="22"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="15"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="15"/>
+      <c r="G69" s="15"/>
+      <c r="H69" s="15"/>
+      <c r="I69" s="15"/>
+      <c r="J69" s="16"/>
+      <c r="K69" s="26"/>
+      <c r="L69" s="27"/>
     </row>
     <row r="70" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A70" s="11"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
-      <c r="F70" s="14"/>
-      <c r="G70" s="14"/>
-      <c r="H70" s="14"/>
-      <c r="I70" s="14"/>
-      <c r="J70" s="15"/>
-      <c r="K70" s="21"/>
-      <c r="L70" s="22"/>
+      <c r="A70" s="12"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="15"/>
+      <c r="H70" s="15"/>
+      <c r="I70" s="15"/>
+      <c r="J70" s="16"/>
+      <c r="K70" s="26"/>
+      <c r="L70" s="27"/>
     </row>
     <row r="71" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A71" s="11"/>
-      <c r="B71" s="12"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14"/>
-      <c r="E71" s="14"/>
-      <c r="F71" s="14"/>
-      <c r="G71" s="14"/>
-      <c r="H71" s="14"/>
-      <c r="I71" s="14"/>
-      <c r="J71" s="15"/>
-      <c r="K71" s="21"/>
-      <c r="L71" s="22"/>
+      <c r="A71" s="12"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="15"/>
+      <c r="E71" s="15"/>
+      <c r="F71" s="15"/>
+      <c r="G71" s="15"/>
+      <c r="H71" s="15"/>
+      <c r="I71" s="15"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="26"/>
+      <c r="L71" s="27"/>
     </row>
     <row r="72" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A72" s="11"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14"/>
-      <c r="E72" s="14"/>
-      <c r="F72" s="14"/>
-      <c r="G72" s="14"/>
-      <c r="H72" s="14"/>
-      <c r="I72" s="14"/>
-      <c r="J72" s="15"/>
-      <c r="K72" s="21"/>
-      <c r="L72" s="22"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="15"/>
+      <c r="H72" s="15"/>
+      <c r="I72" s="15"/>
+      <c r="J72" s="16"/>
+      <c r="K72" s="26"/>
+      <c r="L72" s="27"/>
     </row>
     <row r="73" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A73" s="11"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="14"/>
-      <c r="H73" s="14"/>
-      <c r="I73" s="14"/>
-      <c r="J73" s="15"/>
-      <c r="K73" s="21"/>
-      <c r="L73" s="22"/>
+      <c r="A73" s="12"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="15"/>
+      <c r="H73" s="15"/>
+      <c r="I73" s="15"/>
+      <c r="J73" s="16"/>
+      <c r="K73" s="26"/>
+      <c r="L73" s="27"/>
     </row>
     <row r="74" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A74" s="11"/>
-      <c r="B74" s="12"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14"/>
-      <c r="E74" s="14"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="14"/>
-      <c r="H74" s="14"/>
-      <c r="I74" s="14"/>
-      <c r="J74" s="15"/>
-      <c r="K74" s="21"/>
-      <c r="L74" s="22"/>
+      <c r="A74" s="12"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
+      <c r="H74" s="15"/>
+      <c r="I74" s="15"/>
+      <c r="J74" s="16"/>
+      <c r="K74" s="26"/>
+      <c r="L74" s="27"/>
     </row>
     <row r="75" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A75" s="11"/>
-      <c r="B75" s="12"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="14"/>
-      <c r="E75" s="14"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="14"/>
-      <c r="H75" s="14"/>
-      <c r="I75" s="14"/>
-      <c r="J75" s="15"/>
-      <c r="K75" s="21"/>
-      <c r="L75" s="22"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="15"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="15"/>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="26"/>
+      <c r="L75" s="27"/>
     </row>
     <row r="76" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A76" s="11"/>
-      <c r="B76" s="12"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="14"/>
-      <c r="E76" s="14"/>
-      <c r="F76" s="14"/>
-      <c r="G76" s="14"/>
-      <c r="H76" s="14"/>
-      <c r="I76" s="14"/>
-      <c r="J76" s="15"/>
-      <c r="K76" s="21"/>
-      <c r="L76" s="22"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="15"/>
+      <c r="E76" s="15"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
+      <c r="H76" s="15"/>
+      <c r="I76" s="15"/>
+      <c r="J76" s="16"/>
+      <c r="K76" s="26"/>
+      <c r="L76" s="27"/>
     </row>
     <row r="77" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A77" s="11"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="14"/>
-      <c r="E77" s="14"/>
-      <c r="F77" s="14"/>
-      <c r="G77" s="14"/>
-      <c r="H77" s="14"/>
-      <c r="I77" s="14"/>
-      <c r="J77" s="15"/>
-      <c r="K77" s="21"/>
-      <c r="L77" s="22"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="15"/>
+      <c r="E77" s="15"/>
+      <c r="F77" s="15"/>
+      <c r="G77" s="15"/>
+      <c r="H77" s="15"/>
+      <c r="I77" s="15"/>
+      <c r="J77" s="16"/>
+      <c r="K77" s="26"/>
+      <c r="L77" s="27"/>
     </row>
     <row r="78" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A78" s="11"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14"/>
-      <c r="E78" s="14"/>
-      <c r="F78" s="14"/>
-      <c r="G78" s="14"/>
-      <c r="H78" s="14"/>
-      <c r="I78" s="14"/>
-      <c r="J78" s="15"/>
-      <c r="K78" s="21"/>
-      <c r="L78" s="22"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="15"/>
+      <c r="E78" s="15"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
+      <c r="H78" s="15"/>
+      <c r="I78" s="15"/>
+      <c r="J78" s="16"/>
+      <c r="K78" s="26"/>
+      <c r="L78" s="27"/>
     </row>
     <row r="79" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A79" s="11"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14"/>
-      <c r="E79" s="14"/>
-      <c r="F79" s="14"/>
-      <c r="G79" s="14"/>
-      <c r="H79" s="14"/>
-      <c r="I79" s="14"/>
-      <c r="J79" s="15"/>
-      <c r="K79" s="21"/>
-      <c r="L79" s="22"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="13"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+      <c r="F79" s="15"/>
+      <c r="G79" s="15"/>
+      <c r="H79" s="15"/>
+      <c r="I79" s="15"/>
+      <c r="J79" s="16"/>
+      <c r="K79" s="26"/>
+      <c r="L79" s="27"/>
     </row>
     <row r="80" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A80" s="11"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="14"/>
-      <c r="E80" s="14"/>
-      <c r="F80" s="14"/>
-      <c r="G80" s="14"/>
-      <c r="H80" s="14"/>
-      <c r="I80" s="14"/>
-      <c r="J80" s="15"/>
-      <c r="K80" s="21"/>
-      <c r="L80" s="22"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="13"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
+      <c r="H80" s="15"/>
+      <c r="I80" s="15"/>
+      <c r="J80" s="16"/>
+      <c r="K80" s="26"/>
+      <c r="L80" s="27"/>
     </row>
     <row r="81" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A81" s="11"/>
-      <c r="B81" s="12"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14"/>
-      <c r="E81" s="14"/>
-      <c r="F81" s="14"/>
-      <c r="G81" s="14"/>
-      <c r="H81" s="14"/>
-      <c r="I81" s="14"/>
-      <c r="J81" s="15"/>
-      <c r="K81" s="21"/>
-      <c r="L81" s="22"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="13"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="15"/>
+      <c r="E81" s="15"/>
+      <c r="F81" s="15"/>
+      <c r="G81" s="15"/>
+      <c r="H81" s="15"/>
+      <c r="I81" s="15"/>
+      <c r="J81" s="16"/>
+      <c r="K81" s="26"/>
+      <c r="L81" s="27"/>
     </row>
     <row r="82" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A82" s="11"/>
-      <c r="B82" s="12"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="14"/>
-      <c r="E82" s="14"/>
-      <c r="F82" s="14"/>
-      <c r="G82" s="14"/>
-      <c r="H82" s="14"/>
-      <c r="I82" s="14"/>
-      <c r="J82" s="15"/>
-      <c r="K82" s="21"/>
-      <c r="L82" s="22"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="13"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="15"/>
+      <c r="E82" s="15"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
+      <c r="H82" s="15"/>
+      <c r="I82" s="15"/>
+      <c r="J82" s="16"/>
+      <c r="K82" s="26"/>
+      <c r="L82" s="27"/>
     </row>
     <row r="83" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A83" s="11"/>
-      <c r="B83" s="12"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="14"/>
-      <c r="E83" s="14"/>
-      <c r="F83" s="14"/>
-      <c r="G83" s="14"/>
-      <c r="H83" s="14"/>
-      <c r="I83" s="14"/>
-      <c r="J83" s="15"/>
-      <c r="K83" s="21"/>
-      <c r="L83" s="22"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="13"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="15"/>
+      <c r="E83" s="15"/>
+      <c r="F83" s="15"/>
+      <c r="G83" s="15"/>
+      <c r="H83" s="15"/>
+      <c r="I83" s="15"/>
+      <c r="J83" s="16"/>
+      <c r="K83" s="26"/>
+      <c r="L83" s="27"/>
     </row>
     <row r="84" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A84" s="11"/>
-      <c r="B84" s="12"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="14"/>
-      <c r="E84" s="14"/>
-      <c r="F84" s="14"/>
-      <c r="G84" s="14"/>
-      <c r="H84" s="14"/>
-      <c r="I84" s="14"/>
-      <c r="J84" s="15"/>
-      <c r="K84" s="21"/>
-      <c r="L84" s="22"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="13"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="15"/>
+      <c r="E84" s="15"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="16"/>
+      <c r="K84" s="26"/>
+      <c r="L84" s="27"/>
     </row>
     <row r="85" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A85" s="11"/>
-      <c r="B85" s="12"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="14"/>
-      <c r="E85" s="14"/>
-      <c r="F85" s="14"/>
-      <c r="G85" s="14"/>
-      <c r="H85" s="14"/>
-      <c r="I85" s="14"/>
-      <c r="J85" s="15"/>
-      <c r="K85" s="21"/>
-      <c r="L85" s="22"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="13"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="15"/>
+      <c r="E85" s="15"/>
+      <c r="F85" s="15"/>
+      <c r="G85" s="15"/>
+      <c r="H85" s="15"/>
+      <c r="I85" s="15"/>
+      <c r="J85" s="16"/>
+      <c r="K85" s="26"/>
+      <c r="L85" s="27"/>
     </row>
     <row r="86" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A86" s="11"/>
-      <c r="B86" s="12"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="14"/>
-      <c r="E86" s="14"/>
-      <c r="F86" s="14"/>
-      <c r="G86" s="14"/>
-      <c r="H86" s="14"/>
-      <c r="I86" s="14"/>
-      <c r="J86" s="15"/>
-      <c r="K86" s="21"/>
-      <c r="L86" s="22"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="13"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="15"/>
+      <c r="E86" s="15"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
+      <c r="H86" s="15"/>
+      <c r="I86" s="15"/>
+      <c r="J86" s="16"/>
+      <c r="K86" s="26"/>
+      <c r="L86" s="27"/>
     </row>
     <row r="87" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A87" s="11"/>
-      <c r="B87" s="12"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="14"/>
-      <c r="E87" s="14"/>
-      <c r="F87" s="14"/>
-      <c r="G87" s="14"/>
-      <c r="H87" s="14"/>
-      <c r="I87" s="14"/>
-      <c r="J87" s="15"/>
-      <c r="K87" s="21"/>
-      <c r="L87" s="22"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="13"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="15"/>
+      <c r="E87" s="15"/>
+      <c r="F87" s="15"/>
+      <c r="G87" s="15"/>
+      <c r="H87" s="15"/>
+      <c r="I87" s="15"/>
+      <c r="J87" s="16"/>
+      <c r="K87" s="26"/>
+      <c r="L87" s="27"/>
     </row>
     <row r="88" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A88" s="11"/>
-      <c r="B88" s="12"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="14"/>
-      <c r="E88" s="14"/>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="21"/>
-      <c r="L88" s="22"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="13"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="15"/>
+      <c r="E88" s="15"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
+      <c r="H88" s="15"/>
+      <c r="I88" s="15"/>
+      <c r="J88" s="16"/>
+      <c r="K88" s="26"/>
+      <c r="L88" s="27"/>
     </row>
     <row r="89" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A89" s="11"/>
-      <c r="B89" s="12"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14"/>
-      <c r="E89" s="14"/>
-      <c r="F89" s="14"/>
-      <c r="G89" s="14"/>
-      <c r="H89" s="14"/>
-      <c r="I89" s="14"/>
-      <c r="J89" s="15"/>
-      <c r="K89" s="21"/>
-      <c r="L89" s="22"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="13"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="15"/>
+      <c r="G89" s="15"/>
+      <c r="H89" s="15"/>
+      <c r="I89" s="15"/>
+      <c r="J89" s="16"/>
+      <c r="K89" s="26"/>
+      <c r="L89" s="27"/>
     </row>
     <row r="90" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A90" s="11"/>
-      <c r="B90" s="12"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="14"/>
-      <c r="E90" s="14"/>
-      <c r="F90" s="14"/>
-      <c r="G90" s="14"/>
-      <c r="H90" s="14"/>
-      <c r="I90" s="14"/>
-      <c r="J90" s="15"/>
-      <c r="K90" s="21"/>
-      <c r="L90" s="22"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="13"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="15"/>
+      <c r="E90" s="15"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
+      <c r="H90" s="15"/>
+      <c r="I90" s="15"/>
+      <c r="J90" s="16"/>
+      <c r="K90" s="26"/>
+      <c r="L90" s="27"/>
     </row>
     <row r="91" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A91" s="11"/>
-      <c r="B91" s="12"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14"/>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="15"/>
-      <c r="K91" s="21"/>
-      <c r="L91" s="22"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="13"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
+      <c r="G91" s="15"/>
+      <c r="H91" s="15"/>
+      <c r="I91" s="15"/>
+      <c r="J91" s="16"/>
+      <c r="K91" s="26"/>
+      <c r="L91" s="27"/>
     </row>
     <row r="92" s="2" customFormat="1" ht="23" customHeight="1" spans="1:12">
-      <c r="A92" s="11"/>
-      <c r="B92" s="12"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14"/>
-      <c r="E92" s="14"/>
-      <c r="F92" s="14"/>
-      <c r="G92" s="14"/>
-      <c r="H92" s="14"/>
-      <c r="I92" s="14"/>
-      <c r="J92" s="15"/>
-      <c r="K92" s="21"/>
-      <c r="L92" s="22"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="13"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
+      <c r="H92" s="15"/>
+      <c r="I92" s="15"/>
+      <c r="J92" s="16"/>
+      <c r="K92" s="26"/>
+      <c r="L92" s="27"/>
     </row>
     <row r="93" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A93" s="11"/>
-      <c r="B93" s="12"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
-      <c r="F93" s="14"/>
-      <c r="G93" s="14"/>
-      <c r="H93" s="14"/>
-      <c r="I93" s="14"/>
-      <c r="J93" s="15"/>
-      <c r="K93" s="21"/>
-      <c r="L93" s="22"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="13"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="15"/>
+      <c r="E93" s="15"/>
+      <c r="F93" s="15"/>
+      <c r="G93" s="15"/>
+      <c r="H93" s="15"/>
+      <c r="I93" s="15"/>
+      <c r="J93" s="16"/>
+      <c r="K93" s="26"/>
+      <c r="L93" s="27"/>
     </row>
     <row r="94" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A94" s="11"/>
-      <c r="B94" s="12"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="14"/>
-      <c r="E94" s="14"/>
-      <c r="F94" s="14"/>
-      <c r="G94" s="14"/>
-      <c r="H94" s="14"/>
-      <c r="I94" s="14"/>
-      <c r="J94" s="15"/>
-      <c r="K94" s="21"/>
-      <c r="L94" s="22"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="13"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="15"/>
+      <c r="E94" s="15"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
+      <c r="H94" s="15"/>
+      <c r="I94" s="15"/>
+      <c r="J94" s="16"/>
+      <c r="K94" s="26"/>
+      <c r="L94" s="27"/>
     </row>
     <row r="95" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A95" s="11"/>
-      <c r="B95" s="12"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="14"/>
-      <c r="E95" s="14"/>
-      <c r="F95" s="14"/>
-      <c r="G95" s="14"/>
-      <c r="H95" s="14"/>
-      <c r="I95" s="14"/>
-      <c r="J95" s="15"/>
-      <c r="K95" s="21"/>
-      <c r="L95" s="22"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="13"/>
+      <c r="C95" s="14"/>
+      <c r="D95" s="15"/>
+      <c r="E95" s="15"/>
+      <c r="F95" s="15"/>
+      <c r="G95" s="15"/>
+      <c r="H95" s="15"/>
+      <c r="I95" s="15"/>
+      <c r="J95" s="16"/>
+      <c r="K95" s="26"/>
+      <c r="L95" s="27"/>
     </row>
     <row r="96" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A96" s="11"/>
-      <c r="B96" s="12"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="14"/>
-      <c r="E96" s="14"/>
-      <c r="F96" s="14"/>
-      <c r="G96" s="14"/>
-      <c r="H96" s="14"/>
-      <c r="I96" s="14"/>
-      <c r="J96" s="15"/>
-      <c r="K96" s="21"/>
-      <c r="L96" s="22"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="13"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="15"/>
+      <c r="E96" s="15"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
+      <c r="H96" s="15"/>
+      <c r="I96" s="15"/>
+      <c r="J96" s="16"/>
+      <c r="K96" s="26"/>
+      <c r="L96" s="27"/>
     </row>
     <row r="97" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A97" s="11"/>
-      <c r="B97" s="12"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="14"/>
-      <c r="E97" s="14"/>
-      <c r="F97" s="14"/>
-      <c r="G97" s="14"/>
-      <c r="H97" s="14"/>
-      <c r="I97" s="14"/>
-      <c r="J97" s="15"/>
-      <c r="K97" s="21"/>
-      <c r="L97" s="22"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="13"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="15"/>
+      <c r="E97" s="15"/>
+      <c r="F97" s="15"/>
+      <c r="G97" s="15"/>
+      <c r="H97" s="15"/>
+      <c r="I97" s="15"/>
+      <c r="J97" s="16"/>
+      <c r="K97" s="26"/>
+      <c r="L97" s="27"/>
     </row>
     <row r="98" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A98" s="11"/>
-      <c r="B98" s="12"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14"/>
-      <c r="E98" s="14"/>
-      <c r="F98" s="14"/>
-      <c r="G98" s="14"/>
-      <c r="H98" s="14"/>
-      <c r="I98" s="14"/>
-      <c r="J98" s="15"/>
-      <c r="K98" s="21"/>
-      <c r="L98" s="22"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="13"/>
+      <c r="C98" s="14"/>
+      <c r="D98" s="15"/>
+      <c r="E98" s="15"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
+      <c r="H98" s="15"/>
+      <c r="I98" s="15"/>
+      <c r="J98" s="16"/>
+      <c r="K98" s="26"/>
+      <c r="L98" s="27"/>
     </row>
     <row r="99" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A99" s="11"/>
-      <c r="B99" s="12"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14"/>
-      <c r="E99" s="14"/>
-      <c r="F99" s="14"/>
-      <c r="G99" s="14"/>
-      <c r="H99" s="14"/>
-      <c r="I99" s="14"/>
-      <c r="J99" s="15"/>
-      <c r="K99" s="21"/>
-      <c r="L99" s="22"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="13"/>
+      <c r="C99" s="14"/>
+      <c r="D99" s="15"/>
+      <c r="E99" s="15"/>
+      <c r="F99" s="15"/>
+      <c r="G99" s="15"/>
+      <c r="H99" s="15"/>
+      <c r="I99" s="15"/>
+      <c r="J99" s="16"/>
+      <c r="K99" s="26"/>
+      <c r="L99" s="27"/>
     </row>
     <row r="100" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A100" s="11"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="14"/>
-      <c r="E100" s="14"/>
-      <c r="F100" s="14"/>
-      <c r="G100" s="14"/>
-      <c r="H100" s="14"/>
-      <c r="I100" s="14"/>
-      <c r="J100" s="15"/>
-      <c r="K100" s="21"/>
-      <c r="L100" s="22"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="13"/>
+      <c r="C100" s="14"/>
+      <c r="D100" s="15"/>
+      <c r="E100" s="15"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
+      <c r="H100" s="15"/>
+      <c r="I100" s="15"/>
+      <c r="J100" s="16"/>
+      <c r="K100" s="26"/>
+      <c r="L100" s="27"/>
     </row>
     <row r="101" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A101" s="11"/>
-      <c r="B101" s="12"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="14"/>
-      <c r="E101" s="14"/>
-      <c r="F101" s="14"/>
-      <c r="G101" s="14"/>
-      <c r="H101" s="14"/>
-      <c r="I101" s="14"/>
-      <c r="J101" s="15"/>
-      <c r="K101" s="21"/>
-      <c r="L101" s="22"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="13"/>
+      <c r="C101" s="14"/>
+      <c r="D101" s="15"/>
+      <c r="E101" s="15"/>
+      <c r="F101" s="15"/>
+      <c r="G101" s="15"/>
+      <c r="H101" s="15"/>
+      <c r="I101" s="15"/>
+      <c r="J101" s="16"/>
+      <c r="K101" s="26"/>
+      <c r="L101" s="27"/>
     </row>
     <row r="102" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A102" s="11"/>
-      <c r="B102" s="12"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="14"/>
-      <c r="E102" s="14"/>
-      <c r="F102" s="14"/>
-      <c r="G102" s="14"/>
-      <c r="H102" s="14"/>
-      <c r="I102" s="14"/>
-      <c r="J102" s="15"/>
-      <c r="K102" s="21"/>
-      <c r="L102" s="22"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="13"/>
+      <c r="C102" s="14"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
+      <c r="H102" s="15"/>
+      <c r="I102" s="15"/>
+      <c r="J102" s="16"/>
+      <c r="K102" s="26"/>
+      <c r="L102" s="27"/>
     </row>
     <row r="103" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A103" s="11"/>
-      <c r="B103" s="12"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="14"/>
-      <c r="E103" s="14"/>
-      <c r="F103" s="14"/>
-      <c r="G103" s="14"/>
-      <c r="H103" s="14"/>
-      <c r="I103" s="14"/>
-      <c r="J103" s="15"/>
-      <c r="K103" s="21"/>
-      <c r="L103" s="22"/>
+      <c r="A103" s="12"/>
+      <c r="B103" s="13"/>
+      <c r="C103" s="14"/>
+      <c r="D103" s="15"/>
+      <c r="E103" s="15"/>
+      <c r="F103" s="15"/>
+      <c r="G103" s="15"/>
+      <c r="H103" s="15"/>
+      <c r="I103" s="15"/>
+      <c r="J103" s="16"/>
+      <c r="K103" s="26"/>
+      <c r="L103" s="27"/>
     </row>
     <row r="104" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A104" s="11"/>
-      <c r="B104" s="12"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="14"/>
-      <c r="E104" s="14"/>
-      <c r="F104" s="14"/>
-      <c r="G104" s="14"/>
-      <c r="H104" s="14"/>
-      <c r="I104" s="14"/>
-      <c r="J104" s="15"/>
-      <c r="K104" s="21"/>
-      <c r="L104" s="22"/>
+      <c r="A104" s="12"/>
+      <c r="B104" s="13"/>
+      <c r="C104" s="14"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
+      <c r="H104" s="15"/>
+      <c r="I104" s="15"/>
+      <c r="J104" s="16"/>
+      <c r="K104" s="26"/>
+      <c r="L104" s="27"/>
     </row>
     <row r="105" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A105" s="11"/>
-      <c r="B105" s="12"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="14"/>
-      <c r="E105" s="14"/>
-      <c r="F105" s="14"/>
-      <c r="G105" s="14"/>
-      <c r="H105" s="14"/>
-      <c r="I105" s="14"/>
-      <c r="J105" s="15"/>
-      <c r="K105" s="21"/>
-      <c r="L105" s="22"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="13"/>
+      <c r="C105" s="14"/>
+      <c r="D105" s="15"/>
+      <c r="E105" s="15"/>
+      <c r="F105" s="15"/>
+      <c r="G105" s="15"/>
+      <c r="H105" s="15"/>
+      <c r="I105" s="15"/>
+      <c r="J105" s="16"/>
+      <c r="K105" s="26"/>
+      <c r="L105" s="27"/>
     </row>
     <row r="106" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A106" s="11"/>
-      <c r="B106" s="12"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="14"/>
-      <c r="E106" s="14"/>
-      <c r="F106" s="14"/>
-      <c r="G106" s="14"/>
-      <c r="H106" s="14"/>
-      <c r="I106" s="14"/>
-      <c r="J106" s="15"/>
-      <c r="K106" s="21"/>
-      <c r="L106" s="22"/>
+      <c r="A106" s="12"/>
+      <c r="B106" s="13"/>
+      <c r="C106" s="14"/>
+      <c r="D106" s="15"/>
+      <c r="E106" s="15"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
+      <c r="H106" s="15"/>
+      <c r="I106" s="15"/>
+      <c r="J106" s="16"/>
+      <c r="K106" s="26"/>
+      <c r="L106" s="27"/>
     </row>
     <row r="107" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A107" s="11"/>
-      <c r="B107" s="12"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="14"/>
-      <c r="E107" s="14"/>
-      <c r="F107" s="14"/>
-      <c r="G107" s="14"/>
-      <c r="H107" s="14"/>
-      <c r="I107" s="14"/>
-      <c r="J107" s="15"/>
-      <c r="K107" s="21"/>
-      <c r="L107" s="22"/>
+      <c r="A107" s="12"/>
+      <c r="B107" s="13"/>
+      <c r="C107" s="14"/>
+      <c r="D107" s="15"/>
+      <c r="E107" s="15"/>
+      <c r="F107" s="15"/>
+      <c r="G107" s="15"/>
+      <c r="H107" s="15"/>
+      <c r="I107" s="15"/>
+      <c r="J107" s="16"/>
+      <c r="K107" s="26"/>
+      <c r="L107" s="27"/>
     </row>
     <row r="108" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A108" s="11"/>
-      <c r="B108" s="12"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
-      <c r="F108" s="14"/>
-      <c r="G108" s="14"/>
-      <c r="H108" s="14"/>
-      <c r="I108" s="14"/>
-      <c r="J108" s="15"/>
-      <c r="K108" s="21"/>
-      <c r="L108" s="22"/>
+      <c r="A108" s="12"/>
+      <c r="B108" s="13"/>
+      <c r="C108" s="14"/>
+      <c r="D108" s="15"/>
+      <c r="E108" s="15"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
+      <c r="H108" s="15"/>
+      <c r="I108" s="15"/>
+      <c r="J108" s="16"/>
+      <c r="K108" s="26"/>
+      <c r="L108" s="27"/>
     </row>
     <row r="109" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A109" s="11"/>
-      <c r="B109" s="12"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="14"/>
-      <c r="E109" s="14"/>
-      <c r="F109" s="14"/>
-      <c r="G109" s="14"/>
-      <c r="H109" s="14"/>
-      <c r="I109" s="14"/>
-      <c r="J109" s="15"/>
-      <c r="K109" s="21"/>
-      <c r="L109" s="22"/>
+      <c r="A109" s="12"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="14"/>
+      <c r="D109" s="15"/>
+      <c r="E109" s="15"/>
+      <c r="F109" s="15"/>
+      <c r="G109" s="15"/>
+      <c r="H109" s="15"/>
+      <c r="I109" s="15"/>
+      <c r="J109" s="16"/>
+      <c r="K109" s="26"/>
+      <c r="L109" s="27"/>
     </row>
     <row r="110" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A110" s="11"/>
-      <c r="B110" s="12"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="14"/>
-      <c r="E110" s="14"/>
-      <c r="F110" s="14"/>
-      <c r="G110" s="14"/>
-      <c r="H110" s="14"/>
-      <c r="I110" s="14"/>
-      <c r="J110" s="15"/>
-      <c r="K110" s="21"/>
-      <c r="L110" s="22"/>
+      <c r="A110" s="12"/>
+      <c r="B110" s="13"/>
+      <c r="C110" s="14"/>
+      <c r="D110" s="15"/>
+      <c r="E110" s="15"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
+      <c r="H110" s="15"/>
+      <c r="I110" s="15"/>
+      <c r="J110" s="16"/>
+      <c r="K110" s="26"/>
+      <c r="L110" s="27"/>
     </row>
     <row r="111" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A111" s="11"/>
-      <c r="B111" s="12"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="14"/>
-      <c r="E111" s="14"/>
-      <c r="F111" s="14"/>
-      <c r="G111" s="14"/>
-      <c r="H111" s="14"/>
-      <c r="I111" s="14"/>
-      <c r="J111" s="15"/>
-      <c r="K111" s="21"/>
-      <c r="L111" s="22"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="13"/>
+      <c r="C111" s="14"/>
+      <c r="D111" s="15"/>
+      <c r="E111" s="15"/>
+      <c r="F111" s="15"/>
+      <c r="G111" s="15"/>
+      <c r="H111" s="15"/>
+      <c r="I111" s="15"/>
+      <c r="J111" s="16"/>
+      <c r="K111" s="26"/>
+      <c r="L111" s="27"/>
     </row>
     <row r="112" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A112" s="11"/>
-      <c r="B112" s="12"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="14"/>
-      <c r="E112" s="14"/>
-      <c r="F112" s="14"/>
-      <c r="G112" s="14"/>
-      <c r="H112" s="14"/>
-      <c r="I112" s="14"/>
-      <c r="J112" s="15"/>
-      <c r="K112" s="21"/>
-      <c r="L112" s="22"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="13"/>
+      <c r="C112" s="14"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
+      <c r="H112" s="15"/>
+      <c r="I112" s="15"/>
+      <c r="J112" s="16"/>
+      <c r="K112" s="26"/>
+      <c r="L112" s="27"/>
     </row>
     <row r="113" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A113" s="11"/>
-      <c r="B113" s="12"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="14"/>
-      <c r="E113" s="14"/>
-      <c r="F113" s="14"/>
-      <c r="G113" s="14"/>
-      <c r="H113" s="14"/>
-      <c r="I113" s="14"/>
-      <c r="J113" s="15"/>
-      <c r="K113" s="21"/>
-      <c r="L113" s="22"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="13"/>
+      <c r="C113" s="14"/>
+      <c r="D113" s="15"/>
+      <c r="E113" s="15"/>
+      <c r="F113" s="15"/>
+      <c r="G113" s="15"/>
+      <c r="H113" s="15"/>
+      <c r="I113" s="15"/>
+      <c r="J113" s="16"/>
+      <c r="K113" s="26"/>
+      <c r="L113" s="27"/>
     </row>
     <row r="114" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A114" s="11"/>
-      <c r="B114" s="12"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="14"/>
-      <c r="E114" s="14"/>
-      <c r="F114" s="14"/>
-      <c r="G114" s="14"/>
-      <c r="H114" s="14"/>
-      <c r="I114" s="14"/>
-      <c r="J114" s="15"/>
-      <c r="K114" s="21"/>
-      <c r="L114" s="22"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="13"/>
+      <c r="C114" s="14"/>
+      <c r="D114" s="15"/>
+      <c r="E114" s="15"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
+      <c r="H114" s="15"/>
+      <c r="I114" s="15"/>
+      <c r="J114" s="16"/>
+      <c r="K114" s="26"/>
+      <c r="L114" s="27"/>
     </row>
     <row r="115" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A115" s="11"/>
-      <c r="B115" s="12"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="14"/>
-      <c r="E115" s="14"/>
-      <c r="F115" s="14"/>
-      <c r="G115" s="14"/>
-      <c r="H115" s="14"/>
-      <c r="I115" s="14"/>
-      <c r="J115" s="15"/>
-      <c r="K115" s="21"/>
-      <c r="L115" s="22"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="13"/>
+      <c r="C115" s="14"/>
+      <c r="D115" s="15"/>
+      <c r="E115" s="15"/>
+      <c r="F115" s="15"/>
+      <c r="G115" s="15"/>
+      <c r="H115" s="15"/>
+      <c r="I115" s="15"/>
+      <c r="J115" s="16"/>
+      <c r="K115" s="26"/>
+      <c r="L115" s="27"/>
     </row>
     <row r="116" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A116" s="11"/>
-      <c r="B116" s="12"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="14"/>
-      <c r="E116" s="14"/>
-      <c r="F116" s="14"/>
-      <c r="G116" s="14"/>
-      <c r="H116" s="14"/>
-      <c r="I116" s="14"/>
-      <c r="J116" s="15"/>
-      <c r="K116" s="21"/>
-      <c r="L116" s="22"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="13"/>
+      <c r="C116" s="14"/>
+      <c r="D116" s="15"/>
+      <c r="E116" s="15"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
+      <c r="H116" s="15"/>
+      <c r="I116" s="15"/>
+      <c r="J116" s="16"/>
+      <c r="K116" s="26"/>
+      <c r="L116" s="27"/>
     </row>
     <row r="117" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A117" s="11"/>
-      <c r="B117" s="12"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="14"/>
-      <c r="E117" s="14"/>
-      <c r="F117" s="14"/>
-      <c r="G117" s="14"/>
-      <c r="H117" s="14"/>
-      <c r="I117" s="14"/>
-      <c r="J117" s="15"/>
-      <c r="K117" s="21"/>
-      <c r="L117" s="22"/>
+      <c r="A117" s="12"/>
+      <c r="B117" s="13"/>
+      <c r="C117" s="14"/>
+      <c r="D117" s="15"/>
+      <c r="E117" s="15"/>
+      <c r="F117" s="15"/>
+      <c r="G117" s="15"/>
+      <c r="H117" s="15"/>
+      <c r="I117" s="15"/>
+      <c r="J117" s="16"/>
+      <c r="K117" s="26"/>
+      <c r="L117" s="27"/>
     </row>
     <row r="118" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A118" s="11"/>
-      <c r="B118" s="12"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="14"/>
-      <c r="E118" s="14"/>
-      <c r="F118" s="14"/>
-      <c r="G118" s="14"/>
-      <c r="H118" s="14"/>
-      <c r="I118" s="14"/>
-      <c r="J118" s="15"/>
-      <c r="K118" s="21"/>
-      <c r="L118" s="22"/>
+      <c r="A118" s="12"/>
+      <c r="B118" s="13"/>
+      <c r="C118" s="14"/>
+      <c r="D118" s="15"/>
+      <c r="E118" s="15"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
+      <c r="H118" s="15"/>
+      <c r="I118" s="15"/>
+      <c r="J118" s="16"/>
+      <c r="K118" s="26"/>
+      <c r="L118" s="27"/>
     </row>
     <row r="119" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A119" s="11"/>
-      <c r="B119" s="12"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="14"/>
-      <c r="E119" s="14"/>
-      <c r="F119" s="14"/>
-      <c r="G119" s="14"/>
-      <c r="H119" s="14"/>
-      <c r="I119" s="14"/>
-      <c r="J119" s="15"/>
-      <c r="K119" s="21"/>
-      <c r="L119" s="22"/>
+      <c r="A119" s="12"/>
+      <c r="B119" s="13"/>
+      <c r="C119" s="14"/>
+      <c r="D119" s="15"/>
+      <c r="E119" s="15"/>
+      <c r="F119" s="15"/>
+      <c r="G119" s="15"/>
+      <c r="H119" s="15"/>
+      <c r="I119" s="15"/>
+      <c r="J119" s="16"/>
+      <c r="K119" s="26"/>
+      <c r="L119" s="27"/>
     </row>
     <row r="120" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A120" s="11"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="14"/>
-      <c r="E120" s="14"/>
-      <c r="F120" s="14"/>
-      <c r="G120" s="14"/>
-      <c r="H120" s="14"/>
-      <c r="I120" s="14"/>
-      <c r="J120" s="15"/>
-      <c r="K120" s="21"/>
-      <c r="L120" s="22"/>
+      <c r="A120" s="12"/>
+      <c r="B120" s="13"/>
+      <c r="C120" s="14"/>
+      <c r="D120" s="15"/>
+      <c r="E120" s="15"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
+      <c r="H120" s="15"/>
+      <c r="I120" s="15"/>
+      <c r="J120" s="16"/>
+      <c r="K120" s="26"/>
+      <c r="L120" s="27"/>
     </row>
     <row r="121" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A121" s="11"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="14"/>
-      <c r="E121" s="14"/>
-      <c r="F121" s="14"/>
-      <c r="G121" s="14"/>
-      <c r="H121" s="14"/>
-      <c r="I121" s="14"/>
-      <c r="J121" s="15"/>
-      <c r="K121" s="21"/>
-      <c r="L121" s="22"/>
+      <c r="A121" s="12"/>
+      <c r="B121" s="13"/>
+      <c r="C121" s="14"/>
+      <c r="D121" s="15"/>
+      <c r="E121" s="15"/>
+      <c r="F121" s="15"/>
+      <c r="G121" s="15"/>
+      <c r="H121" s="15"/>
+      <c r="I121" s="15"/>
+      <c r="J121" s="16"/>
+      <c r="K121" s="26"/>
+      <c r="L121" s="27"/>
     </row>
     <row r="122" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A122" s="11"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="14"/>
-      <c r="E122" s="14"/>
-      <c r="F122" s="14"/>
-      <c r="G122" s="14"/>
-      <c r="H122" s="14"/>
-      <c r="I122" s="14"/>
-      <c r="J122" s="15"/>
-      <c r="K122" s="21"/>
-      <c r="L122" s="22"/>
+      <c r="A122" s="12"/>
+      <c r="B122" s="13"/>
+      <c r="C122" s="14"/>
+      <c r="D122" s="15"/>
+      <c r="E122" s="15"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
+      <c r="H122" s="15"/>
+      <c r="I122" s="15"/>
+      <c r="J122" s="16"/>
+      <c r="K122" s="26"/>
+      <c r="L122" s="27"/>
     </row>
     <row r="123" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A123" s="11"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="14"/>
-      <c r="E123" s="14"/>
-      <c r="F123" s="14"/>
-      <c r="G123" s="14"/>
-      <c r="H123" s="14"/>
-      <c r="I123" s="14"/>
-      <c r="J123" s="15"/>
-      <c r="K123" s="21"/>
-      <c r="L123" s="22"/>
+      <c r="A123" s="12"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="14"/>
+      <c r="D123" s="15"/>
+      <c r="E123" s="15"/>
+      <c r="F123" s="15"/>
+      <c r="G123" s="15"/>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15"/>
+      <c r="J123" s="16"/>
+      <c r="K123" s="26"/>
+      <c r="L123" s="27"/>
     </row>
     <row r="124" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A124" s="11"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="14"/>
-      <c r="E124" s="14"/>
-      <c r="F124" s="14"/>
-      <c r="G124" s="14"/>
-      <c r="H124" s="14"/>
-      <c r="I124" s="14"/>
-      <c r="J124" s="15"/>
-      <c r="K124" s="21"/>
-      <c r="L124" s="22"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="14"/>
+      <c r="D124" s="15"/>
+      <c r="E124" s="15"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
+      <c r="H124" s="15"/>
+      <c r="I124" s="15"/>
+      <c r="J124" s="16"/>
+      <c r="K124" s="26"/>
+      <c r="L124" s="27"/>
     </row>
     <row r="125" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A125" s="11"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="14"/>
-      <c r="E125" s="14"/>
-      <c r="F125" s="14"/>
-      <c r="G125" s="14"/>
-      <c r="H125" s="14"/>
-      <c r="I125" s="14"/>
-      <c r="J125" s="15"/>
-      <c r="K125" s="21"/>
-      <c r="L125" s="22"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="14"/>
+      <c r="D125" s="15"/>
+      <c r="E125" s="15"/>
+      <c r="F125" s="15"/>
+      <c r="G125" s="15"/>
+      <c r="H125" s="15"/>
+      <c r="I125" s="15"/>
+      <c r="J125" s="16"/>
+      <c r="K125" s="26"/>
+      <c r="L125" s="27"/>
     </row>
     <row r="126" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A126" s="11"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="14"/>
-      <c r="E126" s="14"/>
-      <c r="F126" s="14"/>
-      <c r="G126" s="14"/>
-      <c r="H126" s="14"/>
-      <c r="I126" s="14"/>
-      <c r="J126" s="15"/>
-      <c r="K126" s="21"/>
-      <c r="L126" s="22"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="14"/>
+      <c r="D126" s="15"/>
+      <c r="E126" s="15"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
+      <c r="H126" s="15"/>
+      <c r="I126" s="15"/>
+      <c r="J126" s="16"/>
+      <c r="K126" s="26"/>
+      <c r="L126" s="27"/>
     </row>
     <row r="127" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A127" s="11"/>
-      <c r="B127" s="12"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="14"/>
-      <c r="E127" s="14"/>
-      <c r="F127" s="14"/>
-      <c r="G127" s="14"/>
-      <c r="H127" s="14"/>
-      <c r="I127" s="14"/>
-      <c r="J127" s="15"/>
-      <c r="K127" s="21"/>
-      <c r="L127" s="22"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="14"/>
+      <c r="D127" s="15"/>
+      <c r="E127" s="15"/>
+      <c r="F127" s="15"/>
+      <c r="G127" s="15"/>
+      <c r="H127" s="15"/>
+      <c r="I127" s="15"/>
+      <c r="J127" s="16"/>
+      <c r="K127" s="26"/>
+      <c r="L127" s="27"/>
     </row>
     <row r="128" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A128" s="11"/>
-      <c r="B128" s="12"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="14"/>
-      <c r="E128" s="14"/>
-      <c r="F128" s="14"/>
-      <c r="G128" s="14"/>
-      <c r="H128" s="14"/>
-      <c r="I128" s="14"/>
-      <c r="J128" s="15"/>
-      <c r="K128" s="21"/>
-      <c r="L128" s="22"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="13"/>
+      <c r="C128" s="14"/>
+      <c r="D128" s="15"/>
+      <c r="E128" s="15"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
+      <c r="H128" s="15"/>
+      <c r="I128" s="15"/>
+      <c r="J128" s="16"/>
+      <c r="K128" s="26"/>
+      <c r="L128" s="27"/>
     </row>
     <row r="129" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A129" s="11"/>
-      <c r="B129" s="12"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="14"/>
-      <c r="E129" s="14"/>
-      <c r="F129" s="14"/>
-      <c r="G129" s="14"/>
-      <c r="H129" s="14"/>
-      <c r="I129" s="14"/>
-      <c r="J129" s="15"/>
-      <c r="K129" s="21"/>
-      <c r="L129" s="22"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="13"/>
+      <c r="C129" s="14"/>
+      <c r="D129" s="15"/>
+      <c r="E129" s="15"/>
+      <c r="F129" s="15"/>
+      <c r="G129" s="15"/>
+      <c r="H129" s="15"/>
+      <c r="I129" s="15"/>
+      <c r="J129" s="16"/>
+      <c r="K129" s="26"/>
+      <c r="L129" s="27"/>
     </row>
     <row r="130" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A130" s="11"/>
-      <c r="B130" s="12"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="14"/>
-      <c r="E130" s="14"/>
-      <c r="F130" s="14"/>
-      <c r="G130" s="14"/>
-      <c r="H130" s="14"/>
-      <c r="I130" s="14"/>
-      <c r="J130" s="15"/>
-      <c r="K130" s="21"/>
-      <c r="L130" s="22"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="13"/>
+      <c r="C130" s="14"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="15"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
+      <c r="H130" s="15"/>
+      <c r="I130" s="15"/>
+      <c r="J130" s="16"/>
+      <c r="K130" s="26"/>
+      <c r="L130" s="27"/>
     </row>
     <row r="131" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A131" s="11"/>
-      <c r="B131" s="12"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c r="G131" s="14"/>
-      <c r="H131" s="14"/>
-      <c r="I131" s="14"/>
-      <c r="J131" s="15"/>
-      <c r="K131" s="21"/>
-      <c r="L131" s="22"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="13"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="15"/>
+      <c r="E131" s="15"/>
+      <c r="F131" s="15"/>
+      <c r="G131" s="15"/>
+      <c r="H131" s="15"/>
+      <c r="I131" s="15"/>
+      <c r="J131" s="16"/>
+      <c r="K131" s="26"/>
+      <c r="L131" s="27"/>
     </row>
     <row r="132" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A132" s="11"/>
-      <c r="B132" s="12"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="14"/>
-      <c r="E132" s="14"/>
-      <c r="F132" s="14"/>
-      <c r="G132" s="14"/>
-      <c r="H132" s="14"/>
-      <c r="I132" s="14"/>
-      <c r="J132" s="15"/>
-      <c r="K132" s="21"/>
-      <c r="L132" s="22"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="13"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c r="K132" s="26"/>
+      <c r="L132" s="27"/>
     </row>
     <row r="133" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A133" s="11"/>
-      <c r="B133" s="12"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="14"/>
-      <c r="E133" s="14"/>
-      <c r="F133" s="14"/>
-      <c r="G133" s="14"/>
-      <c r="H133" s="14"/>
-      <c r="I133" s="14"/>
-      <c r="J133" s="15"/>
-      <c r="K133" s="21"/>
-      <c r="L133" s="22"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="13"/>
+      <c r="C133" s="14"/>
+      <c r="D133" s="15"/>
+      <c r="E133" s="15"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="15"/>
+      <c r="H133" s="15"/>
+      <c r="I133" s="15"/>
+      <c r="J133" s="16"/>
+      <c r="K133" s="26"/>
+      <c r="L133" s="27"/>
     </row>
     <row r="134" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A134" s="11"/>
-      <c r="B134" s="12"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="14"/>
-      <c r="E134" s="14"/>
-      <c r="F134" s="14"/>
-      <c r="G134" s="14"/>
-      <c r="H134" s="14"/>
-      <c r="I134" s="14"/>
-      <c r="J134" s="15"/>
-      <c r="K134" s="21"/>
-      <c r="L134" s="22"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="13"/>
+      <c r="C134" s="14"/>
+      <c r="D134" s="15"/>
+      <c r="E134" s="15"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
+      <c r="H134" s="15"/>
+      <c r="I134" s="15"/>
+      <c r="J134" s="16"/>
+      <c r="K134" s="26"/>
+      <c r="L134" s="27"/>
     </row>
     <row r="135" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A135" s="11"/>
-      <c r="B135" s="12"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="14"/>
-      <c r="E135" s="14"/>
-      <c r="F135" s="14"/>
-      <c r="G135" s="14"/>
-      <c r="H135" s="14"/>
-      <c r="I135" s="14"/>
-      <c r="J135" s="15"/>
-      <c r="K135" s="21"/>
-      <c r="L135" s="22"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="13"/>
+      <c r="C135" s="14"/>
+      <c r="D135" s="15"/>
+      <c r="E135" s="15"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="15"/>
+      <c r="H135" s="15"/>
+      <c r="I135" s="15"/>
+      <c r="J135" s="16"/>
+      <c r="K135" s="26"/>
+      <c r="L135" s="27"/>
     </row>
     <row r="136" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A136" s="11"/>
-      <c r="B136" s="12"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="14"/>
-      <c r="E136" s="14"/>
-      <c r="F136" s="14"/>
-      <c r="G136" s="14"/>
-      <c r="H136" s="14"/>
-      <c r="I136" s="14"/>
-      <c r="J136" s="15"/>
-      <c r="K136" s="21"/>
-      <c r="L136" s="22"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="13"/>
+      <c r="C136" s="14"/>
+      <c r="D136" s="15"/>
+      <c r="E136" s="15"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
+      <c r="H136" s="15"/>
+      <c r="I136" s="15"/>
+      <c r="J136" s="16"/>
+      <c r="K136" s="26"/>
+      <c r="L136" s="27"/>
     </row>
     <row r="137" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A137" s="11"/>
-      <c r="B137" s="12"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="14"/>
-      <c r="E137" s="14"/>
-      <c r="F137" s="14"/>
-      <c r="G137" s="14"/>
-      <c r="H137" s="14"/>
-      <c r="I137" s="14"/>
-      <c r="J137" s="15"/>
-      <c r="K137" s="21"/>
-      <c r="L137" s="22"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="13"/>
+      <c r="C137" s="14"/>
+      <c r="D137" s="15"/>
+      <c r="E137" s="15"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="15"/>
+      <c r="H137" s="15"/>
+      <c r="I137" s="15"/>
+      <c r="J137" s="16"/>
+      <c r="K137" s="26"/>
+      <c r="L137" s="27"/>
     </row>
     <row r="138" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A138" s="11"/>
-      <c r="B138" s="12"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="14"/>
-      <c r="E138" s="14"/>
-      <c r="F138" s="14"/>
-      <c r="G138" s="14"/>
-      <c r="H138" s="14"/>
-      <c r="I138" s="14"/>
-      <c r="J138" s="15"/>
-      <c r="K138" s="21"/>
-      <c r="L138" s="22"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="13"/>
+      <c r="C138" s="14"/>
+      <c r="D138" s="15"/>
+      <c r="E138" s="15"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
+      <c r="H138" s="15"/>
+      <c r="I138" s="15"/>
+      <c r="J138" s="16"/>
+      <c r="K138" s="26"/>
+      <c r="L138" s="27"/>
     </row>
     <row r="139" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A139" s="11"/>
-      <c r="B139" s="12"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="14"/>
-      <c r="E139" s="14"/>
-      <c r="F139" s="14"/>
-      <c r="G139" s="14"/>
-      <c r="H139" s="14"/>
-      <c r="I139" s="14"/>
-      <c r="J139" s="15"/>
-      <c r="K139" s="21"/>
-      <c r="L139" s="22"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="13"/>
+      <c r="C139" s="14"/>
+      <c r="D139" s="15"/>
+      <c r="E139" s="15"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="15"/>
+      <c r="H139" s="15"/>
+      <c r="I139" s="15"/>
+      <c r="J139" s="16"/>
+      <c r="K139" s="26"/>
+      <c r="L139" s="27"/>
     </row>
     <row r="140" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A140" s="11"/>
-      <c r="B140" s="12"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="14"/>
-      <c r="E140" s="14"/>
-      <c r="F140" s="14"/>
-      <c r="G140" s="14"/>
-      <c r="H140" s="14"/>
-      <c r="I140" s="14"/>
-      <c r="J140" s="15"/>
-      <c r="K140" s="21"/>
-      <c r="L140" s="22"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="13"/>
+      <c r="C140" s="14"/>
+      <c r="D140" s="15"/>
+      <c r="E140" s="15"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15"/>
+      <c r="J140" s="16"/>
+      <c r="K140" s="26"/>
+      <c r="L140" s="27"/>
     </row>
     <row r="141" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A141" s="11"/>
-      <c r="B141" s="12"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="14"/>
-      <c r="E141" s="14"/>
-      <c r="F141" s="14"/>
-      <c r="G141" s="14"/>
-      <c r="H141" s="14"/>
-      <c r="I141" s="14"/>
-      <c r="J141" s="15"/>
-      <c r="K141" s="21"/>
-      <c r="L141" s="22"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="13"/>
+      <c r="C141" s="14"/>
+      <c r="D141" s="15"/>
+      <c r="E141" s="15"/>
+      <c r="F141" s="15"/>
+      <c r="G141" s="15"/>
+      <c r="H141" s="15"/>
+      <c r="I141" s="15"/>
+      <c r="J141" s="16"/>
+      <c r="K141" s="26"/>
+      <c r="L141" s="27"/>
     </row>
     <row r="142" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A142" s="11"/>
-      <c r="B142" s="12"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="14"/>
-      <c r="E142" s="14"/>
-      <c r="F142" s="14"/>
-      <c r="G142" s="14"/>
-      <c r="H142" s="14"/>
-      <c r="I142" s="14"/>
-      <c r="J142" s="15"/>
-      <c r="K142" s="21"/>
-      <c r="L142" s="22"/>
+      <c r="A142" s="12"/>
+      <c r="B142" s="13"/>
+      <c r="C142" s="14"/>
+      <c r="D142" s="15"/>
+      <c r="E142" s="15"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
+      <c r="H142" s="15"/>
+      <c r="I142" s="15"/>
+      <c r="J142" s="16"/>
+      <c r="K142" s="26"/>
+      <c r="L142" s="27"/>
     </row>
     <row r="143" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A143" s="11"/>
-      <c r="B143" s="12"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="14"/>
-      <c r="E143" s="14"/>
-      <c r="F143" s="14"/>
-      <c r="G143" s="14"/>
-      <c r="H143" s="14"/>
-      <c r="I143" s="14"/>
-      <c r="J143" s="15"/>
-      <c r="K143" s="21"/>
-      <c r="L143" s="22"/>
+      <c r="A143" s="12"/>
+      <c r="B143" s="13"/>
+      <c r="C143" s="14"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="15"/>
+      <c r="F143" s="15"/>
+      <c r="G143" s="15"/>
+      <c r="H143" s="15"/>
+      <c r="I143" s="15"/>
+      <c r="J143" s="16"/>
+      <c r="K143" s="26"/>
+      <c r="L143" s="27"/>
     </row>
     <row r="144" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A144" s="11"/>
-      <c r="B144" s="12"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="14"/>
-      <c r="E144" s="14"/>
-      <c r="F144" s="14"/>
-      <c r="G144" s="14"/>
-      <c r="H144" s="14"/>
-      <c r="I144" s="14"/>
-      <c r="J144" s="15"/>
-      <c r="K144" s="21"/>
-      <c r="L144" s="22"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="13"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="15"/>
+      <c r="E144" s="15"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
+      <c r="H144" s="15"/>
+      <c r="I144" s="15"/>
+      <c r="J144" s="16"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="27"/>
     </row>
     <row r="145" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A145" s="11"/>
-      <c r="B145" s="12"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="14"/>
-      <c r="E145" s="14"/>
-      <c r="F145" s="14"/>
-      <c r="G145" s="14"/>
-      <c r="H145" s="14"/>
-      <c r="I145" s="14"/>
-      <c r="J145" s="15"/>
-      <c r="K145" s="21"/>
-      <c r="L145" s="22"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="13"/>
+      <c r="C145" s="14"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="15"/>
+      <c r="G145" s="15"/>
+      <c r="H145" s="15"/>
+      <c r="I145" s="15"/>
+      <c r="J145" s="16"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="27"/>
     </row>
     <row r="146" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A146" s="11"/>
-      <c r="B146" s="12"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="14"/>
-      <c r="E146" s="14"/>
-      <c r="F146" s="14"/>
-      <c r="G146" s="14"/>
-      <c r="H146" s="14"/>
-      <c r="I146" s="14"/>
-      <c r="J146" s="15"/>
-      <c r="K146" s="21"/>
-      <c r="L146" s="22"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="14"/>
+      <c r="D146" s="15"/>
+      <c r="E146" s="15"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
+      <c r="H146" s="15"/>
+      <c r="I146" s="15"/>
+      <c r="J146" s="16"/>
+      <c r="K146" s="26"/>
+      <c r="L146" s="27"/>
     </row>
     <row r="147" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A147" s="11"/>
-      <c r="B147" s="12"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="14"/>
-      <c r="E147" s="14"/>
-      <c r="F147" s="14"/>
-      <c r="G147" s="14"/>
-      <c r="H147" s="14"/>
-      <c r="I147" s="14"/>
-      <c r="J147" s="15"/>
-      <c r="K147" s="21"/>
-      <c r="L147" s="22"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="14"/>
+      <c r="D147" s="15"/>
+      <c r="E147" s="15"/>
+      <c r="F147" s="15"/>
+      <c r="G147" s="15"/>
+      <c r="H147" s="15"/>
+      <c r="I147" s="15"/>
+      <c r="J147" s="16"/>
+      <c r="K147" s="26"/>
+      <c r="L147" s="27"/>
     </row>
     <row r="148" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A148" s="11"/>
-      <c r="B148" s="12"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="14"/>
-      <c r="E148" s="14"/>
-      <c r="F148" s="14"/>
-      <c r="G148" s="14"/>
-      <c r="H148" s="14"/>
-      <c r="I148" s="14"/>
-      <c r="J148" s="15"/>
-      <c r="K148" s="21"/>
-      <c r="L148" s="22"/>
+      <c r="A148" s="12"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="14"/>
+      <c r="D148" s="15"/>
+      <c r="E148" s="15"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
+      <c r="H148" s="15"/>
+      <c r="I148" s="15"/>
+      <c r="J148" s="16"/>
+      <c r="K148" s="26"/>
+      <c r="L148" s="27"/>
     </row>
     <row r="149" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A149" s="11"/>
-      <c r="B149" s="12"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="14"/>
-      <c r="E149" s="14"/>
-      <c r="F149" s="14"/>
-      <c r="G149" s="14"/>
-      <c r="H149" s="14"/>
-      <c r="I149" s="14"/>
-      <c r="J149" s="15"/>
-      <c r="K149" s="21"/>
-      <c r="L149" s="22"/>
+      <c r="A149" s="12"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="14"/>
+      <c r="D149" s="15"/>
+      <c r="E149" s="15"/>
+      <c r="F149" s="15"/>
+      <c r="G149" s="15"/>
+      <c r="H149" s="15"/>
+      <c r="I149" s="15"/>
+      <c r="J149" s="16"/>
+      <c r="K149" s="26"/>
+      <c r="L149" s="27"/>
     </row>
     <row r="150" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A150" s="11"/>
-      <c r="B150" s="12"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="14"/>
-      <c r="E150" s="14"/>
-      <c r="F150" s="14"/>
-      <c r="G150" s="14"/>
-      <c r="H150" s="14"/>
-      <c r="I150" s="14"/>
-      <c r="J150" s="15"/>
-      <c r="K150" s="21"/>
-      <c r="L150" s="22"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="14"/>
+      <c r="D150" s="15"/>
+      <c r="E150" s="15"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
+      <c r="H150" s="15"/>
+      <c r="I150" s="15"/>
+      <c r="J150" s="16"/>
+      <c r="K150" s="26"/>
+      <c r="L150" s="27"/>
     </row>
     <row r="151" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A151" s="11"/>
-      <c r="B151" s="12"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="14"/>
-      <c r="E151" s="14"/>
-      <c r="F151" s="14"/>
-      <c r="G151" s="14"/>
-      <c r="H151" s="14"/>
-      <c r="I151" s="14"/>
-      <c r="J151" s="15"/>
-      <c r="K151" s="21"/>
-      <c r="L151" s="22"/>
+      <c r="A151" s="12"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="14"/>
+      <c r="D151" s="15"/>
+      <c r="E151" s="15"/>
+      <c r="F151" s="15"/>
+      <c r="G151" s="15"/>
+      <c r="H151" s="15"/>
+      <c r="I151" s="15"/>
+      <c r="J151" s="16"/>
+      <c r="K151" s="26"/>
+      <c r="L151" s="27"/>
     </row>
     <row r="152" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A152" s="11"/>
-      <c r="B152" s="12"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="14"/>
-      <c r="E152" s="14"/>
-      <c r="F152" s="14"/>
-      <c r="G152" s="14"/>
-      <c r="H152" s="14"/>
-      <c r="I152" s="14"/>
-      <c r="J152" s="15"/>
-      <c r="K152" s="21"/>
-      <c r="L152" s="22"/>
+      <c r="A152" s="12"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="14"/>
+      <c r="D152" s="15"/>
+      <c r="E152" s="15"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
+      <c r="H152" s="15"/>
+      <c r="I152" s="15"/>
+      <c r="J152" s="16"/>
+      <c r="K152" s="26"/>
+      <c r="L152" s="27"/>
     </row>
     <row r="153" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A153" s="11"/>
-      <c r="B153" s="12"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="14"/>
-      <c r="E153" s="14"/>
-      <c r="F153" s="14"/>
-      <c r="G153" s="14"/>
-      <c r="H153" s="14"/>
-      <c r="I153" s="14"/>
-      <c r="J153" s="15"/>
-      <c r="K153" s="21"/>
-      <c r="L153" s="22"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="14"/>
+      <c r="D153" s="15"/>
+      <c r="E153" s="15"/>
+      <c r="F153" s="15"/>
+      <c r="G153" s="15"/>
+      <c r="H153" s="15"/>
+      <c r="I153" s="15"/>
+      <c r="J153" s="16"/>
+      <c r="K153" s="26"/>
+      <c r="L153" s="27"/>
     </row>
     <row r="154" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A154" s="11"/>
-      <c r="B154" s="12"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="14"/>
-      <c r="E154" s="14"/>
-      <c r="F154" s="14"/>
-      <c r="G154" s="14"/>
-      <c r="H154" s="14"/>
-      <c r="I154" s="14"/>
-      <c r="J154" s="15"/>
-      <c r="K154" s="21"/>
-      <c r="L154" s="22"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="14"/>
+      <c r="D154" s="15"/>
+      <c r="E154" s="15"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
+      <c r="H154" s="15"/>
+      <c r="I154" s="15"/>
+      <c r="J154" s="16"/>
+      <c r="K154" s="26"/>
+      <c r="L154" s="27"/>
     </row>
     <row r="155" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A155" s="11"/>
-      <c r="B155" s="12"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="14"/>
-      <c r="E155" s="14"/>
-      <c r="F155" s="14"/>
-      <c r="G155" s="14"/>
-      <c r="H155" s="14"/>
-      <c r="I155" s="14"/>
-      <c r="J155" s="15"/>
-      <c r="K155" s="21"/>
-      <c r="L155" s="22"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="13"/>
+      <c r="C155" s="14"/>
+      <c r="D155" s="15"/>
+      <c r="E155" s="15"/>
+      <c r="F155" s="15"/>
+      <c r="G155" s="15"/>
+      <c r="H155" s="15"/>
+      <c r="I155" s="15"/>
+      <c r="J155" s="16"/>
+      <c r="K155" s="26"/>
+      <c r="L155" s="27"/>
     </row>
     <row r="156" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A156" s="11"/>
-      <c r="B156" s="12"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="14"/>
-      <c r="E156" s="14"/>
-      <c r="F156" s="14"/>
-      <c r="G156" s="14"/>
-      <c r="H156" s="14"/>
-      <c r="I156" s="14"/>
-      <c r="J156" s="15"/>
-      <c r="K156" s="21"/>
-      <c r="L156" s="22"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="13"/>
+      <c r="C156" s="14"/>
+      <c r="D156" s="15"/>
+      <c r="E156" s="15"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
+      <c r="H156" s="15"/>
+      <c r="I156" s="15"/>
+      <c r="J156" s="16"/>
+      <c r="K156" s="26"/>
+      <c r="L156" s="27"/>
     </row>
     <row r="157" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A157" s="11"/>
-      <c r="B157" s="12"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="14"/>
-      <c r="E157" s="14"/>
-      <c r="F157" s="14"/>
-      <c r="G157" s="14"/>
-      <c r="H157" s="14"/>
-      <c r="I157" s="14"/>
-      <c r="J157" s="15"/>
-      <c r="K157" s="21"/>
-      <c r="L157" s="22"/>
+      <c r="A157" s="12"/>
+      <c r="B157" s="13"/>
+      <c r="C157" s="14"/>
+      <c r="D157" s="15"/>
+      <c r="E157" s="15"/>
+      <c r="F157" s="15"/>
+      <c r="G157" s="15"/>
+      <c r="H157" s="15"/>
+      <c r="I157" s="15"/>
+      <c r="J157" s="16"/>
+      <c r="K157" s="26"/>
+      <c r="L157" s="27"/>
     </row>
     <row r="158" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A158" s="11"/>
-      <c r="B158" s="12"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="14"/>
-      <c r="E158" s="14"/>
-      <c r="F158" s="14"/>
-      <c r="G158" s="14"/>
-      <c r="H158" s="14"/>
-      <c r="I158" s="14"/>
-      <c r="J158" s="15"/>
-      <c r="K158" s="21"/>
-      <c r="L158" s="22"/>
+      <c r="A158" s="12"/>
+      <c r="B158" s="13"/>
+      <c r="C158" s="14"/>
+      <c r="D158" s="15"/>
+      <c r="E158" s="15"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15"/>
+      <c r="J158" s="16"/>
+      <c r="K158" s="26"/>
+      <c r="L158" s="27"/>
     </row>
     <row r="159" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A159" s="11"/>
-      <c r="B159" s="12"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="14"/>
-      <c r="E159" s="14"/>
-      <c r="F159" s="14"/>
-      <c r="G159" s="14"/>
-      <c r="H159" s="14"/>
-      <c r="I159" s="14"/>
-      <c r="J159" s="15"/>
-      <c r="K159" s="21"/>
-      <c r="L159" s="22"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="14"/>
+      <c r="D159" s="15"/>
+      <c r="E159" s="15"/>
+      <c r="F159" s="15"/>
+      <c r="G159" s="15"/>
+      <c r="H159" s="15"/>
+      <c r="I159" s="15"/>
+      <c r="J159" s="16"/>
+      <c r="K159" s="26"/>
+      <c r="L159" s="27"/>
     </row>
     <row r="160" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A160" s="11"/>
-      <c r="B160" s="12"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="14"/>
-      <c r="E160" s="14"/>
-      <c r="F160" s="14"/>
-      <c r="G160" s="14"/>
-      <c r="H160" s="14"/>
-      <c r="I160" s="14"/>
-      <c r="J160" s="15"/>
-      <c r="K160" s="21"/>
-      <c r="L160" s="22"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="14"/>
+      <c r="D160" s="15"/>
+      <c r="E160" s="15"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
+      <c r="H160" s="15"/>
+      <c r="I160" s="15"/>
+      <c r="J160" s="16"/>
+      <c r="K160" s="26"/>
+      <c r="L160" s="27"/>
     </row>
     <row r="161" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A161" s="11"/>
-      <c r="B161" s="12"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="14"/>
-      <c r="E161" s="14"/>
-      <c r="F161" s="14"/>
-      <c r="G161" s="14"/>
-      <c r="H161" s="14"/>
-      <c r="I161" s="14"/>
-      <c r="J161" s="15"/>
-      <c r="K161" s="21"/>
-      <c r="L161" s="22"/>
+      <c r="A161" s="12"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="14"/>
+      <c r="D161" s="15"/>
+      <c r="E161" s="15"/>
+      <c r="F161" s="15"/>
+      <c r="G161" s="15"/>
+      <c r="H161" s="15"/>
+      <c r="I161" s="15"/>
+      <c r="J161" s="16"/>
+      <c r="K161" s="26"/>
+      <c r="L161" s="27"/>
     </row>
     <row r="162" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A162" s="11"/>
-      <c r="B162" s="12"/>
-      <c r="C162" s="13"/>
-      <c r="D162" s="14"/>
-      <c r="E162" s="14"/>
-      <c r="F162" s="14"/>
-      <c r="G162" s="14"/>
-      <c r="H162" s="14"/>
-      <c r="I162" s="14"/>
-      <c r="J162" s="15"/>
-      <c r="K162" s="21"/>
-      <c r="L162" s="22"/>
+      <c r="A162" s="12"/>
+      <c r="B162" s="13"/>
+      <c r="C162" s="14"/>
+      <c r="D162" s="15"/>
+      <c r="E162" s="15"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
+      <c r="H162" s="15"/>
+      <c r="I162" s="15"/>
+      <c r="J162" s="16"/>
+      <c r="K162" s="26"/>
+      <c r="L162" s="27"/>
     </row>
     <row r="163" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A163" s="11"/>
-      <c r="B163" s="12"/>
-      <c r="C163" s="13"/>
-      <c r="D163" s="14"/>
-      <c r="E163" s="14"/>
-      <c r="F163" s="14"/>
-      <c r="G163" s="14"/>
-      <c r="H163" s="14"/>
-      <c r="I163" s="14"/>
-      <c r="J163" s="15"/>
-      <c r="K163" s="21"/>
-      <c r="L163" s="22"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="13"/>
+      <c r="C163" s="14"/>
+      <c r="D163" s="15"/>
+      <c r="E163" s="15"/>
+      <c r="F163" s="15"/>
+      <c r="G163" s="15"/>
+      <c r="H163" s="15"/>
+      <c r="I163" s="15"/>
+      <c r="J163" s="16"/>
+      <c r="K163" s="26"/>
+      <c r="L163" s="27"/>
     </row>
     <row r="164" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A164" s="11"/>
-      <c r="B164" s="12"/>
-      <c r="C164" s="13"/>
-      <c r="D164" s="14"/>
-      <c r="E164" s="14"/>
-      <c r="F164" s="14"/>
-      <c r="G164" s="14"/>
-      <c r="H164" s="14"/>
-      <c r="I164" s="14"/>
-      <c r="J164" s="15"/>
-      <c r="K164" s="21"/>
-      <c r="L164" s="22"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="13"/>
+      <c r="C164" s="14"/>
+      <c r="D164" s="15"/>
+      <c r="E164" s="15"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
+      <c r="H164" s="15"/>
+      <c r="I164" s="15"/>
+      <c r="J164" s="16"/>
+      <c r="K164" s="26"/>
+      <c r="L164" s="27"/>
     </row>
     <row r="165" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A165" s="11"/>
-      <c r="B165" s="12"/>
-      <c r="C165" s="13"/>
-      <c r="D165" s="14"/>
-      <c r="E165" s="14"/>
-      <c r="F165" s="14"/>
-      <c r="G165" s="14"/>
-      <c r="H165" s="14"/>
-      <c r="I165" s="14"/>
-      <c r="J165" s="15"/>
-      <c r="K165" s="21"/>
-      <c r="L165" s="22"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="13"/>
+      <c r="C165" s="14"/>
+      <c r="D165" s="15"/>
+      <c r="E165" s="15"/>
+      <c r="F165" s="15"/>
+      <c r="G165" s="15"/>
+      <c r="H165" s="15"/>
+      <c r="I165" s="15"/>
+      <c r="J165" s="16"/>
+      <c r="K165" s="26"/>
+      <c r="L165" s="27"/>
     </row>
     <row r="166" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A166" s="11"/>
-      <c r="B166" s="12"/>
-      <c r="C166" s="13"/>
-      <c r="D166" s="14"/>
-      <c r="E166" s="14"/>
-      <c r="F166" s="14"/>
-      <c r="G166" s="14"/>
-      <c r="H166" s="14"/>
-      <c r="I166" s="14"/>
-      <c r="J166" s="15"/>
-      <c r="K166" s="21"/>
-      <c r="L166" s="22"/>
+      <c r="A166" s="12"/>
+      <c r="B166" s="13"/>
+      <c r="C166" s="14"/>
+      <c r="D166" s="15"/>
+      <c r="E166" s="15"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
+      <c r="H166" s="15"/>
+      <c r="I166" s="15"/>
+      <c r="J166" s="16"/>
+      <c r="K166" s="26"/>
+      <c r="L166" s="27"/>
     </row>
     <row r="167" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A167" s="11"/>
-      <c r="B167" s="12"/>
-      <c r="C167" s="13"/>
-      <c r="D167" s="14"/>
-      <c r="E167" s="14"/>
-      <c r="F167" s="14"/>
-      <c r="G167" s="14"/>
-      <c r="H167" s="14"/>
-      <c r="I167" s="14"/>
-      <c r="J167" s="15"/>
-      <c r="K167" s="21"/>
-      <c r="L167" s="22"/>
+      <c r="A167" s="12"/>
+      <c r="B167" s="13"/>
+      <c r="C167" s="14"/>
+      <c r="D167" s="15"/>
+      <c r="E167" s="15"/>
+      <c r="F167" s="15"/>
+      <c r="G167" s="15"/>
+      <c r="H167" s="15"/>
+      <c r="I167" s="15"/>
+      <c r="J167" s="16"/>
+      <c r="K167" s="26"/>
+      <c r="L167" s="27"/>
     </row>
     <row r="168" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A168" s="11"/>
-      <c r="B168" s="12"/>
-      <c r="C168" s="13"/>
-      <c r="D168" s="14"/>
-      <c r="E168" s="14"/>
-      <c r="F168" s="14"/>
-      <c r="G168" s="14"/>
-      <c r="H168" s="14"/>
-      <c r="I168" s="14"/>
-      <c r="J168" s="15"/>
-      <c r="K168" s="21"/>
-      <c r="L168" s="22"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="14"/>
+      <c r="D168" s="15"/>
+      <c r="E168" s="15"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
+      <c r="H168" s="15"/>
+      <c r="I168" s="15"/>
+      <c r="J168" s="16"/>
+      <c r="K168" s="26"/>
+      <c r="L168" s="27"/>
     </row>
     <row r="169" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A169" s="11"/>
-      <c r="B169" s="12"/>
-      <c r="C169" s="13"/>
-      <c r="D169" s="14"/>
-      <c r="E169" s="14"/>
-      <c r="F169" s="14"/>
-      <c r="G169" s="14"/>
-      <c r="H169" s="14"/>
-      <c r="I169" s="14"/>
-      <c r="J169" s="15"/>
-      <c r="K169" s="21"/>
-      <c r="L169" s="22"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="13"/>
+      <c r="C169" s="14"/>
+      <c r="D169" s="15"/>
+      <c r="E169" s="15"/>
+      <c r="F169" s="15"/>
+      <c r="G169" s="15"/>
+      <c r="H169" s="15"/>
+      <c r="I169" s="15"/>
+      <c r="J169" s="16"/>
+      <c r="K169" s="26"/>
+      <c r="L169" s="27"/>
     </row>
     <row r="170" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A170" s="11"/>
-      <c r="B170" s="12"/>
-      <c r="C170" s="13"/>
-      <c r="D170" s="14"/>
-      <c r="E170" s="14"/>
-      <c r="F170" s="14"/>
-      <c r="G170" s="14"/>
-      <c r="H170" s="14"/>
-      <c r="I170" s="14"/>
-      <c r="J170" s="15"/>
-      <c r="K170" s="21"/>
-      <c r="L170" s="22"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="13"/>
+      <c r="C170" s="14"/>
+      <c r="D170" s="15"/>
+      <c r="E170" s="15"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
+      <c r="H170" s="15"/>
+      <c r="I170" s="15"/>
+      <c r="J170" s="16"/>
+      <c r="K170" s="26"/>
+      <c r="L170" s="27"/>
     </row>
     <row r="171" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A171" s="11"/>
-      <c r="B171" s="12"/>
-      <c r="C171" s="13"/>
-      <c r="D171" s="14"/>
-      <c r="E171" s="14"/>
-      <c r="F171" s="14"/>
-      <c r="G171" s="14"/>
-      <c r="H171" s="14"/>
-      <c r="I171" s="14"/>
-      <c r="J171" s="15"/>
-      <c r="K171" s="21"/>
-      <c r="L171" s="22"/>
+      <c r="A171" s="12"/>
+      <c r="B171" s="13"/>
+      <c r="C171" s="14"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="15"/>
+      <c r="H171" s="15"/>
+      <c r="I171" s="15"/>
+      <c r="J171" s="16"/>
+      <c r="K171" s="26"/>
+      <c r="L171" s="27"/>
     </row>
     <row r="172" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A172" s="11"/>
-      <c r="B172" s="12"/>
-      <c r="C172" s="13"/>
-      <c r="D172" s="14"/>
-      <c r="E172" s="14"/>
-      <c r="F172" s="14"/>
-      <c r="G172" s="14"/>
-      <c r="H172" s="14"/>
-      <c r="I172" s="14"/>
-      <c r="J172" s="15"/>
-      <c r="K172" s="21"/>
-      <c r="L172" s="22"/>
+      <c r="A172" s="12"/>
+      <c r="B172" s="13"/>
+      <c r="C172" s="14"/>
+      <c r="D172" s="15"/>
+      <c r="E172" s="15"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
+      <c r="H172" s="15"/>
+      <c r="I172" s="15"/>
+      <c r="J172" s="16"/>
+      <c r="K172" s="26"/>
+      <c r="L172" s="27"/>
     </row>
     <row r="173" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A173" s="11"/>
-      <c r="B173" s="12"/>
-      <c r="C173" s="13"/>
-      <c r="D173" s="14"/>
-      <c r="E173" s="14"/>
-      <c r="F173" s="14"/>
-      <c r="G173" s="14"/>
-      <c r="H173" s="14"/>
-      <c r="I173" s="14"/>
-      <c r="J173" s="15"/>
-      <c r="K173" s="21"/>
-      <c r="L173" s="22"/>
+      <c r="A173" s="12"/>
+      <c r="B173" s="13"/>
+      <c r="C173" s="14"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="15"/>
+      <c r="G173" s="15"/>
+      <c r="H173" s="15"/>
+      <c r="I173" s="15"/>
+      <c r="J173" s="16"/>
+      <c r="K173" s="26"/>
+      <c r="L173" s="27"/>
     </row>
     <row r="174" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A174" s="11"/>
-      <c r="B174" s="12"/>
-      <c r="C174" s="13"/>
-      <c r="D174" s="14"/>
-      <c r="E174" s="14"/>
-      <c r="F174" s="14"/>
-      <c r="G174" s="14"/>
-      <c r="H174" s="14"/>
-      <c r="I174" s="14"/>
-      <c r="J174" s="15"/>
-      <c r="K174" s="21"/>
-      <c r="L174" s="22"/>
+      <c r="A174" s="12"/>
+      <c r="B174" s="13"/>
+      <c r="C174" s="14"/>
+      <c r="D174" s="15"/>
+      <c r="E174" s="15"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
+      <c r="H174" s="15"/>
+      <c r="I174" s="15"/>
+      <c r="J174" s="16"/>
+      <c r="K174" s="26"/>
+      <c r="L174" s="27"/>
     </row>
     <row r="175" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A175" s="11"/>
-      <c r="B175" s="12"/>
-      <c r="C175" s="13"/>
-      <c r="D175" s="14"/>
-      <c r="E175" s="14"/>
-      <c r="F175" s="14"/>
-      <c r="G175" s="14"/>
-      <c r="H175" s="14"/>
-      <c r="I175" s="14"/>
-      <c r="J175" s="15"/>
-      <c r="K175" s="21"/>
-      <c r="L175" s="22"/>
+      <c r="A175" s="12"/>
+      <c r="B175" s="13"/>
+      <c r="C175" s="14"/>
+      <c r="D175" s="15"/>
+      <c r="E175" s="15"/>
+      <c r="F175" s="15"/>
+      <c r="G175" s="15"/>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15"/>
+      <c r="J175" s="16"/>
+      <c r="K175" s="26"/>
+      <c r="L175" s="27"/>
     </row>
     <row r="176" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A176" s="11"/>
-      <c r="B176" s="12"/>
-      <c r="C176" s="13"/>
-      <c r="D176" s="14"/>
-      <c r="E176" s="14"/>
-      <c r="F176" s="14"/>
-      <c r="G176" s="14"/>
-      <c r="H176" s="14"/>
-      <c r="I176" s="14"/>
-      <c r="J176" s="15"/>
-      <c r="K176" s="21"/>
-      <c r="L176" s="22"/>
+      <c r="A176" s="12"/>
+      <c r="B176" s="13"/>
+      <c r="C176" s="14"/>
+      <c r="D176" s="15"/>
+      <c r="E176" s="15"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
+      <c r="H176" s="15"/>
+      <c r="I176" s="15"/>
+      <c r="J176" s="16"/>
+      <c r="K176" s="26"/>
+      <c r="L176" s="27"/>
     </row>
     <row r="177" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A177" s="11"/>
-      <c r="B177" s="12"/>
-      <c r="C177" s="13"/>
-      <c r="D177" s="14"/>
-      <c r="E177" s="14"/>
-      <c r="F177" s="14"/>
-      <c r="G177" s="14"/>
-      <c r="H177" s="14"/>
-      <c r="I177" s="14"/>
-      <c r="J177" s="15"/>
-      <c r="K177" s="21"/>
-      <c r="L177" s="22"/>
+      <c r="A177" s="12"/>
+      <c r="B177" s="13"/>
+      <c r="C177" s="14"/>
+      <c r="D177" s="15"/>
+      <c r="E177" s="15"/>
+      <c r="F177" s="15"/>
+      <c r="G177" s="15"/>
+      <c r="H177" s="15"/>
+      <c r="I177" s="15"/>
+      <c r="J177" s="16"/>
+      <c r="K177" s="26"/>
+      <c r="L177" s="27"/>
     </row>
     <row r="178" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A178" s="11"/>
-      <c r="B178" s="12"/>
-      <c r="C178" s="13"/>
-      <c r="D178" s="14"/>
-      <c r="E178" s="14"/>
-      <c r="F178" s="14"/>
-      <c r="G178" s="14"/>
-      <c r="H178" s="14"/>
-      <c r="I178" s="14"/>
-      <c r="J178" s="15"/>
-      <c r="K178" s="21"/>
-      <c r="L178" s="22"/>
+      <c r="A178" s="12"/>
+      <c r="B178" s="13"/>
+      <c r="C178" s="14"/>
+      <c r="D178" s="15"/>
+      <c r="E178" s="15"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
+      <c r="H178" s="15"/>
+      <c r="I178" s="15"/>
+      <c r="J178" s="16"/>
+      <c r="K178" s="26"/>
+      <c r="L178" s="27"/>
     </row>
     <row r="179" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A179" s="11"/>
-      <c r="B179" s="12"/>
-      <c r="C179" s="13"/>
-      <c r="D179" s="14"/>
-      <c r="E179" s="14"/>
-      <c r="F179" s="14"/>
-      <c r="G179" s="14"/>
-      <c r="H179" s="14"/>
-      <c r="I179" s="14"/>
-      <c r="J179" s="15"/>
-      <c r="K179" s="21"/>
-      <c r="L179" s="22"/>
+      <c r="A179" s="12"/>
+      <c r="B179" s="13"/>
+      <c r="C179" s="14"/>
+      <c r="D179" s="15"/>
+      <c r="E179" s="15"/>
+      <c r="F179" s="15"/>
+      <c r="G179" s="15"/>
+      <c r="H179" s="15"/>
+      <c r="I179" s="15"/>
+      <c r="J179" s="16"/>
+      <c r="K179" s="26"/>
+      <c r="L179" s="27"/>
     </row>
     <row r="180" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A180" s="11"/>
-      <c r="B180" s="12"/>
-      <c r="C180" s="13"/>
-      <c r="D180" s="14"/>
-      <c r="E180" s="14"/>
-      <c r="F180" s="14"/>
-      <c r="G180" s="14"/>
-      <c r="H180" s="14"/>
-      <c r="I180" s="14"/>
-      <c r="J180" s="15"/>
-      <c r="K180" s="21"/>
-      <c r="L180" s="22"/>
+      <c r="A180" s="12"/>
+      <c r="B180" s="13"/>
+      <c r="C180" s="14"/>
+      <c r="D180" s="15"/>
+      <c r="E180" s="15"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
+      <c r="H180" s="15"/>
+      <c r="I180" s="15"/>
+      <c r="J180" s="16"/>
+      <c r="K180" s="26"/>
+      <c r="L180" s="27"/>
     </row>
     <row r="181" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A181" s="11"/>
-      <c r="B181" s="12"/>
-      <c r="C181" s="13"/>
-      <c r="D181" s="14"/>
-      <c r="E181" s="14"/>
-      <c r="F181" s="14"/>
-      <c r="G181" s="14"/>
-      <c r="H181" s="14"/>
-      <c r="I181" s="14"/>
-      <c r="J181" s="15"/>
-      <c r="K181" s="21"/>
-      <c r="L181" s="22"/>
+      <c r="A181" s="12"/>
+      <c r="B181" s="13"/>
+      <c r="C181" s="14"/>
+      <c r="D181" s="15"/>
+      <c r="E181" s="15"/>
+      <c r="F181" s="15"/>
+      <c r="G181" s="15"/>
+      <c r="H181" s="15"/>
+      <c r="I181" s="15"/>
+      <c r="J181" s="16"/>
+      <c r="K181" s="26"/>
+      <c r="L181" s="27"/>
     </row>
     <row r="182" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A182" s="11"/>
-      <c r="B182" s="12"/>
-      <c r="C182" s="13"/>
-      <c r="D182" s="14"/>
-      <c r="E182" s="14"/>
-      <c r="F182" s="14"/>
-      <c r="G182" s="14"/>
-      <c r="H182" s="14"/>
-      <c r="I182" s="14"/>
-      <c r="J182" s="15"/>
-      <c r="K182" s="21"/>
-      <c r="L182" s="22"/>
+      <c r="A182" s="12"/>
+      <c r="B182" s="13"/>
+      <c r="C182" s="14"/>
+      <c r="D182" s="15"/>
+      <c r="E182" s="15"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
+      <c r="H182" s="15"/>
+      <c r="I182" s="15"/>
+      <c r="J182" s="16"/>
+      <c r="K182" s="26"/>
+      <c r="L182" s="27"/>
     </row>
     <row r="183" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A183" s="11"/>
-      <c r="B183" s="12"/>
-      <c r="C183" s="13"/>
-      <c r="D183" s="14"/>
-      <c r="E183" s="14"/>
-      <c r="F183" s="14"/>
-      <c r="G183" s="14"/>
-      <c r="H183" s="14"/>
-      <c r="I183" s="14"/>
-      <c r="J183" s="15"/>
-      <c r="K183" s="21"/>
-      <c r="L183" s="22"/>
+      <c r="A183" s="12"/>
+      <c r="B183" s="13"/>
+      <c r="C183" s="14"/>
+      <c r="D183" s="15"/>
+      <c r="E183" s="15"/>
+      <c r="F183" s="15"/>
+      <c r="G183" s="15"/>
+      <c r="H183" s="15"/>
+      <c r="I183" s="15"/>
+      <c r="J183" s="16"/>
+      <c r="K183" s="26"/>
+      <c r="L183" s="27"/>
     </row>
     <row r="184" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A184" s="11"/>
-      <c r="B184" s="12"/>
-      <c r="C184" s="13"/>
-      <c r="D184" s="14"/>
-      <c r="E184" s="14"/>
-      <c r="F184" s="14"/>
-      <c r="G184" s="14"/>
-      <c r="H184" s="14"/>
-      <c r="I184" s="14"/>
-      <c r="J184" s="15"/>
-      <c r="K184" s="21"/>
-      <c r="L184" s="22"/>
+      <c r="A184" s="12"/>
+      <c r="B184" s="13"/>
+      <c r="C184" s="14"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
+      <c r="H184" s="15"/>
+      <c r="I184" s="15"/>
+      <c r="J184" s="16"/>
+      <c r="K184" s="26"/>
+      <c r="L184" s="27"/>
     </row>
     <row r="185" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A185" s="11"/>
-      <c r="B185" s="12"/>
-      <c r="C185" s="13"/>
-      <c r="D185" s="14"/>
-      <c r="E185" s="14"/>
-      <c r="F185" s="14"/>
-      <c r="G185" s="14"/>
-      <c r="H185" s="14"/>
-      <c r="I185" s="14"/>
-      <c r="J185" s="15"/>
-      <c r="K185" s="21"/>
-      <c r="L185" s="22"/>
+      <c r="A185" s="12"/>
+      <c r="B185" s="13"/>
+      <c r="C185" s="14"/>
+      <c r="D185" s="15"/>
+      <c r="E185" s="15"/>
+      <c r="F185" s="15"/>
+      <c r="G185" s="15"/>
+      <c r="H185" s="15"/>
+      <c r="I185" s="15"/>
+      <c r="J185" s="16"/>
+      <c r="K185" s="26"/>
+      <c r="L185" s="27"/>
     </row>
     <row r="186" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A186" s="11"/>
-      <c r="B186" s="12"/>
-      <c r="C186" s="13"/>
-      <c r="D186" s="14"/>
-      <c r="E186" s="14"/>
-      <c r="F186" s="14"/>
-      <c r="G186" s="14"/>
-      <c r="H186" s="14"/>
-      <c r="I186" s="14"/>
-      <c r="J186" s="15"/>
-      <c r="K186" s="21"/>
-      <c r="L186" s="22"/>
+      <c r="A186" s="12"/>
+      <c r="B186" s="13"/>
+      <c r="C186" s="14"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
+      <c r="H186" s="15"/>
+      <c r="I186" s="15"/>
+      <c r="J186" s="16"/>
+      <c r="K186" s="26"/>
+      <c r="L186" s="27"/>
     </row>
     <row r="187" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A187" s="11"/>
-      <c r="B187" s="12"/>
-      <c r="C187" s="13"/>
-      <c r="D187" s="14"/>
-      <c r="E187" s="14"/>
-      <c r="F187" s="14"/>
-      <c r="G187" s="14"/>
-      <c r="H187" s="14"/>
-      <c r="I187" s="14"/>
-      <c r="J187" s="15"/>
-      <c r="K187" s="21"/>
-      <c r="L187" s="22"/>
+      <c r="A187" s="12"/>
+      <c r="B187" s="13"/>
+      <c r="C187" s="14"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="15"/>
+      <c r="F187" s="15"/>
+      <c r="G187" s="15"/>
+      <c r="H187" s="15"/>
+      <c r="I187" s="15"/>
+      <c r="J187" s="16"/>
+      <c r="K187" s="26"/>
+      <c r="L187" s="27"/>
     </row>
     <row r="188" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A188" s="11"/>
-      <c r="B188" s="12"/>
-      <c r="C188" s="13"/>
-      <c r="D188" s="14"/>
-      <c r="E188" s="14"/>
-      <c r="F188" s="14"/>
-      <c r="G188" s="14"/>
-      <c r="H188" s="14"/>
-      <c r="I188" s="14"/>
-      <c r="J188" s="15"/>
-      <c r="K188" s="21"/>
-      <c r="L188" s="22"/>
+      <c r="A188" s="12"/>
+      <c r="B188" s="13"/>
+      <c r="C188" s="14"/>
+      <c r="D188" s="15"/>
+      <c r="E188" s="15"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
+      <c r="H188" s="15"/>
+      <c r="I188" s="15"/>
+      <c r="J188" s="16"/>
+      <c r="K188" s="26"/>
+      <c r="L188" s="27"/>
     </row>
     <row r="189" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A189" s="11"/>
-      <c r="B189" s="12"/>
-      <c r="C189" s="13"/>
-      <c r="D189" s="14"/>
-      <c r="E189" s="14"/>
-      <c r="F189" s="14"/>
-      <c r="G189" s="14"/>
-      <c r="H189" s="14"/>
-      <c r="I189" s="14"/>
-      <c r="J189" s="15"/>
-      <c r="K189" s="21"/>
-      <c r="L189" s="22"/>
+      <c r="A189" s="12"/>
+      <c r="B189" s="13"/>
+      <c r="C189" s="14"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="15"/>
+      <c r="F189" s="15"/>
+      <c r="G189" s="15"/>
+      <c r="H189" s="15"/>
+      <c r="I189" s="15"/>
+      <c r="J189" s="16"/>
+      <c r="K189" s="26"/>
+      <c r="L189" s="27"/>
     </row>
     <row r="190" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A190" s="11"/>
-      <c r="B190" s="12"/>
-      <c r="C190" s="13"/>
-      <c r="D190" s="14"/>
-      <c r="E190" s="14"/>
-      <c r="F190" s="14"/>
-      <c r="G190" s="14"/>
-      <c r="H190" s="14"/>
-      <c r="I190" s="14"/>
-      <c r="J190" s="15"/>
-      <c r="K190" s="21"/>
-      <c r="L190" s="22"/>
+      <c r="A190" s="12"/>
+      <c r="B190" s="13"/>
+      <c r="C190" s="14"/>
+      <c r="D190" s="15"/>
+      <c r="E190" s="15"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
+      <c r="H190" s="15"/>
+      <c r="I190" s="15"/>
+      <c r="J190" s="16"/>
+      <c r="K190" s="26"/>
+      <c r="L190" s="27"/>
     </row>
     <row r="191" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A191" s="11"/>
-      <c r="B191" s="12"/>
-      <c r="C191" s="13"/>
-      <c r="D191" s="14"/>
-      <c r="E191" s="14"/>
-      <c r="F191" s="14"/>
-      <c r="G191" s="14"/>
-      <c r="H191" s="14"/>
-      <c r="I191" s="14"/>
-      <c r="J191" s="15"/>
-      <c r="K191" s="21"/>
-      <c r="L191" s="22"/>
+      <c r="A191" s="12"/>
+      <c r="B191" s="13"/>
+      <c r="C191" s="14"/>
+      <c r="D191" s="15"/>
+      <c r="E191" s="15"/>
+      <c r="F191" s="15"/>
+      <c r="G191" s="15"/>
+      <c r="H191" s="15"/>
+      <c r="I191" s="15"/>
+      <c r="J191" s="16"/>
+      <c r="K191" s="26"/>
+      <c r="L191" s="27"/>
     </row>
     <row r="192" s="2" customFormat="1" ht="19" customHeight="1" spans="1:12">
-      <c r="A192" s="11"/>
-      <c r="B192" s="12"/>
-      <c r="C192" s="13"/>
-      <c r="D192" s="14"/>
-      <c r="E192" s="14"/>
-      <c r="F192" s="14"/>
-      <c r="G192" s="14"/>
-      <c r="H192" s="14"/>
-      <c r="I192" s="14"/>
-      <c r="J192" s="15"/>
-      <c r="K192" s="21"/>
-      <c r="L192" s="22"/>
+      <c r="A192" s="12"/>
+      <c r="B192" s="13"/>
+      <c r="C192" s="14"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="15"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
+      <c r="H192" s="15"/>
+      <c r="I192" s="15"/>
+      <c r="J192" s="16"/>
+      <c r="K192" s="26"/>
+      <c r="L192" s="27"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0"/>
